--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Switzerland Challenge League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Switzerland Challenge League_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="96">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -244,18 +244,18 @@
     <t>Stade Lausanne-Ouchy</t>
   </si>
   <si>
+    <t>Stade Nyonnais</t>
+  </si>
+  <si>
     <t>Étoile Carouge</t>
   </si>
   <si>
+    <t>Wil</t>
+  </si>
+  <si>
     <t>Thun</t>
   </si>
   <si>
-    <t>Wil</t>
-  </si>
-  <si>
-    <t>Stade Nyonnais</t>
-  </si>
-  <si>
     <t>['9', '15', '86']</t>
   </si>
   <si>
@@ -271,6 +271,15 @@
     <t>[]</t>
   </si>
   <si>
+    <t>['72', '87']</t>
+  </si>
+  <si>
+    <t>['13', '38', '40']</t>
+  </si>
+  <si>
+    <t>['13', '16']</t>
+  </si>
+  <si>
     <t>['25', '90+2']</t>
   </si>
   <si>
@@ -281,6 +290,18 @@
   </si>
   <si>
     <t>['9']</t>
+  </si>
+  <si>
+    <t>['28']</t>
+  </si>
+  <si>
+    <t>['4']</t>
+  </si>
+  <si>
+    <t>['63']</t>
+  </si>
+  <si>
+    <t>['55', '61']</t>
   </si>
 </sst>
 </file>
@@ -642,7 +663,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP6"/>
+  <dimension ref="A1:BP10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -901,7 +922,7 @@
         <v>80</v>
       </c>
       <c r="P2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="Q2">
         <v>2.75</v>
@@ -1083,7 +1104,7 @@
         <v>71</v>
       </c>
       <c r="H3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -1107,7 +1128,7 @@
         <v>81</v>
       </c>
       <c r="P3" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="Q3">
         <v>2.63</v>
@@ -1289,7 +1310,7 @@
         <v>72</v>
       </c>
       <c r="H4" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -1313,7 +1334,7 @@
         <v>82</v>
       </c>
       <c r="P4" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="Q4">
         <v>3.75</v>
@@ -1519,7 +1540,7 @@
         <v>83</v>
       </c>
       <c r="P5" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="Q5">
         <v>3.6</v>
@@ -1701,7 +1722,7 @@
         <v>74</v>
       </c>
       <c r="H6" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -1882,6 +1903,830 @@
       </c>
       <c r="BP6">
         <v>1.64</v>
+      </c>
+    </row>
+    <row r="7" spans="1:68">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>7463319</v>
+      </c>
+      <c r="C7" t="s">
+        <v>68</v>
+      </c>
+      <c r="D7" t="s">
+        <v>69</v>
+      </c>
+      <c r="E7" s="2">
+        <v>45499.60416666666</v>
+      </c>
+      <c r="F7">
+        <v>2</v>
+      </c>
+      <c r="G7" t="s">
+        <v>75</v>
+      </c>
+      <c r="H7" t="s">
+        <v>71</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>1</v>
+      </c>
+      <c r="N7">
+        <v>1</v>
+      </c>
+      <c r="O7" t="s">
+        <v>84</v>
+      </c>
+      <c r="P7" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q7">
+        <v>2.63</v>
+      </c>
+      <c r="R7">
+        <v>2.3</v>
+      </c>
+      <c r="S7">
+        <v>3.4</v>
+      </c>
+      <c r="T7">
+        <v>1.3</v>
+      </c>
+      <c r="U7">
+        <v>3.4</v>
+      </c>
+      <c r="V7">
+        <v>2.38</v>
+      </c>
+      <c r="W7">
+        <v>1.53</v>
+      </c>
+      <c r="X7">
+        <v>5</v>
+      </c>
+      <c r="Y7">
+        <v>1.14</v>
+      </c>
+      <c r="Z7">
+        <v>2.15</v>
+      </c>
+      <c r="AA7">
+        <v>3.6</v>
+      </c>
+      <c r="AB7">
+        <v>3</v>
+      </c>
+      <c r="AC7">
+        <v>1.03</v>
+      </c>
+      <c r="AD7">
+        <v>9</v>
+      </c>
+      <c r="AE7">
+        <v>1.16</v>
+      </c>
+      <c r="AF7">
+        <v>4.25</v>
+      </c>
+      <c r="AG7">
+        <v>1.62</v>
+      </c>
+      <c r="AH7">
+        <v>2.25</v>
+      </c>
+      <c r="AI7">
+        <v>1.53</v>
+      </c>
+      <c r="AJ7">
+        <v>2.38</v>
+      </c>
+      <c r="AK7">
+        <v>1.19</v>
+      </c>
+      <c r="AL7">
+        <v>1.21</v>
+      </c>
+      <c r="AM7">
+        <v>2.02</v>
+      </c>
+      <c r="AN7">
+        <v>0</v>
+      </c>
+      <c r="AO7">
+        <v>0</v>
+      </c>
+      <c r="AP7">
+        <v>0</v>
+      </c>
+      <c r="AQ7">
+        <v>3</v>
+      </c>
+      <c r="AR7">
+        <v>0</v>
+      </c>
+      <c r="AS7">
+        <v>0</v>
+      </c>
+      <c r="AT7">
+        <v>0</v>
+      </c>
+      <c r="AU7">
+        <v>5</v>
+      </c>
+      <c r="AV7">
+        <v>4</v>
+      </c>
+      <c r="AW7">
+        <v>9</v>
+      </c>
+      <c r="AX7">
+        <v>6</v>
+      </c>
+      <c r="AY7">
+        <v>14</v>
+      </c>
+      <c r="AZ7">
+        <v>10</v>
+      </c>
+      <c r="BA7">
+        <v>7</v>
+      </c>
+      <c r="BB7">
+        <v>5</v>
+      </c>
+      <c r="BC7">
+        <v>12</v>
+      </c>
+      <c r="BD7">
+        <v>1.65</v>
+      </c>
+      <c r="BE7">
+        <v>8.4</v>
+      </c>
+      <c r="BF7">
+        <v>2.55</v>
+      </c>
+      <c r="BG7">
+        <v>1.21</v>
+      </c>
+      <c r="BH7">
+        <v>3.74</v>
+      </c>
+      <c r="BI7">
+        <v>1.41</v>
+      </c>
+      <c r="BJ7">
+        <v>2.6</v>
+      </c>
+      <c r="BK7">
+        <v>2.2</v>
+      </c>
+      <c r="BL7">
+        <v>2.01</v>
+      </c>
+      <c r="BM7">
+        <v>2.24</v>
+      </c>
+      <c r="BN7">
+        <v>1.63</v>
+      </c>
+      <c r="BO7">
+        <v>2.91</v>
+      </c>
+      <c r="BP7">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:68">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>7463320</v>
+      </c>
+      <c r="C8" t="s">
+        <v>68</v>
+      </c>
+      <c r="D8" t="s">
+        <v>69</v>
+      </c>
+      <c r="E8" s="2">
+        <v>45499.60416666666</v>
+      </c>
+      <c r="F8">
+        <v>2</v>
+      </c>
+      <c r="G8" t="s">
+        <v>76</v>
+      </c>
+      <c r="H8" t="s">
+        <v>73</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>1</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>2</v>
+      </c>
+      <c r="M8">
+        <v>1</v>
+      </c>
+      <c r="N8">
+        <v>3</v>
+      </c>
+      <c r="O8" t="s">
+        <v>85</v>
+      </c>
+      <c r="P8" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q8">
+        <v>2.63</v>
+      </c>
+      <c r="R8">
+        <v>2.2</v>
+      </c>
+      <c r="S8">
+        <v>3.6</v>
+      </c>
+      <c r="T8">
+        <v>1.34</v>
+      </c>
+      <c r="U8">
+        <v>3.11</v>
+      </c>
+      <c r="V8">
+        <v>2.75</v>
+      </c>
+      <c r="W8">
+        <v>1.42</v>
+      </c>
+      <c r="X8">
+        <v>6.65</v>
+      </c>
+      <c r="Y8">
+        <v>1.09</v>
+      </c>
+      <c r="Z8">
+        <v>2.05</v>
+      </c>
+      <c r="AA8">
+        <v>3.6</v>
+      </c>
+      <c r="AB8">
+        <v>3.1</v>
+      </c>
+      <c r="AC8">
+        <v>1.01</v>
+      </c>
+      <c r="AD8">
+        <v>9.6</v>
+      </c>
+      <c r="AE8">
+        <v>1.24</v>
+      </c>
+      <c r="AF8">
+        <v>3.48</v>
+      </c>
+      <c r="AG8">
+        <v>1.8</v>
+      </c>
+      <c r="AH8">
+        <v>2</v>
+      </c>
+      <c r="AI8">
+        <v>1.73</v>
+      </c>
+      <c r="AJ8">
+        <v>2</v>
+      </c>
+      <c r="AK8">
+        <v>1.32</v>
+      </c>
+      <c r="AL8">
+        <v>1.26</v>
+      </c>
+      <c r="AM8">
+        <v>1.63</v>
+      </c>
+      <c r="AN8">
+        <v>0</v>
+      </c>
+      <c r="AO8">
+        <v>0</v>
+      </c>
+      <c r="AP8">
+        <v>3</v>
+      </c>
+      <c r="AQ8">
+        <v>0</v>
+      </c>
+      <c r="AR8">
+        <v>0</v>
+      </c>
+      <c r="AS8">
+        <v>0</v>
+      </c>
+      <c r="AT8">
+        <v>0</v>
+      </c>
+      <c r="AU8">
+        <v>2</v>
+      </c>
+      <c r="AV8">
+        <v>0</v>
+      </c>
+      <c r="AW8">
+        <v>5</v>
+      </c>
+      <c r="AX8">
+        <v>6</v>
+      </c>
+      <c r="AY8">
+        <v>7</v>
+      </c>
+      <c r="AZ8">
+        <v>6</v>
+      </c>
+      <c r="BA8">
+        <v>7</v>
+      </c>
+      <c r="BB8">
+        <v>1</v>
+      </c>
+      <c r="BC8">
+        <v>8</v>
+      </c>
+      <c r="BD8">
+        <v>1.61</v>
+      </c>
+      <c r="BE8">
+        <v>6.7</v>
+      </c>
+      <c r="BF8">
+        <v>2.88</v>
+      </c>
+      <c r="BG8">
+        <v>1.16</v>
+      </c>
+      <c r="BH8">
+        <v>4.6</v>
+      </c>
+      <c r="BI8">
+        <v>1.26</v>
+      </c>
+      <c r="BJ8">
+        <v>3.34</v>
+      </c>
+      <c r="BK8">
+        <v>2</v>
+      </c>
+      <c r="BL8">
+        <v>2.41</v>
+      </c>
+      <c r="BM8">
+        <v>1.88</v>
+      </c>
+      <c r="BN8">
+        <v>1.92</v>
+      </c>
+      <c r="BO8">
+        <v>2.34</v>
+      </c>
+      <c r="BP8">
+        <v>1.56</v>
+      </c>
+    </row>
+    <row r="9" spans="1:68">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>7463321</v>
+      </c>
+      <c r="C9" t="s">
+        <v>68</v>
+      </c>
+      <c r="D9" t="s">
+        <v>69</v>
+      </c>
+      <c r="E9" s="2">
+        <v>45499.63541666666</v>
+      </c>
+      <c r="F9">
+        <v>2</v>
+      </c>
+      <c r="G9" t="s">
+        <v>77</v>
+      </c>
+      <c r="H9" t="s">
+        <v>70</v>
+      </c>
+      <c r="I9">
+        <v>3</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>3</v>
+      </c>
+      <c r="M9">
+        <v>1</v>
+      </c>
+      <c r="N9">
+        <v>4</v>
+      </c>
+      <c r="O9" t="s">
+        <v>86</v>
+      </c>
+      <c r="P9" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q9">
+        <v>3</v>
+      </c>
+      <c r="R9">
+        <v>2.25</v>
+      </c>
+      <c r="S9">
+        <v>3</v>
+      </c>
+      <c r="T9">
+        <v>1.33</v>
+      </c>
+      <c r="U9">
+        <v>3.25</v>
+      </c>
+      <c r="V9">
+        <v>2.63</v>
+      </c>
+      <c r="W9">
+        <v>1.44</v>
+      </c>
+      <c r="X9">
+        <v>6</v>
+      </c>
+      <c r="Y9">
+        <v>1.11</v>
+      </c>
+      <c r="Z9">
+        <v>2.55</v>
+      </c>
+      <c r="AA9">
+        <v>3.5</v>
+      </c>
+      <c r="AB9">
+        <v>2.6</v>
+      </c>
+      <c r="AC9">
+        <v>1.04</v>
+      </c>
+      <c r="AD9">
+        <v>8.5</v>
+      </c>
+      <c r="AE9">
+        <v>1.22</v>
+      </c>
+      <c r="AF9">
+        <v>3.7</v>
+      </c>
+      <c r="AG9">
+        <v>1.7</v>
+      </c>
+      <c r="AH9">
+        <v>2.1</v>
+      </c>
+      <c r="AI9">
+        <v>1.62</v>
+      </c>
+      <c r="AJ9">
+        <v>2.2</v>
+      </c>
+      <c r="AK9">
+        <v>1.46</v>
+      </c>
+      <c r="AL9">
+        <v>1.26</v>
+      </c>
+      <c r="AM9">
+        <v>1.47</v>
+      </c>
+      <c r="AN9">
+        <v>0</v>
+      </c>
+      <c r="AO9">
+        <v>0</v>
+      </c>
+      <c r="AP9">
+        <v>3</v>
+      </c>
+      <c r="AQ9">
+        <v>0</v>
+      </c>
+      <c r="AR9">
+        <v>0</v>
+      </c>
+      <c r="AS9">
+        <v>0</v>
+      </c>
+      <c r="AT9">
+        <v>0</v>
+      </c>
+      <c r="AU9">
+        <v>6</v>
+      </c>
+      <c r="AV9">
+        <v>6</v>
+      </c>
+      <c r="AW9">
+        <v>4</v>
+      </c>
+      <c r="AX9">
+        <v>5</v>
+      </c>
+      <c r="AY9">
+        <v>10</v>
+      </c>
+      <c r="AZ9">
+        <v>11</v>
+      </c>
+      <c r="BA9">
+        <v>0</v>
+      </c>
+      <c r="BB9">
+        <v>8</v>
+      </c>
+      <c r="BC9">
+        <v>8</v>
+      </c>
+      <c r="BD9">
+        <v>1.95</v>
+      </c>
+      <c r="BE9">
+        <v>6.4</v>
+      </c>
+      <c r="BF9">
+        <v>2.23</v>
+      </c>
+      <c r="BG9">
+        <v>1.2</v>
+      </c>
+      <c r="BH9">
+        <v>4.1</v>
+      </c>
+      <c r="BI9">
+        <v>1.33</v>
+      </c>
+      <c r="BJ9">
+        <v>2.93</v>
+      </c>
+      <c r="BK9">
+        <v>2</v>
+      </c>
+      <c r="BL9">
+        <v>2.17</v>
+      </c>
+      <c r="BM9">
+        <v>2.04</v>
+      </c>
+      <c r="BN9">
+        <v>1.74</v>
+      </c>
+      <c r="BO9">
+        <v>2.57</v>
+      </c>
+      <c r="BP9">
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:68">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>7463322</v>
+      </c>
+      <c r="C10" t="s">
+        <v>68</v>
+      </c>
+      <c r="D10" t="s">
+        <v>69</v>
+      </c>
+      <c r="E10" s="2">
+        <v>45499.63541666666</v>
+      </c>
+      <c r="F10">
+        <v>2</v>
+      </c>
+      <c r="G10" t="s">
+        <v>78</v>
+      </c>
+      <c r="H10" t="s">
+        <v>72</v>
+      </c>
+      <c r="I10">
+        <v>2</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>2</v>
+      </c>
+      <c r="M10">
+        <v>2</v>
+      </c>
+      <c r="N10">
+        <v>4</v>
+      </c>
+      <c r="O10" t="s">
+        <v>87</v>
+      </c>
+      <c r="P10" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q10">
+        <v>2.3</v>
+      </c>
+      <c r="R10">
+        <v>2.38</v>
+      </c>
+      <c r="S10">
+        <v>4</v>
+      </c>
+      <c r="T10">
+        <v>1.27</v>
+      </c>
+      <c r="U10">
+        <v>3.54</v>
+      </c>
+      <c r="V10">
+        <v>2.27</v>
+      </c>
+      <c r="W10">
+        <v>1.59</v>
+      </c>
+      <c r="X10">
+        <v>5.15</v>
+      </c>
+      <c r="Y10">
+        <v>1.14</v>
+      </c>
+      <c r="Z10">
+        <v>1.8</v>
+      </c>
+      <c r="AA10">
+        <v>3.8</v>
+      </c>
+      <c r="AB10">
+        <v>3.9</v>
+      </c>
+      <c r="AC10">
+        <v>1.02</v>
+      </c>
+      <c r="AD10">
+        <v>12</v>
+      </c>
+      <c r="AE10">
+        <v>1.14</v>
+      </c>
+      <c r="AF10">
+        <v>4.65</v>
+      </c>
+      <c r="AG10">
+        <v>1.57</v>
+      </c>
+      <c r="AH10">
+        <v>2.35</v>
+      </c>
+      <c r="AI10">
+        <v>1.53</v>
+      </c>
+      <c r="AJ10">
+        <v>2.38</v>
+      </c>
+      <c r="AK10">
+        <v>1.19</v>
+      </c>
+      <c r="AL10">
+        <v>1.21</v>
+      </c>
+      <c r="AM10">
+        <v>2.02</v>
+      </c>
+      <c r="AN10">
+        <v>0</v>
+      </c>
+      <c r="AO10">
+        <v>0</v>
+      </c>
+      <c r="AP10">
+        <v>1</v>
+      </c>
+      <c r="AQ10">
+        <v>1</v>
+      </c>
+      <c r="AR10">
+        <v>0</v>
+      </c>
+      <c r="AS10">
+        <v>0</v>
+      </c>
+      <c r="AT10">
+        <v>0</v>
+      </c>
+      <c r="AU10">
+        <v>4</v>
+      </c>
+      <c r="AV10">
+        <v>4</v>
+      </c>
+      <c r="AW10">
+        <v>14</v>
+      </c>
+      <c r="AX10">
+        <v>4</v>
+      </c>
+      <c r="AY10">
+        <v>18</v>
+      </c>
+      <c r="AZ10">
+        <v>8</v>
+      </c>
+      <c r="BA10">
+        <v>3</v>
+      </c>
+      <c r="BB10">
+        <v>4</v>
+      </c>
+      <c r="BC10">
+        <v>7</v>
+      </c>
+      <c r="BD10">
+        <v>1.53</v>
+      </c>
+      <c r="BE10">
+        <v>8.5</v>
+      </c>
+      <c r="BF10">
+        <v>2.88</v>
+      </c>
+      <c r="BG10">
+        <v>1.26</v>
+      </c>
+      <c r="BH10">
+        <v>3.5</v>
+      </c>
+      <c r="BI10">
+        <v>1.33</v>
+      </c>
+      <c r="BJ10">
+        <v>2.93</v>
+      </c>
+      <c r="BK10">
+        <v>2.38</v>
+      </c>
+      <c r="BL10">
+        <v>2.24</v>
+      </c>
+      <c r="BM10">
+        <v>2.01</v>
+      </c>
+      <c r="BN10">
+        <v>1.79</v>
+      </c>
+      <c r="BO10">
+        <v>2.54</v>
+      </c>
+      <c r="BP10">
+        <v>1.43</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Switzerland Challenge League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Switzerland Challenge League_20242025.xlsx
@@ -2045,22 +2045,22 @@
         <v>0</v>
       </c>
       <c r="AU7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AV7">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AW7">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AX7">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AY7">
         <v>14</v>
       </c>
       <c r="AZ7">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="BA7">
         <v>7</v>
@@ -2251,22 +2251,22 @@
         <v>0</v>
       </c>
       <c r="AU8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AV8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AW8">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AX8">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AY8">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="AZ8">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="BA8">
         <v>7</v>
@@ -2460,19 +2460,19 @@
         <v>6</v>
       </c>
       <c r="AV9">
+        <v>7</v>
+      </c>
+      <c r="AW9">
         <v>6</v>
       </c>
-      <c r="AW9">
-        <v>4</v>
-      </c>
       <c r="AX9">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="AY9">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AZ9">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="BA9">
         <v>0</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Switzerland Challenge League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Switzerland Challenge League_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="97">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -278,6 +278,9 @@
   </si>
   <si>
     <t>['13', '16']</t>
+  </si>
+  <si>
+    <t>['53', '81']</t>
   </si>
   <si>
     <t>['25', '90+2']</t>
@@ -663,7 +666,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP10"/>
+  <dimension ref="A1:BP11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -922,7 +925,7 @@
         <v>80</v>
       </c>
       <c r="P2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="Q2">
         <v>2.75</v>
@@ -1128,7 +1131,7 @@
         <v>81</v>
       </c>
       <c r="P3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="Q3">
         <v>2.63</v>
@@ -1334,7 +1337,7 @@
         <v>82</v>
       </c>
       <c r="P4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="Q4">
         <v>3.75</v>
@@ -1540,7 +1543,7 @@
         <v>83</v>
       </c>
       <c r="P5" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="Q5">
         <v>3.6</v>
@@ -1952,7 +1955,7 @@
         <v>84</v>
       </c>
       <c r="P7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="Q7">
         <v>2.63</v>
@@ -2158,7 +2161,7 @@
         <v>85</v>
       </c>
       <c r="P8" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="Q8">
         <v>2.63</v>
@@ -2364,7 +2367,7 @@
         <v>86</v>
       </c>
       <c r="P9" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="Q9">
         <v>3</v>
@@ -2570,7 +2573,7 @@
         <v>87</v>
       </c>
       <c r="P10" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="Q10">
         <v>2.3</v>
@@ -2727,6 +2730,212 @@
       </c>
       <c r="BP10">
         <v>1.43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:68">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>7463323</v>
+      </c>
+      <c r="C11" t="s">
+        <v>68</v>
+      </c>
+      <c r="D11" t="s">
+        <v>69</v>
+      </c>
+      <c r="E11" s="2">
+        <v>45501.47916666666</v>
+      </c>
+      <c r="F11">
+        <v>2</v>
+      </c>
+      <c r="G11" t="s">
+        <v>79</v>
+      </c>
+      <c r="H11" t="s">
+        <v>74</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>2</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>2</v>
+      </c>
+      <c r="O11" t="s">
+        <v>88</v>
+      </c>
+      <c r="P11" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q11">
+        <v>2</v>
+      </c>
+      <c r="R11">
+        <v>2.6</v>
+      </c>
+      <c r="S11">
+        <v>4.5</v>
+      </c>
+      <c r="T11">
+        <v>1.22</v>
+      </c>
+      <c r="U11">
+        <v>3.98</v>
+      </c>
+      <c r="V11">
+        <v>2.08</v>
+      </c>
+      <c r="W11">
+        <v>1.7</v>
+      </c>
+      <c r="X11">
+        <v>4.45</v>
+      </c>
+      <c r="Y11">
+        <v>1.18</v>
+      </c>
+      <c r="Z11">
+        <v>1.55</v>
+      </c>
+      <c r="AA11">
+        <v>3.75</v>
+      </c>
+      <c r="AB11">
+        <v>4.75</v>
+      </c>
+      <c r="AC11">
+        <v>1.01</v>
+      </c>
+      <c r="AD11">
+        <v>11</v>
+      </c>
+      <c r="AE11">
+        <v>1.1</v>
+      </c>
+      <c r="AF11">
+        <v>5.55</v>
+      </c>
+      <c r="AG11">
+        <v>1.4</v>
+      </c>
+      <c r="AH11">
+        <v>2.75</v>
+      </c>
+      <c r="AI11">
+        <v>1.53</v>
+      </c>
+      <c r="AJ11">
+        <v>2.38</v>
+      </c>
+      <c r="AK11">
+        <v>1.16</v>
+      </c>
+      <c r="AL11">
+        <v>1.17</v>
+      </c>
+      <c r="AM11">
+        <v>2.2</v>
+      </c>
+      <c r="AN11">
+        <v>0</v>
+      </c>
+      <c r="AO11">
+        <v>0</v>
+      </c>
+      <c r="AP11">
+        <v>3</v>
+      </c>
+      <c r="AQ11">
+        <v>0</v>
+      </c>
+      <c r="AR11">
+        <v>0</v>
+      </c>
+      <c r="AS11">
+        <v>0</v>
+      </c>
+      <c r="AT11">
+        <v>0</v>
+      </c>
+      <c r="AU11">
+        <v>7</v>
+      </c>
+      <c r="AV11">
+        <v>3</v>
+      </c>
+      <c r="AW11">
+        <v>9</v>
+      </c>
+      <c r="AX11">
+        <v>11</v>
+      </c>
+      <c r="AY11">
+        <v>16</v>
+      </c>
+      <c r="AZ11">
+        <v>14</v>
+      </c>
+      <c r="BA11">
+        <v>2</v>
+      </c>
+      <c r="BB11">
+        <v>2</v>
+      </c>
+      <c r="BC11">
+        <v>4</v>
+      </c>
+      <c r="BD11">
+        <v>1.32</v>
+      </c>
+      <c r="BE11">
+        <v>7.7</v>
+      </c>
+      <c r="BF11">
+        <v>4.33</v>
+      </c>
+      <c r="BG11">
+        <v>1.15</v>
+      </c>
+      <c r="BH11">
+        <v>4.8</v>
+      </c>
+      <c r="BI11">
+        <v>1.26</v>
+      </c>
+      <c r="BJ11">
+        <v>3.34</v>
+      </c>
+      <c r="BK11">
+        <v>2</v>
+      </c>
+      <c r="BL11">
+        <v>2.45</v>
+      </c>
+      <c r="BM11">
+        <v>1.86</v>
+      </c>
+      <c r="BN11">
+        <v>1.93</v>
+      </c>
+      <c r="BO11">
+        <v>2.33</v>
+      </c>
+      <c r="BP11">
+        <v>1.57</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Switzerland Challenge League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Switzerland Challenge League_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="100">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -283,6 +283,9 @@
     <t>['53', '81']</t>
   </si>
   <si>
+    <t>['14']</t>
+  </si>
+  <si>
     <t>['25', '90+2']</t>
   </si>
   <si>
@@ -305,6 +308,12 @@
   </si>
   <si>
     <t>['55', '61']</t>
+  </si>
+  <si>
+    <t>['44', '56', '87']</t>
+  </si>
+  <si>
+    <t>['46']</t>
   </si>
 </sst>
 </file>
@@ -666,7 +675,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP11"/>
+  <dimension ref="A1:BP13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -925,7 +934,7 @@
         <v>80</v>
       </c>
       <c r="P2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="Q2">
         <v>2.75</v>
@@ -1006,7 +1015,7 @@
         <v>3</v>
       </c>
       <c r="AQ2">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1131,7 +1140,7 @@
         <v>81</v>
       </c>
       <c r="P3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="Q3">
         <v>2.63</v>
@@ -1337,7 +1346,7 @@
         <v>82</v>
       </c>
       <c r="P4" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="Q4">
         <v>3.75</v>
@@ -1543,7 +1552,7 @@
         <v>83</v>
       </c>
       <c r="P5" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="Q5">
         <v>3.6</v>
@@ -1955,7 +1964,7 @@
         <v>84</v>
       </c>
       <c r="P7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="Q7">
         <v>2.63</v>
@@ -2161,7 +2170,7 @@
         <v>85</v>
       </c>
       <c r="P8" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="Q8">
         <v>2.63</v>
@@ -2239,7 +2248,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="AQ8">
         <v>0</v>
@@ -2367,7 +2376,7 @@
         <v>86</v>
       </c>
       <c r="P9" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="Q9">
         <v>3</v>
@@ -2573,7 +2582,7 @@
         <v>87</v>
       </c>
       <c r="P10" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="Q10">
         <v>2.3</v>
@@ -2857,7 +2866,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AQ11">
         <v>0</v>
@@ -2936,6 +2945,418 @@
       </c>
       <c r="BP11">
         <v>1.57</v>
+      </c>
+    </row>
+    <row r="12" spans="1:68">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>7463324</v>
+      </c>
+      <c r="C12" t="s">
+        <v>68</v>
+      </c>
+      <c r="D12" t="s">
+        <v>69</v>
+      </c>
+      <c r="E12" s="2">
+        <v>45506.60416666666</v>
+      </c>
+      <c r="F12">
+        <v>3</v>
+      </c>
+      <c r="G12" t="s">
+        <v>76</v>
+      </c>
+      <c r="H12" t="s">
+        <v>71</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>1</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>3</v>
+      </c>
+      <c r="N12">
+        <v>3</v>
+      </c>
+      <c r="O12" t="s">
+        <v>84</v>
+      </c>
+      <c r="P12" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q12">
+        <v>2.88</v>
+      </c>
+      <c r="R12">
+        <v>2.2</v>
+      </c>
+      <c r="S12">
+        <v>3.25</v>
+      </c>
+      <c r="T12">
+        <v>1.35</v>
+      </c>
+      <c r="U12">
+        <v>3.04</v>
+      </c>
+      <c r="V12">
+        <v>2.6</v>
+      </c>
+      <c r="W12">
+        <v>1.46</v>
+      </c>
+      <c r="X12">
+        <v>6.3</v>
+      </c>
+      <c r="Y12">
+        <v>1.1</v>
+      </c>
+      <c r="Z12">
+        <v>2.3</v>
+      </c>
+      <c r="AA12">
+        <v>3.4</v>
+      </c>
+      <c r="AB12">
+        <v>2.88</v>
+      </c>
+      <c r="AC12">
+        <v>1.01</v>
+      </c>
+      <c r="AD12">
+        <v>10.25</v>
+      </c>
+      <c r="AE12">
+        <v>1.22</v>
+      </c>
+      <c r="AF12">
+        <v>3.65</v>
+      </c>
+      <c r="AG12">
+        <v>1.75</v>
+      </c>
+      <c r="AH12">
+        <v>2.05</v>
+      </c>
+      <c r="AI12">
+        <v>1.62</v>
+      </c>
+      <c r="AJ12">
+        <v>2.2</v>
+      </c>
+      <c r="AK12">
+        <v>1.42</v>
+      </c>
+      <c r="AL12">
+        <v>1.26</v>
+      </c>
+      <c r="AM12">
+        <v>1.5</v>
+      </c>
+      <c r="AN12">
+        <v>3</v>
+      </c>
+      <c r="AO12">
+        <v>3</v>
+      </c>
+      <c r="AP12">
+        <v>1.5</v>
+      </c>
+      <c r="AQ12">
+        <v>3</v>
+      </c>
+      <c r="AR12">
+        <v>1.34</v>
+      </c>
+      <c r="AS12">
+        <v>1.74</v>
+      </c>
+      <c r="AT12">
+        <v>3.08</v>
+      </c>
+      <c r="AU12">
+        <v>4</v>
+      </c>
+      <c r="AV12">
+        <v>4</v>
+      </c>
+      <c r="AW12">
+        <v>9</v>
+      </c>
+      <c r="AX12">
+        <v>4</v>
+      </c>
+      <c r="AY12">
+        <v>13</v>
+      </c>
+      <c r="AZ12">
+        <v>8</v>
+      </c>
+      <c r="BA12">
+        <v>8</v>
+      </c>
+      <c r="BB12">
+        <v>3</v>
+      </c>
+      <c r="BC12">
+        <v>11</v>
+      </c>
+      <c r="BD12">
+        <v>1.76</v>
+      </c>
+      <c r="BE12">
+        <v>6.6</v>
+      </c>
+      <c r="BF12">
+        <v>2.51</v>
+      </c>
+      <c r="BG12">
+        <v>1.16</v>
+      </c>
+      <c r="BH12">
+        <v>4.5</v>
+      </c>
+      <c r="BI12">
+        <v>1.28</v>
+      </c>
+      <c r="BJ12">
+        <v>3.2</v>
+      </c>
+      <c r="BK12">
+        <v>1.91</v>
+      </c>
+      <c r="BL12">
+        <v>2.34</v>
+      </c>
+      <c r="BM12">
+        <v>1.92</v>
+      </c>
+      <c r="BN12">
+        <v>1.88</v>
+      </c>
+      <c r="BO12">
+        <v>2.4</v>
+      </c>
+      <c r="BP12">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="13" spans="1:68">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>7463325</v>
+      </c>
+      <c r="C13" t="s">
+        <v>68</v>
+      </c>
+      <c r="D13" t="s">
+        <v>69</v>
+      </c>
+      <c r="E13" s="2">
+        <v>45506.63541666666</v>
+      </c>
+      <c r="F13">
+        <v>3</v>
+      </c>
+      <c r="G13" t="s">
+        <v>79</v>
+      </c>
+      <c r="H13" t="s">
+        <v>75</v>
+      </c>
+      <c r="I13">
+        <v>1</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>1</v>
+      </c>
+      <c r="N13">
+        <v>2</v>
+      </c>
+      <c r="O13" t="s">
+        <v>89</v>
+      </c>
+      <c r="P13" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q13">
+        <v>2.2</v>
+      </c>
+      <c r="R13">
+        <v>2.38</v>
+      </c>
+      <c r="S13">
+        <v>4.33</v>
+      </c>
+      <c r="T13">
+        <v>1.25</v>
+      </c>
+      <c r="U13">
+        <v>3.7</v>
+      </c>
+      <c r="V13">
+        <v>2.19</v>
+      </c>
+      <c r="W13">
+        <v>1.63</v>
+      </c>
+      <c r="X13">
+        <v>4.85</v>
+      </c>
+      <c r="Y13">
+        <v>1.16</v>
+      </c>
+      <c r="Z13">
+        <v>1.7</v>
+      </c>
+      <c r="AA13">
+        <v>3.8</v>
+      </c>
+      <c r="AB13">
+        <v>4.5</v>
+      </c>
+      <c r="AC13">
+        <v>1.02</v>
+      </c>
+      <c r="AD13">
+        <v>12</v>
+      </c>
+      <c r="AE13">
+        <v>1.12</v>
+      </c>
+      <c r="AF13">
+        <v>4.95</v>
+      </c>
+      <c r="AG13">
+        <v>1.57</v>
+      </c>
+      <c r="AH13">
+        <v>2.35</v>
+      </c>
+      <c r="AI13">
+        <v>1.57</v>
+      </c>
+      <c r="AJ13">
+        <v>2.25</v>
+      </c>
+      <c r="AK13">
+        <v>1.18</v>
+      </c>
+      <c r="AL13">
+        <v>1.19</v>
+      </c>
+      <c r="AM13">
+        <v>2.08</v>
+      </c>
+      <c r="AN13">
+        <v>3</v>
+      </c>
+      <c r="AO13">
+        <v>0</v>
+      </c>
+      <c r="AP13">
+        <v>2</v>
+      </c>
+      <c r="AQ13">
+        <v>0.5</v>
+      </c>
+      <c r="AR13">
+        <v>1.92</v>
+      </c>
+      <c r="AS13">
+        <v>1.29</v>
+      </c>
+      <c r="AT13">
+        <v>3.21</v>
+      </c>
+      <c r="AU13">
+        <v>3</v>
+      </c>
+      <c r="AV13">
+        <v>6</v>
+      </c>
+      <c r="AW13">
+        <v>3</v>
+      </c>
+      <c r="AX13">
+        <v>15</v>
+      </c>
+      <c r="AY13">
+        <v>6</v>
+      </c>
+      <c r="AZ13">
+        <v>21</v>
+      </c>
+      <c r="BA13">
+        <v>2</v>
+      </c>
+      <c r="BB13">
+        <v>4</v>
+      </c>
+      <c r="BC13">
+        <v>6</v>
+      </c>
+      <c r="BD13">
+        <v>1.49</v>
+      </c>
+      <c r="BE13">
+        <v>8.4</v>
+      </c>
+      <c r="BF13">
+        <v>3.05</v>
+      </c>
+      <c r="BG13">
+        <v>1.2</v>
+      </c>
+      <c r="BH13">
+        <v>3.9</v>
+      </c>
+      <c r="BI13">
+        <v>1.39</v>
+      </c>
+      <c r="BJ13">
+        <v>2.67</v>
+      </c>
+      <c r="BK13">
+        <v>2.1</v>
+      </c>
+      <c r="BL13">
+        <v>2.06</v>
+      </c>
+      <c r="BM13">
+        <v>2.16</v>
+      </c>
+      <c r="BN13">
+        <v>1.66</v>
+      </c>
+      <c r="BO13">
+        <v>2.79</v>
+      </c>
+      <c r="BP13">
+        <v>1.36</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Switzerland Challenge League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Switzerland Challenge League_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="104">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -286,6 +286,12 @@
     <t>['14']</t>
   </si>
   <si>
+    <t>['18']</t>
+  </si>
+  <si>
+    <t>['19']</t>
+  </si>
+  <si>
     <t>['25', '90+2']</t>
   </si>
   <si>
@@ -314,6 +320,12 @@
   </si>
   <si>
     <t>['46']</t>
+  </si>
+  <si>
+    <t>['49', '74', '77']</t>
+  </si>
+  <si>
+    <t>['90']</t>
   </si>
 </sst>
 </file>
@@ -675,7 +687,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP13"/>
+  <dimension ref="A1:BP15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -934,7 +946,7 @@
         <v>80</v>
       </c>
       <c r="P2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="Q2">
         <v>2.75</v>
@@ -1140,7 +1152,7 @@
         <v>81</v>
       </c>
       <c r="P3" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="Q3">
         <v>2.63</v>
@@ -1221,7 +1233,7 @@
         <v>0</v>
       </c>
       <c r="AQ3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1346,7 +1358,7 @@
         <v>82</v>
       </c>
       <c r="P4" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="Q4">
         <v>3.75</v>
@@ -1552,7 +1564,7 @@
         <v>83</v>
       </c>
       <c r="P5" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="Q5">
         <v>3.6</v>
@@ -1630,7 +1642,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AQ5">
         <v>0</v>
@@ -1964,7 +1976,7 @@
         <v>84</v>
       </c>
       <c r="P7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="Q7">
         <v>2.63</v>
@@ -2170,7 +2182,7 @@
         <v>85</v>
       </c>
       <c r="P8" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="Q8">
         <v>2.63</v>
@@ -2376,7 +2388,7 @@
         <v>86</v>
       </c>
       <c r="P9" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="Q9">
         <v>3</v>
@@ -2457,7 +2469,7 @@
         <v>3</v>
       </c>
       <c r="AQ9">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -2582,7 +2594,7 @@
         <v>87</v>
       </c>
       <c r="P10" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="Q10">
         <v>2.3</v>
@@ -2994,7 +3006,7 @@
         <v>84</v>
       </c>
       <c r="P12" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="Q12">
         <v>2.88</v>
@@ -3200,7 +3212,7 @@
         <v>89</v>
       </c>
       <c r="P13" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="Q13">
         <v>2.2</v>
@@ -3357,6 +3369,418 @@
       </c>
       <c r="BP13">
         <v>1.36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:68">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>7463326</v>
+      </c>
+      <c r="C14" t="s">
+        <v>68</v>
+      </c>
+      <c r="D14" t="s">
+        <v>69</v>
+      </c>
+      <c r="E14" s="2">
+        <v>45507.54166666666</v>
+      </c>
+      <c r="F14">
+        <v>3</v>
+      </c>
+      <c r="G14" t="s">
+        <v>72</v>
+      </c>
+      <c r="H14" t="s">
+        <v>70</v>
+      </c>
+      <c r="I14">
+        <v>1</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>3</v>
+      </c>
+      <c r="N14">
+        <v>4</v>
+      </c>
+      <c r="O14" t="s">
+        <v>90</v>
+      </c>
+      <c r="P14" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q14">
+        <v>3</v>
+      </c>
+      <c r="R14">
+        <v>2.38</v>
+      </c>
+      <c r="S14">
+        <v>2.75</v>
+      </c>
+      <c r="T14">
+        <v>1.28</v>
+      </c>
+      <c r="U14">
+        <v>3.46</v>
+      </c>
+      <c r="V14">
+        <v>2.31</v>
+      </c>
+      <c r="W14">
+        <v>1.57</v>
+      </c>
+      <c r="X14">
+        <v>5.25</v>
+      </c>
+      <c r="Y14">
+        <v>1.14</v>
+      </c>
+      <c r="Z14">
+        <v>2.63</v>
+      </c>
+      <c r="AA14">
+        <v>3.6</v>
+      </c>
+      <c r="AB14">
+        <v>2.35</v>
+      </c>
+      <c r="AC14">
+        <v>1.03</v>
+      </c>
+      <c r="AD14">
+        <v>12</v>
+      </c>
+      <c r="AE14">
+        <v>1.15</v>
+      </c>
+      <c r="AF14">
+        <v>4.55</v>
+      </c>
+      <c r="AG14">
+        <v>1.57</v>
+      </c>
+      <c r="AH14">
+        <v>2.35</v>
+      </c>
+      <c r="AI14">
+        <v>1.5</v>
+      </c>
+      <c r="AJ14">
+        <v>2.5</v>
+      </c>
+      <c r="AK14">
+        <v>1.48</v>
+      </c>
+      <c r="AL14">
+        <v>1.24</v>
+      </c>
+      <c r="AM14">
+        <v>1.48</v>
+      </c>
+      <c r="AN14">
+        <v>0</v>
+      </c>
+      <c r="AO14">
+        <v>0</v>
+      </c>
+      <c r="AP14">
+        <v>0</v>
+      </c>
+      <c r="AQ14">
+        <v>1.5</v>
+      </c>
+      <c r="AR14">
+        <v>1.19</v>
+      </c>
+      <c r="AS14">
+        <v>2.41</v>
+      </c>
+      <c r="AT14">
+        <v>3.6</v>
+      </c>
+      <c r="AU14">
+        <v>5</v>
+      </c>
+      <c r="AV14">
+        <v>8</v>
+      </c>
+      <c r="AW14">
+        <v>11</v>
+      </c>
+      <c r="AX14">
+        <v>9</v>
+      </c>
+      <c r="AY14">
+        <v>16</v>
+      </c>
+      <c r="AZ14">
+        <v>17</v>
+      </c>
+      <c r="BA14">
+        <v>3</v>
+      </c>
+      <c r="BB14">
+        <v>5</v>
+      </c>
+      <c r="BC14">
+        <v>8</v>
+      </c>
+      <c r="BD14">
+        <v>2.26</v>
+      </c>
+      <c r="BE14">
+        <v>6.45</v>
+      </c>
+      <c r="BF14">
+        <v>1.92</v>
+      </c>
+      <c r="BG14">
+        <v>1.17</v>
+      </c>
+      <c r="BH14">
+        <v>4.5</v>
+      </c>
+      <c r="BI14">
+        <v>1.29</v>
+      </c>
+      <c r="BJ14">
+        <v>3.14</v>
+      </c>
+      <c r="BK14">
+        <v>2</v>
+      </c>
+      <c r="BL14">
+        <v>2.28</v>
+      </c>
+      <c r="BM14">
+        <v>1.88</v>
+      </c>
+      <c r="BN14">
+        <v>1.78</v>
+      </c>
+      <c r="BO14">
+        <v>2.42</v>
+      </c>
+      <c r="BP14">
+        <v>1.47</v>
+      </c>
+    </row>
+    <row r="15" spans="1:68">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>7463327</v>
+      </c>
+      <c r="C15" t="s">
+        <v>68</v>
+      </c>
+      <c r="D15" t="s">
+        <v>69</v>
+      </c>
+      <c r="E15" s="2">
+        <v>45507.54166666666</v>
+      </c>
+      <c r="F15">
+        <v>3</v>
+      </c>
+      <c r="G15" t="s">
+        <v>73</v>
+      </c>
+      <c r="H15" t="s">
+        <v>77</v>
+      </c>
+      <c r="I15">
+        <v>1</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>1</v>
+      </c>
+      <c r="N15">
+        <v>2</v>
+      </c>
+      <c r="O15" t="s">
+        <v>91</v>
+      </c>
+      <c r="P15" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q15">
+        <v>3</v>
+      </c>
+      <c r="R15">
+        <v>2.2</v>
+      </c>
+      <c r="S15">
+        <v>3.2</v>
+      </c>
+      <c r="T15">
+        <v>1.32</v>
+      </c>
+      <c r="U15">
+        <v>3.2</v>
+      </c>
+      <c r="V15">
+        <v>2.51</v>
+      </c>
+      <c r="W15">
+        <v>1.49</v>
+      </c>
+      <c r="X15">
+        <v>5.95</v>
+      </c>
+      <c r="Y15">
+        <v>1.11</v>
+      </c>
+      <c r="Z15">
+        <v>2.38</v>
+      </c>
+      <c r="AA15">
+        <v>3.5</v>
+      </c>
+      <c r="AB15">
+        <v>2.7</v>
+      </c>
+      <c r="AC15">
+        <v>1.02</v>
+      </c>
+      <c r="AD15">
+        <v>10</v>
+      </c>
+      <c r="AE15">
+        <v>1.19</v>
+      </c>
+      <c r="AF15">
+        <v>3.92</v>
+      </c>
+      <c r="AG15">
+        <v>1.8</v>
+      </c>
+      <c r="AH15">
+        <v>2</v>
+      </c>
+      <c r="AI15">
+        <v>1.67</v>
+      </c>
+      <c r="AJ15">
+        <v>2.1</v>
+      </c>
+      <c r="AK15">
+        <v>1.46</v>
+      </c>
+      <c r="AL15">
+        <v>1.26</v>
+      </c>
+      <c r="AM15">
+        <v>1.47</v>
+      </c>
+      <c r="AN15">
+        <v>3</v>
+      </c>
+      <c r="AO15">
+        <v>3</v>
+      </c>
+      <c r="AP15">
+        <v>2</v>
+      </c>
+      <c r="AQ15">
+        <v>2</v>
+      </c>
+      <c r="AR15">
+        <v>1.72</v>
+      </c>
+      <c r="AS15">
+        <v>1.67</v>
+      </c>
+      <c r="AT15">
+        <v>3.39</v>
+      </c>
+      <c r="AU15">
+        <v>3</v>
+      </c>
+      <c r="AV15">
+        <v>10</v>
+      </c>
+      <c r="AW15">
+        <v>4</v>
+      </c>
+      <c r="AX15">
+        <v>7</v>
+      </c>
+      <c r="AY15">
+        <v>7</v>
+      </c>
+      <c r="AZ15">
+        <v>17</v>
+      </c>
+      <c r="BA15">
+        <v>1</v>
+      </c>
+      <c r="BB15">
+        <v>4</v>
+      </c>
+      <c r="BC15">
+        <v>5</v>
+      </c>
+      <c r="BD15">
+        <v>2.06</v>
+      </c>
+      <c r="BE15">
+        <v>6.3</v>
+      </c>
+      <c r="BF15">
+        <v>2.11</v>
+      </c>
+      <c r="BG15">
+        <v>1.22</v>
+      </c>
+      <c r="BH15">
+        <v>3.65</v>
+      </c>
+      <c r="BI15">
+        <v>1.47</v>
+      </c>
+      <c r="BJ15">
+        <v>2.58</v>
+      </c>
+      <c r="BK15">
+        <v>2.2</v>
+      </c>
+      <c r="BL15">
+        <v>2</v>
+      </c>
+      <c r="BM15">
+        <v>2.24</v>
+      </c>
+      <c r="BN15">
+        <v>1.62</v>
+      </c>
+      <c r="BO15">
+        <v>2.98</v>
+      </c>
+      <c r="BP15">
+        <v>1.32</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Switzerland Challenge League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Switzerland Challenge League_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="106">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -292,6 +292,9 @@
     <t>['19']</t>
   </si>
   <si>
+    <t>['48', '88', '90+4']</t>
+  </si>
+  <si>
     <t>['25', '90+2']</t>
   </si>
   <si>
@@ -326,6 +329,9 @@
   </si>
   <si>
     <t>['90']</t>
+  </si>
+  <si>
+    <t>['40', '59']</t>
   </si>
 </sst>
 </file>
@@ -687,7 +693,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP15"/>
+  <dimension ref="A1:BP16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -946,7 +952,7 @@
         <v>80</v>
       </c>
       <c r="P2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="Q2">
         <v>2.75</v>
@@ -1152,7 +1158,7 @@
         <v>81</v>
       </c>
       <c r="P3" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="Q3">
         <v>2.63</v>
@@ -1358,7 +1364,7 @@
         <v>82</v>
       </c>
       <c r="P4" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="Q4">
         <v>3.75</v>
@@ -1564,7 +1570,7 @@
         <v>83</v>
       </c>
       <c r="P5" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="Q5">
         <v>3.6</v>
@@ -1848,7 +1854,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AQ6">
         <v>1</v>
@@ -1976,7 +1982,7 @@
         <v>84</v>
       </c>
       <c r="P7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="Q7">
         <v>2.63</v>
@@ -2182,7 +2188,7 @@
         <v>85</v>
       </c>
       <c r="P8" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="Q8">
         <v>2.63</v>
@@ -2388,7 +2394,7 @@
         <v>86</v>
       </c>
       <c r="P9" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="Q9">
         <v>3</v>
@@ -2594,7 +2600,7 @@
         <v>87</v>
       </c>
       <c r="P10" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="Q10">
         <v>2.3</v>
@@ -3006,7 +3012,7 @@
         <v>84</v>
       </c>
       <c r="P12" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="Q12">
         <v>2.88</v>
@@ -3212,7 +3218,7 @@
         <v>89</v>
       </c>
       <c r="P13" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="Q13">
         <v>2.2</v>
@@ -3418,7 +3424,7 @@
         <v>90</v>
       </c>
       <c r="P14" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="Q14">
         <v>3</v>
@@ -3624,7 +3630,7 @@
         <v>91</v>
       </c>
       <c r="P15" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="Q15">
         <v>3</v>
@@ -3780,6 +3786,212 @@
         <v>2.98</v>
       </c>
       <c r="BP15">
+        <v>1.32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:68">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>7463328</v>
+      </c>
+      <c r="C16" t="s">
+        <v>68</v>
+      </c>
+      <c r="D16" t="s">
+        <v>69</v>
+      </c>
+      <c r="E16" s="2">
+        <v>45508.38541666666</v>
+      </c>
+      <c r="F16">
+        <v>3</v>
+      </c>
+      <c r="G16" t="s">
+        <v>74</v>
+      </c>
+      <c r="H16" t="s">
+        <v>78</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>1</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>3</v>
+      </c>
+      <c r="M16">
+        <v>2</v>
+      </c>
+      <c r="N16">
+        <v>5</v>
+      </c>
+      <c r="O16" t="s">
+        <v>92</v>
+      </c>
+      <c r="P16" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q16">
+        <v>2.75</v>
+      </c>
+      <c r="R16">
+        <v>2.3</v>
+      </c>
+      <c r="S16">
+        <v>3.1</v>
+      </c>
+      <c r="T16">
+        <v>1.29</v>
+      </c>
+      <c r="U16">
+        <v>3.5</v>
+      </c>
+      <c r="V16">
+        <v>2.25</v>
+      </c>
+      <c r="W16">
+        <v>1.57</v>
+      </c>
+      <c r="X16">
+        <v>5</v>
+      </c>
+      <c r="Y16">
+        <v>1.14</v>
+      </c>
+      <c r="Z16">
+        <v>2.3</v>
+      </c>
+      <c r="AA16">
+        <v>3.5</v>
+      </c>
+      <c r="AB16">
+        <v>2.8</v>
+      </c>
+      <c r="AC16">
+        <v>1.03</v>
+      </c>
+      <c r="AD16">
+        <v>12</v>
+      </c>
+      <c r="AE16">
+        <v>1.13</v>
+      </c>
+      <c r="AF16">
+        <v>4.75</v>
+      </c>
+      <c r="AG16">
+        <v>1.6</v>
+      </c>
+      <c r="AH16">
+        <v>2.3</v>
+      </c>
+      <c r="AI16">
+        <v>1.5</v>
+      </c>
+      <c r="AJ16">
+        <v>2.5</v>
+      </c>
+      <c r="AK16">
+        <v>1.41</v>
+      </c>
+      <c r="AL16">
+        <v>1.24</v>
+      </c>
+      <c r="AM16">
+        <v>1.56</v>
+      </c>
+      <c r="AN16">
+        <v>1</v>
+      </c>
+      <c r="AO16">
+        <v>0</v>
+      </c>
+      <c r="AP16">
+        <v>2</v>
+      </c>
+      <c r="AQ16">
+        <v>0</v>
+      </c>
+      <c r="AR16">
+        <v>1.95</v>
+      </c>
+      <c r="AS16">
+        <v>0.83</v>
+      </c>
+      <c r="AT16">
+        <v>2.78</v>
+      </c>
+      <c r="AU16">
+        <v>7</v>
+      </c>
+      <c r="AV16">
+        <v>5</v>
+      </c>
+      <c r="AW16">
+        <v>7</v>
+      </c>
+      <c r="AX16">
+        <v>11</v>
+      </c>
+      <c r="AY16">
+        <v>14</v>
+      </c>
+      <c r="AZ16">
+        <v>16</v>
+      </c>
+      <c r="BA16">
+        <v>4</v>
+      </c>
+      <c r="BB16">
+        <v>4</v>
+      </c>
+      <c r="BC16">
+        <v>8</v>
+      </c>
+      <c r="BD16">
+        <v>1.81</v>
+      </c>
+      <c r="BE16">
+        <v>6.3</v>
+      </c>
+      <c r="BF16">
+        <v>2.46</v>
+      </c>
+      <c r="BG16">
+        <v>1.22</v>
+      </c>
+      <c r="BH16">
+        <v>3.65</v>
+      </c>
+      <c r="BI16">
+        <v>1.43</v>
+      </c>
+      <c r="BJ16">
+        <v>2.54</v>
+      </c>
+      <c r="BK16">
+        <v>1.75</v>
+      </c>
+      <c r="BL16">
+        <v>1.92</v>
+      </c>
+      <c r="BM16">
+        <v>2.23</v>
+      </c>
+      <c r="BN16">
+        <v>1.55</v>
+      </c>
+      <c r="BO16">
+        <v>2.98</v>
+      </c>
+      <c r="BP16">
         <v>1.32</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Switzerland Challenge League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Switzerland Challenge League_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="111">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -295,6 +295,12 @@
     <t>['48', '88', '90+4']</t>
   </si>
   <si>
+    <t>['25']</t>
+  </si>
+  <si>
+    <t>['4', '13']</t>
+  </si>
+  <si>
     <t>['25', '90+2']</t>
   </si>
   <si>
@@ -332,6 +338,15 @@
   </si>
   <si>
     <t>['40', '59']</t>
+  </si>
+  <si>
+    <t>['27']</t>
+  </si>
+  <si>
+    <t>['19', '29']</t>
+  </si>
+  <si>
+    <t>['15', '76']</t>
   </si>
 </sst>
 </file>
@@ -693,7 +708,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP16"/>
+  <dimension ref="A1:BP19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -952,7 +967,7 @@
         <v>80</v>
       </c>
       <c r="P2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="Q2">
         <v>2.75</v>
@@ -1030,7 +1045,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AQ2">
         <v>0.5</v>
@@ -1158,7 +1173,7 @@
         <v>81</v>
       </c>
       <c r="P3" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="Q3">
         <v>2.63</v>
@@ -1364,7 +1379,7 @@
         <v>82</v>
       </c>
       <c r="P4" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="Q4">
         <v>3.75</v>
@@ -1570,7 +1585,7 @@
         <v>83</v>
       </c>
       <c r="P5" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="Q5">
         <v>3.6</v>
@@ -1982,7 +1997,7 @@
         <v>84</v>
       </c>
       <c r="P7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="Q7">
         <v>2.63</v>
@@ -2060,7 +2075,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AQ7">
         <v>3</v>
@@ -2188,7 +2203,7 @@
         <v>85</v>
       </c>
       <c r="P8" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="Q8">
         <v>2.63</v>
@@ -2269,7 +2284,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ8">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -2394,7 +2409,7 @@
         <v>86</v>
       </c>
       <c r="P9" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="Q9">
         <v>3</v>
@@ -2472,7 +2487,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="AQ9">
         <v>1.5</v>
@@ -2600,7 +2615,7 @@
         <v>87</v>
       </c>
       <c r="P10" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="Q10">
         <v>2.3</v>
@@ -3012,7 +3027,7 @@
         <v>84</v>
       </c>
       <c r="P12" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="Q12">
         <v>2.88</v>
@@ -3218,7 +3233,7 @@
         <v>89</v>
       </c>
       <c r="P13" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="Q13">
         <v>2.2</v>
@@ -3424,7 +3439,7 @@
         <v>90</v>
       </c>
       <c r="P14" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="Q14">
         <v>3</v>
@@ -3630,7 +3645,7 @@
         <v>91</v>
       </c>
       <c r="P15" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="Q15">
         <v>3</v>
@@ -3836,7 +3851,7 @@
         <v>92</v>
       </c>
       <c r="P16" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="Q16">
         <v>2.75</v>
@@ -3993,6 +4008,624 @@
       </c>
       <c r="BP16">
         <v>1.32</v>
+      </c>
+    </row>
+    <row r="17" spans="1:68">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>7463329</v>
+      </c>
+      <c r="C17" t="s">
+        <v>68</v>
+      </c>
+      <c r="D17" t="s">
+        <v>69</v>
+      </c>
+      <c r="E17" s="2">
+        <v>45513.60416666666</v>
+      </c>
+      <c r="F17">
+        <v>4</v>
+      </c>
+      <c r="G17" t="s">
+        <v>75</v>
+      </c>
+      <c r="H17" t="s">
+        <v>72</v>
+      </c>
+      <c r="I17">
+        <v>1</v>
+      </c>
+      <c r="J17">
+        <v>1</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>1</v>
+      </c>
+      <c r="N17">
+        <v>2</v>
+      </c>
+      <c r="O17" t="s">
+        <v>93</v>
+      </c>
+      <c r="P17" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q17">
+        <v>2.38</v>
+      </c>
+      <c r="R17">
+        <v>2.38</v>
+      </c>
+      <c r="S17">
+        <v>3.75</v>
+      </c>
+      <c r="T17">
+        <v>1.33</v>
+      </c>
+      <c r="U17">
+        <v>3.25</v>
+      </c>
+      <c r="V17">
+        <v>2.5</v>
+      </c>
+      <c r="W17">
+        <v>1.5</v>
+      </c>
+      <c r="X17">
+        <v>5.5</v>
+      </c>
+      <c r="Y17">
+        <v>1.13</v>
+      </c>
+      <c r="Z17">
+        <v>1.85</v>
+      </c>
+      <c r="AA17">
+        <v>3.75</v>
+      </c>
+      <c r="AB17">
+        <v>3.6</v>
+      </c>
+      <c r="AC17">
+        <v>1.03</v>
+      </c>
+      <c r="AD17">
+        <v>9.35</v>
+      </c>
+      <c r="AE17">
+        <v>1.18</v>
+      </c>
+      <c r="AF17">
+        <v>4.05</v>
+      </c>
+      <c r="AG17">
+        <v>1.53</v>
+      </c>
+      <c r="AH17">
+        <v>2.38</v>
+      </c>
+      <c r="AI17">
+        <v>1.53</v>
+      </c>
+      <c r="AJ17">
+        <v>2.38</v>
+      </c>
+      <c r="AK17">
+        <v>1.38</v>
+      </c>
+      <c r="AL17">
+        <v>1.25</v>
+      </c>
+      <c r="AM17">
+        <v>1.56</v>
+      </c>
+      <c r="AN17">
+        <v>0</v>
+      </c>
+      <c r="AO17">
+        <v>1</v>
+      </c>
+      <c r="AP17">
+        <v>0.5</v>
+      </c>
+      <c r="AQ17">
+        <v>1</v>
+      </c>
+      <c r="AR17">
+        <v>1.81</v>
+      </c>
+      <c r="AS17">
+        <v>1.13</v>
+      </c>
+      <c r="AT17">
+        <v>2.94</v>
+      </c>
+      <c r="AU17">
+        <v>3</v>
+      </c>
+      <c r="AV17">
+        <v>3</v>
+      </c>
+      <c r="AW17">
+        <v>9</v>
+      </c>
+      <c r="AX17">
+        <v>6</v>
+      </c>
+      <c r="AY17">
+        <v>12</v>
+      </c>
+      <c r="AZ17">
+        <v>9</v>
+      </c>
+      <c r="BA17">
+        <v>3</v>
+      </c>
+      <c r="BB17">
+        <v>0</v>
+      </c>
+      <c r="BC17">
+        <v>3</v>
+      </c>
+      <c r="BD17">
+        <v>1.46</v>
+      </c>
+      <c r="BE17">
+        <v>7</v>
+      </c>
+      <c r="BF17">
+        <v>3.45</v>
+      </c>
+      <c r="BG17">
+        <v>1.19</v>
+      </c>
+      <c r="BH17">
+        <v>3.92</v>
+      </c>
+      <c r="BI17">
+        <v>1.38</v>
+      </c>
+      <c r="BJ17">
+        <v>2.71</v>
+      </c>
+      <c r="BK17">
+        <v>2.1</v>
+      </c>
+      <c r="BL17">
+        <v>2.1</v>
+      </c>
+      <c r="BM17">
+        <v>2.13</v>
+      </c>
+      <c r="BN17">
+        <v>1.68</v>
+      </c>
+      <c r="BO17">
+        <v>2.95</v>
+      </c>
+      <c r="BP17">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:68">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>7463330</v>
+      </c>
+      <c r="C18" t="s">
+        <v>68</v>
+      </c>
+      <c r="D18" t="s">
+        <v>69</v>
+      </c>
+      <c r="E18" s="2">
+        <v>45513.63541666666</v>
+      </c>
+      <c r="F18">
+        <v>4</v>
+      </c>
+      <c r="G18" t="s">
+        <v>77</v>
+      </c>
+      <c r="H18" t="s">
+        <v>79</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>2</v>
+      </c>
+      <c r="K18">
+        <v>2</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>2</v>
+      </c>
+      <c r="N18">
+        <v>2</v>
+      </c>
+      <c r="O18" t="s">
+        <v>84</v>
+      </c>
+      <c r="P18" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q18">
+        <v>3.1</v>
+      </c>
+      <c r="R18">
+        <v>2.2</v>
+      </c>
+      <c r="S18">
+        <v>3</v>
+      </c>
+      <c r="T18">
+        <v>1.33</v>
+      </c>
+      <c r="U18">
+        <v>3.25</v>
+      </c>
+      <c r="V18">
+        <v>2.63</v>
+      </c>
+      <c r="W18">
+        <v>1.44</v>
+      </c>
+      <c r="X18">
+        <v>6</v>
+      </c>
+      <c r="Y18">
+        <v>1.11</v>
+      </c>
+      <c r="Z18">
+        <v>2.6</v>
+      </c>
+      <c r="AA18">
+        <v>3.5</v>
+      </c>
+      <c r="AB18">
+        <v>2.5</v>
+      </c>
+      <c r="AC18">
+        <v>1.03</v>
+      </c>
+      <c r="AD18">
+        <v>11</v>
+      </c>
+      <c r="AE18">
+        <v>1.21</v>
+      </c>
+      <c r="AF18">
+        <v>3.74</v>
+      </c>
+      <c r="AG18">
+        <v>1.73</v>
+      </c>
+      <c r="AH18">
+        <v>2.08</v>
+      </c>
+      <c r="AI18">
+        <v>1.62</v>
+      </c>
+      <c r="AJ18">
+        <v>2.2</v>
+      </c>
+      <c r="AK18">
+        <v>1.61</v>
+      </c>
+      <c r="AL18">
+        <v>1.26</v>
+      </c>
+      <c r="AM18">
+        <v>1.35</v>
+      </c>
+      <c r="AN18">
+        <v>3</v>
+      </c>
+      <c r="AO18">
+        <v>3</v>
+      </c>
+      <c r="AP18">
+        <v>1.5</v>
+      </c>
+      <c r="AQ18">
+        <v>3</v>
+      </c>
+      <c r="AR18">
+        <v>1.54</v>
+      </c>
+      <c r="AS18">
+        <v>1.5</v>
+      </c>
+      <c r="AT18">
+        <v>3.04</v>
+      </c>
+      <c r="AU18">
+        <v>2</v>
+      </c>
+      <c r="AV18">
+        <v>10</v>
+      </c>
+      <c r="AW18">
+        <v>8</v>
+      </c>
+      <c r="AX18">
+        <v>6</v>
+      </c>
+      <c r="AY18">
+        <v>10</v>
+      </c>
+      <c r="AZ18">
+        <v>16</v>
+      </c>
+      <c r="BA18">
+        <v>4</v>
+      </c>
+      <c r="BB18">
+        <v>5</v>
+      </c>
+      <c r="BC18">
+        <v>9</v>
+      </c>
+      <c r="BD18">
+        <v>2.14</v>
+      </c>
+      <c r="BE18">
+        <v>6.45</v>
+      </c>
+      <c r="BF18">
+        <v>2.02</v>
+      </c>
+      <c r="BG18">
+        <v>0</v>
+      </c>
+      <c r="BH18">
+        <v>0</v>
+      </c>
+      <c r="BI18">
+        <v>1.35</v>
+      </c>
+      <c r="BJ18">
+        <v>2.84</v>
+      </c>
+      <c r="BK18">
+        <v>2.1</v>
+      </c>
+      <c r="BL18">
+        <v>2.15</v>
+      </c>
+      <c r="BM18">
+        <v>2.08</v>
+      </c>
+      <c r="BN18">
+        <v>1.73</v>
+      </c>
+      <c r="BO18">
+        <v>2.67</v>
+      </c>
+      <c r="BP18">
+        <v>1.39</v>
+      </c>
+    </row>
+    <row r="19" spans="1:68">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>7463331</v>
+      </c>
+      <c r="C19" t="s">
+        <v>68</v>
+      </c>
+      <c r="D19" t="s">
+        <v>69</v>
+      </c>
+      <c r="E19" s="2">
+        <v>45513.63541666666</v>
+      </c>
+      <c r="F19">
+        <v>4</v>
+      </c>
+      <c r="G19" t="s">
+        <v>70</v>
+      </c>
+      <c r="H19" t="s">
+        <v>73</v>
+      </c>
+      <c r="I19">
+        <v>2</v>
+      </c>
+      <c r="J19">
+        <v>1</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>2</v>
+      </c>
+      <c r="M19">
+        <v>2</v>
+      </c>
+      <c r="N19">
+        <v>4</v>
+      </c>
+      <c r="O19" t="s">
+        <v>94</v>
+      </c>
+      <c r="P19" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q19">
+        <v>2.3</v>
+      </c>
+      <c r="R19">
+        <v>2.3</v>
+      </c>
+      <c r="S19">
+        <v>4.33</v>
+      </c>
+      <c r="T19">
+        <v>1.35</v>
+      </c>
+      <c r="U19">
+        <v>3.04</v>
+      </c>
+      <c r="V19">
+        <v>2.6</v>
+      </c>
+      <c r="W19">
+        <v>1.46</v>
+      </c>
+      <c r="X19">
+        <v>6.35</v>
+      </c>
+      <c r="Y19">
+        <v>1.1</v>
+      </c>
+      <c r="Z19">
+        <v>1.75</v>
+      </c>
+      <c r="AA19">
+        <v>3.7</v>
+      </c>
+      <c r="AB19">
+        <v>4.33</v>
+      </c>
+      <c r="AC19">
+        <v>1.01</v>
+      </c>
+      <c r="AD19">
+        <v>10.25</v>
+      </c>
+      <c r="AE19">
+        <v>1.22</v>
+      </c>
+      <c r="AF19">
+        <v>3.65</v>
+      </c>
+      <c r="AG19">
+        <v>1.7</v>
+      </c>
+      <c r="AH19">
+        <v>2.1</v>
+      </c>
+      <c r="AI19">
+        <v>1.67</v>
+      </c>
+      <c r="AJ19">
+        <v>2.1</v>
+      </c>
+      <c r="AK19">
+        <v>1.19</v>
+      </c>
+      <c r="AL19">
+        <v>1.23</v>
+      </c>
+      <c r="AM19">
+        <v>1.97</v>
+      </c>
+      <c r="AN19">
+        <v>3</v>
+      </c>
+      <c r="AO19">
+        <v>0</v>
+      </c>
+      <c r="AP19">
+        <v>2</v>
+      </c>
+      <c r="AQ19">
+        <v>0.5</v>
+      </c>
+      <c r="AR19">
+        <v>1.52</v>
+      </c>
+      <c r="AS19">
+        <v>1.17</v>
+      </c>
+      <c r="AT19">
+        <v>2.69</v>
+      </c>
+      <c r="AU19">
+        <v>6</v>
+      </c>
+      <c r="AV19">
+        <v>6</v>
+      </c>
+      <c r="AW19">
+        <v>6</v>
+      </c>
+      <c r="AX19">
+        <v>15</v>
+      </c>
+      <c r="AY19">
+        <v>12</v>
+      </c>
+      <c r="AZ19">
+        <v>21</v>
+      </c>
+      <c r="BA19">
+        <v>2</v>
+      </c>
+      <c r="BB19">
+        <v>3</v>
+      </c>
+      <c r="BC19">
+        <v>5</v>
+      </c>
+      <c r="BD19">
+        <v>1.35</v>
+      </c>
+      <c r="BE19">
+        <v>7.4</v>
+      </c>
+      <c r="BF19">
+        <v>4.15</v>
+      </c>
+      <c r="BG19">
+        <v>1.21</v>
+      </c>
+      <c r="BH19">
+        <v>3.74</v>
+      </c>
+      <c r="BI19">
+        <v>1.4</v>
+      </c>
+      <c r="BJ19">
+        <v>2.64</v>
+      </c>
+      <c r="BK19">
+        <v>1.76</v>
+      </c>
+      <c r="BL19">
+        <v>2.02</v>
+      </c>
+      <c r="BM19">
+        <v>2.21</v>
+      </c>
+      <c r="BN19">
+        <v>1.63</v>
+      </c>
+      <c r="BO19">
+        <v>2.88</v>
+      </c>
+      <c r="BP19">
+        <v>1.34</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Switzerland Challenge League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Switzerland Challenge League_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="112">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -347,6 +347,9 @@
   </si>
   <si>
     <t>['15', '76']</t>
+  </si>
+  <si>
+    <t>['39', '45+1', '47']</t>
   </si>
 </sst>
 </file>
@@ -708,7 +711,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP19"/>
+  <dimension ref="A1:BP20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1872,7 +1875,7 @@
         <v>2</v>
       </c>
       <c r="AQ6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2693,7 +2696,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AQ10">
         <v>1</v>
@@ -4626,6 +4629,212 @@
       </c>
       <c r="BP19">
         <v>1.34</v>
+      </c>
+    </row>
+    <row r="20" spans="1:68">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>7463332</v>
+      </c>
+      <c r="C20" t="s">
+        <v>68</v>
+      </c>
+      <c r="D20" t="s">
+        <v>69</v>
+      </c>
+      <c r="E20" s="2">
+        <v>45514.54166666666</v>
+      </c>
+      <c r="F20">
+        <v>4</v>
+      </c>
+      <c r="G20" t="s">
+        <v>78</v>
+      </c>
+      <c r="H20" t="s">
+        <v>76</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>2</v>
+      </c>
+      <c r="K20">
+        <v>2</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>3</v>
+      </c>
+      <c r="N20">
+        <v>3</v>
+      </c>
+      <c r="O20" t="s">
+        <v>84</v>
+      </c>
+      <c r="P20" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q20">
+        <v>2.3</v>
+      </c>
+      <c r="R20">
+        <v>2.3</v>
+      </c>
+      <c r="S20">
+        <v>4</v>
+      </c>
+      <c r="T20">
+        <v>1.31</v>
+      </c>
+      <c r="U20">
+        <v>3.26</v>
+      </c>
+      <c r="V20">
+        <v>2.46</v>
+      </c>
+      <c r="W20">
+        <v>1.52</v>
+      </c>
+      <c r="X20">
+        <v>5.7</v>
+      </c>
+      <c r="Y20">
+        <v>1.12</v>
+      </c>
+      <c r="Z20">
+        <v>1.8</v>
+      </c>
+      <c r="AA20">
+        <v>3.8</v>
+      </c>
+      <c r="AB20">
+        <v>4</v>
+      </c>
+      <c r="AC20">
+        <v>1.01</v>
+      </c>
+      <c r="AD20">
+        <v>11</v>
+      </c>
+      <c r="AE20">
+        <v>1.2</v>
+      </c>
+      <c r="AF20">
+        <v>4</v>
+      </c>
+      <c r="AG20">
+        <v>1.67</v>
+      </c>
+      <c r="AH20">
+        <v>2.15</v>
+      </c>
+      <c r="AI20">
+        <v>1.67</v>
+      </c>
+      <c r="AJ20">
+        <v>2.1</v>
+      </c>
+      <c r="AK20">
+        <v>1.18</v>
+      </c>
+      <c r="AL20">
+        <v>1.22</v>
+      </c>
+      <c r="AM20">
+        <v>2.02</v>
+      </c>
+      <c r="AN20">
+        <v>1</v>
+      </c>
+      <c r="AO20">
+        <v>1</v>
+      </c>
+      <c r="AP20">
+        <v>0.5</v>
+      </c>
+      <c r="AQ20">
+        <v>2</v>
+      </c>
+      <c r="AR20">
+        <v>1.99</v>
+      </c>
+      <c r="AS20">
+        <v>1.72</v>
+      </c>
+      <c r="AT20">
+        <v>3.71</v>
+      </c>
+      <c r="AU20">
+        <v>7</v>
+      </c>
+      <c r="AV20">
+        <v>7</v>
+      </c>
+      <c r="AW20">
+        <v>7</v>
+      </c>
+      <c r="AX20">
+        <v>4</v>
+      </c>
+      <c r="AY20">
+        <v>14</v>
+      </c>
+      <c r="AZ20">
+        <v>11</v>
+      </c>
+      <c r="BA20">
+        <v>3</v>
+      </c>
+      <c r="BB20">
+        <v>1</v>
+      </c>
+      <c r="BC20">
+        <v>4</v>
+      </c>
+      <c r="BD20">
+        <v>1.58</v>
+      </c>
+      <c r="BE20">
+        <v>6.75</v>
+      </c>
+      <c r="BF20">
+        <v>2.97</v>
+      </c>
+      <c r="BG20">
+        <v>1.21</v>
+      </c>
+      <c r="BH20">
+        <v>3.9</v>
+      </c>
+      <c r="BI20">
+        <v>1.36</v>
+      </c>
+      <c r="BJ20">
+        <v>2.79</v>
+      </c>
+      <c r="BK20">
+        <v>2.38</v>
+      </c>
+      <c r="BL20">
+        <v>2.11</v>
+      </c>
+      <c r="BM20">
+        <v>2.11</v>
+      </c>
+      <c r="BN20">
+        <v>1.69</v>
+      </c>
+      <c r="BO20">
+        <v>2.71</v>
+      </c>
+      <c r="BP20">
+        <v>1.38</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Switzerland Challenge League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Switzerland Challenge League_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="114">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -301,6 +301,9 @@
     <t>['4', '13']</t>
   </si>
   <si>
+    <t>['68']</t>
+  </si>
+  <si>
     <t>['25', '90+2']</t>
   </si>
   <si>
@@ -350,6 +353,9 @@
   </si>
   <si>
     <t>['39', '45+1', '47']</t>
+  </si>
+  <si>
+    <t>['5']</t>
   </si>
 </sst>
 </file>
@@ -711,7 +717,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP20"/>
+  <dimension ref="A1:BP21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -970,7 +976,7 @@
         <v>80</v>
       </c>
       <c r="P2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="Q2">
         <v>2.75</v>
@@ -1176,7 +1182,7 @@
         <v>81</v>
       </c>
       <c r="P3" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="Q3">
         <v>2.63</v>
@@ -1254,7 +1260,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AQ3">
         <v>2</v>
@@ -1382,7 +1388,7 @@
         <v>82</v>
       </c>
       <c r="P4" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="Q4">
         <v>3.75</v>
@@ -1588,7 +1594,7 @@
         <v>83</v>
       </c>
       <c r="P5" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="Q5">
         <v>3.6</v>
@@ -2000,7 +2006,7 @@
         <v>84</v>
       </c>
       <c r="P7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="Q7">
         <v>2.63</v>
@@ -2206,7 +2212,7 @@
         <v>85</v>
       </c>
       <c r="P8" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="Q8">
         <v>2.63</v>
@@ -2412,7 +2418,7 @@
         <v>86</v>
       </c>
       <c r="P9" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="Q9">
         <v>3</v>
@@ -2618,7 +2624,7 @@
         <v>87</v>
       </c>
       <c r="P10" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="Q10">
         <v>2.3</v>
@@ -2905,7 +2911,7 @@
         <v>2</v>
       </c>
       <c r="AQ11">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3030,7 +3036,7 @@
         <v>84</v>
       </c>
       <c r="P12" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="Q12">
         <v>2.88</v>
@@ -3236,7 +3242,7 @@
         <v>89</v>
       </c>
       <c r="P13" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="Q13">
         <v>2.2</v>
@@ -3442,7 +3448,7 @@
         <v>90</v>
       </c>
       <c r="P14" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="Q14">
         <v>3</v>
@@ -3648,7 +3654,7 @@
         <v>91</v>
       </c>
       <c r="P15" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="Q15">
         <v>3</v>
@@ -3854,7 +3860,7 @@
         <v>92</v>
       </c>
       <c r="P16" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="Q16">
         <v>2.75</v>
@@ -4060,7 +4066,7 @@
         <v>93</v>
       </c>
       <c r="P17" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Q17">
         <v>2.38</v>
@@ -4266,7 +4272,7 @@
         <v>84</v>
       </c>
       <c r="P18" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="Q18">
         <v>3.1</v>
@@ -4472,7 +4478,7 @@
         <v>94</v>
       </c>
       <c r="P19" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="Q19">
         <v>2.3</v>
@@ -4678,7 +4684,7 @@
         <v>84</v>
       </c>
       <c r="P20" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="Q20">
         <v>2.3</v>
@@ -4835,6 +4841,212 @@
       </c>
       <c r="BP20">
         <v>1.38</v>
+      </c>
+    </row>
+    <row r="21" spans="1:68">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>7463333</v>
+      </c>
+      <c r="C21" t="s">
+        <v>68</v>
+      </c>
+      <c r="D21" t="s">
+        <v>69</v>
+      </c>
+      <c r="E21" s="2">
+        <v>45515.38541666666</v>
+      </c>
+      <c r="F21">
+        <v>4</v>
+      </c>
+      <c r="G21" t="s">
+        <v>71</v>
+      </c>
+      <c r="H21" t="s">
+        <v>74</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>1</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>1</v>
+      </c>
+      <c r="N21">
+        <v>2</v>
+      </c>
+      <c r="O21" t="s">
+        <v>95</v>
+      </c>
+      <c r="P21" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q21">
+        <v>2.88</v>
+      </c>
+      <c r="R21">
+        <v>2.25</v>
+      </c>
+      <c r="S21">
+        <v>3.2</v>
+      </c>
+      <c r="T21">
+        <v>1.31</v>
+      </c>
+      <c r="U21">
+        <v>3.26</v>
+      </c>
+      <c r="V21">
+        <v>2.43</v>
+      </c>
+      <c r="W21">
+        <v>1.52</v>
+      </c>
+      <c r="X21">
+        <v>5.75</v>
+      </c>
+      <c r="Y21">
+        <v>1.12</v>
+      </c>
+      <c r="Z21">
+        <v>2.3</v>
+      </c>
+      <c r="AA21">
+        <v>3.5</v>
+      </c>
+      <c r="AB21">
+        <v>2.8</v>
+      </c>
+      <c r="AC21">
+        <v>1.01</v>
+      </c>
+      <c r="AD21">
+        <v>11</v>
+      </c>
+      <c r="AE21">
+        <v>1.18</v>
+      </c>
+      <c r="AF21">
+        <v>4.1</v>
+      </c>
+      <c r="AG21">
+        <v>1.67</v>
+      </c>
+      <c r="AH21">
+        <v>2.15</v>
+      </c>
+      <c r="AI21">
+        <v>1.57</v>
+      </c>
+      <c r="AJ21">
+        <v>2.25</v>
+      </c>
+      <c r="AK21">
+        <v>1.42</v>
+      </c>
+      <c r="AL21">
+        <v>1.25</v>
+      </c>
+      <c r="AM21">
+        <v>1.52</v>
+      </c>
+      <c r="AN21">
+        <v>0</v>
+      </c>
+      <c r="AO21">
+        <v>0</v>
+      </c>
+      <c r="AP21">
+        <v>0.5</v>
+      </c>
+      <c r="AQ21">
+        <v>0.5</v>
+      </c>
+      <c r="AR21">
+        <v>1.63</v>
+      </c>
+      <c r="AS21">
+        <v>1.43</v>
+      </c>
+      <c r="AT21">
+        <v>3.06</v>
+      </c>
+      <c r="AU21">
+        <v>3</v>
+      </c>
+      <c r="AV21">
+        <v>4</v>
+      </c>
+      <c r="AW21">
+        <v>12</v>
+      </c>
+      <c r="AX21">
+        <v>5</v>
+      </c>
+      <c r="AY21">
+        <v>15</v>
+      </c>
+      <c r="AZ21">
+        <v>9</v>
+      </c>
+      <c r="BA21">
+        <v>0</v>
+      </c>
+      <c r="BB21">
+        <v>3</v>
+      </c>
+      <c r="BC21">
+        <v>3</v>
+      </c>
+      <c r="BD21">
+        <v>1.96</v>
+      </c>
+      <c r="BE21">
+        <v>6.45</v>
+      </c>
+      <c r="BF21">
+        <v>2.21</v>
+      </c>
+      <c r="BG21">
+        <v>0</v>
+      </c>
+      <c r="BH21">
+        <v>0</v>
+      </c>
+      <c r="BI21">
+        <v>1.31</v>
+      </c>
+      <c r="BJ21">
+        <v>3.04</v>
+      </c>
+      <c r="BK21">
+        <v>2.1</v>
+      </c>
+      <c r="BL21">
+        <v>2.25</v>
+      </c>
+      <c r="BM21">
+        <v>2</v>
+      </c>
+      <c r="BN21">
+        <v>1.8</v>
+      </c>
+      <c r="BO21">
+        <v>2.53</v>
+      </c>
+      <c r="BP21">
+        <v>1.5</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Switzerland Challenge League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Switzerland Challenge League_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="115">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -302,6 +302,9 @@
   </si>
   <si>
     <t>['68']</t>
+  </si>
+  <si>
+    <t>['15', '54', '60', '69']</t>
   </si>
   <si>
     <t>['25', '90+2']</t>
@@ -717,7 +720,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP21"/>
+  <dimension ref="A1:BP22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -976,7 +979,7 @@
         <v>80</v>
       </c>
       <c r="P2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="Q2">
         <v>2.75</v>
@@ -1182,7 +1185,7 @@
         <v>81</v>
       </c>
       <c r="P3" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="Q3">
         <v>2.63</v>
@@ -1388,7 +1391,7 @@
         <v>82</v>
       </c>
       <c r="P4" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="Q4">
         <v>3.75</v>
@@ -1594,7 +1597,7 @@
         <v>83</v>
       </c>
       <c r="P5" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="Q5">
         <v>3.6</v>
@@ -2006,7 +2009,7 @@
         <v>84</v>
       </c>
       <c r="P7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="Q7">
         <v>2.63</v>
@@ -2212,7 +2215,7 @@
         <v>85</v>
       </c>
       <c r="P8" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="Q8">
         <v>2.63</v>
@@ -2418,7 +2421,7 @@
         <v>86</v>
       </c>
       <c r="P9" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="Q9">
         <v>3</v>
@@ -2499,7 +2502,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ9">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -2624,7 +2627,7 @@
         <v>87</v>
       </c>
       <c r="P10" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="Q10">
         <v>2.3</v>
@@ -2702,7 +2705,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>0.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ10">
         <v>1</v>
@@ -3036,7 +3039,7 @@
         <v>84</v>
       </c>
       <c r="P12" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="Q12">
         <v>2.88</v>
@@ -3242,7 +3245,7 @@
         <v>89</v>
       </c>
       <c r="P13" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="Q13">
         <v>2.2</v>
@@ -3448,7 +3451,7 @@
         <v>90</v>
       </c>
       <c r="P14" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="Q14">
         <v>3</v>
@@ -3529,7 +3532,7 @@
         <v>0</v>
       </c>
       <c r="AQ14">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AR14">
         <v>1.19</v>
@@ -3654,7 +3657,7 @@
         <v>91</v>
       </c>
       <c r="P15" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="Q15">
         <v>3</v>
@@ -3860,7 +3863,7 @@
         <v>92</v>
       </c>
       <c r="P16" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Q16">
         <v>2.75</v>
@@ -4066,7 +4069,7 @@
         <v>93</v>
       </c>
       <c r="P17" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="Q17">
         <v>2.38</v>
@@ -4272,7 +4275,7 @@
         <v>84</v>
       </c>
       <c r="P18" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="Q18">
         <v>3.1</v>
@@ -4478,7 +4481,7 @@
         <v>94</v>
       </c>
       <c r="P19" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="Q19">
         <v>2.3</v>
@@ -4684,7 +4687,7 @@
         <v>84</v>
       </c>
       <c r="P20" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="Q20">
         <v>2.3</v>
@@ -4762,7 +4765,7 @@
         <v>1</v>
       </c>
       <c r="AP20">
-        <v>0.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ20">
         <v>2</v>
@@ -4890,7 +4893,7 @@
         <v>95</v>
       </c>
       <c r="P21" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="Q21">
         <v>2.88</v>
@@ -5047,6 +5050,212 @@
       </c>
       <c r="BP21">
         <v>1.5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:68">
+      <c r="A22" s="1">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>7463334</v>
+      </c>
+      <c r="C22" t="s">
+        <v>68</v>
+      </c>
+      <c r="D22" t="s">
+        <v>69</v>
+      </c>
+      <c r="E22" s="2">
+        <v>45527.63541666666</v>
+      </c>
+      <c r="F22">
+        <v>5</v>
+      </c>
+      <c r="G22" t="s">
+        <v>78</v>
+      </c>
+      <c r="H22" t="s">
+        <v>70</v>
+      </c>
+      <c r="I22">
+        <v>1</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>1</v>
+      </c>
+      <c r="L22">
+        <v>4</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>4</v>
+      </c>
+      <c r="O22" t="s">
+        <v>96</v>
+      </c>
+      <c r="P22" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q22">
+        <v>2.88</v>
+      </c>
+      <c r="R22">
+        <v>2.3</v>
+      </c>
+      <c r="S22">
+        <v>3.1</v>
+      </c>
+      <c r="T22">
+        <v>1.29</v>
+      </c>
+      <c r="U22">
+        <v>3.4</v>
+      </c>
+      <c r="V22">
+        <v>2.36</v>
+      </c>
+      <c r="W22">
+        <v>1.54</v>
+      </c>
+      <c r="X22">
+        <v>5.4</v>
+      </c>
+      <c r="Y22">
+        <v>1.13</v>
+      </c>
+      <c r="Z22">
+        <v>2.4</v>
+      </c>
+      <c r="AA22">
+        <v>3.5</v>
+      </c>
+      <c r="AB22">
+        <v>2.7</v>
+      </c>
+      <c r="AC22">
+        <v>1.03</v>
+      </c>
+      <c r="AD22">
+        <v>12</v>
+      </c>
+      <c r="AE22">
+        <v>1.18</v>
+      </c>
+      <c r="AF22">
+        <v>4.5</v>
+      </c>
+      <c r="AG22">
+        <v>1.6</v>
+      </c>
+      <c r="AH22">
+        <v>2.3</v>
+      </c>
+      <c r="AI22">
+        <v>1.5</v>
+      </c>
+      <c r="AJ22">
+        <v>2.5</v>
+      </c>
+      <c r="AK22">
+        <v>1.35</v>
+      </c>
+      <c r="AL22">
+        <v>1.22</v>
+      </c>
+      <c r="AM22">
+        <v>1.68</v>
+      </c>
+      <c r="AN22">
+        <v>0.5</v>
+      </c>
+      <c r="AO22">
+        <v>1.5</v>
+      </c>
+      <c r="AP22">
+        <v>1.33</v>
+      </c>
+      <c r="AQ22">
+        <v>1</v>
+      </c>
+      <c r="AR22">
+        <v>1.91</v>
+      </c>
+      <c r="AS22">
+        <v>2.25</v>
+      </c>
+      <c r="AT22">
+        <v>4.16</v>
+      </c>
+      <c r="AU22">
+        <v>11</v>
+      </c>
+      <c r="AV22">
+        <v>2</v>
+      </c>
+      <c r="AW22">
+        <v>6</v>
+      </c>
+      <c r="AX22">
+        <v>7</v>
+      </c>
+      <c r="AY22">
+        <v>17</v>
+      </c>
+      <c r="AZ22">
+        <v>9</v>
+      </c>
+      <c r="BA22">
+        <v>5</v>
+      </c>
+      <c r="BB22">
+        <v>2</v>
+      </c>
+      <c r="BC22">
+        <v>7</v>
+      </c>
+      <c r="BD22">
+        <v>1.81</v>
+      </c>
+      <c r="BE22">
+        <v>6.1</v>
+      </c>
+      <c r="BF22">
+        <v>2.49</v>
+      </c>
+      <c r="BG22">
+        <v>1.27</v>
+      </c>
+      <c r="BH22">
+        <v>3.28</v>
+      </c>
+      <c r="BI22">
+        <v>1.57</v>
+      </c>
+      <c r="BJ22">
+        <v>2.32</v>
+      </c>
+      <c r="BK22">
+        <v>1.95</v>
+      </c>
+      <c r="BL22">
+        <v>1.84</v>
+      </c>
+      <c r="BM22">
+        <v>2.47</v>
+      </c>
+      <c r="BN22">
+        <v>1.5</v>
+      </c>
+      <c r="BO22">
+        <v>3.34</v>
+      </c>
+      <c r="BP22">
+        <v>1.26</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Switzerland Challenge League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Switzerland Challenge League_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="117">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -307,6 +307,9 @@
     <t>['15', '54', '60', '69']</t>
   </si>
   <si>
+    <t>['20', '29']</t>
+  </si>
+  <si>
     <t>['25', '90+2']</t>
   </si>
   <si>
@@ -359,6 +362,9 @@
   </si>
   <si>
     <t>['5']</t>
+  </si>
+  <si>
+    <t>['88']</t>
   </si>
 </sst>
 </file>
@@ -720,7 +726,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP22"/>
+  <dimension ref="A1:BP24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -979,7 +985,7 @@
         <v>80</v>
       </c>
       <c r="P2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="Q2">
         <v>2.75</v>
@@ -1185,7 +1191,7 @@
         <v>81</v>
       </c>
       <c r="P3" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="Q3">
         <v>2.63</v>
@@ -1266,7 +1272,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ3">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1391,7 +1397,7 @@
         <v>82</v>
       </c>
       <c r="P4" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="Q4">
         <v>3.75</v>
@@ -1469,7 +1475,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ4">
         <v>3</v>
@@ -1597,7 +1603,7 @@
         <v>83</v>
       </c>
       <c r="P5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="Q5">
         <v>3.6</v>
@@ -1675,7 +1681,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AQ5">
         <v>0</v>
@@ -2009,7 +2015,7 @@
         <v>84</v>
       </c>
       <c r="P7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="Q7">
         <v>2.63</v>
@@ -2090,7 +2096,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2215,7 +2221,7 @@
         <v>85</v>
       </c>
       <c r="P8" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="Q8">
         <v>2.63</v>
@@ -2421,7 +2427,7 @@
         <v>86</v>
       </c>
       <c r="P9" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="Q9">
         <v>3</v>
@@ -2627,7 +2633,7 @@
         <v>87</v>
       </c>
       <c r="P10" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="Q10">
         <v>2.3</v>
@@ -3039,7 +3045,7 @@
         <v>84</v>
       </c>
       <c r="P12" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="Q12">
         <v>2.88</v>
@@ -3120,7 +3126,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AR12">
         <v>1.34</v>
@@ -3245,7 +3251,7 @@
         <v>89</v>
       </c>
       <c r="P13" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="Q13">
         <v>2.2</v>
@@ -3451,7 +3457,7 @@
         <v>90</v>
       </c>
       <c r="P14" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="Q14">
         <v>3</v>
@@ -3529,7 +3535,7 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ14">
         <v>1</v>
@@ -3657,7 +3663,7 @@
         <v>91</v>
       </c>
       <c r="P15" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Q15">
         <v>3</v>
@@ -3735,10 +3741,10 @@
         <v>3</v>
       </c>
       <c r="AP15">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AQ15">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="AR15">
         <v>1.72</v>
@@ -3863,7 +3869,7 @@
         <v>92</v>
       </c>
       <c r="P16" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="Q16">
         <v>2.75</v>
@@ -4069,7 +4075,7 @@
         <v>93</v>
       </c>
       <c r="P17" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="Q17">
         <v>2.38</v>
@@ -4275,7 +4281,7 @@
         <v>84</v>
       </c>
       <c r="P18" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="Q18">
         <v>3.1</v>
@@ -4481,7 +4487,7 @@
         <v>94</v>
       </c>
       <c r="P19" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="Q19">
         <v>2.3</v>
@@ -4687,7 +4693,7 @@
         <v>84</v>
       </c>
       <c r="P20" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="Q20">
         <v>2.3</v>
@@ -4893,7 +4899,7 @@
         <v>95</v>
       </c>
       <c r="P21" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="Q21">
         <v>2.88</v>
@@ -5256,6 +5262,418 @@
       </c>
       <c r="BP22">
         <v>1.26</v>
+      </c>
+    </row>
+    <row r="23" spans="1:68">
+      <c r="A23" s="1">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>7463336</v>
+      </c>
+      <c r="C23" t="s">
+        <v>68</v>
+      </c>
+      <c r="D23" t="s">
+        <v>69</v>
+      </c>
+      <c r="E23" s="2">
+        <v>45528.54166666666</v>
+      </c>
+      <c r="F23">
+        <v>5</v>
+      </c>
+      <c r="G23" t="s">
+        <v>73</v>
+      </c>
+      <c r="H23" t="s">
+        <v>71</v>
+      </c>
+      <c r="I23">
+        <v>2</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>2</v>
+      </c>
+      <c r="L23">
+        <v>2</v>
+      </c>
+      <c r="M23">
+        <v>1</v>
+      </c>
+      <c r="N23">
+        <v>3</v>
+      </c>
+      <c r="O23" t="s">
+        <v>97</v>
+      </c>
+      <c r="P23" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q23">
+        <v>2.88</v>
+      </c>
+      <c r="R23">
+        <v>2.1</v>
+      </c>
+      <c r="S23">
+        <v>3.4</v>
+      </c>
+      <c r="T23">
+        <v>1.35</v>
+      </c>
+      <c r="U23">
+        <v>3.1</v>
+      </c>
+      <c r="V23">
+        <v>2.75</v>
+      </c>
+      <c r="W23">
+        <v>1.4</v>
+      </c>
+      <c r="X23">
+        <v>6.8</v>
+      </c>
+      <c r="Y23">
+        <v>1.08</v>
+      </c>
+      <c r="Z23">
+        <v>2.25</v>
+      </c>
+      <c r="AA23">
+        <v>3.4</v>
+      </c>
+      <c r="AB23">
+        <v>3</v>
+      </c>
+      <c r="AC23">
+        <v>1.01</v>
+      </c>
+      <c r="AD23">
+        <v>9.5</v>
+      </c>
+      <c r="AE23">
+        <v>1.28</v>
+      </c>
+      <c r="AF23">
+        <v>3.5</v>
+      </c>
+      <c r="AG23">
+        <v>1.85</v>
+      </c>
+      <c r="AH23">
+        <v>1.95</v>
+      </c>
+      <c r="AI23">
+        <v>1.73</v>
+      </c>
+      <c r="AJ23">
+        <v>2</v>
+      </c>
+      <c r="AK23">
+        <v>1.47</v>
+      </c>
+      <c r="AL23">
+        <v>1.25</v>
+      </c>
+      <c r="AM23">
+        <v>1.47</v>
+      </c>
+      <c r="AN23">
+        <v>2</v>
+      </c>
+      <c r="AO23">
+        <v>3</v>
+      </c>
+      <c r="AP23">
+        <v>2.33</v>
+      </c>
+      <c r="AQ23">
+        <v>2</v>
+      </c>
+      <c r="AR23">
+        <v>1.3</v>
+      </c>
+      <c r="AS23">
+        <v>1.43</v>
+      </c>
+      <c r="AT23">
+        <v>2.73</v>
+      </c>
+      <c r="AU23">
+        <v>6</v>
+      </c>
+      <c r="AV23">
+        <v>5</v>
+      </c>
+      <c r="AW23">
+        <v>5</v>
+      </c>
+      <c r="AX23">
+        <v>2</v>
+      </c>
+      <c r="AY23">
+        <v>11</v>
+      </c>
+      <c r="AZ23">
+        <v>7</v>
+      </c>
+      <c r="BA23">
+        <v>5</v>
+      </c>
+      <c r="BB23">
+        <v>1</v>
+      </c>
+      <c r="BC23">
+        <v>6</v>
+      </c>
+      <c r="BD23">
+        <v>1.88</v>
+      </c>
+      <c r="BE23">
+        <v>6.25</v>
+      </c>
+      <c r="BF23">
+        <v>2.35</v>
+      </c>
+      <c r="BG23">
+        <v>1.22</v>
+      </c>
+      <c r="BH23">
+        <v>3.65</v>
+      </c>
+      <c r="BI23">
+        <v>1.43</v>
+      </c>
+      <c r="BJ23">
+        <v>2.54</v>
+      </c>
+      <c r="BK23">
+        <v>1.75</v>
+      </c>
+      <c r="BL23">
+        <v>1.92</v>
+      </c>
+      <c r="BM23">
+        <v>2.23</v>
+      </c>
+      <c r="BN23">
+        <v>1.55</v>
+      </c>
+      <c r="BO23">
+        <v>2.98</v>
+      </c>
+      <c r="BP23">
+        <v>1.32</v>
+      </c>
+    </row>
+    <row r="24" spans="1:68">
+      <c r="A24" s="1">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>7463335</v>
+      </c>
+      <c r="C24" t="s">
+        <v>68</v>
+      </c>
+      <c r="D24" t="s">
+        <v>69</v>
+      </c>
+      <c r="E24" s="2">
+        <v>45528.54166666666</v>
+      </c>
+      <c r="F24">
+        <v>5</v>
+      </c>
+      <c r="G24" t="s">
+        <v>72</v>
+      </c>
+      <c r="H24" t="s">
+        <v>77</v>
+      </c>
+      <c r="I24">
+        <v>1</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>1</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>1</v>
+      </c>
+      <c r="O24" t="s">
+        <v>89</v>
+      </c>
+      <c r="P24" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q24">
+        <v>3</v>
+      </c>
+      <c r="R24">
+        <v>2.25</v>
+      </c>
+      <c r="S24">
+        <v>3</v>
+      </c>
+      <c r="T24">
+        <v>1.3</v>
+      </c>
+      <c r="U24">
+        <v>3.4</v>
+      </c>
+      <c r="V24">
+        <v>2.38</v>
+      </c>
+      <c r="W24">
+        <v>1.53</v>
+      </c>
+      <c r="X24">
+        <v>5.5</v>
+      </c>
+      <c r="Y24">
+        <v>1.13</v>
+      </c>
+      <c r="Z24">
+        <v>2.5</v>
+      </c>
+      <c r="AA24">
+        <v>3.5</v>
+      </c>
+      <c r="AB24">
+        <v>2.55</v>
+      </c>
+      <c r="AC24">
+        <v>1.01</v>
+      </c>
+      <c r="AD24">
+        <v>11</v>
+      </c>
+      <c r="AE24">
+        <v>1.18</v>
+      </c>
+      <c r="AF24">
+        <v>4.33</v>
+      </c>
+      <c r="AG24">
+        <v>1.7</v>
+      </c>
+      <c r="AH24">
+        <v>2.1</v>
+      </c>
+      <c r="AI24">
+        <v>1.57</v>
+      </c>
+      <c r="AJ24">
+        <v>2.25</v>
+      </c>
+      <c r="AK24">
+        <v>1.5</v>
+      </c>
+      <c r="AL24">
+        <v>1.29</v>
+      </c>
+      <c r="AM24">
+        <v>1.53</v>
+      </c>
+      <c r="AN24">
+        <v>0</v>
+      </c>
+      <c r="AO24">
+        <v>2</v>
+      </c>
+      <c r="AP24">
+        <v>1</v>
+      </c>
+      <c r="AQ24">
+        <v>1.33</v>
+      </c>
+      <c r="AR24">
+        <v>1.47</v>
+      </c>
+      <c r="AS24">
+        <v>1.85</v>
+      </c>
+      <c r="AT24">
+        <v>3.32</v>
+      </c>
+      <c r="AU24">
+        <v>0</v>
+      </c>
+      <c r="AV24">
+        <v>3</v>
+      </c>
+      <c r="AW24">
+        <v>7</v>
+      </c>
+      <c r="AX24">
+        <v>9</v>
+      </c>
+      <c r="AY24">
+        <v>7</v>
+      </c>
+      <c r="AZ24">
+        <v>12</v>
+      </c>
+      <c r="BA24">
+        <v>1</v>
+      </c>
+      <c r="BB24">
+        <v>6</v>
+      </c>
+      <c r="BC24">
+        <v>7</v>
+      </c>
+      <c r="BD24">
+        <v>2.1</v>
+      </c>
+      <c r="BE24">
+        <v>6.3</v>
+      </c>
+      <c r="BF24">
+        <v>2.07</v>
+      </c>
+      <c r="BG24">
+        <v>1.21</v>
+      </c>
+      <c r="BH24">
+        <v>3.74</v>
+      </c>
+      <c r="BI24">
+        <v>1.41</v>
+      </c>
+      <c r="BJ24">
+        <v>2.6</v>
+      </c>
+      <c r="BK24">
+        <v>2.2</v>
+      </c>
+      <c r="BL24">
+        <v>1.97</v>
+      </c>
+      <c r="BM24">
+        <v>2.17</v>
+      </c>
+      <c r="BN24">
+        <v>1.58</v>
+      </c>
+      <c r="BO24">
+        <v>2.91</v>
+      </c>
+      <c r="BP24">
+        <v>1.33</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Switzerland Challenge League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Switzerland Challenge League_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="120">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -310,6 +310,12 @@
     <t>['20', '29']</t>
   </si>
   <si>
+    <t>['9', '33', '81']</t>
+  </si>
+  <si>
+    <t>['23', '64', '71', '90+4']</t>
+  </si>
+  <si>
     <t>['25', '90+2']</t>
   </si>
   <si>
@@ -365,6 +371,9 @@
   </si>
   <si>
     <t>['88']</t>
+  </si>
+  <si>
+    <t>['44', '88']</t>
   </si>
 </sst>
 </file>
@@ -726,7 +735,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP24"/>
+  <dimension ref="A1:BP26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -985,7 +994,7 @@
         <v>80</v>
       </c>
       <c r="P2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="Q2">
         <v>2.75</v>
@@ -1066,7 +1075,7 @@
         <v>2</v>
       </c>
       <c r="AQ2">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1191,7 +1200,7 @@
         <v>81</v>
       </c>
       <c r="P3" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="Q3">
         <v>2.63</v>
@@ -1397,7 +1406,7 @@
         <v>82</v>
       </c>
       <c r="P4" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="Q4">
         <v>3.75</v>
@@ -1603,7 +1612,7 @@
         <v>83</v>
       </c>
       <c r="P5" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="Q5">
         <v>3.6</v>
@@ -1887,10 +1896,10 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AQ6">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2015,7 +2024,7 @@
         <v>84</v>
       </c>
       <c r="P7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="Q7">
         <v>2.63</v>
@@ -2221,7 +2230,7 @@
         <v>85</v>
       </c>
       <c r="P8" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="Q8">
         <v>2.63</v>
@@ -2427,7 +2436,7 @@
         <v>86</v>
       </c>
       <c r="P9" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="Q9">
         <v>3</v>
@@ -2633,7 +2642,7 @@
         <v>87</v>
       </c>
       <c r="P10" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="Q10">
         <v>2.3</v>
@@ -2917,7 +2926,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AQ11">
         <v>0.5</v>
@@ -3045,7 +3054,7 @@
         <v>84</v>
       </c>
       <c r="P12" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="Q12">
         <v>2.88</v>
@@ -3251,7 +3260,7 @@
         <v>89</v>
       </c>
       <c r="P13" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="Q13">
         <v>2.2</v>
@@ -3329,10 +3338,10 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AQ13">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="AR13">
         <v>1.92</v>
@@ -3457,7 +3466,7 @@
         <v>90</v>
       </c>
       <c r="P14" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="Q14">
         <v>3</v>
@@ -3663,7 +3672,7 @@
         <v>91</v>
       </c>
       <c r="P15" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="Q15">
         <v>3</v>
@@ -3869,7 +3878,7 @@
         <v>92</v>
       </c>
       <c r="P16" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="Q16">
         <v>2.75</v>
@@ -3947,7 +3956,7 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AQ16">
         <v>0</v>
@@ -4075,7 +4084,7 @@
         <v>93</v>
       </c>
       <c r="P17" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="Q17">
         <v>2.38</v>
@@ -4281,7 +4290,7 @@
         <v>84</v>
       </c>
       <c r="P18" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="Q18">
         <v>3.1</v>
@@ -4487,7 +4496,7 @@
         <v>94</v>
       </c>
       <c r="P19" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="Q19">
         <v>2.3</v>
@@ -4693,7 +4702,7 @@
         <v>84</v>
       </c>
       <c r="P20" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="Q20">
         <v>2.3</v>
@@ -4774,7 +4783,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ20">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="AR20">
         <v>1.99</v>
@@ -4899,7 +4908,7 @@
         <v>95</v>
       </c>
       <c r="P21" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="Q21">
         <v>2.88</v>
@@ -5311,7 +5320,7 @@
         <v>97</v>
       </c>
       <c r="P23" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="Q23">
         <v>2.88</v>
@@ -5674,6 +5683,418 @@
       </c>
       <c r="BP24">
         <v>1.33</v>
+      </c>
+    </row>
+    <row r="25" spans="1:68">
+      <c r="A25" s="1">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>7463337</v>
+      </c>
+      <c r="C25" t="s">
+        <v>68</v>
+      </c>
+      <c r="D25" t="s">
+        <v>69</v>
+      </c>
+      <c r="E25" s="2">
+        <v>45529.38541666666</v>
+      </c>
+      <c r="F25">
+        <v>5</v>
+      </c>
+      <c r="G25" t="s">
+        <v>74</v>
+      </c>
+      <c r="H25" t="s">
+        <v>75</v>
+      </c>
+      <c r="I25">
+        <v>2</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>3</v>
+      </c>
+      <c r="M25">
+        <v>1</v>
+      </c>
+      <c r="N25">
+        <v>4</v>
+      </c>
+      <c r="O25" t="s">
+        <v>98</v>
+      </c>
+      <c r="P25" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q25">
+        <v>2.63</v>
+      </c>
+      <c r="R25">
+        <v>2.38</v>
+      </c>
+      <c r="S25">
+        <v>3.25</v>
+      </c>
+      <c r="T25">
+        <v>1.33</v>
+      </c>
+      <c r="U25">
+        <v>3.25</v>
+      </c>
+      <c r="V25">
+        <v>2.63</v>
+      </c>
+      <c r="W25">
+        <v>1.44</v>
+      </c>
+      <c r="X25">
+        <v>6</v>
+      </c>
+      <c r="Y25">
+        <v>1.11</v>
+      </c>
+      <c r="Z25">
+        <v>2.1</v>
+      </c>
+      <c r="AA25">
+        <v>3.8</v>
+      </c>
+      <c r="AB25">
+        <v>2.9</v>
+      </c>
+      <c r="AC25">
+        <v>1.02</v>
+      </c>
+      <c r="AD25">
+        <v>10</v>
+      </c>
+      <c r="AE25">
+        <v>1.22</v>
+      </c>
+      <c r="AF25">
+        <v>3.8</v>
+      </c>
+      <c r="AG25">
+        <v>1.57</v>
+      </c>
+      <c r="AH25">
+        <v>2.35</v>
+      </c>
+      <c r="AI25">
+        <v>1.5</v>
+      </c>
+      <c r="AJ25">
+        <v>2.5</v>
+      </c>
+      <c r="AK25">
+        <v>1.45</v>
+      </c>
+      <c r="AL25">
+        <v>1.27</v>
+      </c>
+      <c r="AM25">
+        <v>1.45</v>
+      </c>
+      <c r="AN25">
+        <v>2</v>
+      </c>
+      <c r="AO25">
+        <v>0.5</v>
+      </c>
+      <c r="AP25">
+        <v>2.33</v>
+      </c>
+      <c r="AQ25">
+        <v>0.33</v>
+      </c>
+      <c r="AR25">
+        <v>1.92</v>
+      </c>
+      <c r="AS25">
+        <v>1.68</v>
+      </c>
+      <c r="AT25">
+        <v>3.6</v>
+      </c>
+      <c r="AU25">
+        <v>10</v>
+      </c>
+      <c r="AV25">
+        <v>3</v>
+      </c>
+      <c r="AW25">
+        <v>13</v>
+      </c>
+      <c r="AX25">
+        <v>7</v>
+      </c>
+      <c r="AY25">
+        <v>23</v>
+      </c>
+      <c r="AZ25">
+        <v>10</v>
+      </c>
+      <c r="BA25">
+        <v>8</v>
+      </c>
+      <c r="BB25">
+        <v>1</v>
+      </c>
+      <c r="BC25">
+        <v>9</v>
+      </c>
+      <c r="BD25">
+        <v>1.69</v>
+      </c>
+      <c r="BE25">
+        <v>8.1</v>
+      </c>
+      <c r="BF25">
+        <v>2.48</v>
+      </c>
+      <c r="BG25">
+        <v>1.32</v>
+      </c>
+      <c r="BH25">
+        <v>3.1</v>
+      </c>
+      <c r="BI25">
+        <v>1.57</v>
+      </c>
+      <c r="BJ25">
+        <v>2.32</v>
+      </c>
+      <c r="BK25">
+        <v>1.96</v>
+      </c>
+      <c r="BL25">
+        <v>1.83</v>
+      </c>
+      <c r="BM25">
+        <v>2.48</v>
+      </c>
+      <c r="BN25">
+        <v>1.5</v>
+      </c>
+      <c r="BO25">
+        <v>3.2</v>
+      </c>
+      <c r="BP25">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:68">
+      <c r="A26" s="1">
+        <v>25</v>
+      </c>
+      <c r="B26">
+        <v>7463338</v>
+      </c>
+      <c r="C26" t="s">
+        <v>68</v>
+      </c>
+      <c r="D26" t="s">
+        <v>69</v>
+      </c>
+      <c r="E26" s="2">
+        <v>45529.47916666666</v>
+      </c>
+      <c r="F26">
+        <v>5</v>
+      </c>
+      <c r="G26" t="s">
+        <v>79</v>
+      </c>
+      <c r="H26" t="s">
+        <v>76</v>
+      </c>
+      <c r="I26">
+        <v>1</v>
+      </c>
+      <c r="J26">
+        <v>1</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>4</v>
+      </c>
+      <c r="M26">
+        <v>2</v>
+      </c>
+      <c r="N26">
+        <v>6</v>
+      </c>
+      <c r="O26" t="s">
+        <v>99</v>
+      </c>
+      <c r="P26" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q26">
+        <v>2.2</v>
+      </c>
+      <c r="R26">
+        <v>2.38</v>
+      </c>
+      <c r="S26">
+        <v>4.33</v>
+      </c>
+      <c r="T26">
+        <v>1.27</v>
+      </c>
+      <c r="U26">
+        <v>3.54</v>
+      </c>
+      <c r="V26">
+        <v>2.27</v>
+      </c>
+      <c r="W26">
+        <v>1.59</v>
+      </c>
+      <c r="X26">
+        <v>5.15</v>
+      </c>
+      <c r="Y26">
+        <v>1.14</v>
+      </c>
+      <c r="Z26">
+        <v>1.46</v>
+      </c>
+      <c r="AA26">
+        <v>4.1</v>
+      </c>
+      <c r="AB26">
+        <v>5.25</v>
+      </c>
+      <c r="AC26">
+        <v>1.02</v>
+      </c>
+      <c r="AD26">
+        <v>12</v>
+      </c>
+      <c r="AE26">
+        <v>1.14</v>
+      </c>
+      <c r="AF26">
+        <v>4.6</v>
+      </c>
+      <c r="AG26">
+        <v>1.53</v>
+      </c>
+      <c r="AH26">
+        <v>2.35</v>
+      </c>
+      <c r="AI26">
+        <v>1.67</v>
+      </c>
+      <c r="AJ26">
+        <v>2.1</v>
+      </c>
+      <c r="AK26">
+        <v>1.1</v>
+      </c>
+      <c r="AL26">
+        <v>1.16</v>
+      </c>
+      <c r="AM26">
+        <v>2.51</v>
+      </c>
+      <c r="AN26">
+        <v>2</v>
+      </c>
+      <c r="AO26">
+        <v>2</v>
+      </c>
+      <c r="AP26">
+        <v>2.33</v>
+      </c>
+      <c r="AQ26">
+        <v>1.33</v>
+      </c>
+      <c r="AR26">
+        <v>1.45</v>
+      </c>
+      <c r="AS26">
+        <v>1.64</v>
+      </c>
+      <c r="AT26">
+        <v>3.09</v>
+      </c>
+      <c r="AU26">
+        <v>8</v>
+      </c>
+      <c r="AV26">
+        <v>7</v>
+      </c>
+      <c r="AW26">
+        <v>6</v>
+      </c>
+      <c r="AX26">
+        <v>7</v>
+      </c>
+      <c r="AY26">
+        <v>14</v>
+      </c>
+      <c r="AZ26">
+        <v>14</v>
+      </c>
+      <c r="BA26">
+        <v>11</v>
+      </c>
+      <c r="BB26">
+        <v>7</v>
+      </c>
+      <c r="BC26">
+        <v>18</v>
+      </c>
+      <c r="BD26">
+        <v>1.42</v>
+      </c>
+      <c r="BE26">
+        <v>7.2</v>
+      </c>
+      <c r="BF26">
+        <v>3.64</v>
+      </c>
+      <c r="BG26">
+        <v>1.2</v>
+      </c>
+      <c r="BH26">
+        <v>4</v>
+      </c>
+      <c r="BI26">
+        <v>1.35</v>
+      </c>
+      <c r="BJ26">
+        <v>2.84</v>
+      </c>
+      <c r="BK26">
+        <v>2.1</v>
+      </c>
+      <c r="BL26">
+        <v>2.12</v>
+      </c>
+      <c r="BM26">
+        <v>2.01</v>
+      </c>
+      <c r="BN26">
+        <v>1.68</v>
+      </c>
+      <c r="BO26">
+        <v>2.64</v>
+      </c>
+      <c r="BP26">
+        <v>1.4</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Switzerland Challenge League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Switzerland Challenge League_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="121">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -371,6 +371,9 @@
   </si>
   <si>
     <t>['88']</t>
+  </si>
+  <si>
+    <t>['67']</t>
   </si>
   <si>
     <t>['44', '88']</t>
@@ -5732,7 +5735,7 @@
         <v>98</v>
       </c>
       <c r="P25" t="s">
-        <v>95</v>
+        <v>119</v>
       </c>
       <c r="Q25">
         <v>2.63</v>
@@ -5938,7 +5941,7 @@
         <v>99</v>
       </c>
       <c r="P26" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="Q26">
         <v>2.2</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Switzerland Challenge League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Switzerland Challenge League_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="128">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -316,6 +316,15 @@
     <t>['23', '64', '71', '90+4']</t>
   </si>
   <si>
+    <t>['9', '50', '77', '87']</t>
+  </si>
+  <si>
+    <t>['19', '61', '86']</t>
+  </si>
+  <si>
+    <t>['26', '45']</t>
+  </si>
+  <si>
     <t>['25', '90+2']</t>
   </si>
   <si>
@@ -377,6 +386,18 @@
   </si>
   <si>
     <t>['44', '88']</t>
+  </si>
+  <si>
+    <t>['11']</t>
+  </si>
+  <si>
+    <t>['21', '33', '65']</t>
+  </si>
+  <si>
+    <t>['75']</t>
+  </si>
+  <si>
+    <t>['36', '90']</t>
   </si>
 </sst>
 </file>
@@ -738,7 +759,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP26"/>
+  <dimension ref="A1:BP30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -997,7 +1018,7 @@
         <v>80</v>
       </c>
       <c r="P2" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="Q2">
         <v>2.75</v>
@@ -1075,10 +1096,10 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AQ2">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1203,7 +1224,7 @@
         <v>81</v>
       </c>
       <c r="P3" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="Q3">
         <v>2.63</v>
@@ -1281,7 +1302,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AQ3">
         <v>1.33</v>
@@ -1409,7 +1430,7 @@
         <v>82</v>
       </c>
       <c r="P4" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="Q4">
         <v>3.75</v>
@@ -1490,7 +1511,7 @@
         <v>1</v>
       </c>
       <c r="AQ4">
-        <v>3</v>
+        <v>2.33</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -1615,7 +1636,7 @@
         <v>83</v>
       </c>
       <c r="P5" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="Q5">
         <v>3.6</v>
@@ -2027,7 +2048,7 @@
         <v>84</v>
       </c>
       <c r="P7" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="Q7">
         <v>2.63</v>
@@ -2233,7 +2254,7 @@
         <v>85</v>
       </c>
       <c r="P8" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="Q8">
         <v>2.63</v>
@@ -2311,7 +2332,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AQ8">
         <v>0.5</v>
@@ -2439,7 +2460,7 @@
         <v>86</v>
       </c>
       <c r="P9" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="Q9">
         <v>3</v>
@@ -2517,7 +2538,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AQ9">
         <v>1</v>
@@ -2645,7 +2666,7 @@
         <v>87</v>
       </c>
       <c r="P10" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="Q10">
         <v>2.3</v>
@@ -2932,7 +2953,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ11">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3057,7 +3078,7 @@
         <v>84</v>
       </c>
       <c r="P12" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="Q12">
         <v>2.88</v>
@@ -3135,7 +3156,7 @@
         <v>3</v>
       </c>
       <c r="AP12">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AQ12">
         <v>2</v>
@@ -3263,7 +3284,7 @@
         <v>89</v>
       </c>
       <c r="P13" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="Q13">
         <v>2.2</v>
@@ -3344,7 +3365,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ13">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AR13">
         <v>1.92</v>
@@ -3469,7 +3490,7 @@
         <v>90</v>
       </c>
       <c r="P14" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="Q14">
         <v>3</v>
@@ -3675,7 +3696,7 @@
         <v>91</v>
       </c>
       <c r="P15" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="Q15">
         <v>3</v>
@@ -3881,7 +3902,7 @@
         <v>92</v>
       </c>
       <c r="P16" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="Q16">
         <v>2.75</v>
@@ -4087,7 +4108,7 @@
         <v>93</v>
       </c>
       <c r="P17" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="Q17">
         <v>2.38</v>
@@ -4293,7 +4314,7 @@
         <v>84</v>
       </c>
       <c r="P18" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="Q18">
         <v>3.1</v>
@@ -4371,10 +4392,10 @@
         <v>3</v>
       </c>
       <c r="AP18">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AQ18">
-        <v>3</v>
+        <v>2.33</v>
       </c>
       <c r="AR18">
         <v>1.54</v>
@@ -4499,7 +4520,7 @@
         <v>94</v>
       </c>
       <c r="P19" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="Q19">
         <v>2.3</v>
@@ -4577,7 +4598,7 @@
         <v>0</v>
       </c>
       <c r="AP19">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AQ19">
         <v>0.5</v>
@@ -4705,7 +4726,7 @@
         <v>84</v>
       </c>
       <c r="P20" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="Q20">
         <v>2.3</v>
@@ -4911,7 +4932,7 @@
         <v>95</v>
       </c>
       <c r="P21" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="Q21">
         <v>2.88</v>
@@ -4989,10 +5010,10 @@
         <v>0</v>
       </c>
       <c r="AP21">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AQ21">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="AR21">
         <v>1.63</v>
@@ -5323,7 +5344,7 @@
         <v>97</v>
       </c>
       <c r="P23" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="Q23">
         <v>2.88</v>
@@ -5735,7 +5756,7 @@
         <v>98</v>
       </c>
       <c r="P25" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="Q25">
         <v>2.63</v>
@@ -5816,7 +5837,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ25">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AR25">
         <v>1.92</v>
@@ -5941,7 +5962,7 @@
         <v>99</v>
       </c>
       <c r="P26" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="Q26">
         <v>2.2</v>
@@ -6098,6 +6119,830 @@
       </c>
       <c r="BP26">
         <v>1.4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:68">
+      <c r="A27" s="1">
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <v>7463339</v>
+      </c>
+      <c r="C27" t="s">
+        <v>68</v>
+      </c>
+      <c r="D27" t="s">
+        <v>69</v>
+      </c>
+      <c r="E27" s="2">
+        <v>45534.60416666666</v>
+      </c>
+      <c r="F27">
+        <v>6</v>
+      </c>
+      <c r="G27" t="s">
+        <v>70</v>
+      </c>
+      <c r="H27" t="s">
+        <v>74</v>
+      </c>
+      <c r="I27">
+        <v>1</v>
+      </c>
+      <c r="J27">
+        <v>1</v>
+      </c>
+      <c r="K27">
+        <v>2</v>
+      </c>
+      <c r="L27">
+        <v>4</v>
+      </c>
+      <c r="M27">
+        <v>1</v>
+      </c>
+      <c r="N27">
+        <v>5</v>
+      </c>
+      <c r="O27" t="s">
+        <v>100</v>
+      </c>
+      <c r="P27" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q27">
+        <v>2.5</v>
+      </c>
+      <c r="R27">
+        <v>2.4</v>
+      </c>
+      <c r="S27">
+        <v>3.4</v>
+      </c>
+      <c r="T27">
+        <v>1.24</v>
+      </c>
+      <c r="U27">
+        <v>3.8</v>
+      </c>
+      <c r="V27">
+        <v>2.14</v>
+      </c>
+      <c r="W27">
+        <v>1.66</v>
+      </c>
+      <c r="X27">
+        <v>4.65</v>
+      </c>
+      <c r="Y27">
+        <v>1.17</v>
+      </c>
+      <c r="Z27">
+        <v>2.05</v>
+      </c>
+      <c r="AA27">
+        <v>3.6</v>
+      </c>
+      <c r="AB27">
+        <v>3.2</v>
+      </c>
+      <c r="AC27">
+        <v>1.01</v>
+      </c>
+      <c r="AD27">
+        <v>13</v>
+      </c>
+      <c r="AE27">
+        <v>1.11</v>
+      </c>
+      <c r="AF27">
+        <v>5.5</v>
+      </c>
+      <c r="AG27">
+        <v>1.5</v>
+      </c>
+      <c r="AH27">
+        <v>2.5</v>
+      </c>
+      <c r="AI27">
+        <v>1.44</v>
+      </c>
+      <c r="AJ27">
+        <v>2.63</v>
+      </c>
+      <c r="AK27">
+        <v>1.32</v>
+      </c>
+      <c r="AL27">
+        <v>1.25</v>
+      </c>
+      <c r="AM27">
+        <v>1.65</v>
+      </c>
+      <c r="AN27">
+        <v>2</v>
+      </c>
+      <c r="AO27">
+        <v>0.5</v>
+      </c>
+      <c r="AP27">
+        <v>2.33</v>
+      </c>
+      <c r="AQ27">
+        <v>0.33</v>
+      </c>
+      <c r="AR27">
+        <v>1.47</v>
+      </c>
+      <c r="AS27">
+        <v>1.28</v>
+      </c>
+      <c r="AT27">
+        <v>2.75</v>
+      </c>
+      <c r="AU27">
+        <v>8</v>
+      </c>
+      <c r="AV27">
+        <v>4</v>
+      </c>
+      <c r="AW27">
+        <v>3</v>
+      </c>
+      <c r="AX27">
+        <v>8</v>
+      </c>
+      <c r="AY27">
+        <v>11</v>
+      </c>
+      <c r="AZ27">
+        <v>12</v>
+      </c>
+      <c r="BA27">
+        <v>3</v>
+      </c>
+      <c r="BB27">
+        <v>4</v>
+      </c>
+      <c r="BC27">
+        <v>7</v>
+      </c>
+      <c r="BD27">
+        <v>1.93</v>
+      </c>
+      <c r="BE27">
+        <v>6.3</v>
+      </c>
+      <c r="BF27">
+        <v>2.27</v>
+      </c>
+      <c r="BG27">
+        <v>1.22</v>
+      </c>
+      <c r="BH27">
+        <v>3.65</v>
+      </c>
+      <c r="BI27">
+        <v>1.53</v>
+      </c>
+      <c r="BJ27">
+        <v>2.41</v>
+      </c>
+      <c r="BK27">
+        <v>1.93</v>
+      </c>
+      <c r="BL27">
+        <v>1.86</v>
+      </c>
+      <c r="BM27">
+        <v>2.39</v>
+      </c>
+      <c r="BN27">
+        <v>1.54</v>
+      </c>
+      <c r="BO27">
+        <v>2.98</v>
+      </c>
+      <c r="BP27">
+        <v>1.32</v>
+      </c>
+    </row>
+    <row r="28" spans="1:68">
+      <c r="A28" s="1">
+        <v>27</v>
+      </c>
+      <c r="B28">
+        <v>7463340</v>
+      </c>
+      <c r="C28" t="s">
+        <v>68</v>
+      </c>
+      <c r="D28" t="s">
+        <v>69</v>
+      </c>
+      <c r="E28" s="2">
+        <v>45534.60416666666</v>
+      </c>
+      <c r="F28">
+        <v>6</v>
+      </c>
+      <c r="G28" t="s">
+        <v>76</v>
+      </c>
+      <c r="H28" t="s">
+        <v>75</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>2</v>
+      </c>
+      <c r="K28">
+        <v>2</v>
+      </c>
+      <c r="L28">
+        <v>0</v>
+      </c>
+      <c r="M28">
+        <v>3</v>
+      </c>
+      <c r="N28">
+        <v>3</v>
+      </c>
+      <c r="O28" t="s">
+        <v>84</v>
+      </c>
+      <c r="P28" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q28">
+        <v>3</v>
+      </c>
+      <c r="R28">
+        <v>2.3</v>
+      </c>
+      <c r="S28">
+        <v>3</v>
+      </c>
+      <c r="T28">
+        <v>1.29</v>
+      </c>
+      <c r="U28">
+        <v>3.4</v>
+      </c>
+      <c r="V28">
+        <v>2.36</v>
+      </c>
+      <c r="W28">
+        <v>1.55</v>
+      </c>
+      <c r="X28">
+        <v>5.45</v>
+      </c>
+      <c r="Y28">
+        <v>1.13</v>
+      </c>
+      <c r="Z28">
+        <v>2.55</v>
+      </c>
+      <c r="AA28">
+        <v>3.4</v>
+      </c>
+      <c r="AB28">
+        <v>2.6</v>
+      </c>
+      <c r="AC28">
+        <v>1.03</v>
+      </c>
+      <c r="AD28">
+        <v>12</v>
+      </c>
+      <c r="AE28">
+        <v>1.16</v>
+      </c>
+      <c r="AF28">
+        <v>4.33</v>
+      </c>
+      <c r="AG28">
+        <v>1.67</v>
+      </c>
+      <c r="AH28">
+        <v>2.15</v>
+      </c>
+      <c r="AI28">
+        <v>1.53</v>
+      </c>
+      <c r="AJ28">
+        <v>2.38</v>
+      </c>
+      <c r="AK28">
+        <v>1.35</v>
+      </c>
+      <c r="AL28">
+        <v>1.25</v>
+      </c>
+      <c r="AM28">
+        <v>1.51</v>
+      </c>
+      <c r="AN28">
+        <v>1.5</v>
+      </c>
+      <c r="AO28">
+        <v>0.33</v>
+      </c>
+      <c r="AP28">
+        <v>1</v>
+      </c>
+      <c r="AQ28">
+        <v>1</v>
+      </c>
+      <c r="AR28">
+        <v>1.43</v>
+      </c>
+      <c r="AS28">
+        <v>1.54</v>
+      </c>
+      <c r="AT28">
+        <v>2.97</v>
+      </c>
+      <c r="AU28">
+        <v>7</v>
+      </c>
+      <c r="AV28">
+        <v>6</v>
+      </c>
+      <c r="AW28">
+        <v>7</v>
+      </c>
+      <c r="AX28">
+        <v>12</v>
+      </c>
+      <c r="AY28">
+        <v>14</v>
+      </c>
+      <c r="AZ28">
+        <v>18</v>
+      </c>
+      <c r="BA28">
+        <v>10</v>
+      </c>
+      <c r="BB28">
+        <v>5</v>
+      </c>
+      <c r="BC28">
+        <v>15</v>
+      </c>
+      <c r="BD28">
+        <v>0</v>
+      </c>
+      <c r="BE28">
+        <v>0</v>
+      </c>
+      <c r="BF28">
+        <v>0</v>
+      </c>
+      <c r="BG28">
+        <v>0</v>
+      </c>
+      <c r="BH28">
+        <v>0</v>
+      </c>
+      <c r="BI28">
+        <v>0</v>
+      </c>
+      <c r="BJ28">
+        <v>0</v>
+      </c>
+      <c r="BK28">
+        <v>2.2</v>
+      </c>
+      <c r="BL28">
+        <v>2</v>
+      </c>
+      <c r="BM28">
+        <v>2.21</v>
+      </c>
+      <c r="BN28">
+        <v>0</v>
+      </c>
+      <c r="BO28">
+        <v>0</v>
+      </c>
+      <c r="BP28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:68">
+      <c r="A29" s="1">
+        <v>28</v>
+      </c>
+      <c r="B29">
+        <v>7463341</v>
+      </c>
+      <c r="C29" t="s">
+        <v>68</v>
+      </c>
+      <c r="D29" t="s">
+        <v>69</v>
+      </c>
+      <c r="E29" s="2">
+        <v>45534.63541666666</v>
+      </c>
+      <c r="F29">
+        <v>6</v>
+      </c>
+      <c r="G29" t="s">
+        <v>77</v>
+      </c>
+      <c r="H29" t="s">
+        <v>78</v>
+      </c>
+      <c r="I29">
+        <v>1</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
+      </c>
+      <c r="K29">
+        <v>1</v>
+      </c>
+      <c r="L29">
+        <v>3</v>
+      </c>
+      <c r="M29">
+        <v>1</v>
+      </c>
+      <c r="N29">
+        <v>4</v>
+      </c>
+      <c r="O29" t="s">
+        <v>101</v>
+      </c>
+      <c r="P29" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q29">
+        <v>2.88</v>
+      </c>
+      <c r="R29">
+        <v>2.25</v>
+      </c>
+      <c r="S29">
+        <v>3.1</v>
+      </c>
+      <c r="T29">
+        <v>1.29</v>
+      </c>
+      <c r="U29">
+        <v>3.3</v>
+      </c>
+      <c r="V29">
+        <v>2.38</v>
+      </c>
+      <c r="W29">
+        <v>1.53</v>
+      </c>
+      <c r="X29">
+        <v>5.25</v>
+      </c>
+      <c r="Y29">
+        <v>1.12</v>
+      </c>
+      <c r="Z29">
+        <v>2.45</v>
+      </c>
+      <c r="AA29">
+        <v>3.3</v>
+      </c>
+      <c r="AB29">
+        <v>2.75</v>
+      </c>
+      <c r="AC29">
+        <v>1.03</v>
+      </c>
+      <c r="AD29">
+        <v>9.5</v>
+      </c>
+      <c r="AE29">
+        <v>1.18</v>
+      </c>
+      <c r="AF29">
+        <v>4.33</v>
+      </c>
+      <c r="AG29">
+        <v>1.75</v>
+      </c>
+      <c r="AH29">
+        <v>2.05</v>
+      </c>
+      <c r="AI29">
+        <v>1.57</v>
+      </c>
+      <c r="AJ29">
+        <v>2.25</v>
+      </c>
+      <c r="AK29">
+        <v>1.41</v>
+      </c>
+      <c r="AL29">
+        <v>1.27</v>
+      </c>
+      <c r="AM29">
+        <v>1.53</v>
+      </c>
+      <c r="AN29">
+        <v>1.5</v>
+      </c>
+      <c r="AO29">
+        <v>0</v>
+      </c>
+      <c r="AP29">
+        <v>2</v>
+      </c>
+      <c r="AQ29">
+        <v>0</v>
+      </c>
+      <c r="AR29">
+        <v>1.46</v>
+      </c>
+      <c r="AS29">
+        <v>1.29</v>
+      </c>
+      <c r="AT29">
+        <v>2.75</v>
+      </c>
+      <c r="AU29">
+        <v>5</v>
+      </c>
+      <c r="AV29">
+        <v>3</v>
+      </c>
+      <c r="AW29">
+        <v>9</v>
+      </c>
+      <c r="AX29">
+        <v>3</v>
+      </c>
+      <c r="AY29">
+        <v>14</v>
+      </c>
+      <c r="AZ29">
+        <v>6</v>
+      </c>
+      <c r="BA29">
+        <v>4</v>
+      </c>
+      <c r="BB29">
+        <v>0</v>
+      </c>
+      <c r="BC29">
+        <v>4</v>
+      </c>
+      <c r="BD29">
+        <v>0</v>
+      </c>
+      <c r="BE29">
+        <v>0</v>
+      </c>
+      <c r="BF29">
+        <v>0</v>
+      </c>
+      <c r="BG29">
+        <v>1.51</v>
+      </c>
+      <c r="BH29">
+        <v>2.49</v>
+      </c>
+      <c r="BI29">
+        <v>1.88</v>
+      </c>
+      <c r="BJ29">
+        <v>1.92</v>
+      </c>
+      <c r="BK29">
+        <v>2.4</v>
+      </c>
+      <c r="BL29">
+        <v>1.55</v>
+      </c>
+      <c r="BM29">
+        <v>0</v>
+      </c>
+      <c r="BN29">
+        <v>0</v>
+      </c>
+      <c r="BO29">
+        <v>0</v>
+      </c>
+      <c r="BP29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:68">
+      <c r="A30" s="1">
+        <v>29</v>
+      </c>
+      <c r="B30">
+        <v>7463342</v>
+      </c>
+      <c r="C30" t="s">
+        <v>68</v>
+      </c>
+      <c r="D30" t="s">
+        <v>69</v>
+      </c>
+      <c r="E30" s="2">
+        <v>45534.63541666666</v>
+      </c>
+      <c r="F30">
+        <v>6</v>
+      </c>
+      <c r="G30" t="s">
+        <v>71</v>
+      </c>
+      <c r="H30" t="s">
+        <v>79</v>
+      </c>
+      <c r="I30">
+        <v>2</v>
+      </c>
+      <c r="J30">
+        <v>1</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>2</v>
+      </c>
+      <c r="M30">
+        <v>2</v>
+      </c>
+      <c r="N30">
+        <v>4</v>
+      </c>
+      <c r="O30" t="s">
+        <v>102</v>
+      </c>
+      <c r="P30" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q30">
+        <v>3.75</v>
+      </c>
+      <c r="R30">
+        <v>2.25</v>
+      </c>
+      <c r="S30">
+        <v>2.5</v>
+      </c>
+      <c r="T30">
+        <v>1.29</v>
+      </c>
+      <c r="U30">
+        <v>3.3</v>
+      </c>
+      <c r="V30">
+        <v>2.52</v>
+      </c>
+      <c r="W30">
+        <v>1.5</v>
+      </c>
+      <c r="X30">
+        <v>5.25</v>
+      </c>
+      <c r="Y30">
+        <v>1.12</v>
+      </c>
+      <c r="Z30">
+        <v>3.5</v>
+      </c>
+      <c r="AA30">
+        <v>3.6</v>
+      </c>
+      <c r="AB30">
+        <v>1.95</v>
+      </c>
+      <c r="AC30">
+        <v>1.01</v>
+      </c>
+      <c r="AD30">
+        <v>11</v>
+      </c>
+      <c r="AE30">
+        <v>1.17</v>
+      </c>
+      <c r="AF30">
+        <v>4</v>
+      </c>
+      <c r="AG30">
+        <v>1.7</v>
+      </c>
+      <c r="AH30">
+        <v>2.1</v>
+      </c>
+      <c r="AI30">
+        <v>1.62</v>
+      </c>
+      <c r="AJ30">
+        <v>2.2</v>
+      </c>
+      <c r="AK30">
+        <v>1.83</v>
+      </c>
+      <c r="AL30">
+        <v>1.25</v>
+      </c>
+      <c r="AM30">
+        <v>1.33</v>
+      </c>
+      <c r="AN30">
+        <v>0.5</v>
+      </c>
+      <c r="AO30">
+        <v>3</v>
+      </c>
+      <c r="AP30">
+        <v>0.67</v>
+      </c>
+      <c r="AQ30">
+        <v>2.33</v>
+      </c>
+      <c r="AR30">
+        <v>1.62</v>
+      </c>
+      <c r="AS30">
+        <v>1.87</v>
+      </c>
+      <c r="AT30">
+        <v>3.49</v>
+      </c>
+      <c r="AU30">
+        <v>5</v>
+      </c>
+      <c r="AV30">
+        <v>5</v>
+      </c>
+      <c r="AW30">
+        <v>5</v>
+      </c>
+      <c r="AX30">
+        <v>12</v>
+      </c>
+      <c r="AY30">
+        <v>10</v>
+      </c>
+      <c r="AZ30">
+        <v>17</v>
+      </c>
+      <c r="BA30">
+        <v>3</v>
+      </c>
+      <c r="BB30">
+        <v>8</v>
+      </c>
+      <c r="BC30">
+        <v>11</v>
+      </c>
+      <c r="BD30">
+        <v>2.72</v>
+      </c>
+      <c r="BE30">
+        <v>6.6</v>
+      </c>
+      <c r="BF30">
+        <v>1.67</v>
+      </c>
+      <c r="BG30">
+        <v>1.2</v>
+      </c>
+      <c r="BH30">
+        <v>3.84</v>
+      </c>
+      <c r="BI30">
+        <v>1.4</v>
+      </c>
+      <c r="BJ30">
+        <v>2.64</v>
+      </c>
+      <c r="BK30">
+        <v>2.25</v>
+      </c>
+      <c r="BL30">
+        <v>2.08</v>
+      </c>
+      <c r="BM30">
+        <v>2.13</v>
+      </c>
+      <c r="BN30">
+        <v>1.68</v>
+      </c>
+      <c r="BO30">
+        <v>2.84</v>
+      </c>
+      <c r="BP30">
+        <v>1.35</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Switzerland Challenge League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Switzerland Challenge League_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="130">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -325,6 +325,9 @@
     <t>['26', '45']</t>
   </si>
   <si>
+    <t>['17']</t>
+  </si>
+  <si>
     <t>['25', '90+2']</t>
   </si>
   <si>
@@ -398,6 +401,9 @@
   </si>
   <si>
     <t>['36', '90']</t>
+  </si>
+  <si>
+    <t>['28', '65']</t>
   </si>
 </sst>
 </file>
@@ -759,7 +765,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP30"/>
+  <dimension ref="A1:BP31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1018,7 +1024,7 @@
         <v>80</v>
       </c>
       <c r="P2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="Q2">
         <v>2.75</v>
@@ -1224,7 +1230,7 @@
         <v>81</v>
       </c>
       <c r="P3" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="Q3">
         <v>2.63</v>
@@ -1430,7 +1436,7 @@
         <v>82</v>
       </c>
       <c r="P4" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="Q4">
         <v>3.75</v>
@@ -1508,7 +1514,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AQ4">
         <v>2.33</v>
@@ -1636,7 +1642,7 @@
         <v>83</v>
       </c>
       <c r="P5" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="Q5">
         <v>3.6</v>
@@ -2048,7 +2054,7 @@
         <v>84</v>
       </c>
       <c r="P7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="Q7">
         <v>2.63</v>
@@ -2254,7 +2260,7 @@
         <v>85</v>
       </c>
       <c r="P8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Q8">
         <v>2.63</v>
@@ -2335,7 +2341,7 @@
         <v>1</v>
       </c>
       <c r="AQ8">
-        <v>0.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -2460,7 +2466,7 @@
         <v>86</v>
       </c>
       <c r="P9" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="Q9">
         <v>3</v>
@@ -2666,7 +2672,7 @@
         <v>87</v>
       </c>
       <c r="P10" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="Q10">
         <v>2.3</v>
@@ -3078,7 +3084,7 @@
         <v>84</v>
       </c>
       <c r="P12" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="Q12">
         <v>2.88</v>
@@ -3284,7 +3290,7 @@
         <v>89</v>
       </c>
       <c r="P13" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="Q13">
         <v>2.2</v>
@@ -3490,7 +3496,7 @@
         <v>90</v>
       </c>
       <c r="P14" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="Q14">
         <v>3</v>
@@ -3568,7 +3574,7 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AQ14">
         <v>1</v>
@@ -3696,7 +3702,7 @@
         <v>91</v>
       </c>
       <c r="P15" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="Q15">
         <v>3</v>
@@ -3902,7 +3908,7 @@
         <v>92</v>
       </c>
       <c r="P16" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="Q16">
         <v>2.75</v>
@@ -4108,7 +4114,7 @@
         <v>93</v>
       </c>
       <c r="P17" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="Q17">
         <v>2.38</v>
@@ -4314,7 +4320,7 @@
         <v>84</v>
       </c>
       <c r="P18" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="Q18">
         <v>3.1</v>
@@ -4520,7 +4526,7 @@
         <v>94</v>
       </c>
       <c r="P19" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="Q19">
         <v>2.3</v>
@@ -4601,7 +4607,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ19">
-        <v>0.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR19">
         <v>1.52</v>
@@ -4726,7 +4732,7 @@
         <v>84</v>
       </c>
       <c r="P20" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="Q20">
         <v>2.3</v>
@@ -4932,7 +4938,7 @@
         <v>95</v>
       </c>
       <c r="P21" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="Q21">
         <v>2.88</v>
@@ -5344,7 +5350,7 @@
         <v>97</v>
       </c>
       <c r="P23" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="Q23">
         <v>2.88</v>
@@ -5628,7 +5634,7 @@
         <v>2</v>
       </c>
       <c r="AP24">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AQ24">
         <v>1.33</v>
@@ -5756,7 +5762,7 @@
         <v>98</v>
       </c>
       <c r="P25" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="Q25">
         <v>2.63</v>
@@ -5962,7 +5968,7 @@
         <v>99</v>
       </c>
       <c r="P26" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Q26">
         <v>2.2</v>
@@ -6168,7 +6174,7 @@
         <v>100</v>
       </c>
       <c r="P27" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="Q27">
         <v>2.5</v>
@@ -6374,7 +6380,7 @@
         <v>84</v>
       </c>
       <c r="P28" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="Q28">
         <v>3</v>
@@ -6580,7 +6586,7 @@
         <v>101</v>
       </c>
       <c r="P29" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="Q29">
         <v>2.88</v>
@@ -6691,13 +6697,13 @@
         <v>6</v>
       </c>
       <c r="BA29">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="BB29">
         <v>0</v>
       </c>
       <c r="BC29">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="BD29">
         <v>0</v>
@@ -6786,7 +6792,7 @@
         <v>102</v>
       </c>
       <c r="P30" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="Q30">
         <v>3.75</v>
@@ -6943,6 +6949,212 @@
       </c>
       <c r="BP30">
         <v>1.35</v>
+      </c>
+    </row>
+    <row r="31" spans="1:68">
+      <c r="A31" s="1">
+        <v>30</v>
+      </c>
+      <c r="B31">
+        <v>7463343</v>
+      </c>
+      <c r="C31" t="s">
+        <v>68</v>
+      </c>
+      <c r="D31" t="s">
+        <v>69</v>
+      </c>
+      <c r="E31" s="2">
+        <v>45535.54166666666</v>
+      </c>
+      <c r="F31">
+        <v>6</v>
+      </c>
+      <c r="G31" t="s">
+        <v>72</v>
+      </c>
+      <c r="H31" t="s">
+        <v>73</v>
+      </c>
+      <c r="I31">
+        <v>1</v>
+      </c>
+      <c r="J31">
+        <v>1</v>
+      </c>
+      <c r="K31">
+        <v>2</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>2</v>
+      </c>
+      <c r="N31">
+        <v>3</v>
+      </c>
+      <c r="O31" t="s">
+        <v>103</v>
+      </c>
+      <c r="P31" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q31">
+        <v>3</v>
+      </c>
+      <c r="R31">
+        <v>2.2</v>
+      </c>
+      <c r="S31">
+        <v>3.1</v>
+      </c>
+      <c r="T31">
+        <v>1.32</v>
+      </c>
+      <c r="U31">
+        <v>3.2</v>
+      </c>
+      <c r="V31">
+        <v>2.48</v>
+      </c>
+      <c r="W31">
+        <v>1.5</v>
+      </c>
+      <c r="X31">
+        <v>5.9</v>
+      </c>
+      <c r="Y31">
+        <v>1.11</v>
+      </c>
+      <c r="Z31">
+        <v>2.45</v>
+      </c>
+      <c r="AA31">
+        <v>3.4</v>
+      </c>
+      <c r="AB31">
+        <v>2.63</v>
+      </c>
+      <c r="AC31">
+        <v>1.01</v>
+      </c>
+      <c r="AD31">
+        <v>11</v>
+      </c>
+      <c r="AE31">
+        <v>1.19</v>
+      </c>
+      <c r="AF31">
+        <v>3.95</v>
+      </c>
+      <c r="AG31">
+        <v>1.75</v>
+      </c>
+      <c r="AH31">
+        <v>2.05</v>
+      </c>
+      <c r="AI31">
+        <v>1.62</v>
+      </c>
+      <c r="AJ31">
+        <v>2.2</v>
+      </c>
+      <c r="AK31">
+        <v>1.31</v>
+      </c>
+      <c r="AL31">
+        <v>1.25</v>
+      </c>
+      <c r="AM31">
+        <v>1.67</v>
+      </c>
+      <c r="AN31">
+        <v>1</v>
+      </c>
+      <c r="AO31">
+        <v>0.5</v>
+      </c>
+      <c r="AP31">
+        <v>0.75</v>
+      </c>
+      <c r="AQ31">
+        <v>1.33</v>
+      </c>
+      <c r="AR31">
+        <v>1.17</v>
+      </c>
+      <c r="AS31">
+        <v>1.73</v>
+      </c>
+      <c r="AT31">
+        <v>2.9</v>
+      </c>
+      <c r="AU31">
+        <v>3</v>
+      </c>
+      <c r="AV31">
+        <v>8</v>
+      </c>
+      <c r="AW31">
+        <v>3</v>
+      </c>
+      <c r="AX31">
+        <v>3</v>
+      </c>
+      <c r="AY31">
+        <v>6</v>
+      </c>
+      <c r="AZ31">
+        <v>11</v>
+      </c>
+      <c r="BA31">
+        <v>7</v>
+      </c>
+      <c r="BB31">
+        <v>4</v>
+      </c>
+      <c r="BC31">
+        <v>11</v>
+      </c>
+      <c r="BD31">
+        <v>1.7</v>
+      </c>
+      <c r="BE31">
+        <v>6.35</v>
+      </c>
+      <c r="BF31">
+        <v>2.69</v>
+      </c>
+      <c r="BG31">
+        <v>1.3</v>
+      </c>
+      <c r="BH31">
+        <v>3.08</v>
+      </c>
+      <c r="BI31">
+        <v>1.61</v>
+      </c>
+      <c r="BJ31">
+        <v>2.25</v>
+      </c>
+      <c r="BK31">
+        <v>2.03</v>
+      </c>
+      <c r="BL31">
+        <v>1.75</v>
+      </c>
+      <c r="BM31">
+        <v>2.38</v>
+      </c>
+      <c r="BN31">
+        <v>1.54</v>
+      </c>
+      <c r="BO31">
+        <v>3.56</v>
+      </c>
+      <c r="BP31">
+        <v>1.23</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Switzerland Challenge League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Switzerland Challenge League_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="138">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -328,6 +328,18 @@
     <t>['17']</t>
   </si>
   <si>
+    <t>['2']</t>
+  </si>
+  <si>
+    <t>['21', '57']</t>
+  </si>
+  <si>
+    <t>['5', '19']</t>
+  </si>
+  <si>
+    <t>['62']</t>
+  </si>
+  <si>
     <t>['25', '90+2']</t>
   </si>
   <si>
@@ -404,6 +416,18 @@
   </si>
   <si>
     <t>['28', '65']</t>
+  </si>
+  <si>
+    <t>['60', '74']</t>
+  </si>
+  <si>
+    <t>['10', '25', '55', '76']</t>
+  </si>
+  <si>
+    <t>['18', '38', '43', '63', '89']</t>
+  </si>
+  <si>
+    <t>['49', '90+3']</t>
   </si>
 </sst>
 </file>
@@ -765,7 +789,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP31"/>
+  <dimension ref="A1:BP36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1024,7 +1048,7 @@
         <v>80</v>
       </c>
       <c r="P2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="Q2">
         <v>2.75</v>
@@ -1230,7 +1254,7 @@
         <v>81</v>
       </c>
       <c r="P3" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="Q3">
         <v>2.63</v>
@@ -1308,10 +1332,10 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="AQ3">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1436,7 +1460,7 @@
         <v>82</v>
       </c>
       <c r="P4" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="Q4">
         <v>3.75</v>
@@ -1642,7 +1666,7 @@
         <v>83</v>
       </c>
       <c r="P5" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="Q5">
         <v>3.6</v>
@@ -1723,7 +1747,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ5">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -1926,7 +1950,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>2.33</v>
+        <v>1.75</v>
       </c>
       <c r="AQ6">
         <v>1.33</v>
@@ -2054,7 +2078,7 @@
         <v>84</v>
       </c>
       <c r="P7" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="Q7">
         <v>2.63</v>
@@ -2132,7 +2156,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AQ7">
         <v>2</v>
@@ -2260,7 +2284,7 @@
         <v>85</v>
       </c>
       <c r="P8" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="Q8">
         <v>2.63</v>
@@ -2338,10 +2362,10 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AQ8">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -2466,7 +2490,7 @@
         <v>86</v>
       </c>
       <c r="P9" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="Q9">
         <v>3</v>
@@ -2547,7 +2571,7 @@
         <v>2</v>
       </c>
       <c r="AQ9">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -2672,7 +2696,7 @@
         <v>87</v>
       </c>
       <c r="P10" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="Q10">
         <v>2.3</v>
@@ -2753,7 +2777,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ10">
-        <v>1</v>
+        <v>1.67</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -2956,7 +2980,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>2.33</v>
+        <v>1.75</v>
       </c>
       <c r="AQ11">
         <v>0.33</v>
@@ -3084,7 +3108,7 @@
         <v>84</v>
       </c>
       <c r="P12" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="Q12">
         <v>2.88</v>
@@ -3162,7 +3186,7 @@
         <v>3</v>
       </c>
       <c r="AP12">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AQ12">
         <v>2</v>
@@ -3290,7 +3314,7 @@
         <v>89</v>
       </c>
       <c r="P13" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="Q13">
         <v>2.2</v>
@@ -3368,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>2.33</v>
+        <v>1.75</v>
       </c>
       <c r="AQ13">
         <v>1</v>
@@ -3496,7 +3520,7 @@
         <v>90</v>
       </c>
       <c r="P14" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="Q14">
         <v>3</v>
@@ -3577,7 +3601,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ14">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AR14">
         <v>1.19</v>
@@ -3702,7 +3726,7 @@
         <v>91</v>
       </c>
       <c r="P15" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="Q15">
         <v>3</v>
@@ -3783,7 +3807,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ15">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AR15">
         <v>1.72</v>
@@ -3908,7 +3932,7 @@
         <v>92</v>
       </c>
       <c r="P16" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="Q16">
         <v>2.75</v>
@@ -3986,10 +4010,10 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>2.33</v>
+        <v>1.75</v>
       </c>
       <c r="AQ16">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="AR16">
         <v>1.95</v>
@@ -4114,7 +4138,7 @@
         <v>93</v>
       </c>
       <c r="P17" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="Q17">
         <v>2.38</v>
@@ -4192,10 +4216,10 @@
         <v>1</v>
       </c>
       <c r="AP17">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AQ17">
-        <v>1</v>
+        <v>1.67</v>
       </c>
       <c r="AR17">
         <v>1.81</v>
@@ -4320,7 +4344,7 @@
         <v>84</v>
       </c>
       <c r="P18" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="Q18">
         <v>3.1</v>
@@ -4526,7 +4550,7 @@
         <v>94</v>
       </c>
       <c r="P19" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="Q19">
         <v>2.3</v>
@@ -4607,7 +4631,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ19">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AR19">
         <v>1.52</v>
@@ -4732,7 +4756,7 @@
         <v>84</v>
       </c>
       <c r="P20" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="Q20">
         <v>2.3</v>
@@ -4938,7 +4962,7 @@
         <v>95</v>
       </c>
       <c r="P21" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="Q21">
         <v>2.88</v>
@@ -5016,7 +5040,7 @@
         <v>0</v>
       </c>
       <c r="AP21">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="AQ21">
         <v>0.33</v>
@@ -5225,7 +5249,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ22">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AR22">
         <v>1.91</v>
@@ -5350,7 +5374,7 @@
         <v>97</v>
       </c>
       <c r="P23" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="Q23">
         <v>2.88</v>
@@ -5637,7 +5661,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ24">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AR24">
         <v>1.47</v>
@@ -5762,7 +5786,7 @@
         <v>98</v>
       </c>
       <c r="P25" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="Q25">
         <v>2.63</v>
@@ -5840,7 +5864,7 @@
         <v>0.5</v>
       </c>
       <c r="AP25">
-        <v>2.33</v>
+        <v>1.75</v>
       </c>
       <c r="AQ25">
         <v>1</v>
@@ -5968,7 +5992,7 @@
         <v>99</v>
       </c>
       <c r="P26" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="Q26">
         <v>2.2</v>
@@ -6046,7 +6070,7 @@
         <v>2</v>
       </c>
       <c r="AP26">
-        <v>2.33</v>
+        <v>1.75</v>
       </c>
       <c r="AQ26">
         <v>1.33</v>
@@ -6174,7 +6198,7 @@
         <v>100</v>
       </c>
       <c r="P27" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="Q27">
         <v>2.5</v>
@@ -6380,7 +6404,7 @@
         <v>84</v>
       </c>
       <c r="P28" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="Q28">
         <v>3</v>
@@ -6458,7 +6482,7 @@
         <v>0.33</v>
       </c>
       <c r="AP28">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AQ28">
         <v>1</v>
@@ -6586,7 +6610,7 @@
         <v>101</v>
       </c>
       <c r="P29" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="Q29">
         <v>2.88</v>
@@ -6667,7 +6691,7 @@
         <v>2</v>
       </c>
       <c r="AQ29">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="AR29">
         <v>1.46</v>
@@ -6792,7 +6816,7 @@
         <v>102</v>
       </c>
       <c r="P30" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="Q30">
         <v>3.75</v>
@@ -6870,7 +6894,7 @@
         <v>3</v>
       </c>
       <c r="AP30">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="AQ30">
         <v>2.33</v>
@@ -6998,7 +7022,7 @@
         <v>103</v>
       </c>
       <c r="P31" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="Q31">
         <v>3</v>
@@ -7079,7 +7103,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ31">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AR31">
         <v>1.17</v>
@@ -7155,6 +7179,1036 @@
       </c>
       <c r="BP31">
         <v>1.23</v>
+      </c>
+    </row>
+    <row r="32" spans="1:68">
+      <c r="A32" s="1">
+        <v>31</v>
+      </c>
+      <c r="B32">
+        <v>7463344</v>
+      </c>
+      <c r="C32" t="s">
+        <v>68</v>
+      </c>
+      <c r="D32" t="s">
+        <v>69</v>
+      </c>
+      <c r="E32" s="2">
+        <v>45555.60416666666</v>
+      </c>
+      <c r="F32">
+        <v>7</v>
+      </c>
+      <c r="G32" t="s">
+        <v>71</v>
+      </c>
+      <c r="H32" t="s">
+        <v>70</v>
+      </c>
+      <c r="I32">
+        <v>1</v>
+      </c>
+      <c r="J32">
+        <v>0</v>
+      </c>
+      <c r="K32">
+        <v>1</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>2</v>
+      </c>
+      <c r="N32">
+        <v>3</v>
+      </c>
+      <c r="O32" t="s">
+        <v>104</v>
+      </c>
+      <c r="P32" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q32">
+        <v>3.2</v>
+      </c>
+      <c r="R32">
+        <v>2.25</v>
+      </c>
+      <c r="S32">
+        <v>2.88</v>
+      </c>
+      <c r="T32">
+        <v>1.31</v>
+      </c>
+      <c r="U32">
+        <v>3.26</v>
+      </c>
+      <c r="V32">
+        <v>2.47</v>
+      </c>
+      <c r="W32">
+        <v>1.52</v>
+      </c>
+      <c r="X32">
+        <v>5.8</v>
+      </c>
+      <c r="Y32">
+        <v>1.11</v>
+      </c>
+      <c r="Z32">
+        <v>2.8</v>
+      </c>
+      <c r="AA32">
+        <v>3.6</v>
+      </c>
+      <c r="AB32">
+        <v>2.3</v>
+      </c>
+      <c r="AC32">
+        <v>1.01</v>
+      </c>
+      <c r="AD32">
+        <v>11</v>
+      </c>
+      <c r="AE32">
+        <v>1.18</v>
+      </c>
+      <c r="AF32">
+        <v>4.05</v>
+      </c>
+      <c r="AG32">
+        <v>1.73</v>
+      </c>
+      <c r="AH32">
+        <v>2.08</v>
+      </c>
+      <c r="AI32">
+        <v>1.62</v>
+      </c>
+      <c r="AJ32">
+        <v>2.2</v>
+      </c>
+      <c r="AK32">
+        <v>1.48</v>
+      </c>
+      <c r="AL32">
+        <v>1.25</v>
+      </c>
+      <c r="AM32">
+        <v>1.45</v>
+      </c>
+      <c r="AN32">
+        <v>0.67</v>
+      </c>
+      <c r="AO32">
+        <v>1</v>
+      </c>
+      <c r="AP32">
+        <v>0.5</v>
+      </c>
+      <c r="AQ32">
+        <v>1.5</v>
+      </c>
+      <c r="AR32">
+        <v>1.52</v>
+      </c>
+      <c r="AS32">
+        <v>1.86</v>
+      </c>
+      <c r="AT32">
+        <v>3.38</v>
+      </c>
+      <c r="AU32">
+        <v>8</v>
+      </c>
+      <c r="AV32">
+        <v>6</v>
+      </c>
+      <c r="AW32">
+        <v>7</v>
+      </c>
+      <c r="AX32">
+        <v>6</v>
+      </c>
+      <c r="AY32">
+        <v>15</v>
+      </c>
+      <c r="AZ32">
+        <v>12</v>
+      </c>
+      <c r="BA32">
+        <v>5</v>
+      </c>
+      <c r="BB32">
+        <v>7</v>
+      </c>
+      <c r="BC32">
+        <v>12</v>
+      </c>
+      <c r="BD32">
+        <v>0</v>
+      </c>
+      <c r="BE32">
+        <v>0</v>
+      </c>
+      <c r="BF32">
+        <v>0</v>
+      </c>
+      <c r="BG32">
+        <v>0</v>
+      </c>
+      <c r="BH32">
+        <v>0</v>
+      </c>
+      <c r="BI32">
+        <v>1.5</v>
+      </c>
+      <c r="BJ32">
+        <v>2.53</v>
+      </c>
+      <c r="BK32">
+        <v>1.83</v>
+      </c>
+      <c r="BL32">
+        <v>1.96</v>
+      </c>
+      <c r="BM32">
+        <v>2.29</v>
+      </c>
+      <c r="BN32">
+        <v>1.6</v>
+      </c>
+      <c r="BO32">
+        <v>0</v>
+      </c>
+      <c r="BP32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:68">
+      <c r="A33" s="1">
+        <v>32</v>
+      </c>
+      <c r="B33">
+        <v>7463345</v>
+      </c>
+      <c r="C33" t="s">
+        <v>68</v>
+      </c>
+      <c r="D33" t="s">
+        <v>69</v>
+      </c>
+      <c r="E33" s="2">
+        <v>45555.60416666666</v>
+      </c>
+      <c r="F33">
+        <v>7</v>
+      </c>
+      <c r="G33" t="s">
+        <v>75</v>
+      </c>
+      <c r="H33" t="s">
+        <v>78</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>0</v>
+      </c>
+      <c r="K33">
+        <v>0</v>
+      </c>
+      <c r="L33">
+        <v>0</v>
+      </c>
+      <c r="M33">
+        <v>0</v>
+      </c>
+      <c r="N33">
+        <v>0</v>
+      </c>
+      <c r="O33" t="s">
+        <v>84</v>
+      </c>
+      <c r="P33" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q33">
+        <v>2.75</v>
+      </c>
+      <c r="R33">
+        <v>2.25</v>
+      </c>
+      <c r="S33">
+        <v>3.4</v>
+      </c>
+      <c r="T33">
+        <v>1.29</v>
+      </c>
+      <c r="U33">
+        <v>3.3</v>
+      </c>
+      <c r="V33">
+        <v>2.4</v>
+      </c>
+      <c r="W33">
+        <v>1.54</v>
+      </c>
+      <c r="X33">
+        <v>5.25</v>
+      </c>
+      <c r="Y33">
+        <v>1.12</v>
+      </c>
+      <c r="Z33">
+        <v>2.25</v>
+      </c>
+      <c r="AA33">
+        <v>3.4</v>
+      </c>
+      <c r="AB33">
+        <v>3.1</v>
+      </c>
+      <c r="AC33">
+        <v>1.01</v>
+      </c>
+      <c r="AD33">
+        <v>11</v>
+      </c>
+      <c r="AE33">
+        <v>1.18</v>
+      </c>
+      <c r="AF33">
+        <v>4.33</v>
+      </c>
+      <c r="AG33">
+        <v>1.73</v>
+      </c>
+      <c r="AH33">
+        <v>2.08</v>
+      </c>
+      <c r="AI33">
+        <v>1.57</v>
+      </c>
+      <c r="AJ33">
+        <v>2.25</v>
+      </c>
+      <c r="AK33">
+        <v>1.38</v>
+      </c>
+      <c r="AL33">
+        <v>1.27</v>
+      </c>
+      <c r="AM33">
+        <v>1.55</v>
+      </c>
+      <c r="AN33">
+        <v>0.5</v>
+      </c>
+      <c r="AO33">
+        <v>0</v>
+      </c>
+      <c r="AP33">
+        <v>0.67</v>
+      </c>
+      <c r="AQ33">
+        <v>0.25</v>
+      </c>
+      <c r="AR33">
+        <v>1.43</v>
+      </c>
+      <c r="AS33">
+        <v>1.21</v>
+      </c>
+      <c r="AT33">
+        <v>2.64</v>
+      </c>
+      <c r="AU33">
+        <v>4</v>
+      </c>
+      <c r="AV33">
+        <v>5</v>
+      </c>
+      <c r="AW33">
+        <v>6</v>
+      </c>
+      <c r="AX33">
+        <v>2</v>
+      </c>
+      <c r="AY33">
+        <v>10</v>
+      </c>
+      <c r="AZ33">
+        <v>7</v>
+      </c>
+      <c r="BA33">
+        <v>2</v>
+      </c>
+      <c r="BB33">
+        <v>2</v>
+      </c>
+      <c r="BC33">
+        <v>4</v>
+      </c>
+      <c r="BD33">
+        <v>1.8</v>
+      </c>
+      <c r="BE33">
+        <v>7.4</v>
+      </c>
+      <c r="BF33">
+        <v>2.34</v>
+      </c>
+      <c r="BG33">
+        <v>1.53</v>
+      </c>
+      <c r="BH33">
+        <v>2.16</v>
+      </c>
+      <c r="BI33">
+        <v>1.98</v>
+      </c>
+      <c r="BJ33">
+        <v>1.7</v>
+      </c>
+      <c r="BK33">
+        <v>2.6</v>
+      </c>
+      <c r="BL33">
+        <v>1.36</v>
+      </c>
+      <c r="BM33">
+        <v>3.66</v>
+      </c>
+      <c r="BN33">
+        <v>1.18</v>
+      </c>
+      <c r="BO33">
+        <v>0</v>
+      </c>
+      <c r="BP33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:68">
+      <c r="A34" s="1">
+        <v>33</v>
+      </c>
+      <c r="B34">
+        <v>7463346</v>
+      </c>
+      <c r="C34" t="s">
+        <v>68</v>
+      </c>
+      <c r="D34" t="s">
+        <v>69</v>
+      </c>
+      <c r="E34" s="2">
+        <v>45555.60416666666</v>
+      </c>
+      <c r="F34">
+        <v>7</v>
+      </c>
+      <c r="G34" t="s">
+        <v>76</v>
+      </c>
+      <c r="H34" t="s">
+        <v>77</v>
+      </c>
+      <c r="I34">
+        <v>1</v>
+      </c>
+      <c r="J34">
+        <v>2</v>
+      </c>
+      <c r="K34">
+        <v>3</v>
+      </c>
+      <c r="L34">
+        <v>2</v>
+      </c>
+      <c r="M34">
+        <v>4</v>
+      </c>
+      <c r="N34">
+        <v>6</v>
+      </c>
+      <c r="O34" t="s">
+        <v>105</v>
+      </c>
+      <c r="P34" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q34">
+        <v>3.2</v>
+      </c>
+      <c r="R34">
+        <v>2.2</v>
+      </c>
+      <c r="S34">
+        <v>2.88</v>
+      </c>
+      <c r="T34">
+        <v>1.29</v>
+      </c>
+      <c r="U34">
+        <v>3.3</v>
+      </c>
+      <c r="V34">
+        <v>2.4</v>
+      </c>
+      <c r="W34">
+        <v>1.54</v>
+      </c>
+      <c r="X34">
+        <v>5.25</v>
+      </c>
+      <c r="Y34">
+        <v>1.12</v>
+      </c>
+      <c r="Z34">
+        <v>2.75</v>
+      </c>
+      <c r="AA34">
+        <v>3.4</v>
+      </c>
+      <c r="AB34">
+        <v>2.45</v>
+      </c>
+      <c r="AC34">
+        <v>1.01</v>
+      </c>
+      <c r="AD34">
+        <v>11</v>
+      </c>
+      <c r="AE34">
+        <v>1.18</v>
+      </c>
+      <c r="AF34">
+        <v>4.33</v>
+      </c>
+      <c r="AG34">
+        <v>1.75</v>
+      </c>
+      <c r="AH34">
+        <v>2.05</v>
+      </c>
+      <c r="AI34">
+        <v>1.67</v>
+      </c>
+      <c r="AJ34">
+        <v>2.1</v>
+      </c>
+      <c r="AK34">
+        <v>1.45</v>
+      </c>
+      <c r="AL34">
+        <v>1.27</v>
+      </c>
+      <c r="AM34">
+        <v>1.48</v>
+      </c>
+      <c r="AN34">
+        <v>1</v>
+      </c>
+      <c r="AO34">
+        <v>1.33</v>
+      </c>
+      <c r="AP34">
+        <v>0.75</v>
+      </c>
+      <c r="AQ34">
+        <v>1.75</v>
+      </c>
+      <c r="AR34">
+        <v>1.62</v>
+      </c>
+      <c r="AS34">
+        <v>1.68</v>
+      </c>
+      <c r="AT34">
+        <v>3.3</v>
+      </c>
+      <c r="AU34">
+        <v>3</v>
+      </c>
+      <c r="AV34">
+        <v>7</v>
+      </c>
+      <c r="AW34">
+        <v>3</v>
+      </c>
+      <c r="AX34">
+        <v>11</v>
+      </c>
+      <c r="AY34">
+        <v>6</v>
+      </c>
+      <c r="AZ34">
+        <v>18</v>
+      </c>
+      <c r="BA34">
+        <v>2</v>
+      </c>
+      <c r="BB34">
+        <v>6</v>
+      </c>
+      <c r="BC34">
+        <v>8</v>
+      </c>
+      <c r="BD34">
+        <v>2.18</v>
+      </c>
+      <c r="BE34">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="BF34">
+        <v>1.86</v>
+      </c>
+      <c r="BG34">
+        <v>1.21</v>
+      </c>
+      <c r="BH34">
+        <v>3.44</v>
+      </c>
+      <c r="BI34">
+        <v>1.48</v>
+      </c>
+      <c r="BJ34">
+        <v>2.52</v>
+      </c>
+      <c r="BK34">
+        <v>2.25</v>
+      </c>
+      <c r="BL34">
+        <v>1.97</v>
+      </c>
+      <c r="BM34">
+        <v>2.29</v>
+      </c>
+      <c r="BN34">
+        <v>1.59</v>
+      </c>
+      <c r="BO34">
+        <v>2.94</v>
+      </c>
+      <c r="BP34">
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="35" spans="1:68">
+      <c r="A35" s="1">
+        <v>34</v>
+      </c>
+      <c r="B35">
+        <v>7463348</v>
+      </c>
+      <c r="C35" t="s">
+        <v>68</v>
+      </c>
+      <c r="D35" t="s">
+        <v>69</v>
+      </c>
+      <c r="E35" s="2">
+        <v>45555.63541666666</v>
+      </c>
+      <c r="F35">
+        <v>7</v>
+      </c>
+      <c r="G35" t="s">
+        <v>74</v>
+      </c>
+      <c r="H35" t="s">
+        <v>72</v>
+      </c>
+      <c r="I35">
+        <v>2</v>
+      </c>
+      <c r="J35">
+        <v>3</v>
+      </c>
+      <c r="K35">
+        <v>5</v>
+      </c>
+      <c r="L35">
+        <v>2</v>
+      </c>
+      <c r="M35">
+        <v>5</v>
+      </c>
+      <c r="N35">
+        <v>7</v>
+      </c>
+      <c r="O35" t="s">
+        <v>106</v>
+      </c>
+      <c r="P35" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q35">
+        <v>2.5</v>
+      </c>
+      <c r="R35">
+        <v>2.38</v>
+      </c>
+      <c r="S35">
+        <v>3.5</v>
+      </c>
+      <c r="T35">
+        <v>1.21</v>
+      </c>
+      <c r="U35">
+        <v>4.1</v>
+      </c>
+      <c r="V35">
+        <v>2</v>
+      </c>
+      <c r="W35">
+        <v>1.78</v>
+      </c>
+      <c r="X35">
+        <v>4.25</v>
+      </c>
+      <c r="Y35">
+        <v>1.2</v>
+      </c>
+      <c r="Z35">
+        <v>2</v>
+      </c>
+      <c r="AA35">
+        <v>3.4</v>
+      </c>
+      <c r="AB35">
+        <v>3.6</v>
+      </c>
+      <c r="AC35">
+        <v>1.01</v>
+      </c>
+      <c r="AD35">
+        <v>17</v>
+      </c>
+      <c r="AE35">
+        <v>1.08</v>
+      </c>
+      <c r="AF35">
+        <v>5.9</v>
+      </c>
+      <c r="AG35">
+        <v>1.57</v>
+      </c>
+      <c r="AH35">
+        <v>2.35</v>
+      </c>
+      <c r="AI35">
+        <v>1.5</v>
+      </c>
+      <c r="AJ35">
+        <v>2.5</v>
+      </c>
+      <c r="AK35">
+        <v>1.17</v>
+      </c>
+      <c r="AL35">
+        <v>1.17</v>
+      </c>
+      <c r="AM35">
+        <v>2.15</v>
+      </c>
+      <c r="AN35">
+        <v>2.33</v>
+      </c>
+      <c r="AO35">
+        <v>1</v>
+      </c>
+      <c r="AP35">
+        <v>1.75</v>
+      </c>
+      <c r="AQ35">
+        <v>1.67</v>
+      </c>
+      <c r="AR35">
+        <v>2.16</v>
+      </c>
+      <c r="AS35">
+        <v>0.97</v>
+      </c>
+      <c r="AT35">
+        <v>3.13</v>
+      </c>
+      <c r="AU35">
+        <v>5</v>
+      </c>
+      <c r="AV35">
+        <v>12</v>
+      </c>
+      <c r="AW35">
+        <v>6</v>
+      </c>
+      <c r="AX35">
+        <v>13</v>
+      </c>
+      <c r="AY35">
+        <v>11</v>
+      </c>
+      <c r="AZ35">
+        <v>25</v>
+      </c>
+      <c r="BA35">
+        <v>6</v>
+      </c>
+      <c r="BB35">
+        <v>12</v>
+      </c>
+      <c r="BC35">
+        <v>18</v>
+      </c>
+      <c r="BD35">
+        <v>1.47</v>
+      </c>
+      <c r="BE35">
+        <v>0</v>
+      </c>
+      <c r="BF35">
+        <v>3.12</v>
+      </c>
+      <c r="BG35">
+        <v>1.25</v>
+      </c>
+      <c r="BH35">
+        <v>3.14</v>
+      </c>
+      <c r="BI35">
+        <v>1.46</v>
+      </c>
+      <c r="BJ35">
+        <v>2.58</v>
+      </c>
+      <c r="BK35">
+        <v>2.25</v>
+      </c>
+      <c r="BL35">
+        <v>1.97</v>
+      </c>
+      <c r="BM35">
+        <v>2.29</v>
+      </c>
+      <c r="BN35">
+        <v>1.58</v>
+      </c>
+      <c r="BO35">
+        <v>3.22</v>
+      </c>
+      <c r="BP35">
+        <v>1.24</v>
+      </c>
+    </row>
+    <row r="36" spans="1:68">
+      <c r="A36" s="1">
+        <v>35</v>
+      </c>
+      <c r="B36">
+        <v>7463347</v>
+      </c>
+      <c r="C36" t="s">
+        <v>68</v>
+      </c>
+      <c r="D36" t="s">
+        <v>69</v>
+      </c>
+      <c r="E36" s="2">
+        <v>45555.63541666666</v>
+      </c>
+      <c r="F36">
+        <v>7</v>
+      </c>
+      <c r="G36" t="s">
+        <v>79</v>
+      </c>
+      <c r="H36" t="s">
+        <v>73</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <v>0</v>
+      </c>
+      <c r="K36">
+        <v>0</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>2</v>
+      </c>
+      <c r="N36">
+        <v>3</v>
+      </c>
+      <c r="O36" t="s">
+        <v>107</v>
+      </c>
+      <c r="P36" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q36">
+        <v>2.2</v>
+      </c>
+      <c r="R36">
+        <v>2.3</v>
+      </c>
+      <c r="S36">
+        <v>4.5</v>
+      </c>
+      <c r="T36">
+        <v>1.32</v>
+      </c>
+      <c r="U36">
+        <v>3.2</v>
+      </c>
+      <c r="V36">
+        <v>2.51</v>
+      </c>
+      <c r="W36">
+        <v>1.5</v>
+      </c>
+      <c r="X36">
+        <v>5.8</v>
+      </c>
+      <c r="Y36">
+        <v>1.11</v>
+      </c>
+      <c r="Z36">
+        <v>1.67</v>
+      </c>
+      <c r="AA36">
+        <v>3.75</v>
+      </c>
+      <c r="AB36">
+        <v>4.75</v>
+      </c>
+      <c r="AC36">
+        <v>1.01</v>
+      </c>
+      <c r="AD36">
+        <v>11</v>
+      </c>
+      <c r="AE36">
+        <v>1.18</v>
+      </c>
+      <c r="AF36">
+        <v>4.05</v>
+      </c>
+      <c r="AG36">
+        <v>1.67</v>
+      </c>
+      <c r="AH36">
+        <v>2.15</v>
+      </c>
+      <c r="AI36">
+        <v>1.67</v>
+      </c>
+      <c r="AJ36">
+        <v>2.1</v>
+      </c>
+      <c r="AK36">
+        <v>1.12</v>
+      </c>
+      <c r="AL36">
+        <v>1.19</v>
+      </c>
+      <c r="AM36">
+        <v>2.3</v>
+      </c>
+      <c r="AN36">
+        <v>2.33</v>
+      </c>
+      <c r="AO36">
+        <v>1.33</v>
+      </c>
+      <c r="AP36">
+        <v>1.75</v>
+      </c>
+      <c r="AQ36">
+        <v>1.75</v>
+      </c>
+      <c r="AR36">
+        <v>1.63</v>
+      </c>
+      <c r="AS36">
+        <v>1.69</v>
+      </c>
+      <c r="AT36">
+        <v>3.32</v>
+      </c>
+      <c r="AU36">
+        <v>6</v>
+      </c>
+      <c r="AV36">
+        <v>6</v>
+      </c>
+      <c r="AW36">
+        <v>10</v>
+      </c>
+      <c r="AX36">
+        <v>8</v>
+      </c>
+      <c r="AY36">
+        <v>16</v>
+      </c>
+      <c r="AZ36">
+        <v>14</v>
+      </c>
+      <c r="BA36">
+        <v>6</v>
+      </c>
+      <c r="BB36">
+        <v>3</v>
+      </c>
+      <c r="BC36">
+        <v>9</v>
+      </c>
+      <c r="BD36">
+        <v>1.36</v>
+      </c>
+      <c r="BE36">
+        <v>9.1</v>
+      </c>
+      <c r="BF36">
+        <v>3.64</v>
+      </c>
+      <c r="BG36">
+        <v>0</v>
+      </c>
+      <c r="BH36">
+        <v>0</v>
+      </c>
+      <c r="BI36">
+        <v>1.53</v>
+      </c>
+      <c r="BJ36">
+        <v>2.41</v>
+      </c>
+      <c r="BK36">
+        <v>1.92</v>
+      </c>
+      <c r="BL36">
+        <v>1.88</v>
+      </c>
+      <c r="BM36">
+        <v>2.41</v>
+      </c>
+      <c r="BN36">
+        <v>1.53</v>
+      </c>
+      <c r="BO36">
+        <v>0</v>
+      </c>
+      <c r="BP36">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Switzerland Challenge League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Switzerland Challenge League_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="141">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -340,6 +340,12 @@
     <t>['62']</t>
   </si>
   <si>
+    <t>['54', '70', '75']</t>
+  </si>
+  <si>
+    <t>['45+1']</t>
+  </si>
+  <si>
     <t>['25', '90+2']</t>
   </si>
   <si>
@@ -428,6 +434,9 @@
   </si>
   <si>
     <t>['49', '90+3']</t>
+  </si>
+  <si>
+    <t>['9', '65']</t>
   </si>
 </sst>
 </file>
@@ -789,7 +798,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP36"/>
+  <dimension ref="A1:BP39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1048,7 +1057,7 @@
         <v>80</v>
       </c>
       <c r="P2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="Q2">
         <v>2.75</v>
@@ -1126,7 +1135,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AQ2">
         <v>1</v>
@@ -1254,7 +1263,7 @@
         <v>81</v>
       </c>
       <c r="P3" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="Q3">
         <v>2.63</v>
@@ -1460,7 +1469,7 @@
         <v>82</v>
       </c>
       <c r="P4" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="Q4">
         <v>3.75</v>
@@ -1538,10 +1547,10 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AQ4">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -1666,7 +1675,7 @@
         <v>83</v>
       </c>
       <c r="P5" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="Q5">
         <v>3.6</v>
@@ -1953,7 +1962,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ6">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2078,7 +2087,7 @@
         <v>84</v>
       </c>
       <c r="P7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="Q7">
         <v>2.63</v>
@@ -2159,7 +2168,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ7">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2284,7 +2293,7 @@
         <v>85</v>
       </c>
       <c r="P8" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="Q8">
         <v>2.63</v>
@@ -2490,7 +2499,7 @@
         <v>86</v>
       </c>
       <c r="P9" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="Q9">
         <v>3</v>
@@ -2696,7 +2705,7 @@
         <v>87</v>
       </c>
       <c r="P10" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="Q10">
         <v>2.3</v>
@@ -2774,7 +2783,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AQ10">
         <v>1.67</v>
@@ -3108,7 +3117,7 @@
         <v>84</v>
       </c>
       <c r="P12" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="Q12">
         <v>2.88</v>
@@ -3189,7 +3198,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ12">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="AR12">
         <v>1.34</v>
@@ -3314,7 +3323,7 @@
         <v>89</v>
       </c>
       <c r="P13" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="Q13">
         <v>2.2</v>
@@ -3520,7 +3529,7 @@
         <v>90</v>
       </c>
       <c r="P14" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="Q14">
         <v>3</v>
@@ -3598,7 +3607,7 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AQ14">
         <v>1.5</v>
@@ -3726,7 +3735,7 @@
         <v>91</v>
       </c>
       <c r="P15" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="Q15">
         <v>3</v>
@@ -3932,7 +3941,7 @@
         <v>92</v>
       </c>
       <c r="P16" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="Q16">
         <v>2.75</v>
@@ -4138,7 +4147,7 @@
         <v>93</v>
       </c>
       <c r="P17" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="Q17">
         <v>2.38</v>
@@ -4344,7 +4353,7 @@
         <v>84</v>
       </c>
       <c r="P18" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="Q18">
         <v>3.1</v>
@@ -4425,7 +4434,7 @@
         <v>2</v>
       </c>
       <c r="AQ18">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AR18">
         <v>1.54</v>
@@ -4550,7 +4559,7 @@
         <v>94</v>
       </c>
       <c r="P19" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="Q19">
         <v>2.3</v>
@@ -4628,7 +4637,7 @@
         <v>0</v>
       </c>
       <c r="AP19">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AQ19">
         <v>1.75</v>
@@ -4756,7 +4765,7 @@
         <v>84</v>
       </c>
       <c r="P20" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="Q20">
         <v>2.3</v>
@@ -4834,10 +4843,10 @@
         <v>1</v>
       </c>
       <c r="AP20">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AQ20">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AR20">
         <v>1.99</v>
@@ -4962,7 +4971,7 @@
         <v>95</v>
       </c>
       <c r="P21" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="Q21">
         <v>2.88</v>
@@ -5246,7 +5255,7 @@
         <v>1.5</v>
       </c>
       <c r="AP22">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AQ22">
         <v>1.5</v>
@@ -5374,7 +5383,7 @@
         <v>97</v>
       </c>
       <c r="P23" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="Q23">
         <v>2.88</v>
@@ -5455,7 +5464,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ23">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="AR23">
         <v>1.3</v>
@@ -5658,7 +5667,7 @@
         <v>2</v>
       </c>
       <c r="AP24">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AQ24">
         <v>1.75</v>
@@ -5786,7 +5795,7 @@
         <v>98</v>
       </c>
       <c r="P25" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="Q25">
         <v>2.63</v>
@@ -5992,7 +6001,7 @@
         <v>99</v>
       </c>
       <c r="P26" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="Q26">
         <v>2.2</v>
@@ -6073,7 +6082,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ26">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AR26">
         <v>1.45</v>
@@ -6198,7 +6207,7 @@
         <v>100</v>
       </c>
       <c r="P27" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="Q27">
         <v>2.5</v>
@@ -6276,7 +6285,7 @@
         <v>0.5</v>
       </c>
       <c r="AP27">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AQ27">
         <v>0.33</v>
@@ -6404,7 +6413,7 @@
         <v>84</v>
       </c>
       <c r="P28" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="Q28">
         <v>3</v>
@@ -6610,7 +6619,7 @@
         <v>101</v>
       </c>
       <c r="P29" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="Q29">
         <v>2.88</v>
@@ -6816,7 +6825,7 @@
         <v>102</v>
       </c>
       <c r="P30" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="Q30">
         <v>3.75</v>
@@ -6897,7 +6906,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ30">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AR30">
         <v>1.62</v>
@@ -7022,7 +7031,7 @@
         <v>103</v>
       </c>
       <c r="P31" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="Q31">
         <v>3</v>
@@ -7100,7 +7109,7 @@
         <v>0.5</v>
       </c>
       <c r="AP31">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AQ31">
         <v>1.75</v>
@@ -7228,7 +7237,7 @@
         <v>104</v>
       </c>
       <c r="P32" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="Q32">
         <v>3.2</v>
@@ -7640,7 +7649,7 @@
         <v>105</v>
       </c>
       <c r="P34" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="Q34">
         <v>3.2</v>
@@ -7846,7 +7855,7 @@
         <v>106</v>
       </c>
       <c r="P35" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="Q35">
         <v>2.5</v>
@@ -8052,7 +8061,7 @@
         <v>107</v>
       </c>
       <c r="P36" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="Q36">
         <v>2.2</v>
@@ -8209,6 +8218,624 @@
       </c>
       <c r="BP36">
         <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:68">
+      <c r="A37" s="1">
+        <v>36</v>
+      </c>
+      <c r="B37">
+        <v>7463349</v>
+      </c>
+      <c r="C37" t="s">
+        <v>68</v>
+      </c>
+      <c r="D37" t="s">
+        <v>69</v>
+      </c>
+      <c r="E37" s="2">
+        <v>45558.60416666666</v>
+      </c>
+      <c r="F37">
+        <v>8</v>
+      </c>
+      <c r="G37" t="s">
+        <v>70</v>
+      </c>
+      <c r="H37" t="s">
+        <v>76</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>1</v>
+      </c>
+      <c r="K37">
+        <v>1</v>
+      </c>
+      <c r="L37">
+        <v>3</v>
+      </c>
+      <c r="M37">
+        <v>2</v>
+      </c>
+      <c r="N37">
+        <v>5</v>
+      </c>
+      <c r="O37" t="s">
+        <v>108</v>
+      </c>
+      <c r="P37" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q37">
+        <v>2.3</v>
+      </c>
+      <c r="R37">
+        <v>2.38</v>
+      </c>
+      <c r="S37">
+        <v>4</v>
+      </c>
+      <c r="T37">
+        <v>1.28</v>
+      </c>
+      <c r="U37">
+        <v>3.46</v>
+      </c>
+      <c r="V37">
+        <v>2.31</v>
+      </c>
+      <c r="W37">
+        <v>1.56</v>
+      </c>
+      <c r="X37">
+        <v>5.3</v>
+      </c>
+      <c r="Y37">
+        <v>1.14</v>
+      </c>
+      <c r="Z37">
+        <v>1.8</v>
+      </c>
+      <c r="AA37">
+        <v>3.9</v>
+      </c>
+      <c r="AB37">
+        <v>3.8</v>
+      </c>
+      <c r="AC37">
+        <v>1.01</v>
+      </c>
+      <c r="AD37">
+        <v>13</v>
+      </c>
+      <c r="AE37">
+        <v>1.13</v>
+      </c>
+      <c r="AF37">
+        <v>5.2</v>
+      </c>
+      <c r="AG37">
+        <v>1.57</v>
+      </c>
+      <c r="AH37">
+        <v>2.35</v>
+      </c>
+      <c r="AI37">
+        <v>1.57</v>
+      </c>
+      <c r="AJ37">
+        <v>2.25</v>
+      </c>
+      <c r="AK37">
+        <v>1.3</v>
+      </c>
+      <c r="AL37">
+        <v>1.2</v>
+      </c>
+      <c r="AM37">
+        <v>1.83</v>
+      </c>
+      <c r="AN37">
+        <v>2.33</v>
+      </c>
+      <c r="AO37">
+        <v>1.33</v>
+      </c>
+      <c r="AP37">
+        <v>2.5</v>
+      </c>
+      <c r="AQ37">
+        <v>1</v>
+      </c>
+      <c r="AR37">
+        <v>1.5</v>
+      </c>
+      <c r="AS37">
+        <v>1.7</v>
+      </c>
+      <c r="AT37">
+        <v>3.2</v>
+      </c>
+      <c r="AU37">
+        <v>9</v>
+      </c>
+      <c r="AV37">
+        <v>5</v>
+      </c>
+      <c r="AW37">
+        <v>17</v>
+      </c>
+      <c r="AX37">
+        <v>8</v>
+      </c>
+      <c r="AY37">
+        <v>26</v>
+      </c>
+      <c r="AZ37">
+        <v>13</v>
+      </c>
+      <c r="BA37">
+        <v>4</v>
+      </c>
+      <c r="BB37">
+        <v>5</v>
+      </c>
+      <c r="BC37">
+        <v>9</v>
+      </c>
+      <c r="BD37">
+        <v>1.57</v>
+      </c>
+      <c r="BE37">
+        <v>8.6</v>
+      </c>
+      <c r="BF37">
+        <v>2.74</v>
+      </c>
+      <c r="BG37">
+        <v>1.23</v>
+      </c>
+      <c r="BH37">
+        <v>3.8</v>
+      </c>
+      <c r="BI37">
+        <v>1.35</v>
+      </c>
+      <c r="BJ37">
+        <v>2.65</v>
+      </c>
+      <c r="BK37">
+        <v>2.2</v>
+      </c>
+      <c r="BL37">
+        <v>1.99</v>
+      </c>
+      <c r="BM37">
+        <v>2.1</v>
+      </c>
+      <c r="BN37">
+        <v>1.62</v>
+      </c>
+      <c r="BO37">
+        <v>2.69</v>
+      </c>
+      <c r="BP37">
+        <v>1.34</v>
+      </c>
+    </row>
+    <row r="38" spans="1:68">
+      <c r="A38" s="1">
+        <v>37</v>
+      </c>
+      <c r="B38">
+        <v>7463350</v>
+      </c>
+      <c r="C38" t="s">
+        <v>68</v>
+      </c>
+      <c r="D38" t="s">
+        <v>69</v>
+      </c>
+      <c r="E38" s="2">
+        <v>45558.60416666666</v>
+      </c>
+      <c r="F38">
+        <v>8</v>
+      </c>
+      <c r="G38" t="s">
+        <v>78</v>
+      </c>
+      <c r="H38" t="s">
+        <v>79</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+      <c r="J38">
+        <v>0</v>
+      </c>
+      <c r="K38">
+        <v>0</v>
+      </c>
+      <c r="L38">
+        <v>0</v>
+      </c>
+      <c r="M38">
+        <v>0</v>
+      </c>
+      <c r="N38">
+        <v>0</v>
+      </c>
+      <c r="O38" t="s">
+        <v>84</v>
+      </c>
+      <c r="P38" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q38">
+        <v>3.25</v>
+      </c>
+      <c r="R38">
+        <v>2.3</v>
+      </c>
+      <c r="S38">
+        <v>2.75</v>
+      </c>
+      <c r="T38">
+        <v>1.32</v>
+      </c>
+      <c r="U38">
+        <v>3.1</v>
+      </c>
+      <c r="V38">
+        <v>2.3</v>
+      </c>
+      <c r="W38">
+        <v>1.55</v>
+      </c>
+      <c r="X38">
+        <v>5.2</v>
+      </c>
+      <c r="Y38">
+        <v>1.13</v>
+      </c>
+      <c r="Z38">
+        <v>2.88</v>
+      </c>
+      <c r="AA38">
+        <v>3.6</v>
+      </c>
+      <c r="AB38">
+        <v>2.2</v>
+      </c>
+      <c r="AC38">
+        <v>1.01</v>
+      </c>
+      <c r="AD38">
+        <v>11</v>
+      </c>
+      <c r="AE38">
+        <v>1.14</v>
+      </c>
+      <c r="AF38">
+        <v>4.8</v>
+      </c>
+      <c r="AG38">
+        <v>1.67</v>
+      </c>
+      <c r="AH38">
+        <v>2.15</v>
+      </c>
+      <c r="AI38">
+        <v>1.57</v>
+      </c>
+      <c r="AJ38">
+        <v>2.25</v>
+      </c>
+      <c r="AK38">
+        <v>1.65</v>
+      </c>
+      <c r="AL38">
+        <v>1.28</v>
+      </c>
+      <c r="AM38">
+        <v>1.28</v>
+      </c>
+      <c r="AN38">
+        <v>1.33</v>
+      </c>
+      <c r="AO38">
+        <v>2.33</v>
+      </c>
+      <c r="AP38">
+        <v>1.25</v>
+      </c>
+      <c r="AQ38">
+        <v>2</v>
+      </c>
+      <c r="AR38">
+        <v>2.02</v>
+      </c>
+      <c r="AS38">
+        <v>1.95</v>
+      </c>
+      <c r="AT38">
+        <v>3.97</v>
+      </c>
+      <c r="AU38">
+        <v>4</v>
+      </c>
+      <c r="AV38">
+        <v>3</v>
+      </c>
+      <c r="AW38">
+        <v>7</v>
+      </c>
+      <c r="AX38">
+        <v>7</v>
+      </c>
+      <c r="AY38">
+        <v>11</v>
+      </c>
+      <c r="AZ38">
+        <v>10</v>
+      </c>
+      <c r="BA38">
+        <v>3</v>
+      </c>
+      <c r="BB38">
+        <v>6</v>
+      </c>
+      <c r="BC38">
+        <v>9</v>
+      </c>
+      <c r="BD38">
+        <v>2.44</v>
+      </c>
+      <c r="BE38">
+        <v>6.2</v>
+      </c>
+      <c r="BF38">
+        <v>1.83</v>
+      </c>
+      <c r="BG38">
+        <v>1.28</v>
+      </c>
+      <c r="BH38">
+        <v>2.97</v>
+      </c>
+      <c r="BI38">
+        <v>1.53</v>
+      </c>
+      <c r="BJ38">
+        <v>2.16</v>
+      </c>
+      <c r="BK38">
+        <v>1.95</v>
+      </c>
+      <c r="BL38">
+        <v>1.72</v>
+      </c>
+      <c r="BM38">
+        <v>2.51</v>
+      </c>
+      <c r="BN38">
+        <v>1.39</v>
+      </c>
+      <c r="BO38">
+        <v>3.44</v>
+      </c>
+      <c r="BP38">
+        <v>1.21</v>
+      </c>
+    </row>
+    <row r="39" spans="1:68">
+      <c r="A39" s="1">
+        <v>38</v>
+      </c>
+      <c r="B39">
+        <v>7463351</v>
+      </c>
+      <c r="C39" t="s">
+        <v>68</v>
+      </c>
+      <c r="D39" t="s">
+        <v>69</v>
+      </c>
+      <c r="E39" s="2">
+        <v>45558.63541666666</v>
+      </c>
+      <c r="F39">
+        <v>8</v>
+      </c>
+      <c r="G39" t="s">
+        <v>72</v>
+      </c>
+      <c r="H39" t="s">
+        <v>71</v>
+      </c>
+      <c r="I39">
+        <v>1</v>
+      </c>
+      <c r="J39">
+        <v>1</v>
+      </c>
+      <c r="K39">
+        <v>2</v>
+      </c>
+      <c r="L39">
+        <v>1</v>
+      </c>
+      <c r="M39">
+        <v>2</v>
+      </c>
+      <c r="N39">
+        <v>3</v>
+      </c>
+      <c r="O39" t="s">
+        <v>109</v>
+      </c>
+      <c r="P39" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q39">
+        <v>2.5</v>
+      </c>
+      <c r="R39">
+        <v>2.3</v>
+      </c>
+      <c r="S39">
+        <v>3.6</v>
+      </c>
+      <c r="T39">
+        <v>1.29</v>
+      </c>
+      <c r="U39">
+        <v>3.4</v>
+      </c>
+      <c r="V39">
+        <v>2.36</v>
+      </c>
+      <c r="W39">
+        <v>1.54</v>
+      </c>
+      <c r="X39">
+        <v>5.45</v>
+      </c>
+      <c r="Y39">
+        <v>1.13</v>
+      </c>
+      <c r="Z39">
+        <v>1.95</v>
+      </c>
+      <c r="AA39">
+        <v>3.75</v>
+      </c>
+      <c r="AB39">
+        <v>3.3</v>
+      </c>
+      <c r="AC39">
+        <v>1.01</v>
+      </c>
+      <c r="AD39">
+        <v>13</v>
+      </c>
+      <c r="AE39">
+        <v>1.14</v>
+      </c>
+      <c r="AF39">
+        <v>4.8</v>
+      </c>
+      <c r="AG39">
+        <v>1.62</v>
+      </c>
+      <c r="AH39">
+        <v>2.25</v>
+      </c>
+      <c r="AI39">
+        <v>1.57</v>
+      </c>
+      <c r="AJ39">
+        <v>2.25</v>
+      </c>
+      <c r="AK39">
+        <v>1.38</v>
+      </c>
+      <c r="AL39">
+        <v>1.22</v>
+      </c>
+      <c r="AM39">
+        <v>1.63</v>
+      </c>
+      <c r="AN39">
+        <v>0.75</v>
+      </c>
+      <c r="AO39">
+        <v>2</v>
+      </c>
+      <c r="AP39">
+        <v>0.6</v>
+      </c>
+      <c r="AQ39">
+        <v>2.25</v>
+      </c>
+      <c r="AR39">
+        <v>1.16</v>
+      </c>
+      <c r="AS39">
+        <v>1.32</v>
+      </c>
+      <c r="AT39">
+        <v>2.48</v>
+      </c>
+      <c r="AU39">
+        <v>2</v>
+      </c>
+      <c r="AV39">
+        <v>7</v>
+      </c>
+      <c r="AW39">
+        <v>10</v>
+      </c>
+      <c r="AX39">
+        <v>7</v>
+      </c>
+      <c r="AY39">
+        <v>12</v>
+      </c>
+      <c r="AZ39">
+        <v>14</v>
+      </c>
+      <c r="BA39">
+        <v>5</v>
+      </c>
+      <c r="BB39">
+        <v>4</v>
+      </c>
+      <c r="BC39">
+        <v>9</v>
+      </c>
+      <c r="BD39">
+        <v>1.6</v>
+      </c>
+      <c r="BE39">
+        <v>6.7</v>
+      </c>
+      <c r="BF39">
+        <v>2.91</v>
+      </c>
+      <c r="BG39">
+        <v>1.2</v>
+      </c>
+      <c r="BH39">
+        <v>4.51</v>
+      </c>
+      <c r="BI39">
+        <v>1.3</v>
+      </c>
+      <c r="BJ39">
+        <v>2.88</v>
+      </c>
+      <c r="BK39">
+        <v>2.1</v>
+      </c>
+      <c r="BL39">
+        <v>2.14</v>
+      </c>
+      <c r="BM39">
+        <v>1.95</v>
+      </c>
+      <c r="BN39">
+        <v>1.72</v>
+      </c>
+      <c r="BO39">
+        <v>2.48</v>
+      </c>
+      <c r="BP39">
+        <v>1.4</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Switzerland Challenge League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Switzerland Challenge League_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="144">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -346,6 +346,12 @@
     <t>['45+1']</t>
   </si>
   <si>
+    <t>['9', '82']</t>
+  </si>
+  <si>
+    <t>['20']</t>
+  </si>
+  <si>
     <t>['25', '90+2']</t>
   </si>
   <si>
@@ -437,6 +443,9 @@
   </si>
   <si>
     <t>['9', '65']</t>
+  </si>
+  <si>
+    <t>['74']</t>
   </si>
 </sst>
 </file>
@@ -798,7 +807,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP39"/>
+  <dimension ref="A1:BP41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1057,7 +1066,7 @@
         <v>80</v>
       </c>
       <c r="P2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="Q2">
         <v>2.75</v>
@@ -1138,7 +1147,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ2">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1263,7 +1272,7 @@
         <v>81</v>
       </c>
       <c r="P3" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="Q3">
         <v>2.63</v>
@@ -1469,7 +1478,7 @@
         <v>82</v>
       </c>
       <c r="P4" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="Q4">
         <v>3.75</v>
@@ -1675,7 +1684,7 @@
         <v>83</v>
       </c>
       <c r="P5" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="Q5">
         <v>3.6</v>
@@ -1753,7 +1762,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AQ5">
         <v>0.25</v>
@@ -2087,7 +2096,7 @@
         <v>84</v>
       </c>
       <c r="P7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="Q7">
         <v>2.63</v>
@@ -2293,7 +2302,7 @@
         <v>85</v>
       </c>
       <c r="P8" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="Q8">
         <v>2.63</v>
@@ -2499,7 +2508,7 @@
         <v>86</v>
       </c>
       <c r="P9" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="Q9">
         <v>3</v>
@@ -2577,7 +2586,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="AQ9">
         <v>1.5</v>
@@ -2705,7 +2714,7 @@
         <v>87</v>
       </c>
       <c r="P10" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="Q10">
         <v>2.3</v>
@@ -2992,7 +3001,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ11">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3117,7 +3126,7 @@
         <v>84</v>
       </c>
       <c r="P12" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="Q12">
         <v>2.88</v>
@@ -3323,7 +3332,7 @@
         <v>89</v>
       </c>
       <c r="P13" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="Q13">
         <v>2.2</v>
@@ -3404,7 +3413,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ13">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AR13">
         <v>1.92</v>
@@ -3529,7 +3538,7 @@
         <v>90</v>
       </c>
       <c r="P14" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="Q14">
         <v>3</v>
@@ -3735,7 +3744,7 @@
         <v>91</v>
       </c>
       <c r="P15" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="Q15">
         <v>3</v>
@@ -3813,7 +3822,7 @@
         <v>3</v>
       </c>
       <c r="AP15">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AQ15">
         <v>1.75</v>
@@ -3941,7 +3950,7 @@
         <v>92</v>
       </c>
       <c r="P16" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="Q16">
         <v>2.75</v>
@@ -4147,7 +4156,7 @@
         <v>93</v>
       </c>
       <c r="P17" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="Q17">
         <v>2.38</v>
@@ -4353,7 +4362,7 @@
         <v>84</v>
       </c>
       <c r="P18" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="Q18">
         <v>3.1</v>
@@ -4431,7 +4440,7 @@
         <v>3</v>
       </c>
       <c r="AP18">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="AQ18">
         <v>2</v>
@@ -4559,7 +4568,7 @@
         <v>94</v>
       </c>
       <c r="P19" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="Q19">
         <v>2.3</v>
@@ -4765,7 +4774,7 @@
         <v>84</v>
       </c>
       <c r="P20" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="Q20">
         <v>2.3</v>
@@ -4971,7 +4980,7 @@
         <v>95</v>
       </c>
       <c r="P21" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="Q21">
         <v>2.88</v>
@@ -5052,7 +5061,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ21">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AR21">
         <v>1.63</v>
@@ -5383,7 +5392,7 @@
         <v>97</v>
       </c>
       <c r="P23" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="Q23">
         <v>2.88</v>
@@ -5461,7 +5470,7 @@
         <v>3</v>
       </c>
       <c r="AP23">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AQ23">
         <v>2.25</v>
@@ -5795,7 +5804,7 @@
         <v>98</v>
       </c>
       <c r="P25" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="Q25">
         <v>2.63</v>
@@ -5876,7 +5885,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ25">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AR25">
         <v>1.92</v>
@@ -6001,7 +6010,7 @@
         <v>99</v>
       </c>
       <c r="P26" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="Q26">
         <v>2.2</v>
@@ -6207,7 +6216,7 @@
         <v>100</v>
       </c>
       <c r="P27" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="Q27">
         <v>2.5</v>
@@ -6288,7 +6297,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ27">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AR27">
         <v>1.47</v>
@@ -6413,7 +6422,7 @@
         <v>84</v>
       </c>
       <c r="P28" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="Q28">
         <v>3</v>
@@ -6494,7 +6503,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ28">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AR28">
         <v>1.43</v>
@@ -6619,7 +6628,7 @@
         <v>101</v>
       </c>
       <c r="P29" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="Q29">
         <v>2.88</v>
@@ -6697,7 +6706,7 @@
         <v>0</v>
       </c>
       <c r="AP29">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="AQ29">
         <v>0.25</v>
@@ -6825,7 +6834,7 @@
         <v>102</v>
       </c>
       <c r="P30" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="Q30">
         <v>3.75</v>
@@ -7031,7 +7040,7 @@
         <v>103</v>
       </c>
       <c r="P31" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="Q31">
         <v>3</v>
@@ -7237,7 +7246,7 @@
         <v>104</v>
       </c>
       <c r="P32" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="Q32">
         <v>3.2</v>
@@ -7649,7 +7658,7 @@
         <v>105</v>
       </c>
       <c r="P34" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="Q34">
         <v>3.2</v>
@@ -7855,7 +7864,7 @@
         <v>106</v>
       </c>
       <c r="P35" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="Q35">
         <v>2.5</v>
@@ -8061,7 +8070,7 @@
         <v>107</v>
       </c>
       <c r="P36" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="Q36">
         <v>2.2</v>
@@ -8267,7 +8276,7 @@
         <v>108</v>
       </c>
       <c r="P37" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="Q37">
         <v>2.3</v>
@@ -8679,7 +8688,7 @@
         <v>109</v>
       </c>
       <c r="P39" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="Q39">
         <v>2.5</v>
@@ -8790,13 +8799,13 @@
         <v>14</v>
       </c>
       <c r="BA39">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BB39">
         <v>4</v>
       </c>
       <c r="BC39">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BD39">
         <v>1.6</v>
@@ -8836,6 +8845,418 @@
       </c>
       <c r="BP39">
         <v>1.4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:68">
+      <c r="A40" s="1">
+        <v>39</v>
+      </c>
+      <c r="B40">
+        <v>7463352</v>
+      </c>
+      <c r="C40" t="s">
+        <v>68</v>
+      </c>
+      <c r="D40" t="s">
+        <v>69</v>
+      </c>
+      <c r="E40" s="2">
+        <v>45559.63541666666</v>
+      </c>
+      <c r="F40">
+        <v>8</v>
+      </c>
+      <c r="G40" t="s">
+        <v>73</v>
+      </c>
+      <c r="H40" t="s">
+        <v>75</v>
+      </c>
+      <c r="I40">
+        <v>1</v>
+      </c>
+      <c r="J40">
+        <v>0</v>
+      </c>
+      <c r="K40">
+        <v>1</v>
+      </c>
+      <c r="L40">
+        <v>2</v>
+      </c>
+      <c r="M40">
+        <v>1</v>
+      </c>
+      <c r="N40">
+        <v>3</v>
+      </c>
+      <c r="O40" t="s">
+        <v>110</v>
+      </c>
+      <c r="P40" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q40">
+        <v>2.88</v>
+      </c>
+      <c r="R40">
+        <v>2.2</v>
+      </c>
+      <c r="S40">
+        <v>3.4</v>
+      </c>
+      <c r="T40">
+        <v>1.35</v>
+      </c>
+      <c r="U40">
+        <v>3.04</v>
+      </c>
+      <c r="V40">
+        <v>2.65</v>
+      </c>
+      <c r="W40">
+        <v>1.43</v>
+      </c>
+      <c r="X40">
+        <v>6.35</v>
+      </c>
+      <c r="Y40">
+        <v>1.1</v>
+      </c>
+      <c r="Z40">
+        <v>2.25</v>
+      </c>
+      <c r="AA40">
+        <v>3.5</v>
+      </c>
+      <c r="AB40">
+        <v>2.9</v>
+      </c>
+      <c r="AC40">
+        <v>1.01</v>
+      </c>
+      <c r="AD40">
+        <v>11</v>
+      </c>
+      <c r="AE40">
+        <v>1.2</v>
+      </c>
+      <c r="AF40">
+        <v>4</v>
+      </c>
+      <c r="AG40">
+        <v>1.85</v>
+      </c>
+      <c r="AH40">
+        <v>1.95</v>
+      </c>
+      <c r="AI40">
+        <v>1.67</v>
+      </c>
+      <c r="AJ40">
+        <v>2.1</v>
+      </c>
+      <c r="AK40">
+        <v>1.42</v>
+      </c>
+      <c r="AL40">
+        <v>1.25</v>
+      </c>
+      <c r="AM40">
+        <v>1.55</v>
+      </c>
+      <c r="AN40">
+        <v>2.33</v>
+      </c>
+      <c r="AO40">
+        <v>1</v>
+      </c>
+      <c r="AP40">
+        <v>2.5</v>
+      </c>
+      <c r="AQ40">
+        <v>0.8</v>
+      </c>
+      <c r="AR40">
+        <v>1.35</v>
+      </c>
+      <c r="AS40">
+        <v>1.64</v>
+      </c>
+      <c r="AT40">
+        <v>2.99</v>
+      </c>
+      <c r="AU40">
+        <v>6</v>
+      </c>
+      <c r="AV40">
+        <v>5</v>
+      </c>
+      <c r="AW40">
+        <v>7</v>
+      </c>
+      <c r="AX40">
+        <v>14</v>
+      </c>
+      <c r="AY40">
+        <v>13</v>
+      </c>
+      <c r="AZ40">
+        <v>19</v>
+      </c>
+      <c r="BA40">
+        <v>1</v>
+      </c>
+      <c r="BB40">
+        <v>4</v>
+      </c>
+      <c r="BC40">
+        <v>5</v>
+      </c>
+      <c r="BD40">
+        <v>1.82</v>
+      </c>
+      <c r="BE40">
+        <v>6.05</v>
+      </c>
+      <c r="BF40">
+        <v>2.48</v>
+      </c>
+      <c r="BG40">
+        <v>1.45</v>
+      </c>
+      <c r="BH40">
+        <v>2.64</v>
+      </c>
+      <c r="BI40">
+        <v>1.79</v>
+      </c>
+      <c r="BJ40">
+        <v>2.01</v>
+      </c>
+      <c r="BK40">
+        <v>2.26</v>
+      </c>
+      <c r="BL40">
+        <v>1.61</v>
+      </c>
+      <c r="BM40">
+        <v>3.22</v>
+      </c>
+      <c r="BN40">
+        <v>1.24</v>
+      </c>
+      <c r="BO40">
+        <v>0</v>
+      </c>
+      <c r="BP40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:68">
+      <c r="A41" s="1">
+        <v>40</v>
+      </c>
+      <c r="B41">
+        <v>7463353</v>
+      </c>
+      <c r="C41" t="s">
+        <v>68</v>
+      </c>
+      <c r="D41" t="s">
+        <v>69</v>
+      </c>
+      <c r="E41" s="2">
+        <v>45559.63541666666</v>
+      </c>
+      <c r="F41">
+        <v>8</v>
+      </c>
+      <c r="G41" t="s">
+        <v>77</v>
+      </c>
+      <c r="H41" t="s">
+        <v>74</v>
+      </c>
+      <c r="I41">
+        <v>1</v>
+      </c>
+      <c r="J41">
+        <v>0</v>
+      </c>
+      <c r="K41">
+        <v>1</v>
+      </c>
+      <c r="L41">
+        <v>1</v>
+      </c>
+      <c r="M41">
+        <v>0</v>
+      </c>
+      <c r="N41">
+        <v>1</v>
+      </c>
+      <c r="O41" t="s">
+        <v>111</v>
+      </c>
+      <c r="P41" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q41">
+        <v>2.25</v>
+      </c>
+      <c r="R41">
+        <v>2.4</v>
+      </c>
+      <c r="S41">
+        <v>4</v>
+      </c>
+      <c r="T41">
+        <v>1.26</v>
+      </c>
+      <c r="U41">
+        <v>3.62</v>
+      </c>
+      <c r="V41">
+        <v>2.21</v>
+      </c>
+      <c r="W41">
+        <v>1.61</v>
+      </c>
+      <c r="X41">
+        <v>4.9</v>
+      </c>
+      <c r="Y41">
+        <v>1.15</v>
+      </c>
+      <c r="Z41">
+        <v>1.73</v>
+      </c>
+      <c r="AA41">
+        <v>3.9</v>
+      </c>
+      <c r="AB41">
+        <v>4.1</v>
+      </c>
+      <c r="AC41">
+        <v>1.01</v>
+      </c>
+      <c r="AD41">
+        <v>13</v>
+      </c>
+      <c r="AE41">
+        <v>1.11</v>
+      </c>
+      <c r="AF41">
+        <v>5.5</v>
+      </c>
+      <c r="AG41">
+        <v>1.53</v>
+      </c>
+      <c r="AH41">
+        <v>2.38</v>
+      </c>
+      <c r="AI41">
+        <v>1.57</v>
+      </c>
+      <c r="AJ41">
+        <v>2.25</v>
+      </c>
+      <c r="AK41">
+        <v>1.44</v>
+      </c>
+      <c r="AL41">
+        <v>1.22</v>
+      </c>
+      <c r="AM41">
+        <v>1.57</v>
+      </c>
+      <c r="AN41">
+        <v>2</v>
+      </c>
+      <c r="AO41">
+        <v>0.33</v>
+      </c>
+      <c r="AP41">
+        <v>2.25</v>
+      </c>
+      <c r="AQ41">
+        <v>0.25</v>
+      </c>
+      <c r="AR41">
+        <v>1.58</v>
+      </c>
+      <c r="AS41">
+        <v>1.33</v>
+      </c>
+      <c r="AT41">
+        <v>2.91</v>
+      </c>
+      <c r="AU41">
+        <v>6</v>
+      </c>
+      <c r="AV41">
+        <v>3</v>
+      </c>
+      <c r="AW41">
+        <v>3</v>
+      </c>
+      <c r="AX41">
+        <v>3</v>
+      </c>
+      <c r="AY41">
+        <v>9</v>
+      </c>
+      <c r="AZ41">
+        <v>6</v>
+      </c>
+      <c r="BA41">
+        <v>4</v>
+      </c>
+      <c r="BB41">
+        <v>5</v>
+      </c>
+      <c r="BC41">
+        <v>9</v>
+      </c>
+      <c r="BD41">
+        <v>1.58</v>
+      </c>
+      <c r="BE41">
+        <v>7.9</v>
+      </c>
+      <c r="BF41">
+        <v>2.79</v>
+      </c>
+      <c r="BG41">
+        <v>1.5</v>
+      </c>
+      <c r="BH41">
+        <v>2.5</v>
+      </c>
+      <c r="BI41">
+        <v>1.89</v>
+      </c>
+      <c r="BJ41">
+        <v>1.91</v>
+      </c>
+      <c r="BK41">
+        <v>2.41</v>
+      </c>
+      <c r="BL41">
+        <v>1.53</v>
+      </c>
+      <c r="BM41">
+        <v>3.14</v>
+      </c>
+      <c r="BN41">
+        <v>1.25</v>
+      </c>
+      <c r="BO41">
+        <v>4.4</v>
+      </c>
+      <c r="BP41">
+        <v>1.17</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Switzerland Challenge League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Switzerland Challenge League_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="149">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -352,6 +352,12 @@
     <t>['20']</t>
   </si>
   <si>
+    <t>['2', '6', '52', '61', '72']</t>
+  </si>
+  <si>
+    <t>['65']</t>
+  </si>
+  <si>
     <t>['25', '90+2']</t>
   </si>
   <si>
@@ -446,6 +452,15 @@
   </si>
   <si>
     <t>['74']</t>
+  </si>
+  <si>
+    <t>['36', '88']</t>
+  </si>
+  <si>
+    <t>['83']</t>
+  </si>
+  <si>
+    <t>['14', '49']</t>
   </si>
 </sst>
 </file>
@@ -807,7 +822,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP41"/>
+  <dimension ref="A1:BP45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1066,7 +1081,7 @@
         <v>80</v>
       </c>
       <c r="P2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="Q2">
         <v>2.75</v>
@@ -1272,7 +1287,7 @@
         <v>81</v>
       </c>
       <c r="P3" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="Q3">
         <v>2.63</v>
@@ -1350,10 +1365,10 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AQ3">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1478,7 +1493,7 @@
         <v>82</v>
       </c>
       <c r="P4" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="Q4">
         <v>3.75</v>
@@ -1684,7 +1699,7 @@
         <v>83</v>
       </c>
       <c r="P5" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="Q5">
         <v>3.6</v>
@@ -1765,7 +1780,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ5">
-        <v>0.25</v>
+        <v>0.8</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2096,7 +2111,7 @@
         <v>84</v>
       </c>
       <c r="P7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="Q7">
         <v>2.63</v>
@@ -2174,7 +2189,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>0.67</v>
+        <v>1.25</v>
       </c>
       <c r="AQ7">
         <v>2.25</v>
@@ -2302,7 +2317,7 @@
         <v>85</v>
       </c>
       <c r="P8" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="Q8">
         <v>2.63</v>
@@ -2380,7 +2395,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AQ8">
         <v>1.75</v>
@@ -2508,7 +2523,7 @@
         <v>86</v>
       </c>
       <c r="P9" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="Q9">
         <v>3</v>
@@ -2589,7 +2604,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ9">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -2714,7 +2729,7 @@
         <v>87</v>
       </c>
       <c r="P10" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="Q10">
         <v>2.3</v>
@@ -2795,7 +2810,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ10">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -2998,7 +3013,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AQ11">
         <v>0.25</v>
@@ -3126,7 +3141,7 @@
         <v>84</v>
       </c>
       <c r="P12" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="Q12">
         <v>2.88</v>
@@ -3204,7 +3219,7 @@
         <v>3</v>
       </c>
       <c r="AP12">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AQ12">
         <v>2.25</v>
@@ -3332,7 +3347,7 @@
         <v>89</v>
       </c>
       <c r="P13" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="Q13">
         <v>2.2</v>
@@ -3410,7 +3425,7 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AQ13">
         <v>0.8</v>
@@ -3538,7 +3553,7 @@
         <v>90</v>
       </c>
       <c r="P14" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="Q14">
         <v>3</v>
@@ -3619,7 +3634,7 @@
         <v>0.6</v>
       </c>
       <c r="AQ14">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AR14">
         <v>1.19</v>
@@ -3744,7 +3759,7 @@
         <v>91</v>
       </c>
       <c r="P15" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="Q15">
         <v>3</v>
@@ -3825,7 +3840,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ15">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AR15">
         <v>1.72</v>
@@ -3950,7 +3965,7 @@
         <v>92</v>
       </c>
       <c r="P16" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="Q16">
         <v>2.75</v>
@@ -4031,7 +4046,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ16">
-        <v>0.25</v>
+        <v>0.8</v>
       </c>
       <c r="AR16">
         <v>1.95</v>
@@ -4156,7 +4171,7 @@
         <v>93</v>
       </c>
       <c r="P17" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="Q17">
         <v>2.38</v>
@@ -4234,10 +4249,10 @@
         <v>1</v>
       </c>
       <c r="AP17">
-        <v>0.67</v>
+        <v>1.25</v>
       </c>
       <c r="AQ17">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="AR17">
         <v>1.81</v>
@@ -4362,7 +4377,7 @@
         <v>84</v>
       </c>
       <c r="P18" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="Q18">
         <v>3.1</v>
@@ -4568,7 +4583,7 @@
         <v>94</v>
       </c>
       <c r="P19" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="Q19">
         <v>2.3</v>
@@ -4774,7 +4789,7 @@
         <v>84</v>
       </c>
       <c r="P20" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="Q20">
         <v>2.3</v>
@@ -4980,7 +4995,7 @@
         <v>95</v>
       </c>
       <c r="P21" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="Q21">
         <v>2.88</v>
@@ -5058,7 +5073,7 @@
         <v>0</v>
       </c>
       <c r="AP21">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AQ21">
         <v>0.25</v>
@@ -5267,7 +5282,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ22">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AR22">
         <v>1.91</v>
@@ -5392,7 +5407,7 @@
         <v>97</v>
       </c>
       <c r="P23" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="Q23">
         <v>2.88</v>
@@ -5679,7 +5694,7 @@
         <v>0.6</v>
       </c>
       <c r="AQ24">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AR24">
         <v>1.47</v>
@@ -5804,7 +5819,7 @@
         <v>98</v>
       </c>
       <c r="P25" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="Q25">
         <v>2.63</v>
@@ -6010,7 +6025,7 @@
         <v>99</v>
       </c>
       <c r="P26" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="Q26">
         <v>2.2</v>
@@ -6088,7 +6103,7 @@
         <v>2</v>
       </c>
       <c r="AP26">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AQ26">
         <v>1</v>
@@ -6216,7 +6231,7 @@
         <v>100</v>
       </c>
       <c r="P27" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="Q27">
         <v>2.5</v>
@@ -6422,7 +6437,7 @@
         <v>84</v>
       </c>
       <c r="P28" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="Q28">
         <v>3</v>
@@ -6500,7 +6515,7 @@
         <v>0.33</v>
       </c>
       <c r="AP28">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AQ28">
         <v>0.8</v>
@@ -6628,7 +6643,7 @@
         <v>101</v>
       </c>
       <c r="P29" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="Q29">
         <v>2.88</v>
@@ -6709,7 +6724,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ29">
-        <v>0.25</v>
+        <v>0.8</v>
       </c>
       <c r="AR29">
         <v>1.46</v>
@@ -6834,7 +6849,7 @@
         <v>102</v>
       </c>
       <c r="P30" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="Q30">
         <v>3.75</v>
@@ -6912,7 +6927,7 @@
         <v>3</v>
       </c>
       <c r="AP30">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AQ30">
         <v>2</v>
@@ -7040,7 +7055,7 @@
         <v>103</v>
       </c>
       <c r="P31" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="Q31">
         <v>3</v>
@@ -7246,7 +7261,7 @@
         <v>104</v>
       </c>
       <c r="P32" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="Q32">
         <v>3.2</v>
@@ -7324,10 +7339,10 @@
         <v>1</v>
       </c>
       <c r="AP32">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AQ32">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AR32">
         <v>1.52</v>
@@ -7530,10 +7545,10 @@
         <v>0</v>
       </c>
       <c r="AP33">
-        <v>0.67</v>
+        <v>1.25</v>
       </c>
       <c r="AQ33">
-        <v>0.25</v>
+        <v>0.8</v>
       </c>
       <c r="AR33">
         <v>1.43</v>
@@ -7658,7 +7673,7 @@
         <v>105</v>
       </c>
       <c r="P34" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="Q34">
         <v>3.2</v>
@@ -7736,10 +7751,10 @@
         <v>1.33</v>
       </c>
       <c r="AP34">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AQ34">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AR34">
         <v>1.62</v>
@@ -7864,7 +7879,7 @@
         <v>106</v>
       </c>
       <c r="P35" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="Q35">
         <v>2.5</v>
@@ -7945,7 +7960,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ35">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="AR35">
         <v>2.16</v>
@@ -8070,7 +8085,7 @@
         <v>107</v>
       </c>
       <c r="P36" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="Q36">
         <v>2.2</v>
@@ -8148,7 +8163,7 @@
         <v>1.33</v>
       </c>
       <c r="AP36">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AQ36">
         <v>1.75</v>
@@ -8276,7 +8291,7 @@
         <v>108</v>
       </c>
       <c r="P37" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="Q37">
         <v>2.3</v>
@@ -8688,7 +8703,7 @@
         <v>109</v>
       </c>
       <c r="P39" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="Q39">
         <v>2.5</v>
@@ -8894,7 +8909,7 @@
         <v>110</v>
       </c>
       <c r="P40" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="Q40">
         <v>2.88</v>
@@ -9257,6 +9272,830 @@
       </c>
       <c r="BP41">
         <v>1.17</v>
+      </c>
+    </row>
+    <row r="42" spans="1:68">
+      <c r="A42" s="1">
+        <v>41</v>
+      </c>
+      <c r="B42">
+        <v>7463354</v>
+      </c>
+      <c r="C42" t="s">
+        <v>68</v>
+      </c>
+      <c r="D42" t="s">
+        <v>69</v>
+      </c>
+      <c r="E42" s="2">
+        <v>45562.60416666666</v>
+      </c>
+      <c r="F42">
+        <v>9</v>
+      </c>
+      <c r="G42" t="s">
+        <v>71</v>
+      </c>
+      <c r="H42" t="s">
+        <v>78</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>1</v>
+      </c>
+      <c r="K42">
+        <v>1</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <v>2</v>
+      </c>
+      <c r="N42">
+        <v>2</v>
+      </c>
+      <c r="O42" t="s">
+        <v>84</v>
+      </c>
+      <c r="P42" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q42">
+        <v>3</v>
+      </c>
+      <c r="R42">
+        <v>2.2</v>
+      </c>
+      <c r="S42">
+        <v>3.1</v>
+      </c>
+      <c r="T42">
+        <v>1.3</v>
+      </c>
+      <c r="U42">
+        <v>3.2</v>
+      </c>
+      <c r="V42">
+        <v>2.5</v>
+      </c>
+      <c r="W42">
+        <v>1.45</v>
+      </c>
+      <c r="X42">
+        <v>5.8</v>
+      </c>
+      <c r="Y42">
+        <v>1.1</v>
+      </c>
+      <c r="Z42">
+        <v>2.55</v>
+      </c>
+      <c r="AA42">
+        <v>3.25</v>
+      </c>
+      <c r="AB42">
+        <v>2.7</v>
+      </c>
+      <c r="AC42">
+        <v>1.05</v>
+      </c>
+      <c r="AD42">
+        <v>7.8</v>
+      </c>
+      <c r="AE42">
+        <v>1.22</v>
+      </c>
+      <c r="AF42">
+        <v>3.7</v>
+      </c>
+      <c r="AG42">
+        <v>1.8</v>
+      </c>
+      <c r="AH42">
+        <v>2</v>
+      </c>
+      <c r="AI42">
+        <v>1.62</v>
+      </c>
+      <c r="AJ42">
+        <v>2.2</v>
+      </c>
+      <c r="AK42">
+        <v>1.35</v>
+      </c>
+      <c r="AL42">
+        <v>1.3</v>
+      </c>
+      <c r="AM42">
+        <v>1.52</v>
+      </c>
+      <c r="AN42">
+        <v>0.5</v>
+      </c>
+      <c r="AO42">
+        <v>0.25</v>
+      </c>
+      <c r="AP42">
+        <v>0.4</v>
+      </c>
+      <c r="AQ42">
+        <v>0.8</v>
+      </c>
+      <c r="AR42">
+        <v>1.64</v>
+      </c>
+      <c r="AS42">
+        <v>1.18</v>
+      </c>
+      <c r="AT42">
+        <v>2.82</v>
+      </c>
+      <c r="AU42">
+        <v>5</v>
+      </c>
+      <c r="AV42">
+        <v>3</v>
+      </c>
+      <c r="AW42">
+        <v>11</v>
+      </c>
+      <c r="AX42">
+        <v>3</v>
+      </c>
+      <c r="AY42">
+        <v>16</v>
+      </c>
+      <c r="AZ42">
+        <v>6</v>
+      </c>
+      <c r="BA42">
+        <v>3</v>
+      </c>
+      <c r="BB42">
+        <v>1</v>
+      </c>
+      <c r="BC42">
+        <v>4</v>
+      </c>
+      <c r="BD42">
+        <v>2.14</v>
+      </c>
+      <c r="BE42">
+        <v>6.05</v>
+      </c>
+      <c r="BF42">
+        <v>2.06</v>
+      </c>
+      <c r="BG42">
+        <v>1.29</v>
+      </c>
+      <c r="BH42">
+        <v>2.92</v>
+      </c>
+      <c r="BI42">
+        <v>1.64</v>
+      </c>
+      <c r="BJ42">
+        <v>2.21</v>
+      </c>
+      <c r="BK42">
+        <v>2.04</v>
+      </c>
+      <c r="BL42">
+        <v>1.76</v>
+      </c>
+      <c r="BM42">
+        <v>2.58</v>
+      </c>
+      <c r="BN42">
+        <v>1.37</v>
+      </c>
+      <c r="BO42">
+        <v>3.58</v>
+      </c>
+      <c r="BP42">
+        <v>1.19</v>
+      </c>
+    </row>
+    <row r="43" spans="1:68">
+      <c r="A43" s="1">
+        <v>42</v>
+      </c>
+      <c r="B43">
+        <v>7463355</v>
+      </c>
+      <c r="C43" t="s">
+        <v>68</v>
+      </c>
+      <c r="D43" t="s">
+        <v>69</v>
+      </c>
+      <c r="E43" s="2">
+        <v>45562.60416666666</v>
+      </c>
+      <c r="F43">
+        <v>9</v>
+      </c>
+      <c r="G43" t="s">
+        <v>75</v>
+      </c>
+      <c r="H43" t="s">
+        <v>77</v>
+      </c>
+      <c r="I43">
+        <v>2</v>
+      </c>
+      <c r="J43">
+        <v>0</v>
+      </c>
+      <c r="K43">
+        <v>2</v>
+      </c>
+      <c r="L43">
+        <v>5</v>
+      </c>
+      <c r="M43">
+        <v>1</v>
+      </c>
+      <c r="N43">
+        <v>6</v>
+      </c>
+      <c r="O43" t="s">
+        <v>112</v>
+      </c>
+      <c r="P43" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q43">
+        <v>3</v>
+      </c>
+      <c r="R43">
+        <v>2.2</v>
+      </c>
+      <c r="S43">
+        <v>3.1</v>
+      </c>
+      <c r="T43">
+        <v>1.32</v>
+      </c>
+      <c r="U43">
+        <v>3.2</v>
+      </c>
+      <c r="V43">
+        <v>2.43</v>
+      </c>
+      <c r="W43">
+        <v>1.52</v>
+      </c>
+      <c r="X43">
+        <v>5.75</v>
+      </c>
+      <c r="Y43">
+        <v>1.12</v>
+      </c>
+      <c r="Z43">
+        <v>2.55</v>
+      </c>
+      <c r="AA43">
+        <v>3.25</v>
+      </c>
+      <c r="AB43">
+        <v>2.7</v>
+      </c>
+      <c r="AC43">
+        <v>1.04</v>
+      </c>
+      <c r="AD43">
+        <v>11</v>
+      </c>
+      <c r="AE43">
+        <v>1.14</v>
+      </c>
+      <c r="AF43">
+        <v>4.8</v>
+      </c>
+      <c r="AG43">
+        <v>1.85</v>
+      </c>
+      <c r="AH43">
+        <v>1.95</v>
+      </c>
+      <c r="AI43">
+        <v>1.62</v>
+      </c>
+      <c r="AJ43">
+        <v>2.2</v>
+      </c>
+      <c r="AK43">
+        <v>1.35</v>
+      </c>
+      <c r="AL43">
+        <v>1.22</v>
+      </c>
+      <c r="AM43">
+        <v>1.63</v>
+      </c>
+      <c r="AN43">
+        <v>0.67</v>
+      </c>
+      <c r="AO43">
+        <v>1.75</v>
+      </c>
+      <c r="AP43">
+        <v>1.25</v>
+      </c>
+      <c r="AQ43">
+        <v>1.4</v>
+      </c>
+      <c r="AR43">
+        <v>1.36</v>
+      </c>
+      <c r="AS43">
+        <v>1.77</v>
+      </c>
+      <c r="AT43">
+        <v>3.13</v>
+      </c>
+      <c r="AU43">
+        <v>8</v>
+      </c>
+      <c r="AV43">
+        <v>3</v>
+      </c>
+      <c r="AW43">
+        <v>3</v>
+      </c>
+      <c r="AX43">
+        <v>6</v>
+      </c>
+      <c r="AY43">
+        <v>11</v>
+      </c>
+      <c r="AZ43">
+        <v>9</v>
+      </c>
+      <c r="BA43">
+        <v>3</v>
+      </c>
+      <c r="BB43">
+        <v>2</v>
+      </c>
+      <c r="BC43">
+        <v>5</v>
+      </c>
+      <c r="BD43">
+        <v>2.04</v>
+      </c>
+      <c r="BE43">
+        <v>7.1</v>
+      </c>
+      <c r="BF43">
+        <v>2.17</v>
+      </c>
+      <c r="BG43">
+        <v>1.36</v>
+      </c>
+      <c r="BH43">
+        <v>2.6</v>
+      </c>
+      <c r="BI43">
+        <v>1.71</v>
+      </c>
+      <c r="BJ43">
+        <v>1.97</v>
+      </c>
+      <c r="BK43">
+        <v>2.16</v>
+      </c>
+      <c r="BL43">
+        <v>1.53</v>
+      </c>
+      <c r="BM43">
+        <v>2.92</v>
+      </c>
+      <c r="BN43">
+        <v>1.29</v>
+      </c>
+      <c r="BO43">
+        <v>3.8</v>
+      </c>
+      <c r="BP43">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:68">
+      <c r="A44" s="1">
+        <v>43</v>
+      </c>
+      <c r="B44">
+        <v>7463356</v>
+      </c>
+      <c r="C44" t="s">
+        <v>68</v>
+      </c>
+      <c r="D44" t="s">
+        <v>69</v>
+      </c>
+      <c r="E44" s="2">
+        <v>45562.60416666666</v>
+      </c>
+      <c r="F44">
+        <v>9</v>
+      </c>
+      <c r="G44" t="s">
+        <v>76</v>
+      </c>
+      <c r="H44" t="s">
+        <v>72</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
+      <c r="J44">
+        <v>1</v>
+      </c>
+      <c r="K44">
+        <v>1</v>
+      </c>
+      <c r="L44">
+        <v>1</v>
+      </c>
+      <c r="M44">
+        <v>2</v>
+      </c>
+      <c r="N44">
+        <v>3</v>
+      </c>
+      <c r="O44" t="s">
+        <v>95</v>
+      </c>
+      <c r="P44" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q44">
+        <v>3</v>
+      </c>
+      <c r="R44">
+        <v>2.25</v>
+      </c>
+      <c r="S44">
+        <v>3</v>
+      </c>
+      <c r="T44">
+        <v>1.28</v>
+      </c>
+      <c r="U44">
+        <v>3.3</v>
+      </c>
+      <c r="V44">
+        <v>2.15</v>
+      </c>
+      <c r="W44">
+        <v>1.62</v>
+      </c>
+      <c r="X44">
+        <v>4.8</v>
+      </c>
+      <c r="Y44">
+        <v>1.15</v>
+      </c>
+      <c r="Z44">
+        <v>2.6</v>
+      </c>
+      <c r="AA44">
+        <v>3.3</v>
+      </c>
+      <c r="AB44">
+        <v>2.55</v>
+      </c>
+      <c r="AC44">
+        <v>1.01</v>
+      </c>
+      <c r="AD44">
+        <v>13</v>
+      </c>
+      <c r="AE44">
+        <v>1.11</v>
+      </c>
+      <c r="AF44">
+        <v>5.5</v>
+      </c>
+      <c r="AG44">
+        <v>1.7</v>
+      </c>
+      <c r="AH44">
+        <v>2.1</v>
+      </c>
+      <c r="AI44">
+        <v>1.53</v>
+      </c>
+      <c r="AJ44">
+        <v>2.38</v>
+      </c>
+      <c r="AK44">
+        <v>1.35</v>
+      </c>
+      <c r="AL44">
+        <v>1.27</v>
+      </c>
+      <c r="AM44">
+        <v>1.57</v>
+      </c>
+      <c r="AN44">
+        <v>0.75</v>
+      </c>
+      <c r="AO44">
+        <v>1.67</v>
+      </c>
+      <c r="AP44">
+        <v>0.6</v>
+      </c>
+      <c r="AQ44">
+        <v>2</v>
+      </c>
+      <c r="AR44">
+        <v>1.41</v>
+      </c>
+      <c r="AS44">
+        <v>1.63</v>
+      </c>
+      <c r="AT44">
+        <v>3.04</v>
+      </c>
+      <c r="AU44">
+        <v>6</v>
+      </c>
+      <c r="AV44">
+        <v>6</v>
+      </c>
+      <c r="AW44">
+        <v>10</v>
+      </c>
+      <c r="AX44">
+        <v>7</v>
+      </c>
+      <c r="AY44">
+        <v>16</v>
+      </c>
+      <c r="AZ44">
+        <v>13</v>
+      </c>
+      <c r="BA44">
+        <v>2</v>
+      </c>
+      <c r="BB44">
+        <v>4</v>
+      </c>
+      <c r="BC44">
+        <v>6</v>
+      </c>
+      <c r="BD44">
+        <v>1.94</v>
+      </c>
+      <c r="BE44">
+        <v>6.4</v>
+      </c>
+      <c r="BF44">
+        <v>2.24</v>
+      </c>
+      <c r="BG44">
+        <v>1.21</v>
+      </c>
+      <c r="BH44">
+        <v>3.8</v>
+      </c>
+      <c r="BI44">
+        <v>1.29</v>
+      </c>
+      <c r="BJ44">
+        <v>2.92</v>
+      </c>
+      <c r="BK44">
+        <v>2</v>
+      </c>
+      <c r="BL44">
+        <v>2.08</v>
+      </c>
+      <c r="BM44">
+        <v>2.14</v>
+      </c>
+      <c r="BN44">
+        <v>1.68</v>
+      </c>
+      <c r="BO44">
+        <v>2.45</v>
+      </c>
+      <c r="BP44">
+        <v>1.41</v>
+      </c>
+    </row>
+    <row r="45" spans="1:68">
+      <c r="A45" s="1">
+        <v>44</v>
+      </c>
+      <c r="B45">
+        <v>7463357</v>
+      </c>
+      <c r="C45" t="s">
+        <v>68</v>
+      </c>
+      <c r="D45" t="s">
+        <v>69</v>
+      </c>
+      <c r="E45" s="2">
+        <v>45562.63541666666</v>
+      </c>
+      <c r="F45">
+        <v>9</v>
+      </c>
+      <c r="G45" t="s">
+        <v>79</v>
+      </c>
+      <c r="H45" t="s">
+        <v>70</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <v>1</v>
+      </c>
+      <c r="M45">
+        <v>0</v>
+      </c>
+      <c r="N45">
+        <v>1</v>
+      </c>
+      <c r="O45" t="s">
+        <v>113</v>
+      </c>
+      <c r="P45" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q45">
+        <v>2.4</v>
+      </c>
+      <c r="R45">
+        <v>2.38</v>
+      </c>
+      <c r="S45">
+        <v>3.6</v>
+      </c>
+      <c r="T45">
+        <v>1.28</v>
+      </c>
+      <c r="U45">
+        <v>3.3</v>
+      </c>
+      <c r="V45">
+        <v>2.25</v>
+      </c>
+      <c r="W45">
+        <v>1.55</v>
+      </c>
+      <c r="X45">
+        <v>5.2</v>
+      </c>
+      <c r="Y45">
+        <v>1.13</v>
+      </c>
+      <c r="Z45">
+        <v>1.91</v>
+      </c>
+      <c r="AA45">
+        <v>3.7</v>
+      </c>
+      <c r="AB45">
+        <v>3.5</v>
+      </c>
+      <c r="AC45">
+        <v>1.01</v>
+      </c>
+      <c r="AD45">
+        <v>13</v>
+      </c>
+      <c r="AE45">
+        <v>1.13</v>
+      </c>
+      <c r="AF45">
+        <v>5.2</v>
+      </c>
+      <c r="AG45">
+        <v>1.6</v>
+      </c>
+      <c r="AH45">
+        <v>2.3</v>
+      </c>
+      <c r="AI45">
+        <v>1.53</v>
+      </c>
+      <c r="AJ45">
+        <v>2.38</v>
+      </c>
+      <c r="AK45">
+        <v>1.15</v>
+      </c>
+      <c r="AL45">
+        <v>1.25</v>
+      </c>
+      <c r="AM45">
+        <v>2</v>
+      </c>
+      <c r="AN45">
+        <v>1.75</v>
+      </c>
+      <c r="AO45">
+        <v>1.5</v>
+      </c>
+      <c r="AP45">
+        <v>2</v>
+      </c>
+      <c r="AQ45">
+        <v>1.2</v>
+      </c>
+      <c r="AR45">
+        <v>1.73</v>
+      </c>
+      <c r="AS45">
+        <v>1.8</v>
+      </c>
+      <c r="AT45">
+        <v>3.53</v>
+      </c>
+      <c r="AU45">
+        <v>6</v>
+      </c>
+      <c r="AV45">
+        <v>5</v>
+      </c>
+      <c r="AW45">
+        <v>15</v>
+      </c>
+      <c r="AX45">
+        <v>7</v>
+      </c>
+      <c r="AY45">
+        <v>21</v>
+      </c>
+      <c r="AZ45">
+        <v>12</v>
+      </c>
+      <c r="BA45">
+        <v>9</v>
+      </c>
+      <c r="BB45">
+        <v>5</v>
+      </c>
+      <c r="BC45">
+        <v>14</v>
+      </c>
+      <c r="BD45">
+        <v>1.51</v>
+      </c>
+      <c r="BE45">
+        <v>0</v>
+      </c>
+      <c r="BF45">
+        <v>3.24</v>
+      </c>
+      <c r="BG45">
+        <v>1.28</v>
+      </c>
+      <c r="BH45">
+        <v>3.2</v>
+      </c>
+      <c r="BI45">
+        <v>1.51</v>
+      </c>
+      <c r="BJ45">
+        <v>2.45</v>
+      </c>
+      <c r="BK45">
+        <v>2.38</v>
+      </c>
+      <c r="BL45">
+        <v>1.9</v>
+      </c>
+      <c r="BM45">
+        <v>2.4</v>
+      </c>
+      <c r="BN45">
+        <v>1.53</v>
+      </c>
+      <c r="BO45">
+        <v>2.9</v>
+      </c>
+      <c r="BP45">
+        <v>1.33</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Switzerland Challenge League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Switzerland Challenge League_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="151">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -358,6 +358,9 @@
     <t>['65']</t>
   </si>
   <si>
+    <t>['22', '45+1']</t>
+  </si>
+  <si>
     <t>['25', '90+2']</t>
   </si>
   <si>
@@ -461,6 +464,9 @@
   </si>
   <si>
     <t>['14', '49']</t>
+  </si>
+  <si>
+    <t>['90+6']</t>
   </si>
 </sst>
 </file>
@@ -822,7 +828,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP45"/>
+  <dimension ref="A1:BP46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1081,7 +1087,7 @@
         <v>80</v>
       </c>
       <c r="P2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="Q2">
         <v>2.75</v>
@@ -1287,7 +1293,7 @@
         <v>81</v>
       </c>
       <c r="P3" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="Q3">
         <v>2.63</v>
@@ -1493,7 +1499,7 @@
         <v>82</v>
       </c>
       <c r="P4" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="Q4">
         <v>3.75</v>
@@ -1699,7 +1705,7 @@
         <v>83</v>
       </c>
       <c r="P5" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="Q5">
         <v>3.6</v>
@@ -1983,7 +1989,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AQ6">
         <v>1</v>
@@ -2111,7 +2117,7 @@
         <v>84</v>
       </c>
       <c r="P7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="Q7">
         <v>2.63</v>
@@ -2317,7 +2323,7 @@
         <v>85</v>
       </c>
       <c r="P8" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="Q8">
         <v>2.63</v>
@@ -2398,7 +2404,7 @@
         <v>0.6</v>
       </c>
       <c r="AQ8">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -2523,7 +2529,7 @@
         <v>86</v>
       </c>
       <c r="P9" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="Q9">
         <v>3</v>
@@ -2729,7 +2735,7 @@
         <v>87</v>
       </c>
       <c r="P10" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="Q10">
         <v>2.3</v>
@@ -3141,7 +3147,7 @@
         <v>84</v>
       </c>
       <c r="P12" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="Q12">
         <v>2.88</v>
@@ -3347,7 +3353,7 @@
         <v>89</v>
       </c>
       <c r="P13" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Q13">
         <v>2.2</v>
@@ -3553,7 +3559,7 @@
         <v>90</v>
       </c>
       <c r="P14" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="Q14">
         <v>3</v>
@@ -3759,7 +3765,7 @@
         <v>91</v>
       </c>
       <c r="P15" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="Q15">
         <v>3</v>
@@ -3965,7 +3971,7 @@
         <v>92</v>
       </c>
       <c r="P16" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="Q16">
         <v>2.75</v>
@@ -4043,7 +4049,7 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AQ16">
         <v>0.8</v>
@@ -4171,7 +4177,7 @@
         <v>93</v>
       </c>
       <c r="P17" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="Q17">
         <v>2.38</v>
@@ -4377,7 +4383,7 @@
         <v>84</v>
       </c>
       <c r="P18" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="Q18">
         <v>3.1</v>
@@ -4583,7 +4589,7 @@
         <v>94</v>
       </c>
       <c r="P19" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="Q19">
         <v>2.3</v>
@@ -4664,7 +4670,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ19">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AR19">
         <v>1.52</v>
@@ -4789,7 +4795,7 @@
         <v>84</v>
       </c>
       <c r="P20" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="Q20">
         <v>2.3</v>
@@ -4995,7 +5001,7 @@
         <v>95</v>
       </c>
       <c r="P21" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Q21">
         <v>2.88</v>
@@ -5407,7 +5413,7 @@
         <v>97</v>
       </c>
       <c r="P23" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Q23">
         <v>2.88</v>
@@ -5819,7 +5825,7 @@
         <v>98</v>
       </c>
       <c r="P25" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Q25">
         <v>2.63</v>
@@ -5897,7 +5903,7 @@
         <v>0.5</v>
       </c>
       <c r="AP25">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AQ25">
         <v>0.8</v>
@@ -6025,7 +6031,7 @@
         <v>99</v>
       </c>
       <c r="P26" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="Q26">
         <v>2.2</v>
@@ -6231,7 +6237,7 @@
         <v>100</v>
       </c>
       <c r="P27" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="Q27">
         <v>2.5</v>
@@ -6437,7 +6443,7 @@
         <v>84</v>
       </c>
       <c r="P28" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Q28">
         <v>3</v>
@@ -6643,7 +6649,7 @@
         <v>101</v>
       </c>
       <c r="P29" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="Q29">
         <v>2.88</v>
@@ -6849,7 +6855,7 @@
         <v>102</v>
       </c>
       <c r="P30" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Q30">
         <v>3.75</v>
@@ -7055,7 +7061,7 @@
         <v>103</v>
       </c>
       <c r="P31" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="Q31">
         <v>3</v>
@@ -7136,7 +7142,7 @@
         <v>0.6</v>
       </c>
       <c r="AQ31">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AR31">
         <v>1.17</v>
@@ -7261,7 +7267,7 @@
         <v>104</v>
       </c>
       <c r="P32" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q32">
         <v>3.2</v>
@@ -7673,7 +7679,7 @@
         <v>105</v>
       </c>
       <c r="P34" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="Q34">
         <v>3.2</v>
@@ -7879,7 +7885,7 @@
         <v>106</v>
       </c>
       <c r="P35" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="Q35">
         <v>2.5</v>
@@ -7957,7 +7963,7 @@
         <v>1</v>
       </c>
       <c r="AP35">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AQ35">
         <v>2</v>
@@ -8085,7 +8091,7 @@
         <v>107</v>
       </c>
       <c r="P36" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="Q36">
         <v>2.2</v>
@@ -8166,7 +8172,7 @@
         <v>2</v>
       </c>
       <c r="AQ36">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AR36">
         <v>1.63</v>
@@ -8291,7 +8297,7 @@
         <v>108</v>
       </c>
       <c r="P37" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="Q37">
         <v>2.3</v>
@@ -8703,7 +8709,7 @@
         <v>109</v>
       </c>
       <c r="P39" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="Q39">
         <v>2.5</v>
@@ -8909,7 +8915,7 @@
         <v>110</v>
       </c>
       <c r="P40" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Q40">
         <v>2.88</v>
@@ -9321,7 +9327,7 @@
         <v>84</v>
       </c>
       <c r="P42" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Q42">
         <v>3</v>
@@ -9527,7 +9533,7 @@
         <v>112</v>
       </c>
       <c r="P43" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q43">
         <v>3</v>
@@ -9733,7 +9739,7 @@
         <v>95</v>
       </c>
       <c r="P44" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q44">
         <v>3</v>
@@ -10096,6 +10102,212 @@
       </c>
       <c r="BP45">
         <v>1.33</v>
+      </c>
+    </row>
+    <row r="46" spans="1:68">
+      <c r="A46" s="1">
+        <v>45</v>
+      </c>
+      <c r="B46">
+        <v>7463358</v>
+      </c>
+      <c r="C46" t="s">
+        <v>68</v>
+      </c>
+      <c r="D46" t="s">
+        <v>69</v>
+      </c>
+      <c r="E46" s="2">
+        <v>45564.38541666666</v>
+      </c>
+      <c r="F46">
+        <v>9</v>
+      </c>
+      <c r="G46" t="s">
+        <v>74</v>
+      </c>
+      <c r="H46" t="s">
+        <v>73</v>
+      </c>
+      <c r="I46">
+        <v>2</v>
+      </c>
+      <c r="J46">
+        <v>0</v>
+      </c>
+      <c r="K46">
+        <v>2</v>
+      </c>
+      <c r="L46">
+        <v>2</v>
+      </c>
+      <c r="M46">
+        <v>1</v>
+      </c>
+      <c r="N46">
+        <v>3</v>
+      </c>
+      <c r="O46" t="s">
+        <v>114</v>
+      </c>
+      <c r="P46" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q46">
+        <v>2.75</v>
+      </c>
+      <c r="R46">
+        <v>2.25</v>
+      </c>
+      <c r="S46">
+        <v>3.2</v>
+      </c>
+      <c r="T46">
+        <v>1.32</v>
+      </c>
+      <c r="U46">
+        <v>3.1</v>
+      </c>
+      <c r="V46">
+        <v>2.45</v>
+      </c>
+      <c r="W46">
+        <v>1.51</v>
+      </c>
+      <c r="X46">
+        <v>5.75</v>
+      </c>
+      <c r="Y46">
+        <v>1.11</v>
+      </c>
+      <c r="Z46">
+        <v>2.3</v>
+      </c>
+      <c r="AA46">
+        <v>3.4</v>
+      </c>
+      <c r="AB46">
+        <v>2.9</v>
+      </c>
+      <c r="AC46">
+        <v>1.03</v>
+      </c>
+      <c r="AD46">
+        <v>11</v>
+      </c>
+      <c r="AE46">
+        <v>1.16</v>
+      </c>
+      <c r="AF46">
+        <v>3.9</v>
+      </c>
+      <c r="AG46">
+        <v>1.67</v>
+      </c>
+      <c r="AH46">
+        <v>2.15</v>
+      </c>
+      <c r="AI46">
+        <v>1.57</v>
+      </c>
+      <c r="AJ46">
+        <v>2.25</v>
+      </c>
+      <c r="AK46">
+        <v>1.35</v>
+      </c>
+      <c r="AL46">
+        <v>1.24</v>
+      </c>
+      <c r="AM46">
+        <v>1.6</v>
+      </c>
+      <c r="AN46">
+        <v>1.75</v>
+      </c>
+      <c r="AO46">
+        <v>1.75</v>
+      </c>
+      <c r="AP46">
+        <v>2</v>
+      </c>
+      <c r="AQ46">
+        <v>1.4</v>
+      </c>
+      <c r="AR46">
+        <v>2</v>
+      </c>
+      <c r="AS46">
+        <v>1.7</v>
+      </c>
+      <c r="AT46">
+        <v>3.7</v>
+      </c>
+      <c r="AU46">
+        <v>6</v>
+      </c>
+      <c r="AV46">
+        <v>2</v>
+      </c>
+      <c r="AW46">
+        <v>8</v>
+      </c>
+      <c r="AX46">
+        <v>12</v>
+      </c>
+      <c r="AY46">
+        <v>14</v>
+      </c>
+      <c r="AZ46">
+        <v>14</v>
+      </c>
+      <c r="BA46">
+        <v>3</v>
+      </c>
+      <c r="BB46">
+        <v>7</v>
+      </c>
+      <c r="BC46">
+        <v>10</v>
+      </c>
+      <c r="BD46">
+        <v>1.74</v>
+      </c>
+      <c r="BE46">
+        <v>7.8</v>
+      </c>
+      <c r="BF46">
+        <v>2.41</v>
+      </c>
+      <c r="BG46">
+        <v>1.36</v>
+      </c>
+      <c r="BH46">
+        <v>2.61</v>
+      </c>
+      <c r="BI46">
+        <v>1.64</v>
+      </c>
+      <c r="BJ46">
+        <v>2.2</v>
+      </c>
+      <c r="BK46">
+        <v>2.05</v>
+      </c>
+      <c r="BL46">
+        <v>1.74</v>
+      </c>
+      <c r="BM46">
+        <v>2.88</v>
+      </c>
+      <c r="BN46">
+        <v>1.3</v>
+      </c>
+      <c r="BO46">
+        <v>0</v>
+      </c>
+      <c r="BP46">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Switzerland Challenge League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Switzerland Challenge League_20242025.xlsx
@@ -4903,7 +4903,7 @@
         <v>14</v>
       </c>
       <c r="AZ20">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="BA20">
         <v>3</v>
@@ -5106,10 +5106,10 @@
         <v>5</v>
       </c>
       <c r="AY21">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AZ21">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BA21">
         <v>0</v>
@@ -5312,10 +5312,10 @@
         <v>7</v>
       </c>
       <c r="AY22">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AZ22">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BA22">
         <v>5</v>
@@ -5521,7 +5521,7 @@
         <v>11</v>
       </c>
       <c r="AZ23">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="BA23">
         <v>5</v>
@@ -5724,10 +5724,10 @@
         <v>9</v>
       </c>
       <c r="AY24">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AZ24">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="BA24">
         <v>1</v>
@@ -5930,10 +5930,10 @@
         <v>7</v>
       </c>
       <c r="AY25">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AZ25">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="BA25">
         <v>8</v>
@@ -6136,10 +6136,10 @@
         <v>7</v>
       </c>
       <c r="AY26">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="AZ26">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="BA26">
         <v>11</v>
@@ -6342,10 +6342,10 @@
         <v>8</v>
       </c>
       <c r="AY27">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AZ27">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="BA27">
         <v>3</v>
@@ -6548,10 +6548,10 @@
         <v>12</v>
       </c>
       <c r="AY28">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="AZ28">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="BA28">
         <v>10</v>
@@ -6754,10 +6754,10 @@
         <v>3</v>
       </c>
       <c r="AY29">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="AZ29">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BA29">
         <v>2</v>
@@ -6960,10 +6960,10 @@
         <v>12</v>
       </c>
       <c r="AY30">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AZ30">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="BA30">
         <v>3</v>
@@ -7166,7 +7166,7 @@
         <v>3</v>
       </c>
       <c r="AY31">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="AZ31">
         <v>11</v>
@@ -7372,10 +7372,10 @@
         <v>6</v>
       </c>
       <c r="AY32">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="AZ32">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="BA32">
         <v>5</v>
@@ -7578,7 +7578,7 @@
         <v>2</v>
       </c>
       <c r="AY33">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="AZ33">
         <v>7</v>
@@ -7784,10 +7784,10 @@
         <v>11</v>
       </c>
       <c r="AY34">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AZ34">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="BA34">
         <v>2</v>
@@ -7990,7 +7990,7 @@
         <v>13</v>
       </c>
       <c r="AY35">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AZ35">
         <v>25</v>
@@ -8196,10 +8196,10 @@
         <v>8</v>
       </c>
       <c r="AY36">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="AZ36">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="BA36">
         <v>6</v>
@@ -9020,10 +9020,10 @@
         <v>14</v>
       </c>
       <c r="AY40">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AZ40">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="BA40">
         <v>1</v>
@@ -9226,10 +9226,10 @@
         <v>3</v>
       </c>
       <c r="AY41">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AZ41">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BA41">
         <v>4</v>
@@ -9432,10 +9432,10 @@
         <v>3</v>
       </c>
       <c r="AY42">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AZ42">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BA42">
         <v>3</v>
@@ -9641,7 +9641,7 @@
         <v>11</v>
       </c>
       <c r="AZ43">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="BA43">
         <v>3</v>
@@ -9844,10 +9844,10 @@
         <v>7</v>
       </c>
       <c r="AY44">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AZ44">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BA44">
         <v>2</v>
@@ -10050,7 +10050,7 @@
         <v>7</v>
       </c>
       <c r="AY45">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="AZ45">
         <v>12</v>
@@ -10256,7 +10256,7 @@
         <v>12</v>
       </c>
       <c r="AY46">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AZ46">
         <v>14</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Switzerland Challenge League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Switzerland Challenge League_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="155">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -361,6 +361,12 @@
     <t>['22', '45+1']</t>
   </si>
   <si>
+    <t>['6', '14']</t>
+  </si>
+  <si>
+    <t>['69', '90+1', '90+3']</t>
+  </si>
+  <si>
     <t>['25', '90+2']</t>
   </si>
   <si>
@@ -467,6 +473,12 @@
   </si>
   <si>
     <t>['90+6']</t>
+  </si>
+  <si>
+    <t>['86']</t>
+  </si>
+  <si>
+    <t>['1']</t>
   </si>
 </sst>
 </file>
@@ -828,7 +840,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP46"/>
+  <dimension ref="A1:BP49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1087,7 +1099,7 @@
         <v>80</v>
       </c>
       <c r="P2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="Q2">
         <v>2.75</v>
@@ -1165,7 +1177,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AQ2">
         <v>0.8</v>
@@ -1293,7 +1305,7 @@
         <v>81</v>
       </c>
       <c r="P3" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="Q3">
         <v>2.63</v>
@@ -1499,7 +1511,7 @@
         <v>82</v>
       </c>
       <c r="P4" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="Q4">
         <v>3.75</v>
@@ -1580,7 +1592,7 @@
         <v>0.6</v>
       </c>
       <c r="AQ4">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -1705,7 +1717,7 @@
         <v>83</v>
       </c>
       <c r="P5" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="Q5">
         <v>3.6</v>
@@ -1783,7 +1795,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="AQ5">
         <v>0.8</v>
@@ -1992,7 +2004,7 @@
         <v>2</v>
       </c>
       <c r="AQ6">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2117,7 +2129,7 @@
         <v>84</v>
       </c>
       <c r="P7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="Q7">
         <v>2.63</v>
@@ -2198,7 +2210,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ7">
-        <v>2.25</v>
+        <v>1.8</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2323,7 +2335,7 @@
         <v>85</v>
       </c>
       <c r="P8" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="Q8">
         <v>2.63</v>
@@ -2529,7 +2541,7 @@
         <v>86</v>
       </c>
       <c r="P9" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="Q9">
         <v>3</v>
@@ -2607,7 +2619,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="AQ9">
         <v>1.2</v>
@@ -2735,7 +2747,7 @@
         <v>87</v>
       </c>
       <c r="P10" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="Q10">
         <v>2.3</v>
@@ -3147,7 +3159,7 @@
         <v>84</v>
       </c>
       <c r="P12" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="Q12">
         <v>2.88</v>
@@ -3228,7 +3240,7 @@
         <v>0.6</v>
       </c>
       <c r="AQ12">
-        <v>2.25</v>
+        <v>1.8</v>
       </c>
       <c r="AR12">
         <v>1.34</v>
@@ -3353,7 +3365,7 @@
         <v>89</v>
       </c>
       <c r="P13" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="Q13">
         <v>2.2</v>
@@ -3559,7 +3571,7 @@
         <v>90</v>
       </c>
       <c r="P14" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="Q14">
         <v>3</v>
@@ -3765,7 +3777,7 @@
         <v>91</v>
       </c>
       <c r="P15" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="Q15">
         <v>3</v>
@@ -3843,7 +3855,7 @@
         <v>3</v>
       </c>
       <c r="AP15">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="AQ15">
         <v>1.4</v>
@@ -3971,7 +3983,7 @@
         <v>92</v>
       </c>
       <c r="P16" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="Q16">
         <v>2.75</v>
@@ -4177,7 +4189,7 @@
         <v>93</v>
       </c>
       <c r="P17" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="Q17">
         <v>2.38</v>
@@ -4383,7 +4395,7 @@
         <v>84</v>
       </c>
       <c r="P18" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="Q18">
         <v>3.1</v>
@@ -4461,10 +4473,10 @@
         <v>3</v>
       </c>
       <c r="AP18">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="AQ18">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AR18">
         <v>1.54</v>
@@ -4589,7 +4601,7 @@
         <v>94</v>
       </c>
       <c r="P19" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="Q19">
         <v>2.3</v>
@@ -4667,7 +4679,7 @@
         <v>0</v>
       </c>
       <c r="AP19">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AQ19">
         <v>1.4</v>
@@ -4795,7 +4807,7 @@
         <v>84</v>
       </c>
       <c r="P20" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="Q20">
         <v>2.3</v>
@@ -4876,7 +4888,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ20">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AR20">
         <v>1.99</v>
@@ -5001,7 +5013,7 @@
         <v>95</v>
       </c>
       <c r="P21" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="Q21">
         <v>2.88</v>
@@ -5413,7 +5425,7 @@
         <v>97</v>
       </c>
       <c r="P23" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="Q23">
         <v>2.88</v>
@@ -5491,10 +5503,10 @@
         <v>3</v>
       </c>
       <c r="AP23">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="AQ23">
-        <v>2.25</v>
+        <v>1.8</v>
       </c>
       <c r="AR23">
         <v>1.3</v>
@@ -5825,7 +5837,7 @@
         <v>98</v>
       </c>
       <c r="P25" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="Q25">
         <v>2.63</v>
@@ -6031,7 +6043,7 @@
         <v>99</v>
       </c>
       <c r="P26" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="Q26">
         <v>2.2</v>
@@ -6112,7 +6124,7 @@
         <v>2</v>
       </c>
       <c r="AQ26">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AR26">
         <v>1.45</v>
@@ -6237,7 +6249,7 @@
         <v>100</v>
       </c>
       <c r="P27" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="Q27">
         <v>2.5</v>
@@ -6315,7 +6327,7 @@
         <v>0.5</v>
       </c>
       <c r="AP27">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AQ27">
         <v>0.25</v>
@@ -6443,7 +6455,7 @@
         <v>84</v>
       </c>
       <c r="P28" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="Q28">
         <v>3</v>
@@ -6649,7 +6661,7 @@
         <v>101</v>
       </c>
       <c r="P29" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="Q29">
         <v>2.88</v>
@@ -6727,7 +6739,7 @@
         <v>0</v>
       </c>
       <c r="AP29">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="AQ29">
         <v>0.8</v>
@@ -6855,7 +6867,7 @@
         <v>102</v>
       </c>
       <c r="P30" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="Q30">
         <v>3.75</v>
@@ -6936,7 +6948,7 @@
         <v>0.4</v>
       </c>
       <c r="AQ30">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AR30">
         <v>1.62</v>
@@ -7061,7 +7073,7 @@
         <v>103</v>
       </c>
       <c r="P31" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="Q31">
         <v>3</v>
@@ -7267,7 +7279,7 @@
         <v>104</v>
       </c>
       <c r="P32" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="Q32">
         <v>3.2</v>
@@ -7679,7 +7691,7 @@
         <v>105</v>
       </c>
       <c r="P34" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="Q34">
         <v>3.2</v>
@@ -7885,7 +7897,7 @@
         <v>106</v>
       </c>
       <c r="P35" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="Q35">
         <v>2.5</v>
@@ -8091,7 +8103,7 @@
         <v>107</v>
       </c>
       <c r="P36" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="Q36">
         <v>2.2</v>
@@ -8297,7 +8309,7 @@
         <v>108</v>
       </c>
       <c r="P37" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="Q37">
         <v>2.3</v>
@@ -8375,10 +8387,10 @@
         <v>1.33</v>
       </c>
       <c r="AP37">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AQ37">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AR37">
         <v>1.5</v>
@@ -8584,7 +8596,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ38">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AR38">
         <v>2.02</v>
@@ -8709,7 +8721,7 @@
         <v>109</v>
       </c>
       <c r="P39" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="Q39">
         <v>2.5</v>
@@ -8790,7 +8802,7 @@
         <v>0.6</v>
       </c>
       <c r="AQ39">
-        <v>2.25</v>
+        <v>1.8</v>
       </c>
       <c r="AR39">
         <v>1.16</v>
@@ -8915,7 +8927,7 @@
         <v>110</v>
       </c>
       <c r="P40" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="Q40">
         <v>2.88</v>
@@ -8993,7 +9005,7 @@
         <v>1</v>
       </c>
       <c r="AP40">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="AQ40">
         <v>0.8</v>
@@ -9199,7 +9211,7 @@
         <v>0.33</v>
       </c>
       <c r="AP41">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="AQ41">
         <v>0.25</v>
@@ -9327,7 +9339,7 @@
         <v>84</v>
       </c>
       <c r="P42" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="Q42">
         <v>3</v>
@@ -9533,7 +9545,7 @@
         <v>112</v>
       </c>
       <c r="P43" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="Q43">
         <v>3</v>
@@ -9739,7 +9751,7 @@
         <v>95</v>
       </c>
       <c r="P44" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="Q44">
         <v>3</v>
@@ -10151,7 +10163,7 @@
         <v>114</v>
       </c>
       <c r="P46" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="Q46">
         <v>2.75</v>
@@ -10308,6 +10320,624 @@
       </c>
       <c r="BP46">
         <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:68">
+      <c r="A47" s="1">
+        <v>46</v>
+      </c>
+      <c r="B47">
+        <v>7487383</v>
+      </c>
+      <c r="C47" t="s">
+        <v>68</v>
+      </c>
+      <c r="D47" t="s">
+        <v>69</v>
+      </c>
+      <c r="E47" s="2">
+        <v>45569.60416666666</v>
+      </c>
+      <c r="F47">
+        <v>10</v>
+      </c>
+      <c r="G47" t="s">
+        <v>70</v>
+      </c>
+      <c r="H47" t="s">
+        <v>71</v>
+      </c>
+      <c r="I47">
+        <v>2</v>
+      </c>
+      <c r="J47">
+        <v>0</v>
+      </c>
+      <c r="K47">
+        <v>2</v>
+      </c>
+      <c r="L47">
+        <v>2</v>
+      </c>
+      <c r="M47">
+        <v>1</v>
+      </c>
+      <c r="N47">
+        <v>3</v>
+      </c>
+      <c r="O47" t="s">
+        <v>115</v>
+      </c>
+      <c r="P47" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q47">
+        <v>2.4</v>
+      </c>
+      <c r="R47">
+        <v>2.3</v>
+      </c>
+      <c r="S47">
+        <v>3.75</v>
+      </c>
+      <c r="T47">
+        <v>1.31</v>
+      </c>
+      <c r="U47">
+        <v>3.26</v>
+      </c>
+      <c r="V47">
+        <v>2.45</v>
+      </c>
+      <c r="W47">
+        <v>1.51</v>
+      </c>
+      <c r="X47">
+        <v>5.75</v>
+      </c>
+      <c r="Y47">
+        <v>1.12</v>
+      </c>
+      <c r="Z47">
+        <v>1.85</v>
+      </c>
+      <c r="AA47">
+        <v>3.7</v>
+      </c>
+      <c r="AB47">
+        <v>3.75</v>
+      </c>
+      <c r="AC47">
+        <v>1.01</v>
+      </c>
+      <c r="AD47">
+        <v>11</v>
+      </c>
+      <c r="AE47">
+        <v>1.16</v>
+      </c>
+      <c r="AF47">
+        <v>3.92</v>
+      </c>
+      <c r="AG47">
+        <v>1.62</v>
+      </c>
+      <c r="AH47">
+        <v>2.25</v>
+      </c>
+      <c r="AI47">
+        <v>1.62</v>
+      </c>
+      <c r="AJ47">
+        <v>2.2</v>
+      </c>
+      <c r="AK47">
+        <v>1.2</v>
+      </c>
+      <c r="AL47">
+        <v>1.2</v>
+      </c>
+      <c r="AM47">
+        <v>1.78</v>
+      </c>
+      <c r="AN47">
+        <v>2.5</v>
+      </c>
+      <c r="AO47">
+        <v>2.25</v>
+      </c>
+      <c r="AP47">
+        <v>2.6</v>
+      </c>
+      <c r="AQ47">
+        <v>1.8</v>
+      </c>
+      <c r="AR47">
+        <v>1.79</v>
+      </c>
+      <c r="AS47">
+        <v>1.42</v>
+      </c>
+      <c r="AT47">
+        <v>3.21</v>
+      </c>
+      <c r="AU47">
+        <v>4</v>
+      </c>
+      <c r="AV47">
+        <v>3</v>
+      </c>
+      <c r="AW47">
+        <v>5</v>
+      </c>
+      <c r="AX47">
+        <v>4</v>
+      </c>
+      <c r="AY47">
+        <v>9</v>
+      </c>
+      <c r="AZ47">
+        <v>7</v>
+      </c>
+      <c r="BA47">
+        <v>8</v>
+      </c>
+      <c r="BB47">
+        <v>1</v>
+      </c>
+      <c r="BC47">
+        <v>9</v>
+      </c>
+      <c r="BD47">
+        <v>1.41</v>
+      </c>
+      <c r="BE47">
+        <v>7.1</v>
+      </c>
+      <c r="BF47">
+        <v>3.74</v>
+      </c>
+      <c r="BG47">
+        <v>1.18</v>
+      </c>
+      <c r="BH47">
+        <v>3.7</v>
+      </c>
+      <c r="BI47">
+        <v>1.37</v>
+      </c>
+      <c r="BJ47">
+        <v>2.58</v>
+      </c>
+      <c r="BK47">
+        <v>1.73</v>
+      </c>
+      <c r="BL47">
+        <v>2.05</v>
+      </c>
+      <c r="BM47">
+        <v>2.17</v>
+      </c>
+      <c r="BN47">
+        <v>1.65</v>
+      </c>
+      <c r="BO47">
+        <v>2.78</v>
+      </c>
+      <c r="BP47">
+        <v>1.32</v>
+      </c>
+    </row>
+    <row r="48" spans="1:68">
+      <c r="A48" s="1">
+        <v>47</v>
+      </c>
+      <c r="B48">
+        <v>7487381</v>
+      </c>
+      <c r="C48" t="s">
+        <v>68</v>
+      </c>
+      <c r="D48" t="s">
+        <v>69</v>
+      </c>
+      <c r="E48" s="2">
+        <v>45569.63541666666</v>
+      </c>
+      <c r="F48">
+        <v>10</v>
+      </c>
+      <c r="G48" t="s">
+        <v>73</v>
+      </c>
+      <c r="H48" t="s">
+        <v>79</v>
+      </c>
+      <c r="I48">
+        <v>0</v>
+      </c>
+      <c r="J48">
+        <v>0</v>
+      </c>
+      <c r="K48">
+        <v>0</v>
+      </c>
+      <c r="L48">
+        <v>0</v>
+      </c>
+      <c r="M48">
+        <v>0</v>
+      </c>
+      <c r="N48">
+        <v>0</v>
+      </c>
+      <c r="O48" t="s">
+        <v>84</v>
+      </c>
+      <c r="P48" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q48">
+        <v>4</v>
+      </c>
+      <c r="R48">
+        <v>2.2</v>
+      </c>
+      <c r="S48">
+        <v>2.5</v>
+      </c>
+      <c r="T48">
+        <v>1.32</v>
+      </c>
+      <c r="U48">
+        <v>3.16</v>
+      </c>
+      <c r="V48">
+        <v>2.64</v>
+      </c>
+      <c r="W48">
+        <v>1.44</v>
+      </c>
+      <c r="X48">
+        <v>6.4</v>
+      </c>
+      <c r="Y48">
+        <v>1.09</v>
+      </c>
+      <c r="Z48">
+        <v>3.6</v>
+      </c>
+      <c r="AA48">
+        <v>3.5</v>
+      </c>
+      <c r="AB48">
+        <v>1.95</v>
+      </c>
+      <c r="AC48">
+        <v>1.02</v>
+      </c>
+      <c r="AD48">
+        <v>10</v>
+      </c>
+      <c r="AE48">
+        <v>1.22</v>
+      </c>
+      <c r="AF48">
+        <v>3.8</v>
+      </c>
+      <c r="AG48">
+        <v>1.85</v>
+      </c>
+      <c r="AH48">
+        <v>1.95</v>
+      </c>
+      <c r="AI48">
+        <v>1.73</v>
+      </c>
+      <c r="AJ48">
+        <v>2</v>
+      </c>
+      <c r="AK48">
+        <v>1.64</v>
+      </c>
+      <c r="AL48">
+        <v>1.25</v>
+      </c>
+      <c r="AM48">
+        <v>1.31</v>
+      </c>
+      <c r="AN48">
+        <v>2.5</v>
+      </c>
+      <c r="AO48">
+        <v>2</v>
+      </c>
+      <c r="AP48">
+        <v>2.2</v>
+      </c>
+      <c r="AQ48">
+        <v>1.8</v>
+      </c>
+      <c r="AR48">
+        <v>1.41</v>
+      </c>
+      <c r="AS48">
+        <v>1.8</v>
+      </c>
+      <c r="AT48">
+        <v>3.21</v>
+      </c>
+      <c r="AU48">
+        <v>5</v>
+      </c>
+      <c r="AV48">
+        <v>4</v>
+      </c>
+      <c r="AW48">
+        <v>8</v>
+      </c>
+      <c r="AX48">
+        <v>7</v>
+      </c>
+      <c r="AY48">
+        <v>13</v>
+      </c>
+      <c r="AZ48">
+        <v>11</v>
+      </c>
+      <c r="BA48">
+        <v>3</v>
+      </c>
+      <c r="BB48">
+        <v>7</v>
+      </c>
+      <c r="BC48">
+        <v>10</v>
+      </c>
+      <c r="BD48">
+        <v>2.55</v>
+      </c>
+      <c r="BE48">
+        <v>8.1</v>
+      </c>
+      <c r="BF48">
+        <v>1.66</v>
+      </c>
+      <c r="BG48">
+        <v>1.23</v>
+      </c>
+      <c r="BH48">
+        <v>3.28</v>
+      </c>
+      <c r="BI48">
+        <v>1.6</v>
+      </c>
+      <c r="BJ48">
+        <v>2.26</v>
+      </c>
+      <c r="BK48">
+        <v>2.01</v>
+      </c>
+      <c r="BL48">
+        <v>1.77</v>
+      </c>
+      <c r="BM48">
+        <v>2.38</v>
+      </c>
+      <c r="BN48">
+        <v>1.55</v>
+      </c>
+      <c r="BO48">
+        <v>3.08</v>
+      </c>
+      <c r="BP48">
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="49" spans="1:68">
+      <c r="A49" s="1">
+        <v>48</v>
+      </c>
+      <c r="B49">
+        <v>7487382</v>
+      </c>
+      <c r="C49" t="s">
+        <v>68</v>
+      </c>
+      <c r="D49" t="s">
+        <v>69</v>
+      </c>
+      <c r="E49" s="2">
+        <v>45569.63541666666</v>
+      </c>
+      <c r="F49">
+        <v>10</v>
+      </c>
+      <c r="G49" t="s">
+        <v>77</v>
+      </c>
+      <c r="H49" t="s">
+        <v>76</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <v>1</v>
+      </c>
+      <c r="K49">
+        <v>1</v>
+      </c>
+      <c r="L49">
+        <v>3</v>
+      </c>
+      <c r="M49">
+        <v>1</v>
+      </c>
+      <c r="N49">
+        <v>4</v>
+      </c>
+      <c r="O49" t="s">
+        <v>116</v>
+      </c>
+      <c r="P49" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q49">
+        <v>2.5</v>
+      </c>
+      <c r="R49">
+        <v>2.25</v>
+      </c>
+      <c r="S49">
+        <v>3.75</v>
+      </c>
+      <c r="T49">
+        <v>1.31</v>
+      </c>
+      <c r="U49">
+        <v>3.26</v>
+      </c>
+      <c r="V49">
+        <v>2.43</v>
+      </c>
+      <c r="W49">
+        <v>1.52</v>
+      </c>
+      <c r="X49">
+        <v>5.7</v>
+      </c>
+      <c r="Y49">
+        <v>1.12</v>
+      </c>
+      <c r="Z49">
+        <v>1.95</v>
+      </c>
+      <c r="AA49">
+        <v>3.6</v>
+      </c>
+      <c r="AB49">
+        <v>3.6</v>
+      </c>
+      <c r="AC49">
+        <v>1.01</v>
+      </c>
+      <c r="AD49">
+        <v>11</v>
+      </c>
+      <c r="AE49">
+        <v>1.17</v>
+      </c>
+      <c r="AF49">
+        <v>4.5</v>
+      </c>
+      <c r="AG49">
+        <v>1.7</v>
+      </c>
+      <c r="AH49">
+        <v>2.1</v>
+      </c>
+      <c r="AI49">
+        <v>1.62</v>
+      </c>
+      <c r="AJ49">
+        <v>2.2</v>
+      </c>
+      <c r="AK49">
+        <v>1.18</v>
+      </c>
+      <c r="AL49">
+        <v>1.2</v>
+      </c>
+      <c r="AM49">
+        <v>1.95</v>
+      </c>
+      <c r="AN49">
+        <v>2.25</v>
+      </c>
+      <c r="AO49">
+        <v>1</v>
+      </c>
+      <c r="AP49">
+        <v>2.4</v>
+      </c>
+      <c r="AQ49">
+        <v>0.8</v>
+      </c>
+      <c r="AR49">
+        <v>1.57</v>
+      </c>
+      <c r="AS49">
+        <v>1.67</v>
+      </c>
+      <c r="AT49">
+        <v>3.24</v>
+      </c>
+      <c r="AU49">
+        <v>7</v>
+      </c>
+      <c r="AV49">
+        <v>5</v>
+      </c>
+      <c r="AW49">
+        <v>14</v>
+      </c>
+      <c r="AX49">
+        <v>3</v>
+      </c>
+      <c r="AY49">
+        <v>23</v>
+      </c>
+      <c r="AZ49">
+        <v>8</v>
+      </c>
+      <c r="BA49">
+        <v>7</v>
+      </c>
+      <c r="BB49">
+        <v>3</v>
+      </c>
+      <c r="BC49">
+        <v>10</v>
+      </c>
+      <c r="BD49">
+        <v>1.53</v>
+      </c>
+      <c r="BE49">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="BF49">
+        <v>2.91</v>
+      </c>
+      <c r="BG49">
+        <v>1.28</v>
+      </c>
+      <c r="BH49">
+        <v>2.94</v>
+      </c>
+      <c r="BI49">
+        <v>1.53</v>
+      </c>
+      <c r="BJ49">
+        <v>2.45</v>
+      </c>
+      <c r="BK49">
+        <v>1.89</v>
+      </c>
+      <c r="BL49">
+        <v>1.91</v>
+      </c>
+      <c r="BM49">
+        <v>2.4</v>
+      </c>
+      <c r="BN49">
+        <v>1.55</v>
+      </c>
+      <c r="BO49">
+        <v>3.44</v>
+      </c>
+      <c r="BP49">
+        <v>1.21</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Switzerland Challenge League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Switzerland Challenge League_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="157">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -367,6 +367,9 @@
     <t>['69', '90+1', '90+3']</t>
   </si>
   <si>
+    <t>['41', '45+1']</t>
+  </si>
+  <si>
     <t>['25', '90+2']</t>
   </si>
   <si>
@@ -479,6 +482,9 @@
   </si>
   <si>
     <t>['1']</t>
+  </si>
+  <si>
+    <t>['37', '66']</t>
   </si>
 </sst>
 </file>
@@ -840,7 +846,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP49"/>
+  <dimension ref="A1:BP51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1099,7 +1105,7 @@
         <v>80</v>
       </c>
       <c r="P2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="Q2">
         <v>2.75</v>
@@ -1180,7 +1186,7 @@
         <v>2.6</v>
       </c>
       <c r="AQ2">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1305,7 +1311,7 @@
         <v>81</v>
       </c>
       <c r="P3" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="Q3">
         <v>2.63</v>
@@ -1511,7 +1517,7 @@
         <v>82</v>
       </c>
       <c r="P4" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="Q4">
         <v>3.75</v>
@@ -1589,7 +1595,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>0.6</v>
+        <v>0.67</v>
       </c>
       <c r="AQ4">
         <v>1.8</v>
@@ -1717,7 +1723,7 @@
         <v>83</v>
       </c>
       <c r="P5" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="Q5">
         <v>3.6</v>
@@ -2129,7 +2135,7 @@
         <v>84</v>
       </c>
       <c r="P7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="Q7">
         <v>2.63</v>
@@ -2335,7 +2341,7 @@
         <v>85</v>
       </c>
       <c r="P8" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="Q8">
         <v>2.63</v>
@@ -2541,7 +2547,7 @@
         <v>86</v>
       </c>
       <c r="P9" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Q9">
         <v>3</v>
@@ -2747,7 +2753,7 @@
         <v>87</v>
       </c>
       <c r="P10" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="Q10">
         <v>2.3</v>
@@ -2825,7 +2831,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AQ10">
         <v>2</v>
@@ -3034,7 +3040,7 @@
         <v>2</v>
       </c>
       <c r="AQ11">
-        <v>0.25</v>
+        <v>0.4</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3159,7 +3165,7 @@
         <v>84</v>
       </c>
       <c r="P12" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="Q12">
         <v>2.88</v>
@@ -3365,7 +3371,7 @@
         <v>89</v>
       </c>
       <c r="P13" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="Q13">
         <v>2.2</v>
@@ -3446,7 +3452,7 @@
         <v>2</v>
       </c>
       <c r="AQ13">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="AR13">
         <v>1.92</v>
@@ -3571,7 +3577,7 @@
         <v>90</v>
       </c>
       <c r="P14" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="Q14">
         <v>3</v>
@@ -3649,7 +3655,7 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>0.6</v>
+        <v>0.67</v>
       </c>
       <c r="AQ14">
         <v>1.2</v>
@@ -3777,7 +3783,7 @@
         <v>91</v>
       </c>
       <c r="P15" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="Q15">
         <v>3</v>
@@ -3983,7 +3989,7 @@
         <v>92</v>
       </c>
       <c r="P16" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="Q16">
         <v>2.75</v>
@@ -4189,7 +4195,7 @@
         <v>93</v>
       </c>
       <c r="P17" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="Q17">
         <v>2.38</v>
@@ -4395,7 +4401,7 @@
         <v>84</v>
       </c>
       <c r="P18" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Q18">
         <v>3.1</v>
@@ -4601,7 +4607,7 @@
         <v>94</v>
       </c>
       <c r="P19" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Q19">
         <v>2.3</v>
@@ -4807,7 +4813,7 @@
         <v>84</v>
       </c>
       <c r="P20" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Q20">
         <v>2.3</v>
@@ -4885,7 +4891,7 @@
         <v>1</v>
       </c>
       <c r="AP20">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AQ20">
         <v>0.8</v>
@@ -5013,7 +5019,7 @@
         <v>95</v>
       </c>
       <c r="P21" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="Q21">
         <v>2.88</v>
@@ -5094,7 +5100,7 @@
         <v>0.4</v>
       </c>
       <c r="AQ21">
-        <v>0.25</v>
+        <v>0.4</v>
       </c>
       <c r="AR21">
         <v>1.63</v>
@@ -5297,7 +5303,7 @@
         <v>1.5</v>
       </c>
       <c r="AP22">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AQ22">
         <v>1.2</v>
@@ -5425,7 +5431,7 @@
         <v>97</v>
       </c>
       <c r="P23" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="Q23">
         <v>2.88</v>
@@ -5709,7 +5715,7 @@
         <v>2</v>
       </c>
       <c r="AP24">
-        <v>0.6</v>
+        <v>0.67</v>
       </c>
       <c r="AQ24">
         <v>1.4</v>
@@ -5837,7 +5843,7 @@
         <v>98</v>
       </c>
       <c r="P25" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Q25">
         <v>2.63</v>
@@ -5918,7 +5924,7 @@
         <v>2</v>
       </c>
       <c r="AQ25">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="AR25">
         <v>1.92</v>
@@ -6043,7 +6049,7 @@
         <v>99</v>
       </c>
       <c r="P26" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="Q26">
         <v>2.2</v>
@@ -6249,7 +6255,7 @@
         <v>100</v>
       </c>
       <c r="P27" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Q27">
         <v>2.5</v>
@@ -6330,7 +6336,7 @@
         <v>2.6</v>
       </c>
       <c r="AQ27">
-        <v>0.25</v>
+        <v>0.4</v>
       </c>
       <c r="AR27">
         <v>1.47</v>
@@ -6455,7 +6461,7 @@
         <v>84</v>
       </c>
       <c r="P28" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="Q28">
         <v>3</v>
@@ -6536,7 +6542,7 @@
         <v>0.6</v>
       </c>
       <c r="AQ28">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="AR28">
         <v>1.43</v>
@@ -6661,7 +6667,7 @@
         <v>101</v>
       </c>
       <c r="P29" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q29">
         <v>2.88</v>
@@ -6867,7 +6873,7 @@
         <v>102</v>
       </c>
       <c r="P30" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="Q30">
         <v>3.75</v>
@@ -7073,7 +7079,7 @@
         <v>103</v>
       </c>
       <c r="P31" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="Q31">
         <v>3</v>
@@ -7151,7 +7157,7 @@
         <v>0.5</v>
       </c>
       <c r="AP31">
-        <v>0.6</v>
+        <v>0.67</v>
       </c>
       <c r="AQ31">
         <v>1.4</v>
@@ -7279,7 +7285,7 @@
         <v>104</v>
       </c>
       <c r="P32" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="Q32">
         <v>3.2</v>
@@ -7691,7 +7697,7 @@
         <v>105</v>
       </c>
       <c r="P34" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="Q34">
         <v>3.2</v>
@@ -7897,7 +7903,7 @@
         <v>106</v>
       </c>
       <c r="P35" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Q35">
         <v>2.5</v>
@@ -8103,7 +8109,7 @@
         <v>107</v>
       </c>
       <c r="P36" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Q36">
         <v>2.2</v>
@@ -8309,7 +8315,7 @@
         <v>108</v>
       </c>
       <c r="P37" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="Q37">
         <v>2.3</v>
@@ -8593,7 +8599,7 @@
         <v>2.33</v>
       </c>
       <c r="AP38">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AQ38">
         <v>1.8</v>
@@ -8721,7 +8727,7 @@
         <v>109</v>
       </c>
       <c r="P39" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q39">
         <v>2.5</v>
@@ -8799,7 +8805,7 @@
         <v>2</v>
       </c>
       <c r="AP39">
-        <v>0.6</v>
+        <v>0.67</v>
       </c>
       <c r="AQ39">
         <v>1.8</v>
@@ -8927,7 +8933,7 @@
         <v>110</v>
       </c>
       <c r="P40" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q40">
         <v>2.88</v>
@@ -9008,7 +9014,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ40">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="AR40">
         <v>1.35</v>
@@ -9214,7 +9220,7 @@
         <v>2.4</v>
       </c>
       <c r="AQ41">
-        <v>0.25</v>
+        <v>0.4</v>
       </c>
       <c r="AR41">
         <v>1.58</v>
@@ -9339,7 +9345,7 @@
         <v>84</v>
       </c>
       <c r="P42" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Q42">
         <v>3</v>
@@ -9545,7 +9551,7 @@
         <v>112</v>
       </c>
       <c r="P43" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Q43">
         <v>3</v>
@@ -9751,7 +9757,7 @@
         <v>95</v>
       </c>
       <c r="P44" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Q44">
         <v>3</v>
@@ -10163,7 +10169,7 @@
         <v>114</v>
       </c>
       <c r="P46" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Q46">
         <v>2.75</v>
@@ -10369,7 +10375,7 @@
         <v>115</v>
       </c>
       <c r="P47" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q47">
         <v>2.4</v>
@@ -10781,7 +10787,7 @@
         <v>116</v>
       </c>
       <c r="P49" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Q49">
         <v>2.5</v>
@@ -10938,6 +10944,418 @@
       </c>
       <c r="BP49">
         <v>1.21</v>
+      </c>
+    </row>
+    <row r="50" spans="1:68">
+      <c r="A50" s="1">
+        <v>49</v>
+      </c>
+      <c r="B50">
+        <v>7487380</v>
+      </c>
+      <c r="C50" t="s">
+        <v>68</v>
+      </c>
+      <c r="D50" t="s">
+        <v>69</v>
+      </c>
+      <c r="E50" s="2">
+        <v>45570.54166666666</v>
+      </c>
+      <c r="F50">
+        <v>10</v>
+      </c>
+      <c r="G50" t="s">
+        <v>72</v>
+      </c>
+      <c r="H50" t="s">
+        <v>74</v>
+      </c>
+      <c r="I50">
+        <v>0</v>
+      </c>
+      <c r="J50">
+        <v>0</v>
+      </c>
+      <c r="K50">
+        <v>0</v>
+      </c>
+      <c r="L50">
+        <v>0</v>
+      </c>
+      <c r="M50">
+        <v>0</v>
+      </c>
+      <c r="N50">
+        <v>0</v>
+      </c>
+      <c r="O50" t="s">
+        <v>84</v>
+      </c>
+      <c r="P50" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q50">
+        <v>2.5</v>
+      </c>
+      <c r="R50">
+        <v>2.4</v>
+      </c>
+      <c r="S50">
+        <v>3.4</v>
+      </c>
+      <c r="T50">
+        <v>1.23</v>
+      </c>
+      <c r="U50">
+        <v>3.9</v>
+      </c>
+      <c r="V50">
+        <v>2.11</v>
+      </c>
+      <c r="W50">
+        <v>1.68</v>
+      </c>
+      <c r="X50">
+        <v>4.55</v>
+      </c>
+      <c r="Y50">
+        <v>1.18</v>
+      </c>
+      <c r="Z50">
+        <v>2.05</v>
+      </c>
+      <c r="AA50">
+        <v>3.75</v>
+      </c>
+      <c r="AB50">
+        <v>3.2</v>
+      </c>
+      <c r="AC50">
+        <v>1.01</v>
+      </c>
+      <c r="AD50">
+        <v>17</v>
+      </c>
+      <c r="AE50">
+        <v>1.08</v>
+      </c>
+      <c r="AF50">
+        <v>6.5</v>
+      </c>
+      <c r="AG50">
+        <v>1.44</v>
+      </c>
+      <c r="AH50">
+        <v>2.63</v>
+      </c>
+      <c r="AI50">
+        <v>1.44</v>
+      </c>
+      <c r="AJ50">
+        <v>2.63</v>
+      </c>
+      <c r="AK50">
+        <v>1.39</v>
+      </c>
+      <c r="AL50">
+        <v>1.22</v>
+      </c>
+      <c r="AM50">
+        <v>1.64</v>
+      </c>
+      <c r="AN50">
+        <v>0.6</v>
+      </c>
+      <c r="AO50">
+        <v>0.25</v>
+      </c>
+      <c r="AP50">
+        <v>0.67</v>
+      </c>
+      <c r="AQ50">
+        <v>0.4</v>
+      </c>
+      <c r="AR50">
+        <v>1.24</v>
+      </c>
+      <c r="AS50">
+        <v>1.25</v>
+      </c>
+      <c r="AT50">
+        <v>2.49</v>
+      </c>
+      <c r="AU50">
+        <v>5</v>
+      </c>
+      <c r="AV50">
+        <v>2</v>
+      </c>
+      <c r="AW50">
+        <v>9</v>
+      </c>
+      <c r="AX50">
+        <v>7</v>
+      </c>
+      <c r="AY50">
+        <v>14</v>
+      </c>
+      <c r="AZ50">
+        <v>9</v>
+      </c>
+      <c r="BA50">
+        <v>7</v>
+      </c>
+      <c r="BB50">
+        <v>1</v>
+      </c>
+      <c r="BC50">
+        <v>8</v>
+      </c>
+      <c r="BD50">
+        <v>1.85</v>
+      </c>
+      <c r="BE50">
+        <v>6.9</v>
+      </c>
+      <c r="BF50">
+        <v>2.31</v>
+      </c>
+      <c r="BG50">
+        <v>0</v>
+      </c>
+      <c r="BH50">
+        <v>0</v>
+      </c>
+      <c r="BI50">
+        <v>1.51</v>
+      </c>
+      <c r="BJ50">
+        <v>2.45</v>
+      </c>
+      <c r="BK50">
+        <v>2.2</v>
+      </c>
+      <c r="BL50">
+        <v>1.91</v>
+      </c>
+      <c r="BM50">
+        <v>2.38</v>
+      </c>
+      <c r="BN50">
+        <v>1.54</v>
+      </c>
+      <c r="BO50">
+        <v>0</v>
+      </c>
+      <c r="BP50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:68">
+      <c r="A51" s="1">
+        <v>50</v>
+      </c>
+      <c r="B51">
+        <v>7487384</v>
+      </c>
+      <c r="C51" t="s">
+        <v>68</v>
+      </c>
+      <c r="D51" t="s">
+        <v>69</v>
+      </c>
+      <c r="E51" s="2">
+        <v>45570.54166666666</v>
+      </c>
+      <c r="F51">
+        <v>10</v>
+      </c>
+      <c r="G51" t="s">
+        <v>78</v>
+      </c>
+      <c r="H51" t="s">
+        <v>75</v>
+      </c>
+      <c r="I51">
+        <v>2</v>
+      </c>
+      <c r="J51">
+        <v>1</v>
+      </c>
+      <c r="K51">
+        <v>3</v>
+      </c>
+      <c r="L51">
+        <v>2</v>
+      </c>
+      <c r="M51">
+        <v>2</v>
+      </c>
+      <c r="N51">
+        <v>4</v>
+      </c>
+      <c r="O51" t="s">
+        <v>117</v>
+      </c>
+      <c r="P51" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q51">
+        <v>2.75</v>
+      </c>
+      <c r="R51">
+        <v>2.25</v>
+      </c>
+      <c r="S51">
+        <v>3.4</v>
+      </c>
+      <c r="T51">
+        <v>1.34</v>
+      </c>
+      <c r="U51">
+        <v>3.1</v>
+      </c>
+      <c r="V51">
+        <v>2.57</v>
+      </c>
+      <c r="W51">
+        <v>1.47</v>
+      </c>
+      <c r="X51">
+        <v>6.3</v>
+      </c>
+      <c r="Y51">
+        <v>1.1</v>
+      </c>
+      <c r="Z51">
+        <v>2.2</v>
+      </c>
+      <c r="AA51">
+        <v>3.4</v>
+      </c>
+      <c r="AB51">
+        <v>3</v>
+      </c>
+      <c r="AC51">
+        <v>1.01</v>
+      </c>
+      <c r="AD51">
+        <v>11</v>
+      </c>
+      <c r="AE51">
+        <v>1.19</v>
+      </c>
+      <c r="AF51">
+        <v>3.58</v>
+      </c>
+      <c r="AG51">
+        <v>1.73</v>
+      </c>
+      <c r="AH51">
+        <v>2.08</v>
+      </c>
+      <c r="AI51">
+        <v>1.62</v>
+      </c>
+      <c r="AJ51">
+        <v>2.2</v>
+      </c>
+      <c r="AK51">
+        <v>1.32</v>
+      </c>
+      <c r="AL51">
+        <v>1.26</v>
+      </c>
+      <c r="AM51">
+        <v>1.62</v>
+      </c>
+      <c r="AN51">
+        <v>1.25</v>
+      </c>
+      <c r="AO51">
+        <v>0.8</v>
+      </c>
+      <c r="AP51">
+        <v>1.2</v>
+      </c>
+      <c r="AQ51">
+        <v>0.83</v>
+      </c>
+      <c r="AR51">
+        <v>1.86</v>
+      </c>
+      <c r="AS51">
+        <v>1.71</v>
+      </c>
+      <c r="AT51">
+        <v>3.57</v>
+      </c>
+      <c r="AU51">
+        <v>5</v>
+      </c>
+      <c r="AV51">
+        <v>6</v>
+      </c>
+      <c r="AW51">
+        <v>4</v>
+      </c>
+      <c r="AX51">
+        <v>6</v>
+      </c>
+      <c r="AY51">
+        <v>9</v>
+      </c>
+      <c r="AZ51">
+        <v>13</v>
+      </c>
+      <c r="BA51">
+        <v>4</v>
+      </c>
+      <c r="BB51">
+        <v>4</v>
+      </c>
+      <c r="BC51">
+        <v>8</v>
+      </c>
+      <c r="BD51">
+        <v>1.9</v>
+      </c>
+      <c r="BE51">
+        <v>5.8</v>
+      </c>
+      <c r="BF51">
+        <v>2.39</v>
+      </c>
+      <c r="BG51">
+        <v>0</v>
+      </c>
+      <c r="BH51">
+        <v>0</v>
+      </c>
+      <c r="BI51">
+        <v>0</v>
+      </c>
+      <c r="BJ51">
+        <v>0</v>
+      </c>
+      <c r="BK51">
+        <v>0</v>
+      </c>
+      <c r="BL51">
+        <v>0</v>
+      </c>
+      <c r="BM51">
+        <v>0</v>
+      </c>
+      <c r="BN51">
+        <v>0</v>
+      </c>
+      <c r="BO51">
+        <v>0</v>
+      </c>
+      <c r="BP51">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Switzerland Challenge League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Switzerland Challenge League_20242025.xlsx
@@ -11122,10 +11122,10 @@
         <v>2.31</v>
       </c>
       <c r="BG50">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="BH50">
-        <v>0</v>
+        <v>3.8</v>
       </c>
       <c r="BI50">
         <v>1.51</v>
@@ -11146,10 +11146,10 @@
         <v>1.54</v>
       </c>
       <c r="BO50">
-        <v>0</v>
+        <v>2.73</v>
       </c>
       <c r="BP50">
-        <v>0</v>
+        <v>1.33</v>
       </c>
     </row>
     <row r="51" spans="1:68">
@@ -11328,34 +11328,34 @@
         <v>2.39</v>
       </c>
       <c r="BG51">
-        <v>0</v>
+        <v>1.65</v>
       </c>
       <c r="BH51">
-        <v>0</v>
+        <v>2.05</v>
       </c>
       <c r="BI51">
-        <v>0</v>
+        <v>2.08</v>
       </c>
       <c r="BJ51">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="BK51">
-        <v>0</v>
+        <v>2.88</v>
       </c>
       <c r="BL51">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="BM51">
-        <v>0</v>
+        <v>4.18</v>
       </c>
       <c r="BN51">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="BO51">
-        <v>0</v>
+        <v>6.64</v>
       </c>
       <c r="BP51">
-        <v>0</v>
+        <v>1.11</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Switzerland Challenge League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Switzerland Challenge League_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="160">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -370,6 +370,9 @@
     <t>['41', '45+1']</t>
   </si>
   <si>
+    <t>['72', '77', '90+2']</t>
+  </si>
+  <si>
     <t>['25', '90+2']</t>
   </si>
   <si>
@@ -485,6 +488,12 @@
   </si>
   <si>
     <t>['37', '66']</t>
+  </si>
+  <si>
+    <t>['21', '60', '85']</t>
+  </si>
+  <si>
+    <t>['13', '37', '43']</t>
   </si>
 </sst>
 </file>
@@ -846,7 +855,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP51"/>
+  <dimension ref="A1:BP54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1105,7 +1114,7 @@
         <v>80</v>
       </c>
       <c r="P2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="Q2">
         <v>2.75</v>
@@ -1183,7 +1192,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>2.6</v>
+        <v>2.17</v>
       </c>
       <c r="AQ2">
         <v>0.83</v>
@@ -1311,7 +1320,7 @@
         <v>81</v>
       </c>
       <c r="P3" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="Q3">
         <v>2.63</v>
@@ -1389,10 +1398,10 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>0.4</v>
+        <v>0.33</v>
       </c>
       <c r="AQ3">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1517,7 +1526,7 @@
         <v>82</v>
       </c>
       <c r="P4" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="Q4">
         <v>3.75</v>
@@ -1723,7 +1732,7 @@
         <v>83</v>
       </c>
       <c r="P5" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="Q5">
         <v>3.6</v>
@@ -1804,7 +1813,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ5">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2135,7 +2144,7 @@
         <v>84</v>
       </c>
       <c r="P7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="Q7">
         <v>2.63</v>
@@ -2341,7 +2350,7 @@
         <v>85</v>
       </c>
       <c r="P8" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Q8">
         <v>2.63</v>
@@ -2419,7 +2428,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="AQ8">
         <v>1.4</v>
@@ -2547,7 +2556,7 @@
         <v>86</v>
       </c>
       <c r="P9" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="Q9">
         <v>3</v>
@@ -2753,7 +2762,7 @@
         <v>87</v>
       </c>
       <c r="P10" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="Q10">
         <v>2.3</v>
@@ -2834,7 +2843,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ10">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3165,7 +3174,7 @@
         <v>84</v>
       </c>
       <c r="P12" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="Q12">
         <v>2.88</v>
@@ -3243,7 +3252,7 @@
         <v>3</v>
       </c>
       <c r="AP12">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="AQ12">
         <v>1.8</v>
@@ -3371,7 +3380,7 @@
         <v>89</v>
       </c>
       <c r="P13" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="Q13">
         <v>2.2</v>
@@ -3577,7 +3586,7 @@
         <v>90</v>
       </c>
       <c r="P14" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="Q14">
         <v>3</v>
@@ -3783,7 +3792,7 @@
         <v>91</v>
       </c>
       <c r="P15" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="Q15">
         <v>3</v>
@@ -3864,7 +3873,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ15">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AR15">
         <v>1.72</v>
@@ -3989,7 +3998,7 @@
         <v>92</v>
       </c>
       <c r="P16" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="Q16">
         <v>2.75</v>
@@ -4070,7 +4079,7 @@
         <v>2</v>
       </c>
       <c r="AQ16">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AR16">
         <v>1.95</v>
@@ -4195,7 +4204,7 @@
         <v>93</v>
       </c>
       <c r="P17" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Q17">
         <v>2.38</v>
@@ -4276,7 +4285,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ17">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AR17">
         <v>1.81</v>
@@ -4401,7 +4410,7 @@
         <v>84</v>
       </c>
       <c r="P18" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Q18">
         <v>3.1</v>
@@ -4607,7 +4616,7 @@
         <v>94</v>
       </c>
       <c r="P19" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Q19">
         <v>2.3</v>
@@ -4685,7 +4694,7 @@
         <v>0</v>
       </c>
       <c r="AP19">
-        <v>2.6</v>
+        <v>2.17</v>
       </c>
       <c r="AQ19">
         <v>1.4</v>
@@ -4813,7 +4822,7 @@
         <v>84</v>
       </c>
       <c r="P20" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="Q20">
         <v>2.3</v>
@@ -5019,7 +5028,7 @@
         <v>95</v>
       </c>
       <c r="P21" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="Q21">
         <v>2.88</v>
@@ -5097,7 +5106,7 @@
         <v>0</v>
       </c>
       <c r="AP21">
-        <v>0.4</v>
+        <v>0.33</v>
       </c>
       <c r="AQ21">
         <v>0.4</v>
@@ -5431,7 +5440,7 @@
         <v>97</v>
       </c>
       <c r="P23" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Q23">
         <v>2.88</v>
@@ -5718,7 +5727,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ24">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AR24">
         <v>1.47</v>
@@ -5843,7 +5852,7 @@
         <v>98</v>
       </c>
       <c r="P25" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="Q25">
         <v>2.63</v>
@@ -6049,7 +6058,7 @@
         <v>99</v>
       </c>
       <c r="P26" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Q26">
         <v>2.2</v>
@@ -6255,7 +6264,7 @@
         <v>100</v>
       </c>
       <c r="P27" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="Q27">
         <v>2.5</v>
@@ -6333,7 +6342,7 @@
         <v>0.5</v>
       </c>
       <c r="AP27">
-        <v>2.6</v>
+        <v>2.17</v>
       </c>
       <c r="AQ27">
         <v>0.4</v>
@@ -6461,7 +6470,7 @@
         <v>84</v>
       </c>
       <c r="P28" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q28">
         <v>3</v>
@@ -6539,7 +6548,7 @@
         <v>0.33</v>
       </c>
       <c r="AP28">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="AQ28">
         <v>0.83</v>
@@ -6667,7 +6676,7 @@
         <v>101</v>
       </c>
       <c r="P29" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="Q29">
         <v>2.88</v>
@@ -6748,7 +6757,7 @@
         <v>2.4</v>
       </c>
       <c r="AQ29">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AR29">
         <v>1.46</v>
@@ -6873,7 +6882,7 @@
         <v>102</v>
       </c>
       <c r="P30" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="Q30">
         <v>3.75</v>
@@ -6951,7 +6960,7 @@
         <v>3</v>
       </c>
       <c r="AP30">
-        <v>0.4</v>
+        <v>0.33</v>
       </c>
       <c r="AQ30">
         <v>1.8</v>
@@ -7079,7 +7088,7 @@
         <v>103</v>
       </c>
       <c r="P31" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="Q31">
         <v>3</v>
@@ -7285,7 +7294,7 @@
         <v>104</v>
       </c>
       <c r="P32" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="Q32">
         <v>3.2</v>
@@ -7363,7 +7372,7 @@
         <v>1</v>
       </c>
       <c r="AP32">
-        <v>0.4</v>
+        <v>0.33</v>
       </c>
       <c r="AQ32">
         <v>1.2</v>
@@ -7572,7 +7581,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ33">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AR33">
         <v>1.43</v>
@@ -7697,7 +7706,7 @@
         <v>105</v>
       </c>
       <c r="P34" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Q34">
         <v>3.2</v>
@@ -7775,10 +7784,10 @@
         <v>1.33</v>
       </c>
       <c r="AP34">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="AQ34">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AR34">
         <v>1.62</v>
@@ -7903,7 +7912,7 @@
         <v>106</v>
       </c>
       <c r="P35" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Q35">
         <v>2.5</v>
@@ -7984,7 +7993,7 @@
         <v>2</v>
       </c>
       <c r="AQ35">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AR35">
         <v>2.16</v>
@@ -8109,7 +8118,7 @@
         <v>107</v>
       </c>
       <c r="P36" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q36">
         <v>2.2</v>
@@ -8315,7 +8324,7 @@
         <v>108</v>
       </c>
       <c r="P37" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="Q37">
         <v>2.3</v>
@@ -8393,7 +8402,7 @@
         <v>1.33</v>
       </c>
       <c r="AP37">
-        <v>2.6</v>
+        <v>2.17</v>
       </c>
       <c r="AQ37">
         <v>0.8</v>
@@ -8727,7 +8736,7 @@
         <v>109</v>
       </c>
       <c r="P39" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q39">
         <v>2.5</v>
@@ -8933,7 +8942,7 @@
         <v>110</v>
       </c>
       <c r="P40" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Q40">
         <v>2.88</v>
@@ -9345,7 +9354,7 @@
         <v>84</v>
       </c>
       <c r="P42" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Q42">
         <v>3</v>
@@ -9423,10 +9432,10 @@
         <v>0.25</v>
       </c>
       <c r="AP42">
-        <v>0.4</v>
+        <v>0.33</v>
       </c>
       <c r="AQ42">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AR42">
         <v>1.64</v>
@@ -9551,7 +9560,7 @@
         <v>112</v>
       </c>
       <c r="P43" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Q43">
         <v>3</v>
@@ -9632,7 +9641,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ43">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AR43">
         <v>1.36</v>
@@ -9757,7 +9766,7 @@
         <v>95</v>
       </c>
       <c r="P44" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Q44">
         <v>3</v>
@@ -9835,10 +9844,10 @@
         <v>1.67</v>
       </c>
       <c r="AP44">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="AQ44">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AR44">
         <v>1.41</v>
@@ -10169,7 +10178,7 @@
         <v>114</v>
       </c>
       <c r="P46" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q46">
         <v>2.75</v>
@@ -10375,7 +10384,7 @@
         <v>115</v>
       </c>
       <c r="P47" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Q47">
         <v>2.4</v>
@@ -10453,7 +10462,7 @@
         <v>2.25</v>
       </c>
       <c r="AP47">
-        <v>2.6</v>
+        <v>2.17</v>
       </c>
       <c r="AQ47">
         <v>1.8</v>
@@ -10787,7 +10796,7 @@
         <v>116</v>
       </c>
       <c r="P49" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q49">
         <v>2.5</v>
@@ -11199,7 +11208,7 @@
         <v>117</v>
       </c>
       <c r="P51" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q51">
         <v>2.75</v>
@@ -11356,6 +11365,624 @@
       </c>
       <c r="BP51">
         <v>1.11</v>
+      </c>
+    </row>
+    <row r="52" spans="1:68">
+      <c r="A52" s="1">
+        <v>51</v>
+      </c>
+      <c r="B52">
+        <v>7487385</v>
+      </c>
+      <c r="C52" t="s">
+        <v>68</v>
+      </c>
+      <c r="D52" t="s">
+        <v>69</v>
+      </c>
+      <c r="E52" s="2">
+        <v>45583.60416666666</v>
+      </c>
+      <c r="F52">
+        <v>11</v>
+      </c>
+      <c r="G52" t="s">
+        <v>70</v>
+      </c>
+      <c r="H52" t="s">
+        <v>77</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>1</v>
+      </c>
+      <c r="K52">
+        <v>1</v>
+      </c>
+      <c r="L52">
+        <v>0</v>
+      </c>
+      <c r="M52">
+        <v>3</v>
+      </c>
+      <c r="N52">
+        <v>3</v>
+      </c>
+      <c r="O52" t="s">
+        <v>84</v>
+      </c>
+      <c r="P52" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q52">
+        <v>2.63</v>
+      </c>
+      <c r="R52">
+        <v>2.38</v>
+      </c>
+      <c r="S52">
+        <v>3.25</v>
+      </c>
+      <c r="T52">
+        <v>1.29</v>
+      </c>
+      <c r="U52">
+        <v>3.5</v>
+      </c>
+      <c r="V52">
+        <v>2.38</v>
+      </c>
+      <c r="W52">
+        <v>1.53</v>
+      </c>
+      <c r="X52">
+        <v>5</v>
+      </c>
+      <c r="Y52">
+        <v>1.14</v>
+      </c>
+      <c r="Z52">
+        <v>2.1</v>
+      </c>
+      <c r="AA52">
+        <v>3.6</v>
+      </c>
+      <c r="AB52">
+        <v>3</v>
+      </c>
+      <c r="AC52">
+        <v>0</v>
+      </c>
+      <c r="AD52">
+        <v>0</v>
+      </c>
+      <c r="AE52">
+        <v>0</v>
+      </c>
+      <c r="AF52">
+        <v>0</v>
+      </c>
+      <c r="AG52">
+        <v>1.55</v>
+      </c>
+      <c r="AH52">
+        <v>2.35</v>
+      </c>
+      <c r="AI52">
+        <v>1.5</v>
+      </c>
+      <c r="AJ52">
+        <v>2.5</v>
+      </c>
+      <c r="AK52">
+        <v>0</v>
+      </c>
+      <c r="AL52">
+        <v>0</v>
+      </c>
+      <c r="AM52">
+        <v>0</v>
+      </c>
+      <c r="AN52">
+        <v>2.6</v>
+      </c>
+      <c r="AO52">
+        <v>1.4</v>
+      </c>
+      <c r="AP52">
+        <v>2.17</v>
+      </c>
+      <c r="AQ52">
+        <v>1.67</v>
+      </c>
+      <c r="AR52">
+        <v>1.69</v>
+      </c>
+      <c r="AS52">
+        <v>1.66</v>
+      </c>
+      <c r="AT52">
+        <v>3.35</v>
+      </c>
+      <c r="AU52">
+        <v>4</v>
+      </c>
+      <c r="AV52">
+        <v>8</v>
+      </c>
+      <c r="AW52">
+        <v>3</v>
+      </c>
+      <c r="AX52">
+        <v>5</v>
+      </c>
+      <c r="AY52">
+        <v>7</v>
+      </c>
+      <c r="AZ52">
+        <v>13</v>
+      </c>
+      <c r="BA52">
+        <v>0</v>
+      </c>
+      <c r="BB52">
+        <v>6</v>
+      </c>
+      <c r="BC52">
+        <v>6</v>
+      </c>
+      <c r="BD52">
+        <v>0</v>
+      </c>
+      <c r="BE52">
+        <v>0</v>
+      </c>
+      <c r="BF52">
+        <v>0</v>
+      </c>
+      <c r="BG52">
+        <v>0</v>
+      </c>
+      <c r="BH52">
+        <v>0</v>
+      </c>
+      <c r="BI52">
+        <v>0</v>
+      </c>
+      <c r="BJ52">
+        <v>0</v>
+      </c>
+      <c r="BK52">
+        <v>0</v>
+      </c>
+      <c r="BL52">
+        <v>0</v>
+      </c>
+      <c r="BM52">
+        <v>0</v>
+      </c>
+      <c r="BN52">
+        <v>0</v>
+      </c>
+      <c r="BO52">
+        <v>0</v>
+      </c>
+      <c r="BP52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:68">
+      <c r="A53" s="1">
+        <v>52</v>
+      </c>
+      <c r="B53">
+        <v>7487388</v>
+      </c>
+      <c r="C53" t="s">
+        <v>68</v>
+      </c>
+      <c r="D53" t="s">
+        <v>69</v>
+      </c>
+      <c r="E53" s="2">
+        <v>45583.60416666666</v>
+      </c>
+      <c r="F53">
+        <v>11</v>
+      </c>
+      <c r="G53" t="s">
+        <v>76</v>
+      </c>
+      <c r="H53" t="s">
+        <v>78</v>
+      </c>
+      <c r="I53">
+        <v>0</v>
+      </c>
+      <c r="J53">
+        <v>1</v>
+      </c>
+      <c r="K53">
+        <v>1</v>
+      </c>
+      <c r="L53">
+        <v>3</v>
+      </c>
+      <c r="M53">
+        <v>1</v>
+      </c>
+      <c r="N53">
+        <v>4</v>
+      </c>
+      <c r="O53" t="s">
+        <v>118</v>
+      </c>
+      <c r="P53" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q53">
+        <v>3.25</v>
+      </c>
+      <c r="R53">
+        <v>2.25</v>
+      </c>
+      <c r="S53">
+        <v>2.88</v>
+      </c>
+      <c r="T53">
+        <v>1.31</v>
+      </c>
+      <c r="U53">
+        <v>3.26</v>
+      </c>
+      <c r="V53">
+        <v>2.4</v>
+      </c>
+      <c r="W53">
+        <v>1.5</v>
+      </c>
+      <c r="X53">
+        <v>5.7</v>
+      </c>
+      <c r="Y53">
+        <v>1.12</v>
+      </c>
+      <c r="Z53">
+        <v>3.3</v>
+      </c>
+      <c r="AA53">
+        <v>3.5</v>
+      </c>
+      <c r="AB53">
+        <v>2</v>
+      </c>
+      <c r="AC53">
+        <v>1.01</v>
+      </c>
+      <c r="AD53">
+        <v>11</v>
+      </c>
+      <c r="AE53">
+        <v>1.2</v>
+      </c>
+      <c r="AF53">
+        <v>4.2</v>
+      </c>
+      <c r="AG53">
+        <v>1.68</v>
+      </c>
+      <c r="AH53">
+        <v>2.1</v>
+      </c>
+      <c r="AI53">
+        <v>1.62</v>
+      </c>
+      <c r="AJ53">
+        <v>2.2</v>
+      </c>
+      <c r="AK53">
+        <v>1.72</v>
+      </c>
+      <c r="AL53">
+        <v>1.22</v>
+      </c>
+      <c r="AM53">
+        <v>1.3</v>
+      </c>
+      <c r="AN53">
+        <v>0.6</v>
+      </c>
+      <c r="AO53">
+        <v>0.8</v>
+      </c>
+      <c r="AP53">
+        <v>1</v>
+      </c>
+      <c r="AQ53">
+        <v>0.67</v>
+      </c>
+      <c r="AR53">
+        <v>1.54</v>
+      </c>
+      <c r="AS53">
+        <v>1.12</v>
+      </c>
+      <c r="AT53">
+        <v>2.66</v>
+      </c>
+      <c r="AU53">
+        <v>6</v>
+      </c>
+      <c r="AV53">
+        <v>4</v>
+      </c>
+      <c r="AW53">
+        <v>9</v>
+      </c>
+      <c r="AX53">
+        <v>3</v>
+      </c>
+      <c r="AY53">
+        <v>15</v>
+      </c>
+      <c r="AZ53">
+        <v>7</v>
+      </c>
+      <c r="BA53">
+        <v>10</v>
+      </c>
+      <c r="BB53">
+        <v>3</v>
+      </c>
+      <c r="BC53">
+        <v>13</v>
+      </c>
+      <c r="BD53">
+        <v>0</v>
+      </c>
+      <c r="BE53">
+        <v>0</v>
+      </c>
+      <c r="BF53">
+        <v>0</v>
+      </c>
+      <c r="BG53">
+        <v>0</v>
+      </c>
+      <c r="BH53">
+        <v>0</v>
+      </c>
+      <c r="BI53">
+        <v>0</v>
+      </c>
+      <c r="BJ53">
+        <v>0</v>
+      </c>
+      <c r="BK53">
+        <v>0</v>
+      </c>
+      <c r="BL53">
+        <v>0</v>
+      </c>
+      <c r="BM53">
+        <v>0</v>
+      </c>
+      <c r="BN53">
+        <v>0</v>
+      </c>
+      <c r="BO53">
+        <v>0</v>
+      </c>
+      <c r="BP53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:68">
+      <c r="A54" s="1">
+        <v>53</v>
+      </c>
+      <c r="B54">
+        <v>7487386</v>
+      </c>
+      <c r="C54" t="s">
+        <v>68</v>
+      </c>
+      <c r="D54" t="s">
+        <v>69</v>
+      </c>
+      <c r="E54" s="2">
+        <v>45583.63541666666</v>
+      </c>
+      <c r="F54">
+        <v>11</v>
+      </c>
+      <c r="G54" t="s">
+        <v>71</v>
+      </c>
+      <c r="H54" t="s">
+        <v>72</v>
+      </c>
+      <c r="I54">
+        <v>0</v>
+      </c>
+      <c r="J54">
+        <v>3</v>
+      </c>
+      <c r="K54">
+        <v>3</v>
+      </c>
+      <c r="L54">
+        <v>0</v>
+      </c>
+      <c r="M54">
+        <v>3</v>
+      </c>
+      <c r="N54">
+        <v>3</v>
+      </c>
+      <c r="O54" t="s">
+        <v>84</v>
+      </c>
+      <c r="P54" t="s">
+        <v>159</v>
+      </c>
+      <c r="Q54">
+        <v>3.4</v>
+      </c>
+      <c r="R54">
+        <v>2.1</v>
+      </c>
+      <c r="S54">
+        <v>3</v>
+      </c>
+      <c r="T54">
+        <v>1.32</v>
+      </c>
+      <c r="U54">
+        <v>3.2</v>
+      </c>
+      <c r="V54">
+        <v>2.5</v>
+      </c>
+      <c r="W54">
+        <v>1.48</v>
+      </c>
+      <c r="X54">
+        <v>5.95</v>
+      </c>
+      <c r="Y54">
+        <v>1.11</v>
+      </c>
+      <c r="Z54">
+        <v>2.4</v>
+      </c>
+      <c r="AA54">
+        <v>3.4</v>
+      </c>
+      <c r="AB54">
+        <v>2.7</v>
+      </c>
+      <c r="AC54">
+        <v>1.01</v>
+      </c>
+      <c r="AD54">
+        <v>11</v>
+      </c>
+      <c r="AE54">
+        <v>1.22</v>
+      </c>
+      <c r="AF54">
+        <v>4</v>
+      </c>
+      <c r="AG54">
+        <v>1.71</v>
+      </c>
+      <c r="AH54">
+        <v>2.07</v>
+      </c>
+      <c r="AI54">
+        <v>1.73</v>
+      </c>
+      <c r="AJ54">
+        <v>2</v>
+      </c>
+      <c r="AK54">
+        <v>1.44</v>
+      </c>
+      <c r="AL54">
+        <v>1.25</v>
+      </c>
+      <c r="AM54">
+        <v>1.52</v>
+      </c>
+      <c r="AN54">
+        <v>0.4</v>
+      </c>
+      <c r="AO54">
+        <v>2</v>
+      </c>
+      <c r="AP54">
+        <v>0.33</v>
+      </c>
+      <c r="AQ54">
+        <v>2.2</v>
+      </c>
+      <c r="AR54">
+        <v>1.69</v>
+      </c>
+      <c r="AS54">
+        <v>1.68</v>
+      </c>
+      <c r="AT54">
+        <v>3.37</v>
+      </c>
+      <c r="AU54">
+        <v>3</v>
+      </c>
+      <c r="AV54">
+        <v>12</v>
+      </c>
+      <c r="AW54">
+        <v>4</v>
+      </c>
+      <c r="AX54">
+        <v>5</v>
+      </c>
+      <c r="AY54">
+        <v>8</v>
+      </c>
+      <c r="AZ54">
+        <v>18</v>
+      </c>
+      <c r="BA54">
+        <v>2</v>
+      </c>
+      <c r="BB54">
+        <v>4</v>
+      </c>
+      <c r="BC54">
+        <v>6</v>
+      </c>
+      <c r="BD54">
+        <v>0</v>
+      </c>
+      <c r="BE54">
+        <v>0</v>
+      </c>
+      <c r="BF54">
+        <v>0</v>
+      </c>
+      <c r="BG54">
+        <v>0</v>
+      </c>
+      <c r="BH54">
+        <v>0</v>
+      </c>
+      <c r="BI54">
+        <v>0</v>
+      </c>
+      <c r="BJ54">
+        <v>0</v>
+      </c>
+      <c r="BK54">
+        <v>2.25</v>
+      </c>
+      <c r="BL54">
+        <v>0</v>
+      </c>
+      <c r="BM54">
+        <v>0</v>
+      </c>
+      <c r="BN54">
+        <v>0</v>
+      </c>
+      <c r="BO54">
+        <v>0</v>
+      </c>
+      <c r="BP54">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Switzerland Challenge League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Switzerland Challenge League_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="162">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -373,6 +373,9 @@
     <t>['72', '77', '90+2']</t>
   </si>
   <si>
+    <t>['56', '90+6']</t>
+  </si>
+  <si>
     <t>['25', '90+2']</t>
   </si>
   <si>
@@ -494,6 +497,9 @@
   </si>
   <si>
     <t>['13', '37', '43']</t>
+  </si>
+  <si>
+    <t>['44']</t>
   </si>
 </sst>
 </file>
@@ -855,7 +861,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP54"/>
+  <dimension ref="A1:BP56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1114,7 +1120,7 @@
         <v>80</v>
       </c>
       <c r="P2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="Q2">
         <v>2.75</v>
@@ -1320,7 +1326,7 @@
         <v>81</v>
       </c>
       <c r="P3" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="Q3">
         <v>2.63</v>
@@ -1526,7 +1532,7 @@
         <v>82</v>
       </c>
       <c r="P4" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="Q4">
         <v>3.75</v>
@@ -1607,7 +1613,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ4">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -1732,7 +1738,7 @@
         <v>83</v>
       </c>
       <c r="P5" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="Q5">
         <v>3.6</v>
@@ -2016,7 +2022,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AQ6">
         <v>0.8</v>
@@ -2144,7 +2150,7 @@
         <v>84</v>
       </c>
       <c r="P7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Q7">
         <v>2.63</v>
@@ -2222,7 +2228,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AQ7">
         <v>1.8</v>
@@ -2350,7 +2356,7 @@
         <v>85</v>
       </c>
       <c r="P8" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="Q8">
         <v>2.63</v>
@@ -2431,7 +2437,7 @@
         <v>1</v>
       </c>
       <c r="AQ8">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -2556,7 +2562,7 @@
         <v>86</v>
       </c>
       <c r="P9" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="Q9">
         <v>3</v>
@@ -2762,7 +2768,7 @@
         <v>87</v>
       </c>
       <c r="P10" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="Q10">
         <v>2.3</v>
@@ -3174,7 +3180,7 @@
         <v>84</v>
       </c>
       <c r="P12" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="Q12">
         <v>2.88</v>
@@ -3380,7 +3386,7 @@
         <v>89</v>
       </c>
       <c r="P13" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="Q13">
         <v>2.2</v>
@@ -3586,7 +3592,7 @@
         <v>90</v>
       </c>
       <c r="P14" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="Q14">
         <v>3</v>
@@ -3792,7 +3798,7 @@
         <v>91</v>
       </c>
       <c r="P15" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="Q15">
         <v>3</v>
@@ -3998,7 +4004,7 @@
         <v>92</v>
       </c>
       <c r="P16" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Q16">
         <v>2.75</v>
@@ -4076,7 +4082,7 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AQ16">
         <v>0.67</v>
@@ -4204,7 +4210,7 @@
         <v>93</v>
       </c>
       <c r="P17" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Q17">
         <v>2.38</v>
@@ -4282,7 +4288,7 @@
         <v>1</v>
       </c>
       <c r="AP17">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AQ17">
         <v>2.2</v>
@@ -4410,7 +4416,7 @@
         <v>84</v>
       </c>
       <c r="P18" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Q18">
         <v>3.1</v>
@@ -4491,7 +4497,7 @@
         <v>2.4</v>
       </c>
       <c r="AQ18">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="AR18">
         <v>1.54</v>
@@ -4616,7 +4622,7 @@
         <v>94</v>
       </c>
       <c r="P19" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="Q19">
         <v>2.3</v>
@@ -4697,7 +4703,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ19">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AR19">
         <v>1.52</v>
@@ -4822,7 +4828,7 @@
         <v>84</v>
       </c>
       <c r="P20" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="Q20">
         <v>2.3</v>
@@ -5028,7 +5034,7 @@
         <v>95</v>
       </c>
       <c r="P21" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Q21">
         <v>2.88</v>
@@ -5440,7 +5446,7 @@
         <v>97</v>
       </c>
       <c r="P23" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="Q23">
         <v>2.88</v>
@@ -5852,7 +5858,7 @@
         <v>98</v>
       </c>
       <c r="P25" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Q25">
         <v>2.63</v>
@@ -5930,7 +5936,7 @@
         <v>0.5</v>
       </c>
       <c r="AP25">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AQ25">
         <v>0.83</v>
@@ -6058,7 +6064,7 @@
         <v>99</v>
       </c>
       <c r="P26" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="Q26">
         <v>2.2</v>
@@ -6264,7 +6270,7 @@
         <v>100</v>
       </c>
       <c r="P27" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q27">
         <v>2.5</v>
@@ -6470,7 +6476,7 @@
         <v>84</v>
       </c>
       <c r="P28" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="Q28">
         <v>3</v>
@@ -6676,7 +6682,7 @@
         <v>101</v>
       </c>
       <c r="P29" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="Q29">
         <v>2.88</v>
@@ -6882,7 +6888,7 @@
         <v>102</v>
       </c>
       <c r="P30" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="Q30">
         <v>3.75</v>
@@ -6963,7 +6969,7 @@
         <v>0.33</v>
       </c>
       <c r="AQ30">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="AR30">
         <v>1.62</v>
@@ -7088,7 +7094,7 @@
         <v>103</v>
       </c>
       <c r="P31" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="Q31">
         <v>3</v>
@@ -7169,7 +7175,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ31">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AR31">
         <v>1.17</v>
@@ -7294,7 +7300,7 @@
         <v>104</v>
       </c>
       <c r="P32" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Q32">
         <v>3.2</v>
@@ -7578,7 +7584,7 @@
         <v>0</v>
       </c>
       <c r="AP33">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AQ33">
         <v>0.67</v>
@@ -7706,7 +7712,7 @@
         <v>105</v>
       </c>
       <c r="P34" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Q34">
         <v>3.2</v>
@@ -7912,7 +7918,7 @@
         <v>106</v>
       </c>
       <c r="P35" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q35">
         <v>2.5</v>
@@ -7990,7 +7996,7 @@
         <v>1</v>
       </c>
       <c r="AP35">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AQ35">
         <v>2.2</v>
@@ -8118,7 +8124,7 @@
         <v>107</v>
       </c>
       <c r="P36" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q36">
         <v>2.2</v>
@@ -8199,7 +8205,7 @@
         <v>2</v>
       </c>
       <c r="AQ36">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AR36">
         <v>1.63</v>
@@ -8324,7 +8330,7 @@
         <v>108</v>
       </c>
       <c r="P37" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="Q37">
         <v>2.3</v>
@@ -8611,7 +8617,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ38">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="AR38">
         <v>2.02</v>
@@ -8736,7 +8742,7 @@
         <v>109</v>
       </c>
       <c r="P39" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Q39">
         <v>2.5</v>
@@ -8942,7 +8948,7 @@
         <v>110</v>
       </c>
       <c r="P40" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Q40">
         <v>2.88</v>
@@ -9354,7 +9360,7 @@
         <v>84</v>
       </c>
       <c r="P42" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Q42">
         <v>3</v>
@@ -9560,7 +9566,7 @@
         <v>112</v>
       </c>
       <c r="P43" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Q43">
         <v>3</v>
@@ -9638,7 +9644,7 @@
         <v>1.75</v>
       </c>
       <c r="AP43">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AQ43">
         <v>1.67</v>
@@ -9766,7 +9772,7 @@
         <v>95</v>
       </c>
       <c r="P44" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q44">
         <v>3</v>
@@ -10178,7 +10184,7 @@
         <v>114</v>
       </c>
       <c r="P46" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Q46">
         <v>2.75</v>
@@ -10256,10 +10262,10 @@
         <v>1.75</v>
       </c>
       <c r="AP46">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AQ46">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AR46">
         <v>2</v>
@@ -10384,7 +10390,7 @@
         <v>115</v>
       </c>
       <c r="P47" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q47">
         <v>2.4</v>
@@ -10671,7 +10677,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ48">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="AR48">
         <v>1.41</v>
@@ -10796,7 +10802,7 @@
         <v>116</v>
       </c>
       <c r="P49" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q49">
         <v>2.5</v>
@@ -11208,7 +11214,7 @@
         <v>117</v>
       </c>
       <c r="P51" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q51">
         <v>2.75</v>
@@ -11414,7 +11420,7 @@
         <v>84</v>
       </c>
       <c r="P52" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q52">
         <v>2.63</v>
@@ -11620,7 +11626,7 @@
         <v>118</v>
       </c>
       <c r="P53" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q53">
         <v>3.25</v>
@@ -11826,7 +11832,7 @@
         <v>84</v>
       </c>
       <c r="P54" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q54">
         <v>3.4</v>
@@ -11983,6 +11989,418 @@
       </c>
       <c r="BP54">
         <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:68">
+      <c r="A55" s="1">
+        <v>54</v>
+      </c>
+      <c r="B55">
+        <v>7487387</v>
+      </c>
+      <c r="C55" t="s">
+        <v>68</v>
+      </c>
+      <c r="D55" t="s">
+        <v>69</v>
+      </c>
+      <c r="E55" s="2">
+        <v>45584.54166666666</v>
+      </c>
+      <c r="F55">
+        <v>11</v>
+      </c>
+      <c r="G55" t="s">
+        <v>75</v>
+      </c>
+      <c r="H55" t="s">
+        <v>73</v>
+      </c>
+      <c r="I55">
+        <v>1</v>
+      </c>
+      <c r="J55">
+        <v>1</v>
+      </c>
+      <c r="K55">
+        <v>2</v>
+      </c>
+      <c r="L55">
+        <v>1</v>
+      </c>
+      <c r="M55">
+        <v>1</v>
+      </c>
+      <c r="N55">
+        <v>2</v>
+      </c>
+      <c r="O55" t="s">
+        <v>104</v>
+      </c>
+      <c r="P55" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q55">
+        <v>2.5</v>
+      </c>
+      <c r="R55">
+        <v>2.2</v>
+      </c>
+      <c r="S55">
+        <v>3.75</v>
+      </c>
+      <c r="T55">
+        <v>1.33</v>
+      </c>
+      <c r="U55">
+        <v>3.25</v>
+      </c>
+      <c r="V55">
+        <v>2.63</v>
+      </c>
+      <c r="W55">
+        <v>1.44</v>
+      </c>
+      <c r="X55">
+        <v>6</v>
+      </c>
+      <c r="Y55">
+        <v>1.11</v>
+      </c>
+      <c r="Z55">
+        <v>1.95</v>
+      </c>
+      <c r="AA55">
+        <v>3.4</v>
+      </c>
+      <c r="AB55">
+        <v>3.35</v>
+      </c>
+      <c r="AC55">
+        <v>1.01</v>
+      </c>
+      <c r="AD55">
+        <v>11.5</v>
+      </c>
+      <c r="AE55">
+        <v>1.18</v>
+      </c>
+      <c r="AF55">
+        <v>3.68</v>
+      </c>
+      <c r="AG55">
+        <v>1.73</v>
+      </c>
+      <c r="AH55">
+        <v>2</v>
+      </c>
+      <c r="AI55">
+        <v>1.67</v>
+      </c>
+      <c r="AJ55">
+        <v>2.1</v>
+      </c>
+      <c r="AK55">
+        <v>1.3</v>
+      </c>
+      <c r="AL55">
+        <v>1.22</v>
+      </c>
+      <c r="AM55">
+        <v>1.75</v>
+      </c>
+      <c r="AN55">
+        <v>1.25</v>
+      </c>
+      <c r="AO55">
+        <v>1.4</v>
+      </c>
+      <c r="AP55">
+        <v>1.2</v>
+      </c>
+      <c r="AQ55">
+        <v>1.33</v>
+      </c>
+      <c r="AR55">
+        <v>1.41</v>
+      </c>
+      <c r="AS55">
+        <v>1.68</v>
+      </c>
+      <c r="AT55">
+        <v>3.09</v>
+      </c>
+      <c r="AU55">
+        <v>5</v>
+      </c>
+      <c r="AV55">
+        <v>6</v>
+      </c>
+      <c r="AW55">
+        <v>3</v>
+      </c>
+      <c r="AX55">
+        <v>3</v>
+      </c>
+      <c r="AY55">
+        <v>11</v>
+      </c>
+      <c r="AZ55">
+        <v>13</v>
+      </c>
+      <c r="BA55">
+        <v>5</v>
+      </c>
+      <c r="BB55">
+        <v>8</v>
+      </c>
+      <c r="BC55">
+        <v>13</v>
+      </c>
+      <c r="BD55">
+        <v>1.61</v>
+      </c>
+      <c r="BE55">
+        <v>7.8</v>
+      </c>
+      <c r="BF55">
+        <v>2.71</v>
+      </c>
+      <c r="BG55">
+        <v>1.4</v>
+      </c>
+      <c r="BH55">
+        <v>2.48</v>
+      </c>
+      <c r="BI55">
+        <v>1.77</v>
+      </c>
+      <c r="BJ55">
+        <v>1.9</v>
+      </c>
+      <c r="BK55">
+        <v>2.24</v>
+      </c>
+      <c r="BL55">
+        <v>1.49</v>
+      </c>
+      <c r="BM55">
+        <v>3.08</v>
+      </c>
+      <c r="BN55">
+        <v>1.26</v>
+      </c>
+      <c r="BO55">
+        <v>4</v>
+      </c>
+      <c r="BP55">
+        <v>1.19</v>
+      </c>
+    </row>
+    <row r="56" spans="1:68">
+      <c r="A56" s="1">
+        <v>55</v>
+      </c>
+      <c r="B56">
+        <v>7487389</v>
+      </c>
+      <c r="C56" t="s">
+        <v>68</v>
+      </c>
+      <c r="D56" t="s">
+        <v>69</v>
+      </c>
+      <c r="E56" s="2">
+        <v>45584.54166666666</v>
+      </c>
+      <c r="F56">
+        <v>11</v>
+      </c>
+      <c r="G56" t="s">
+        <v>74</v>
+      </c>
+      <c r="H56" t="s">
+        <v>79</v>
+      </c>
+      <c r="I56">
+        <v>0</v>
+      </c>
+      <c r="J56">
+        <v>0</v>
+      </c>
+      <c r="K56">
+        <v>0</v>
+      </c>
+      <c r="L56">
+        <v>2</v>
+      </c>
+      <c r="M56">
+        <v>0</v>
+      </c>
+      <c r="N56">
+        <v>2</v>
+      </c>
+      <c r="O56" t="s">
+        <v>119</v>
+      </c>
+      <c r="P56" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q56">
+        <v>3.6</v>
+      </c>
+      <c r="R56">
+        <v>2.38</v>
+      </c>
+      <c r="S56">
+        <v>2.5</v>
+      </c>
+      <c r="T56">
+        <v>1.29</v>
+      </c>
+      <c r="U56">
+        <v>3.5</v>
+      </c>
+      <c r="V56">
+        <v>2.25</v>
+      </c>
+      <c r="W56">
+        <v>1.57</v>
+      </c>
+      <c r="X56">
+        <v>5</v>
+      </c>
+      <c r="Y56">
+        <v>1.14</v>
+      </c>
+      <c r="Z56">
+        <v>3.35</v>
+      </c>
+      <c r="AA56">
+        <v>3.55</v>
+      </c>
+      <c r="AB56">
+        <v>1.95</v>
+      </c>
+      <c r="AC56">
+        <v>1.02</v>
+      </c>
+      <c r="AD56">
+        <v>13.3</v>
+      </c>
+      <c r="AE56">
+        <v>2.95</v>
+      </c>
+      <c r="AF56">
+        <v>1.32</v>
+      </c>
+      <c r="AG56">
+        <v>1.55</v>
+      </c>
+      <c r="AH56">
+        <v>2.3</v>
+      </c>
+      <c r="AI56">
+        <v>1.53</v>
+      </c>
+      <c r="AJ56">
+        <v>2.38</v>
+      </c>
+      <c r="AK56">
+        <v>1.78</v>
+      </c>
+      <c r="AL56">
+        <v>1.2</v>
+      </c>
+      <c r="AM56">
+        <v>1.3</v>
+      </c>
+      <c r="AN56">
+        <v>2</v>
+      </c>
+      <c r="AO56">
+        <v>1.8</v>
+      </c>
+      <c r="AP56">
+        <v>2.17</v>
+      </c>
+      <c r="AQ56">
+        <v>1.5</v>
+      </c>
+      <c r="AR56">
+        <v>1.95</v>
+      </c>
+      <c r="AS56">
+        <v>1.72</v>
+      </c>
+      <c r="AT56">
+        <v>3.67</v>
+      </c>
+      <c r="AU56">
+        <v>6</v>
+      </c>
+      <c r="AV56">
+        <v>2</v>
+      </c>
+      <c r="AW56">
+        <v>3</v>
+      </c>
+      <c r="AX56">
+        <v>10</v>
+      </c>
+      <c r="AY56">
+        <v>12</v>
+      </c>
+      <c r="AZ56">
+        <v>19</v>
+      </c>
+      <c r="BA56">
+        <v>5</v>
+      </c>
+      <c r="BB56">
+        <v>10</v>
+      </c>
+      <c r="BC56">
+        <v>15</v>
+      </c>
+      <c r="BD56">
+        <v>2.72</v>
+      </c>
+      <c r="BE56">
+        <v>8.5</v>
+      </c>
+      <c r="BF56">
+        <v>1.58</v>
+      </c>
+      <c r="BG56">
+        <v>1.2</v>
+      </c>
+      <c r="BH56">
+        <v>3.52</v>
+      </c>
+      <c r="BI56">
+        <v>1.4</v>
+      </c>
+      <c r="BJ56">
+        <v>2.48</v>
+      </c>
+      <c r="BK56">
+        <v>1.75</v>
+      </c>
+      <c r="BL56">
+        <v>1.92</v>
+      </c>
+      <c r="BM56">
+        <v>2.18</v>
+      </c>
+      <c r="BN56">
+        <v>1.52</v>
+      </c>
+      <c r="BO56">
+        <v>2.92</v>
+      </c>
+      <c r="BP56">
+        <v>1.29</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Switzerland Challenge League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Switzerland Challenge League_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="163">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -376,6 +376,9 @@
     <t>['56', '90+6']</t>
   </si>
   <si>
+    <t>['75']</t>
+  </si>
+  <si>
     <t>['25', '90+2']</t>
   </si>
   <si>
@@ -445,9 +448,6 @@
     <t>['21', '33', '65']</t>
   </si>
   <si>
-    <t>['75']</t>
-  </si>
-  <si>
     <t>['36', '90']</t>
   </si>
   <si>
@@ -500,6 +500,9 @@
   </si>
   <si>
     <t>['44']</t>
+  </si>
+  <si>
+    <t>['90+4']</t>
   </si>
 </sst>
 </file>
@@ -861,7 +864,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP56"/>
+  <dimension ref="A1:BP58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1120,7 +1123,7 @@
         <v>80</v>
       </c>
       <c r="P2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="Q2">
         <v>2.75</v>
@@ -1201,7 +1204,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ2">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1326,7 +1329,7 @@
         <v>81</v>
       </c>
       <c r="P3" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="Q3">
         <v>2.63</v>
@@ -1532,7 +1535,7 @@
         <v>82</v>
       </c>
       <c r="P4" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="Q4">
         <v>3.75</v>
@@ -1610,7 +1613,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AQ4">
         <v>1.5</v>
@@ -1738,7 +1741,7 @@
         <v>83</v>
       </c>
       <c r="P5" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Q5">
         <v>3.6</v>
@@ -2025,7 +2028,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ6">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2150,7 +2153,7 @@
         <v>84</v>
       </c>
       <c r="P7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="Q7">
         <v>2.63</v>
@@ -2356,7 +2359,7 @@
         <v>85</v>
       </c>
       <c r="P8" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="Q8">
         <v>2.63</v>
@@ -2562,7 +2565,7 @@
         <v>86</v>
       </c>
       <c r="P9" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="Q9">
         <v>3</v>
@@ -2640,7 +2643,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>2.4</v>
+        <v>2.17</v>
       </c>
       <c r="AQ9">
         <v>1.2</v>
@@ -2768,7 +2771,7 @@
         <v>87</v>
       </c>
       <c r="P10" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="Q10">
         <v>2.3</v>
@@ -3180,7 +3183,7 @@
         <v>84</v>
       </c>
       <c r="P12" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="Q12">
         <v>2.88</v>
@@ -3386,7 +3389,7 @@
         <v>89</v>
       </c>
       <c r="P13" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="Q13">
         <v>2.2</v>
@@ -3467,7 +3470,7 @@
         <v>2</v>
       </c>
       <c r="AQ13">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AR13">
         <v>1.92</v>
@@ -3592,7 +3595,7 @@
         <v>90</v>
       </c>
       <c r="P14" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="Q14">
         <v>3</v>
@@ -3670,7 +3673,7 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AQ14">
         <v>1.2</v>
@@ -3798,7 +3801,7 @@
         <v>91</v>
       </c>
       <c r="P15" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Q15">
         <v>3</v>
@@ -4004,7 +4007,7 @@
         <v>92</v>
       </c>
       <c r="P16" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Q16">
         <v>2.75</v>
@@ -4210,7 +4213,7 @@
         <v>93</v>
       </c>
       <c r="P17" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Q17">
         <v>2.38</v>
@@ -4416,7 +4419,7 @@
         <v>84</v>
       </c>
       <c r="P18" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="Q18">
         <v>3.1</v>
@@ -4494,7 +4497,7 @@
         <v>3</v>
       </c>
       <c r="AP18">
-        <v>2.4</v>
+        <v>2.17</v>
       </c>
       <c r="AQ18">
         <v>1.5</v>
@@ -4622,7 +4625,7 @@
         <v>94</v>
       </c>
       <c r="P19" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="Q19">
         <v>2.3</v>
@@ -4828,7 +4831,7 @@
         <v>84</v>
       </c>
       <c r="P20" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Q20">
         <v>2.3</v>
@@ -4909,7 +4912,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ20">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AR20">
         <v>1.99</v>
@@ -5034,7 +5037,7 @@
         <v>95</v>
       </c>
       <c r="P21" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="Q21">
         <v>2.88</v>
@@ -5446,7 +5449,7 @@
         <v>97</v>
       </c>
       <c r="P23" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Q23">
         <v>2.88</v>
@@ -5730,7 +5733,7 @@
         <v>2</v>
       </c>
       <c r="AP24">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AQ24">
         <v>1.67</v>
@@ -5858,7 +5861,7 @@
         <v>98</v>
       </c>
       <c r="P25" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="Q25">
         <v>2.63</v>
@@ -5939,7 +5942,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ25">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AR25">
         <v>1.92</v>
@@ -6064,7 +6067,7 @@
         <v>99</v>
       </c>
       <c r="P26" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q26">
         <v>2.2</v>
@@ -6145,7 +6148,7 @@
         <v>2</v>
       </c>
       <c r="AQ26">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AR26">
         <v>1.45</v>
@@ -6270,7 +6273,7 @@
         <v>100</v>
       </c>
       <c r="P27" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="Q27">
         <v>2.5</v>
@@ -6476,7 +6479,7 @@
         <v>84</v>
       </c>
       <c r="P28" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="Q28">
         <v>3</v>
@@ -6557,7 +6560,7 @@
         <v>1</v>
       </c>
       <c r="AQ28">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AR28">
         <v>1.43</v>
@@ -6682,7 +6685,7 @@
         <v>101</v>
       </c>
       <c r="P29" t="s">
-        <v>143</v>
+        <v>120</v>
       </c>
       <c r="Q29">
         <v>2.88</v>
@@ -6760,7 +6763,7 @@
         <v>0</v>
       </c>
       <c r="AP29">
-        <v>2.4</v>
+        <v>2.17</v>
       </c>
       <c r="AQ29">
         <v>0.67</v>
@@ -7172,7 +7175,7 @@
         <v>0.5</v>
       </c>
       <c r="AP31">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AQ31">
         <v>1.33</v>
@@ -8411,7 +8414,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ37">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AR37">
         <v>1.5</v>
@@ -8820,7 +8823,7 @@
         <v>2</v>
       </c>
       <c r="AP39">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AQ39">
         <v>1.8</v>
@@ -9029,7 +9032,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ40">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AR40">
         <v>1.35</v>
@@ -9232,7 +9235,7 @@
         <v>0.33</v>
       </c>
       <c r="AP41">
-        <v>2.4</v>
+        <v>2.17</v>
       </c>
       <c r="AQ41">
         <v>0.4</v>
@@ -10880,10 +10883,10 @@
         <v>1</v>
       </c>
       <c r="AP49">
-        <v>2.4</v>
+        <v>2.17</v>
       </c>
       <c r="AQ49">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AR49">
         <v>1.57</v>
@@ -11086,7 +11089,7 @@
         <v>0.25</v>
       </c>
       <c r="AP50">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AQ50">
         <v>0.4</v>
@@ -11295,7 +11298,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ51">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AR51">
         <v>1.86</v>
@@ -11626,7 +11629,7 @@
         <v>118</v>
       </c>
       <c r="P53" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="Q53">
         <v>3.25</v>
@@ -12401,6 +12404,418 @@
       </c>
       <c r="BP56">
         <v>1.29</v>
+      </c>
+    </row>
+    <row r="57" spans="1:68">
+      <c r="A57" s="1">
+        <v>56</v>
+      </c>
+      <c r="B57">
+        <v>7487392</v>
+      </c>
+      <c r="C57" t="s">
+        <v>68</v>
+      </c>
+      <c r="D57" t="s">
+        <v>69</v>
+      </c>
+      <c r="E57" s="2">
+        <v>45590.63541666666</v>
+      </c>
+      <c r="F57">
+        <v>12</v>
+      </c>
+      <c r="G57" t="s">
+        <v>77</v>
+      </c>
+      <c r="H57" t="s">
+        <v>75</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+      <c r="L57">
+        <v>1</v>
+      </c>
+      <c r="M57">
+        <v>1</v>
+      </c>
+      <c r="N57">
+        <v>2</v>
+      </c>
+      <c r="O57" t="s">
+        <v>120</v>
+      </c>
+      <c r="P57" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q57">
+        <v>2.5</v>
+      </c>
+      <c r="R57">
+        <v>2.25</v>
+      </c>
+      <c r="S57">
+        <v>3.75</v>
+      </c>
+      <c r="T57">
+        <v>1.32</v>
+      </c>
+      <c r="U57">
+        <v>3.2</v>
+      </c>
+      <c r="V57">
+        <v>2.48</v>
+      </c>
+      <c r="W57">
+        <v>1.5</v>
+      </c>
+      <c r="X57">
+        <v>5.9</v>
+      </c>
+      <c r="Y57">
+        <v>1.11</v>
+      </c>
+      <c r="Z57">
+        <v>1.95</v>
+      </c>
+      <c r="AA57">
+        <v>3.5</v>
+      </c>
+      <c r="AB57">
+        <v>3.6</v>
+      </c>
+      <c r="AC57">
+        <v>1.01</v>
+      </c>
+      <c r="AD57">
+        <v>11</v>
+      </c>
+      <c r="AE57">
+        <v>1.17</v>
+      </c>
+      <c r="AF57">
+        <v>3.82</v>
+      </c>
+      <c r="AG57">
+        <v>1.7</v>
+      </c>
+      <c r="AH57">
+        <v>2.1</v>
+      </c>
+      <c r="AI57">
+        <v>1.62</v>
+      </c>
+      <c r="AJ57">
+        <v>2.2</v>
+      </c>
+      <c r="AK57">
+        <v>1.27</v>
+      </c>
+      <c r="AL57">
+        <v>1.24</v>
+      </c>
+      <c r="AM57">
+        <v>1.74</v>
+      </c>
+      <c r="AN57">
+        <v>2.4</v>
+      </c>
+      <c r="AO57">
+        <v>0.83</v>
+      </c>
+      <c r="AP57">
+        <v>2.17</v>
+      </c>
+      <c r="AQ57">
+        <v>0.86</v>
+      </c>
+      <c r="AR57">
+        <v>1.74</v>
+      </c>
+      <c r="AS57">
+        <v>1.7</v>
+      </c>
+      <c r="AT57">
+        <v>3.44</v>
+      </c>
+      <c r="AU57">
+        <v>5</v>
+      </c>
+      <c r="AV57">
+        <v>4</v>
+      </c>
+      <c r="AW57">
+        <v>15</v>
+      </c>
+      <c r="AX57">
+        <v>4</v>
+      </c>
+      <c r="AY57">
+        <v>23</v>
+      </c>
+      <c r="AZ57">
+        <v>10</v>
+      </c>
+      <c r="BA57">
+        <v>7</v>
+      </c>
+      <c r="BB57">
+        <v>2</v>
+      </c>
+      <c r="BC57">
+        <v>9</v>
+      </c>
+      <c r="BD57">
+        <v>1.57</v>
+      </c>
+      <c r="BE57">
+        <v>7.8</v>
+      </c>
+      <c r="BF57">
+        <v>2.83</v>
+      </c>
+      <c r="BG57">
+        <v>1.56</v>
+      </c>
+      <c r="BH57">
+        <v>2.37</v>
+      </c>
+      <c r="BI57">
+        <v>1.96</v>
+      </c>
+      <c r="BJ57">
+        <v>1.83</v>
+      </c>
+      <c r="BK57">
+        <v>2.54</v>
+      </c>
+      <c r="BL57">
+        <v>1.49</v>
+      </c>
+      <c r="BM57">
+        <v>3.35</v>
+      </c>
+      <c r="BN57">
+        <v>1.22</v>
+      </c>
+      <c r="BO57">
+        <v>0</v>
+      </c>
+      <c r="BP57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:68">
+      <c r="A58" s="1">
+        <v>57</v>
+      </c>
+      <c r="B58">
+        <v>7487390</v>
+      </c>
+      <c r="C58" t="s">
+        <v>68</v>
+      </c>
+      <c r="D58" t="s">
+        <v>69</v>
+      </c>
+      <c r="E58" s="2">
+        <v>45590.63541666666</v>
+      </c>
+      <c r="F58">
+        <v>12</v>
+      </c>
+      <c r="G58" t="s">
+        <v>72</v>
+      </c>
+      <c r="H58" t="s">
+        <v>76</v>
+      </c>
+      <c r="I58">
+        <v>0</v>
+      </c>
+      <c r="J58">
+        <v>0</v>
+      </c>
+      <c r="K58">
+        <v>0</v>
+      </c>
+      <c r="L58">
+        <v>1</v>
+      </c>
+      <c r="M58">
+        <v>0</v>
+      </c>
+      <c r="N58">
+        <v>1</v>
+      </c>
+      <c r="O58" t="s">
+        <v>113</v>
+      </c>
+      <c r="P58" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q58">
+        <v>2.2</v>
+      </c>
+      <c r="R58">
+        <v>2.4</v>
+      </c>
+      <c r="S58">
+        <v>4</v>
+      </c>
+      <c r="T58">
+        <v>1.26</v>
+      </c>
+      <c r="U58">
+        <v>3.62</v>
+      </c>
+      <c r="V58">
+        <v>2.21</v>
+      </c>
+      <c r="W58">
+        <v>1.61</v>
+      </c>
+      <c r="X58">
+        <v>4.95</v>
+      </c>
+      <c r="Y58">
+        <v>1.15</v>
+      </c>
+      <c r="Z58">
+        <v>1.7</v>
+      </c>
+      <c r="AA58">
+        <v>4.1</v>
+      </c>
+      <c r="AB58">
+        <v>4.2</v>
+      </c>
+      <c r="AC58">
+        <v>1.01</v>
+      </c>
+      <c r="AD58">
+        <v>13</v>
+      </c>
+      <c r="AE58">
+        <v>1.11</v>
+      </c>
+      <c r="AF58">
+        <v>4.6</v>
+      </c>
+      <c r="AG58">
+        <v>1.53</v>
+      </c>
+      <c r="AH58">
+        <v>2.38</v>
+      </c>
+      <c r="AI58">
+        <v>1.57</v>
+      </c>
+      <c r="AJ58">
+        <v>2.25</v>
+      </c>
+      <c r="AK58">
+        <v>1.14</v>
+      </c>
+      <c r="AL58">
+        <v>1.17</v>
+      </c>
+      <c r="AM58">
+        <v>2.25</v>
+      </c>
+      <c r="AN58">
+        <v>0.67</v>
+      </c>
+      <c r="AO58">
+        <v>0.8</v>
+      </c>
+      <c r="AP58">
+        <v>1</v>
+      </c>
+      <c r="AQ58">
+        <v>0.67</v>
+      </c>
+      <c r="AR58">
+        <v>1.33</v>
+      </c>
+      <c r="AS58">
+        <v>1.57</v>
+      </c>
+      <c r="AT58">
+        <v>2.9</v>
+      </c>
+      <c r="AU58">
+        <v>9</v>
+      </c>
+      <c r="AV58">
+        <v>4</v>
+      </c>
+      <c r="AW58">
+        <v>15</v>
+      </c>
+      <c r="AX58">
+        <v>9</v>
+      </c>
+      <c r="AY58">
+        <v>26</v>
+      </c>
+      <c r="AZ58">
+        <v>14</v>
+      </c>
+      <c r="BA58">
+        <v>7</v>
+      </c>
+      <c r="BB58">
+        <v>3</v>
+      </c>
+      <c r="BC58">
+        <v>10</v>
+      </c>
+      <c r="BD58">
+        <v>1.53</v>
+      </c>
+      <c r="BE58">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="BF58">
+        <v>2.85</v>
+      </c>
+      <c r="BG58">
+        <v>0</v>
+      </c>
+      <c r="BH58">
+        <v>0</v>
+      </c>
+      <c r="BI58">
+        <v>1.31</v>
+      </c>
+      <c r="BJ58">
+        <v>2.82</v>
+      </c>
+      <c r="BK58">
+        <v>2</v>
+      </c>
+      <c r="BL58">
+        <v>2.24</v>
+      </c>
+      <c r="BM58">
+        <v>2.01</v>
+      </c>
+      <c r="BN58">
+        <v>1.79</v>
+      </c>
+      <c r="BO58">
+        <v>2.51</v>
+      </c>
+      <c r="BP58">
+        <v>1.39</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Switzerland Challenge League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Switzerland Challenge League_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="164">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -503,6 +503,9 @@
   </si>
   <si>
     <t>['90+4']</t>
+  </si>
+  <si>
+    <t>['8', '81']</t>
   </si>
 </sst>
 </file>
@@ -864,7 +867,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP58"/>
+  <dimension ref="A1:BP59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1819,7 +1822,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>2.2</v>
+        <v>1.83</v>
       </c>
       <c r="AQ5">
         <v>0.67</v>
@@ -2646,7 +2649,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ9">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -3676,7 +3679,7 @@
         <v>1</v>
       </c>
       <c r="AQ14">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AR14">
         <v>1.19</v>
@@ -3879,7 +3882,7 @@
         <v>3</v>
       </c>
       <c r="AP15">
-        <v>2.2</v>
+        <v>1.83</v>
       </c>
       <c r="AQ15">
         <v>1.67</v>
@@ -5324,7 +5327,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ22">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AR22">
         <v>1.91</v>
@@ -5527,7 +5530,7 @@
         <v>3</v>
       </c>
       <c r="AP23">
-        <v>2.2</v>
+        <v>1.83</v>
       </c>
       <c r="AQ23">
         <v>1.8</v>
@@ -7384,7 +7387,7 @@
         <v>0.33</v>
       </c>
       <c r="AQ32">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AR32">
         <v>1.52</v>
@@ -9029,7 +9032,7 @@
         <v>1</v>
       </c>
       <c r="AP40">
-        <v>2.2</v>
+        <v>1.83</v>
       </c>
       <c r="AQ40">
         <v>0.86</v>
@@ -10062,7 +10065,7 @@
         <v>2</v>
       </c>
       <c r="AQ45">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AR45">
         <v>1.73</v>
@@ -10677,7 +10680,7 @@
         <v>2</v>
       </c>
       <c r="AP48">
-        <v>2.2</v>
+        <v>1.83</v>
       </c>
       <c r="AQ48">
         <v>1.5</v>
@@ -12816,6 +12819,212 @@
       </c>
       <c r="BP58">
         <v>1.39</v>
+      </c>
+    </row>
+    <row r="59" spans="1:68">
+      <c r="A59" s="1">
+        <v>58</v>
+      </c>
+      <c r="B59">
+        <v>7487391</v>
+      </c>
+      <c r="C59" t="s">
+        <v>68</v>
+      </c>
+      <c r="D59" t="s">
+        <v>69</v>
+      </c>
+      <c r="E59" s="2">
+        <v>45591.54166666666</v>
+      </c>
+      <c r="F59">
+        <v>12</v>
+      </c>
+      <c r="G59" t="s">
+        <v>73</v>
+      </c>
+      <c r="H59" t="s">
+        <v>70</v>
+      </c>
+      <c r="I59">
+        <v>0</v>
+      </c>
+      <c r="J59">
+        <v>1</v>
+      </c>
+      <c r="K59">
+        <v>1</v>
+      </c>
+      <c r="L59">
+        <v>0</v>
+      </c>
+      <c r="M59">
+        <v>2</v>
+      </c>
+      <c r="N59">
+        <v>2</v>
+      </c>
+      <c r="O59" t="s">
+        <v>84</v>
+      </c>
+      <c r="P59" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q59">
+        <v>2.63</v>
+      </c>
+      <c r="R59">
+        <v>2.25</v>
+      </c>
+      <c r="S59">
+        <v>3.5</v>
+      </c>
+      <c r="T59">
+        <v>1.32</v>
+      </c>
+      <c r="U59">
+        <v>3.2</v>
+      </c>
+      <c r="V59">
+        <v>2.51</v>
+      </c>
+      <c r="W59">
+        <v>1.49</v>
+      </c>
+      <c r="X59">
+        <v>5.95</v>
+      </c>
+      <c r="Y59">
+        <v>1.11</v>
+      </c>
+      <c r="Z59">
+        <v>2.05</v>
+      </c>
+      <c r="AA59">
+        <v>3.7</v>
+      </c>
+      <c r="AB59">
+        <v>3.1</v>
+      </c>
+      <c r="AC59">
+        <v>1.01</v>
+      </c>
+      <c r="AD59">
+        <v>11</v>
+      </c>
+      <c r="AE59">
+        <v>1.17</v>
+      </c>
+      <c r="AF59">
+        <v>3.78</v>
+      </c>
+      <c r="AG59">
+        <v>1.7</v>
+      </c>
+      <c r="AH59">
+        <v>2.1</v>
+      </c>
+      <c r="AI59">
+        <v>1.62</v>
+      </c>
+      <c r="AJ59">
+        <v>2.2</v>
+      </c>
+      <c r="AK59">
+        <v>1.43</v>
+      </c>
+      <c r="AL59">
+        <v>1.25</v>
+      </c>
+      <c r="AM59">
+        <v>1.49</v>
+      </c>
+      <c r="AN59">
+        <v>2.2</v>
+      </c>
+      <c r="AO59">
+        <v>1.2</v>
+      </c>
+      <c r="AP59">
+        <v>1.83</v>
+      </c>
+      <c r="AQ59">
+        <v>1.5</v>
+      </c>
+      <c r="AR59">
+        <v>1.44</v>
+      </c>
+      <c r="AS59">
+        <v>1.75</v>
+      </c>
+      <c r="AT59">
+        <v>3.19</v>
+      </c>
+      <c r="AU59">
+        <v>4</v>
+      </c>
+      <c r="AV59">
+        <v>9</v>
+      </c>
+      <c r="AW59">
+        <v>3</v>
+      </c>
+      <c r="AX59">
+        <v>2</v>
+      </c>
+      <c r="AY59">
+        <v>7</v>
+      </c>
+      <c r="AZ59">
+        <v>11</v>
+      </c>
+      <c r="BA59">
+        <v>2</v>
+      </c>
+      <c r="BB59">
+        <v>5</v>
+      </c>
+      <c r="BC59">
+        <v>7</v>
+      </c>
+      <c r="BD59">
+        <v>1.7</v>
+      </c>
+      <c r="BE59">
+        <v>6.3</v>
+      </c>
+      <c r="BF59">
+        <v>2.7</v>
+      </c>
+      <c r="BG59">
+        <v>1.28</v>
+      </c>
+      <c r="BH59">
+        <v>2.97</v>
+      </c>
+      <c r="BI59">
+        <v>1.53</v>
+      </c>
+      <c r="BJ59">
+        <v>2.15</v>
+      </c>
+      <c r="BK59">
+        <v>1.97</v>
+      </c>
+      <c r="BL59">
+        <v>1.71</v>
+      </c>
+      <c r="BM59">
+        <v>2.54</v>
+      </c>
+      <c r="BN59">
+        <v>1.38</v>
+      </c>
+      <c r="BO59">
+        <v>3.44</v>
+      </c>
+      <c r="BP59">
+        <v>1.21</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Switzerland Challenge League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Switzerland Challenge League_20242025.xlsx
@@ -12967,13 +12967,13 @@
         <v>9</v>
       </c>
       <c r="AW59">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AX59">
         <v>2</v>
       </c>
       <c r="AY59">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AZ59">
         <v>11</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Switzerland Challenge League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Switzerland Challenge League_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="166">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -379,6 +379,9 @@
     <t>['75']</t>
   </si>
   <si>
+    <t>['44', '53', '58']</t>
+  </si>
+  <si>
     <t>['25', '90+2']</t>
   </si>
   <si>
@@ -506,6 +509,9 @@
   </si>
   <si>
     <t>['8', '81']</t>
+  </si>
+  <si>
+    <t>['61']</t>
   </si>
 </sst>
 </file>
@@ -867,7 +873,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP59"/>
+  <dimension ref="A1:BP61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1126,7 +1132,7 @@
         <v>80</v>
       </c>
       <c r="P2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="Q2">
         <v>2.75</v>
@@ -1332,7 +1338,7 @@
         <v>81</v>
       </c>
       <c r="P3" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="Q3">
         <v>2.63</v>
@@ -1538,7 +1544,7 @@
         <v>82</v>
       </c>
       <c r="P4" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Q4">
         <v>3.75</v>
@@ -1744,7 +1750,7 @@
         <v>83</v>
       </c>
       <c r="P5" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="Q5">
         <v>3.6</v>
@@ -2156,7 +2162,7 @@
         <v>84</v>
       </c>
       <c r="P7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="Q7">
         <v>2.63</v>
@@ -2237,7 +2243,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ7">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2362,7 +2368,7 @@
         <v>85</v>
       </c>
       <c r="P8" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="Q8">
         <v>2.63</v>
@@ -2568,7 +2574,7 @@
         <v>86</v>
       </c>
       <c r="P9" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="Q9">
         <v>3</v>
@@ -2774,7 +2780,7 @@
         <v>87</v>
       </c>
       <c r="P10" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="Q10">
         <v>2.3</v>
@@ -2852,7 +2858,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="AQ10">
         <v>2.2</v>
@@ -3058,10 +3064,10 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AQ11">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3186,7 +3192,7 @@
         <v>84</v>
       </c>
       <c r="P12" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="Q12">
         <v>2.88</v>
@@ -3267,7 +3273,7 @@
         <v>1</v>
       </c>
       <c r="AQ12">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="AR12">
         <v>1.34</v>
@@ -3392,7 +3398,7 @@
         <v>89</v>
       </c>
       <c r="P13" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="Q13">
         <v>2.2</v>
@@ -3470,7 +3476,7 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AQ13">
         <v>0.86</v>
@@ -3598,7 +3604,7 @@
         <v>90</v>
       </c>
       <c r="P14" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Q14">
         <v>3</v>
@@ -3804,7 +3810,7 @@
         <v>91</v>
       </c>
       <c r="P15" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Q15">
         <v>3</v>
@@ -4010,7 +4016,7 @@
         <v>92</v>
       </c>
       <c r="P16" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Q16">
         <v>2.75</v>
@@ -4216,7 +4222,7 @@
         <v>93</v>
       </c>
       <c r="P17" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="Q17">
         <v>2.38</v>
@@ -4422,7 +4428,7 @@
         <v>84</v>
       </c>
       <c r="P18" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="Q18">
         <v>3.1</v>
@@ -4628,7 +4634,7 @@
         <v>94</v>
       </c>
       <c r="P19" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Q19">
         <v>2.3</v>
@@ -4834,7 +4840,7 @@
         <v>84</v>
       </c>
       <c r="P20" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="Q20">
         <v>2.3</v>
@@ -4912,7 +4918,7 @@
         <v>1</v>
       </c>
       <c r="AP20">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="AQ20">
         <v>0.67</v>
@@ -5040,7 +5046,7 @@
         <v>95</v>
       </c>
       <c r="P21" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Q21">
         <v>2.88</v>
@@ -5121,7 +5127,7 @@
         <v>0.33</v>
       </c>
       <c r="AQ21">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="AR21">
         <v>1.63</v>
@@ -5324,7 +5330,7 @@
         <v>1.5</v>
       </c>
       <c r="AP22">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="AQ22">
         <v>1.5</v>
@@ -5452,7 +5458,7 @@
         <v>97</v>
       </c>
       <c r="P23" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="Q23">
         <v>2.88</v>
@@ -5533,7 +5539,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ23">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="AR23">
         <v>1.3</v>
@@ -5864,7 +5870,7 @@
         <v>98</v>
       </c>
       <c r="P25" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q25">
         <v>2.63</v>
@@ -6070,7 +6076,7 @@
         <v>99</v>
       </c>
       <c r="P26" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="Q26">
         <v>2.2</v>
@@ -6148,7 +6154,7 @@
         <v>2</v>
       </c>
       <c r="AP26">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AQ26">
         <v>0.67</v>
@@ -6276,7 +6282,7 @@
         <v>100</v>
       </c>
       <c r="P27" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="Q27">
         <v>2.5</v>
@@ -6357,7 +6363,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ27">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="AR27">
         <v>1.47</v>
@@ -6482,7 +6488,7 @@
         <v>84</v>
       </c>
       <c r="P28" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="Q28">
         <v>3</v>
@@ -6894,7 +6900,7 @@
         <v>102</v>
       </c>
       <c r="P30" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="Q30">
         <v>3.75</v>
@@ -7100,7 +7106,7 @@
         <v>103</v>
       </c>
       <c r="P31" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Q31">
         <v>3</v>
@@ -7306,7 +7312,7 @@
         <v>104</v>
       </c>
       <c r="P32" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Q32">
         <v>3.2</v>
@@ -7718,7 +7724,7 @@
         <v>105</v>
       </c>
       <c r="P34" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q34">
         <v>3.2</v>
@@ -7924,7 +7930,7 @@
         <v>106</v>
       </c>
       <c r="P35" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q35">
         <v>2.5</v>
@@ -8130,7 +8136,7 @@
         <v>107</v>
       </c>
       <c r="P36" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Q36">
         <v>2.2</v>
@@ -8208,7 +8214,7 @@
         <v>1.33</v>
       </c>
       <c r="AP36">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AQ36">
         <v>1.33</v>
@@ -8336,7 +8342,7 @@
         <v>108</v>
       </c>
       <c r="P37" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Q37">
         <v>2.3</v>
@@ -8620,7 +8626,7 @@
         <v>2.33</v>
       </c>
       <c r="AP38">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="AQ38">
         <v>1.5</v>
@@ -8748,7 +8754,7 @@
         <v>109</v>
       </c>
       <c r="P39" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Q39">
         <v>2.5</v>
@@ -8829,7 +8835,7 @@
         <v>1</v>
       </c>
       <c r="AQ39">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="AR39">
         <v>1.16</v>
@@ -8954,7 +8960,7 @@
         <v>110</v>
       </c>
       <c r="P40" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Q40">
         <v>2.88</v>
@@ -9241,7 +9247,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ41">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="AR41">
         <v>1.58</v>
@@ -9366,7 +9372,7 @@
         <v>84</v>
       </c>
       <c r="P42" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Q42">
         <v>3</v>
@@ -9572,7 +9578,7 @@
         <v>112</v>
       </c>
       <c r="P43" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q43">
         <v>3</v>
@@ -9778,7 +9784,7 @@
         <v>95</v>
       </c>
       <c r="P44" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Q44">
         <v>3</v>
@@ -10062,7 +10068,7 @@
         <v>1.5</v>
       </c>
       <c r="AP45">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AQ45">
         <v>1.5</v>
@@ -10190,7 +10196,7 @@
         <v>114</v>
       </c>
       <c r="P46" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q46">
         <v>2.75</v>
@@ -10396,7 +10402,7 @@
         <v>115</v>
       </c>
       <c r="P47" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q47">
         <v>2.4</v>
@@ -10477,7 +10483,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ47">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="AR47">
         <v>1.79</v>
@@ -10808,7 +10814,7 @@
         <v>116</v>
       </c>
       <c r="P49" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q49">
         <v>2.5</v>
@@ -11095,7 +11101,7 @@
         <v>1</v>
       </c>
       <c r="AQ50">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="AR50">
         <v>1.24</v>
@@ -11220,7 +11226,7 @@
         <v>117</v>
       </c>
       <c r="P51" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q51">
         <v>2.75</v>
@@ -11298,7 +11304,7 @@
         <v>0.8</v>
       </c>
       <c r="AP51">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="AQ51">
         <v>0.86</v>
@@ -11426,7 +11432,7 @@
         <v>84</v>
       </c>
       <c r="P52" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q52">
         <v>2.63</v>
@@ -11632,7 +11638,7 @@
         <v>118</v>
       </c>
       <c r="P53" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="Q53">
         <v>3.25</v>
@@ -11838,7 +11844,7 @@
         <v>84</v>
       </c>
       <c r="P54" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q54">
         <v>3.4</v>
@@ -12044,7 +12050,7 @@
         <v>104</v>
       </c>
       <c r="P55" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q55">
         <v>2.5</v>
@@ -12456,7 +12462,7 @@
         <v>120</v>
       </c>
       <c r="P57" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q57">
         <v>2.5</v>
@@ -12868,7 +12874,7 @@
         <v>84</v>
       </c>
       <c r="P59" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q59">
         <v>2.63</v>
@@ -13025,6 +13031,418 @@
       </c>
       <c r="BP59">
         <v>1.21</v>
+      </c>
+    </row>
+    <row r="60" spans="1:68">
+      <c r="A60" s="1">
+        <v>59</v>
+      </c>
+      <c r="B60">
+        <v>7487394</v>
+      </c>
+      <c r="C60" t="s">
+        <v>68</v>
+      </c>
+      <c r="D60" t="s">
+        <v>69</v>
+      </c>
+      <c r="E60" s="2">
+        <v>45592.42708333334</v>
+      </c>
+      <c r="F60">
+        <v>12</v>
+      </c>
+      <c r="G60" t="s">
+        <v>78</v>
+      </c>
+      <c r="H60" t="s">
+        <v>74</v>
+      </c>
+      <c r="I60">
+        <v>0</v>
+      </c>
+      <c r="J60">
+        <v>0</v>
+      </c>
+      <c r="K60">
+        <v>0</v>
+      </c>
+      <c r="L60">
+        <v>0</v>
+      </c>
+      <c r="M60">
+        <v>0</v>
+      </c>
+      <c r="N60">
+        <v>0</v>
+      </c>
+      <c r="O60" t="s">
+        <v>84</v>
+      </c>
+      <c r="P60" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q60">
+        <v>2.5</v>
+      </c>
+      <c r="R60">
+        <v>2.3</v>
+      </c>
+      <c r="S60">
+        <v>3.6</v>
+      </c>
+      <c r="T60">
+        <v>1.3</v>
+      </c>
+      <c r="U60">
+        <v>3.4</v>
+      </c>
+      <c r="V60">
+        <v>2.38</v>
+      </c>
+      <c r="W60">
+        <v>1.53</v>
+      </c>
+      <c r="X60">
+        <v>5</v>
+      </c>
+      <c r="Y60">
+        <v>1.14</v>
+      </c>
+      <c r="Z60">
+        <v>1.9</v>
+      </c>
+      <c r="AA60">
+        <v>3.8</v>
+      </c>
+      <c r="AB60">
+        <v>3.5</v>
+      </c>
+      <c r="AC60">
+        <v>1.01</v>
+      </c>
+      <c r="AD60">
+        <v>13</v>
+      </c>
+      <c r="AE60">
+        <v>1.18</v>
+      </c>
+      <c r="AF60">
+        <v>4.5</v>
+      </c>
+      <c r="AG60">
+        <v>1.57</v>
+      </c>
+      <c r="AH60">
+        <v>2.35</v>
+      </c>
+      <c r="AI60">
+        <v>1.53</v>
+      </c>
+      <c r="AJ60">
+        <v>2.38</v>
+      </c>
+      <c r="AK60">
+        <v>1.3</v>
+      </c>
+      <c r="AL60">
+        <v>1.22</v>
+      </c>
+      <c r="AM60">
+        <v>1.75</v>
+      </c>
+      <c r="AN60">
+        <v>1.2</v>
+      </c>
+      <c r="AO60">
+        <v>0.4</v>
+      </c>
+      <c r="AP60">
+        <v>1.17</v>
+      </c>
+      <c r="AQ60">
+        <v>0.5</v>
+      </c>
+      <c r="AR60">
+        <v>1.75</v>
+      </c>
+      <c r="AS60">
+        <v>1.18</v>
+      </c>
+      <c r="AT60">
+        <v>2.93</v>
+      </c>
+      <c r="AU60">
+        <v>10</v>
+      </c>
+      <c r="AV60">
+        <v>2</v>
+      </c>
+      <c r="AW60">
+        <v>7</v>
+      </c>
+      <c r="AX60">
+        <v>8</v>
+      </c>
+      <c r="AY60">
+        <v>21</v>
+      </c>
+      <c r="AZ60">
+        <v>12</v>
+      </c>
+      <c r="BA60">
+        <v>6</v>
+      </c>
+      <c r="BB60">
+        <v>3</v>
+      </c>
+      <c r="BC60">
+        <v>9</v>
+      </c>
+      <c r="BD60">
+        <v>1.68</v>
+      </c>
+      <c r="BE60">
+        <v>7.8</v>
+      </c>
+      <c r="BF60">
+        <v>2.54</v>
+      </c>
+      <c r="BG60">
+        <v>1.39</v>
+      </c>
+      <c r="BH60">
+        <v>2.51</v>
+      </c>
+      <c r="BI60">
+        <v>1.75</v>
+      </c>
+      <c r="BJ60">
+        <v>1.92</v>
+      </c>
+      <c r="BK60">
+        <v>2.22</v>
+      </c>
+      <c r="BL60">
+        <v>1.5</v>
+      </c>
+      <c r="BM60">
+        <v>3.02</v>
+      </c>
+      <c r="BN60">
+        <v>1.27</v>
+      </c>
+      <c r="BO60">
+        <v>0</v>
+      </c>
+      <c r="BP60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:68">
+      <c r="A61" s="1">
+        <v>60</v>
+      </c>
+      <c r="B61">
+        <v>7487393</v>
+      </c>
+      <c r="C61" t="s">
+        <v>68</v>
+      </c>
+      <c r="D61" t="s">
+        <v>69</v>
+      </c>
+      <c r="E61" s="2">
+        <v>45592.52083333334</v>
+      </c>
+      <c r="F61">
+        <v>12</v>
+      </c>
+      <c r="G61" t="s">
+        <v>79</v>
+      </c>
+      <c r="H61" t="s">
+        <v>71</v>
+      </c>
+      <c r="I61">
+        <v>1</v>
+      </c>
+      <c r="J61">
+        <v>0</v>
+      </c>
+      <c r="K61">
+        <v>1</v>
+      </c>
+      <c r="L61">
+        <v>3</v>
+      </c>
+      <c r="M61">
+        <v>1</v>
+      </c>
+      <c r="N61">
+        <v>4</v>
+      </c>
+      <c r="O61" t="s">
+        <v>121</v>
+      </c>
+      <c r="P61" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q61">
+        <v>2</v>
+      </c>
+      <c r="R61">
+        <v>2.38</v>
+      </c>
+      <c r="S61">
+        <v>5.5</v>
+      </c>
+      <c r="T61">
+        <v>1.33</v>
+      </c>
+      <c r="U61">
+        <v>3.25</v>
+      </c>
+      <c r="V61">
+        <v>2.63</v>
+      </c>
+      <c r="W61">
+        <v>1.44</v>
+      </c>
+      <c r="X61">
+        <v>6</v>
+      </c>
+      <c r="Y61">
+        <v>1.11</v>
+      </c>
+      <c r="Z61">
+        <v>2</v>
+      </c>
+      <c r="AA61">
+        <v>3.51</v>
+      </c>
+      <c r="AB61">
+        <v>3.09</v>
+      </c>
+      <c r="AC61">
+        <v>1.01</v>
+      </c>
+      <c r="AD61">
+        <v>11</v>
+      </c>
+      <c r="AE61">
+        <v>1.22</v>
+      </c>
+      <c r="AF61">
+        <v>4</v>
+      </c>
+      <c r="AG61">
+        <v>1.71</v>
+      </c>
+      <c r="AH61">
+        <v>2.02</v>
+      </c>
+      <c r="AI61">
+        <v>1.83</v>
+      </c>
+      <c r="AJ61">
+        <v>1.83</v>
+      </c>
+      <c r="AK61">
+        <v>1.1</v>
+      </c>
+      <c r="AL61">
+        <v>1.17</v>
+      </c>
+      <c r="AM61">
+        <v>2.4</v>
+      </c>
+      <c r="AN61">
+        <v>2</v>
+      </c>
+      <c r="AO61">
+        <v>1.8</v>
+      </c>
+      <c r="AP61">
+        <v>2.17</v>
+      </c>
+      <c r="AQ61">
+        <v>1.5</v>
+      </c>
+      <c r="AR61">
+        <v>1.87</v>
+      </c>
+      <c r="AS61">
+        <v>1.37</v>
+      </c>
+      <c r="AT61">
+        <v>3.24</v>
+      </c>
+      <c r="AU61">
+        <v>10</v>
+      </c>
+      <c r="AV61">
+        <v>4</v>
+      </c>
+      <c r="AW61">
+        <v>4</v>
+      </c>
+      <c r="AX61">
+        <v>6</v>
+      </c>
+      <c r="AY61">
+        <v>14</v>
+      </c>
+      <c r="AZ61">
+        <v>10</v>
+      </c>
+      <c r="BA61">
+        <v>7</v>
+      </c>
+      <c r="BB61">
+        <v>4</v>
+      </c>
+      <c r="BC61">
+        <v>11</v>
+      </c>
+      <c r="BD61">
+        <v>1.28</v>
+      </c>
+      <c r="BE61">
+        <v>9.9</v>
+      </c>
+      <c r="BF61">
+        <v>4.25</v>
+      </c>
+      <c r="BG61">
+        <v>1.18</v>
+      </c>
+      <c r="BH61">
+        <v>4.1</v>
+      </c>
+      <c r="BI61">
+        <v>1.3</v>
+      </c>
+      <c r="BJ61">
+        <v>2.88</v>
+      </c>
+      <c r="BK61">
+        <v>2.1</v>
+      </c>
+      <c r="BL61">
+        <v>2.12</v>
+      </c>
+      <c r="BM61">
+        <v>1.97</v>
+      </c>
+      <c r="BN61">
+        <v>1.71</v>
+      </c>
+      <c r="BO61">
+        <v>2.48</v>
+      </c>
+      <c r="BP61">
+        <v>1.4</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Switzerland Challenge League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Switzerland Challenge League_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="174">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -382,6 +382,21 @@
     <t>['44', '53', '58']</t>
   </si>
   <si>
+    <t>['47']</t>
+  </si>
+  <si>
+    <t>['13', '36']</t>
+  </si>
+  <si>
+    <t>['24', '57']</t>
+  </si>
+  <si>
+    <t>['27', '44']</t>
+  </si>
+  <si>
+    <t>['89']</t>
+  </si>
+  <si>
     <t>['25', '90+2']</t>
   </si>
   <si>
@@ -512,6 +527,15 @@
   </si>
   <si>
     <t>['61']</t>
+  </si>
+  <si>
+    <t>['26', '69', '82', '90+1']</t>
+  </si>
+  <si>
+    <t>['45+2', '76']</t>
+  </si>
+  <si>
+    <t>['2', '35', '45', '50', '84', '90+1']</t>
   </si>
 </sst>
 </file>
@@ -873,7 +897,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP61"/>
+  <dimension ref="A1:BP66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1132,7 +1156,7 @@
         <v>80</v>
       </c>
       <c r="P2" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="Q2">
         <v>2.75</v>
@@ -1210,7 +1234,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>2.17</v>
+        <v>1.86</v>
       </c>
       <c r="AQ2">
         <v>0.86</v>
@@ -1338,7 +1362,7 @@
         <v>81</v>
       </c>
       <c r="P3" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="Q3">
         <v>2.63</v>
@@ -1416,7 +1440,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>0.33</v>
+        <v>0.71</v>
       </c>
       <c r="AQ3">
         <v>1.67</v>
@@ -1544,7 +1568,7 @@
         <v>82</v>
       </c>
       <c r="P4" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="Q4">
         <v>3.75</v>
@@ -1625,7 +1649,7 @@
         <v>1</v>
       </c>
       <c r="AQ4">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -1750,7 +1774,7 @@
         <v>83</v>
       </c>
       <c r="P5" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="Q5">
         <v>3.6</v>
@@ -1831,7 +1855,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ5">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2162,7 +2186,7 @@
         <v>84</v>
       </c>
       <c r="P7" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="Q7">
         <v>2.63</v>
@@ -2240,7 +2264,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="AQ7">
         <v>1.5</v>
@@ -2368,7 +2392,7 @@
         <v>85</v>
       </c>
       <c r="P8" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="Q8">
         <v>2.63</v>
@@ -2446,10 +2470,10 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AQ8">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -2574,7 +2598,7 @@
         <v>86</v>
       </c>
       <c r="P9" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="Q9">
         <v>3</v>
@@ -2652,7 +2676,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AQ9">
         <v>1.5</v>
@@ -2780,7 +2804,7 @@
         <v>87</v>
       </c>
       <c r="P10" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="Q10">
         <v>2.3</v>
@@ -2861,7 +2885,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ10">
-        <v>2.2</v>
+        <v>1.83</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3067,7 +3091,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ11">
-        <v>0.5</v>
+        <v>0.57</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3192,7 +3216,7 @@
         <v>84</v>
       </c>
       <c r="P12" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="Q12">
         <v>2.88</v>
@@ -3270,7 +3294,7 @@
         <v>3</v>
       </c>
       <c r="AP12">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AQ12">
         <v>1.5</v>
@@ -3398,7 +3422,7 @@
         <v>89</v>
       </c>
       <c r="P13" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="Q13">
         <v>2.2</v>
@@ -3604,7 +3628,7 @@
         <v>90</v>
       </c>
       <c r="P14" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="Q14">
         <v>3</v>
@@ -3810,7 +3834,7 @@
         <v>91</v>
       </c>
       <c r="P15" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="Q15">
         <v>3</v>
@@ -4016,7 +4040,7 @@
         <v>92</v>
       </c>
       <c r="P16" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="Q16">
         <v>2.75</v>
@@ -4097,7 +4121,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ16">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AR16">
         <v>1.95</v>
@@ -4222,7 +4246,7 @@
         <v>93</v>
       </c>
       <c r="P17" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="Q17">
         <v>2.38</v>
@@ -4300,10 +4324,10 @@
         <v>1</v>
       </c>
       <c r="AP17">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="AQ17">
-        <v>2.2</v>
+        <v>1.83</v>
       </c>
       <c r="AR17">
         <v>1.81</v>
@@ -4428,7 +4452,7 @@
         <v>84</v>
       </c>
       <c r="P18" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="Q18">
         <v>3.1</v>
@@ -4506,10 +4530,10 @@
         <v>3</v>
       </c>
       <c r="AP18">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AQ18">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AR18">
         <v>1.54</v>
@@ -4634,7 +4658,7 @@
         <v>94</v>
       </c>
       <c r="P19" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="Q19">
         <v>2.3</v>
@@ -4712,10 +4736,10 @@
         <v>0</v>
       </c>
       <c r="AP19">
-        <v>2.17</v>
+        <v>1.86</v>
       </c>
       <c r="AQ19">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AR19">
         <v>1.52</v>
@@ -4840,7 +4864,7 @@
         <v>84</v>
       </c>
       <c r="P20" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="Q20">
         <v>2.3</v>
@@ -5046,7 +5070,7 @@
         <v>95</v>
       </c>
       <c r="P21" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="Q21">
         <v>2.88</v>
@@ -5124,10 +5148,10 @@
         <v>0</v>
       </c>
       <c r="AP21">
-        <v>0.33</v>
+        <v>0.71</v>
       </c>
       <c r="AQ21">
-        <v>0.5</v>
+        <v>0.57</v>
       </c>
       <c r="AR21">
         <v>1.63</v>
@@ -5458,7 +5482,7 @@
         <v>97</v>
       </c>
       <c r="P23" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="Q23">
         <v>2.88</v>
@@ -5870,7 +5894,7 @@
         <v>98</v>
       </c>
       <c r="P25" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="Q25">
         <v>2.63</v>
@@ -6076,7 +6100,7 @@
         <v>99</v>
       </c>
       <c r="P26" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="Q26">
         <v>2.2</v>
@@ -6282,7 +6306,7 @@
         <v>100</v>
       </c>
       <c r="P27" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="Q27">
         <v>2.5</v>
@@ -6360,10 +6384,10 @@
         <v>0.5</v>
       </c>
       <c r="AP27">
-        <v>2.17</v>
+        <v>1.86</v>
       </c>
       <c r="AQ27">
-        <v>0.5</v>
+        <v>0.57</v>
       </c>
       <c r="AR27">
         <v>1.47</v>
@@ -6488,7 +6512,7 @@
         <v>84</v>
       </c>
       <c r="P28" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="Q28">
         <v>3</v>
@@ -6566,7 +6590,7 @@
         <v>0.33</v>
       </c>
       <c r="AP28">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AQ28">
         <v>0.86</v>
@@ -6772,10 +6796,10 @@
         <v>0</v>
       </c>
       <c r="AP29">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AQ29">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AR29">
         <v>1.46</v>
@@ -6900,7 +6924,7 @@
         <v>102</v>
       </c>
       <c r="P30" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="Q30">
         <v>3.75</v>
@@ -6978,10 +7002,10 @@
         <v>3</v>
       </c>
       <c r="AP30">
-        <v>0.33</v>
+        <v>0.71</v>
       </c>
       <c r="AQ30">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AR30">
         <v>1.62</v>
@@ -7106,7 +7130,7 @@
         <v>103</v>
       </c>
       <c r="P31" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="Q31">
         <v>3</v>
@@ -7187,7 +7211,7 @@
         <v>1</v>
       </c>
       <c r="AQ31">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AR31">
         <v>1.17</v>
@@ -7312,7 +7336,7 @@
         <v>104</v>
       </c>
       <c r="P32" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="Q32">
         <v>3.2</v>
@@ -7390,7 +7414,7 @@
         <v>1</v>
       </c>
       <c r="AP32">
-        <v>0.33</v>
+        <v>0.71</v>
       </c>
       <c r="AQ32">
         <v>1.5</v>
@@ -7596,10 +7620,10 @@
         <v>0</v>
       </c>
       <c r="AP33">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="AQ33">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AR33">
         <v>1.43</v>
@@ -7724,7 +7748,7 @@
         <v>105</v>
       </c>
       <c r="P34" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="Q34">
         <v>3.2</v>
@@ -7802,7 +7826,7 @@
         <v>1.33</v>
       </c>
       <c r="AP34">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AQ34">
         <v>1.67</v>
@@ -7930,7 +7954,7 @@
         <v>106</v>
       </c>
       <c r="P35" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="Q35">
         <v>2.5</v>
@@ -8011,7 +8035,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ35">
-        <v>2.2</v>
+        <v>1.83</v>
       </c>
       <c r="AR35">
         <v>2.16</v>
@@ -8136,7 +8160,7 @@
         <v>107</v>
       </c>
       <c r="P36" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="Q36">
         <v>2.2</v>
@@ -8217,7 +8241,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ36">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AR36">
         <v>1.63</v>
@@ -8342,7 +8366,7 @@
         <v>108</v>
       </c>
       <c r="P37" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="Q37">
         <v>2.3</v>
@@ -8420,7 +8444,7 @@
         <v>1.33</v>
       </c>
       <c r="AP37">
-        <v>2.17</v>
+        <v>1.86</v>
       </c>
       <c r="AQ37">
         <v>0.67</v>
@@ -8629,7 +8653,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ38">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AR38">
         <v>2.02</v>
@@ -8754,7 +8778,7 @@
         <v>109</v>
       </c>
       <c r="P39" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="Q39">
         <v>2.5</v>
@@ -8960,7 +8984,7 @@
         <v>110</v>
       </c>
       <c r="P40" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="Q40">
         <v>2.88</v>
@@ -9244,10 +9268,10 @@
         <v>0.33</v>
       </c>
       <c r="AP41">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AQ41">
-        <v>0.5</v>
+        <v>0.57</v>
       </c>
       <c r="AR41">
         <v>1.58</v>
@@ -9372,7 +9396,7 @@
         <v>84</v>
       </c>
       <c r="P42" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="Q42">
         <v>3</v>
@@ -9450,10 +9474,10 @@
         <v>0.25</v>
       </c>
       <c r="AP42">
-        <v>0.33</v>
+        <v>0.71</v>
       </c>
       <c r="AQ42">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AR42">
         <v>1.64</v>
@@ -9578,7 +9602,7 @@
         <v>112</v>
       </c>
       <c r="P43" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="Q43">
         <v>3</v>
@@ -9656,7 +9680,7 @@
         <v>1.75</v>
       </c>
       <c r="AP43">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="AQ43">
         <v>1.67</v>
@@ -9784,7 +9808,7 @@
         <v>95</v>
       </c>
       <c r="P44" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="Q44">
         <v>3</v>
@@ -9862,10 +9886,10 @@
         <v>1.67</v>
       </c>
       <c r="AP44">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AQ44">
-        <v>2.2</v>
+        <v>1.83</v>
       </c>
       <c r="AR44">
         <v>1.41</v>
@@ -10196,7 +10220,7 @@
         <v>114</v>
       </c>
       <c r="P46" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="Q46">
         <v>2.75</v>
@@ -10277,7 +10301,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ46">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AR46">
         <v>2</v>
@@ -10402,7 +10426,7 @@
         <v>115</v>
       </c>
       <c r="P47" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="Q47">
         <v>2.4</v>
@@ -10480,7 +10504,7 @@
         <v>2.25</v>
       </c>
       <c r="AP47">
-        <v>2.17</v>
+        <v>1.86</v>
       </c>
       <c r="AQ47">
         <v>1.5</v>
@@ -10689,7 +10713,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ48">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AR48">
         <v>1.41</v>
@@ -10814,7 +10838,7 @@
         <v>116</v>
       </c>
       <c r="P49" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="Q49">
         <v>2.5</v>
@@ -10892,7 +10916,7 @@
         <v>1</v>
       </c>
       <c r="AP49">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AQ49">
         <v>0.67</v>
@@ -11101,7 +11125,7 @@
         <v>1</v>
       </c>
       <c r="AQ50">
-        <v>0.5</v>
+        <v>0.57</v>
       </c>
       <c r="AR50">
         <v>1.24</v>
@@ -11226,7 +11250,7 @@
         <v>117</v>
       </c>
       <c r="P51" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="Q51">
         <v>2.75</v>
@@ -11432,7 +11456,7 @@
         <v>84</v>
       </c>
       <c r="P52" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="Q52">
         <v>2.63</v>
@@ -11510,7 +11534,7 @@
         <v>1.4</v>
       </c>
       <c r="AP52">
-        <v>2.17</v>
+        <v>1.86</v>
       </c>
       <c r="AQ52">
         <v>1.67</v>
@@ -11638,7 +11662,7 @@
         <v>118</v>
       </c>
       <c r="P53" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="Q53">
         <v>3.25</v>
@@ -11716,10 +11740,10 @@
         <v>0.8</v>
       </c>
       <c r="AP53">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AQ53">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AR53">
         <v>1.54</v>
@@ -11844,7 +11868,7 @@
         <v>84</v>
       </c>
       <c r="P54" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="Q54">
         <v>3.4</v>
@@ -11922,10 +11946,10 @@
         <v>2</v>
       </c>
       <c r="AP54">
-        <v>0.33</v>
+        <v>0.71</v>
       </c>
       <c r="AQ54">
-        <v>2.2</v>
+        <v>1.83</v>
       </c>
       <c r="AR54">
         <v>1.69</v>
@@ -12050,7 +12074,7 @@
         <v>104</v>
       </c>
       <c r="P55" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="Q55">
         <v>2.5</v>
@@ -12128,10 +12152,10 @@
         <v>1.4</v>
       </c>
       <c r="AP55">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="AQ55">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AR55">
         <v>1.41</v>
@@ -12337,7 +12361,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ56">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AR56">
         <v>1.95</v>
@@ -12462,7 +12486,7 @@
         <v>120</v>
       </c>
       <c r="P57" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="Q57">
         <v>2.5</v>
@@ -12540,7 +12564,7 @@
         <v>0.83</v>
       </c>
       <c r="AP57">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AQ57">
         <v>0.86</v>
@@ -12874,7 +12898,7 @@
         <v>84</v>
       </c>
       <c r="P59" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="Q59">
         <v>2.63</v>
@@ -13161,7 +13185,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ60">
-        <v>0.5</v>
+        <v>0.57</v>
       </c>
       <c r="AR60">
         <v>1.75</v>
@@ -13286,7 +13310,7 @@
         <v>121</v>
       </c>
       <c r="P61" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="Q61">
         <v>2</v>
@@ -13443,6 +13467,1036 @@
       </c>
       <c r="BP61">
         <v>1.4</v>
+      </c>
+    </row>
+    <row r="62" spans="1:68">
+      <c r="A62" s="1">
+        <v>61</v>
+      </c>
+      <c r="B62">
+        <v>7487396</v>
+      </c>
+      <c r="C62" t="s">
+        <v>68</v>
+      </c>
+      <c r="D62" t="s">
+        <v>69</v>
+      </c>
+      <c r="E62" s="2">
+        <v>45597.64583333334</v>
+      </c>
+      <c r="F62">
+        <v>13</v>
+      </c>
+      <c r="G62" t="s">
+        <v>70</v>
+      </c>
+      <c r="H62" t="s">
+        <v>78</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+      <c r="J62">
+        <v>1</v>
+      </c>
+      <c r="K62">
+        <v>1</v>
+      </c>
+      <c r="L62">
+        <v>1</v>
+      </c>
+      <c r="M62">
+        <v>4</v>
+      </c>
+      <c r="N62">
+        <v>5</v>
+      </c>
+      <c r="O62" t="s">
+        <v>122</v>
+      </c>
+      <c r="P62" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q62">
+        <v>2.5</v>
+      </c>
+      <c r="R62">
+        <v>2.25</v>
+      </c>
+      <c r="S62">
+        <v>3.6</v>
+      </c>
+      <c r="T62">
+        <v>1.3</v>
+      </c>
+      <c r="U62">
+        <v>3.32</v>
+      </c>
+      <c r="V62">
+        <v>2.4</v>
+      </c>
+      <c r="W62">
+        <v>1.53</v>
+      </c>
+      <c r="X62">
+        <v>5.55</v>
+      </c>
+      <c r="Y62">
+        <v>1.12</v>
+      </c>
+      <c r="Z62">
+        <v>2.1</v>
+      </c>
+      <c r="AA62">
+        <v>3.5</v>
+      </c>
+      <c r="AB62">
+        <v>2.8</v>
+      </c>
+      <c r="AC62">
+        <v>1.01</v>
+      </c>
+      <c r="AD62">
+        <v>11</v>
+      </c>
+      <c r="AE62">
+        <v>1.15</v>
+      </c>
+      <c r="AF62">
+        <v>4.05</v>
+      </c>
+      <c r="AG62">
+        <v>1.57</v>
+      </c>
+      <c r="AH62">
+        <v>2.15</v>
+      </c>
+      <c r="AI62">
+        <v>1.62</v>
+      </c>
+      <c r="AJ62">
+        <v>2.2</v>
+      </c>
+      <c r="AK62">
+        <v>1.34</v>
+      </c>
+      <c r="AL62">
+        <v>1.24</v>
+      </c>
+      <c r="AM62">
+        <v>1.62</v>
+      </c>
+      <c r="AN62">
+        <v>2.17</v>
+      </c>
+      <c r="AO62">
+        <v>0.67</v>
+      </c>
+      <c r="AP62">
+        <v>1.86</v>
+      </c>
+      <c r="AQ62">
+        <v>1</v>
+      </c>
+      <c r="AR62">
+        <v>1.61</v>
+      </c>
+      <c r="AS62">
+        <v>1.1</v>
+      </c>
+      <c r="AT62">
+        <v>2.71</v>
+      </c>
+      <c r="AU62">
+        <v>5</v>
+      </c>
+      <c r="AV62">
+        <v>9</v>
+      </c>
+      <c r="AW62">
+        <v>8</v>
+      </c>
+      <c r="AX62">
+        <v>7</v>
+      </c>
+      <c r="AY62">
+        <v>15</v>
+      </c>
+      <c r="AZ62">
+        <v>18</v>
+      </c>
+      <c r="BA62">
+        <v>2</v>
+      </c>
+      <c r="BB62">
+        <v>2</v>
+      </c>
+      <c r="BC62">
+        <v>4</v>
+      </c>
+      <c r="BD62">
+        <v>1.62</v>
+      </c>
+      <c r="BE62">
+        <v>6.65</v>
+      </c>
+      <c r="BF62">
+        <v>2.85</v>
+      </c>
+      <c r="BG62">
+        <v>1.46</v>
+      </c>
+      <c r="BH62">
+        <v>2.31</v>
+      </c>
+      <c r="BI62">
+        <v>1.86</v>
+      </c>
+      <c r="BJ62">
+        <v>1.8</v>
+      </c>
+      <c r="BK62">
+        <v>2.42</v>
+      </c>
+      <c r="BL62">
+        <v>1.42</v>
+      </c>
+      <c r="BM62">
+        <v>3.35</v>
+      </c>
+      <c r="BN62">
+        <v>1.22</v>
+      </c>
+      <c r="BO62">
+        <v>0</v>
+      </c>
+      <c r="BP62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:68">
+      <c r="A63" s="1">
+        <v>62</v>
+      </c>
+      <c r="B63">
+        <v>7487397</v>
+      </c>
+      <c r="C63" t="s">
+        <v>68</v>
+      </c>
+      <c r="D63" t="s">
+        <v>69</v>
+      </c>
+      <c r="E63" s="2">
+        <v>45597.64583333334</v>
+      </c>
+      <c r="F63">
+        <v>13</v>
+      </c>
+      <c r="G63" t="s">
+        <v>71</v>
+      </c>
+      <c r="H63" t="s">
+        <v>73</v>
+      </c>
+      <c r="I63">
+        <v>2</v>
+      </c>
+      <c r="J63">
+        <v>0</v>
+      </c>
+      <c r="K63">
+        <v>2</v>
+      </c>
+      <c r="L63">
+        <v>2</v>
+      </c>
+      <c r="M63">
+        <v>1</v>
+      </c>
+      <c r="N63">
+        <v>3</v>
+      </c>
+      <c r="O63" t="s">
+        <v>123</v>
+      </c>
+      <c r="P63" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q63">
+        <v>3.2</v>
+      </c>
+      <c r="R63">
+        <v>2.05</v>
+      </c>
+      <c r="S63">
+        <v>3.2</v>
+      </c>
+      <c r="T63">
+        <v>1.38</v>
+      </c>
+      <c r="U63">
+        <v>2.9</v>
+      </c>
+      <c r="V63">
+        <v>2.77</v>
+      </c>
+      <c r="W63">
+        <v>1.41</v>
+      </c>
+      <c r="X63">
+        <v>7</v>
+      </c>
+      <c r="Y63">
+        <v>1.08</v>
+      </c>
+      <c r="Z63">
+        <v>2.25</v>
+      </c>
+      <c r="AA63">
+        <v>3.25</v>
+      </c>
+      <c r="AB63">
+        <v>2.75</v>
+      </c>
+      <c r="AC63">
+        <v>1.03</v>
+      </c>
+      <c r="AD63">
+        <v>9</v>
+      </c>
+      <c r="AE63">
+        <v>1.24</v>
+      </c>
+      <c r="AF63">
+        <v>3.22</v>
+      </c>
+      <c r="AG63">
+        <v>1.75</v>
+      </c>
+      <c r="AH63">
+        <v>1.91</v>
+      </c>
+      <c r="AI63">
+        <v>1.8</v>
+      </c>
+      <c r="AJ63">
+        <v>1.91</v>
+      </c>
+      <c r="AK63">
+        <v>1.4</v>
+      </c>
+      <c r="AL63">
+        <v>1.27</v>
+      </c>
+      <c r="AM63">
+        <v>1.49</v>
+      </c>
+      <c r="AN63">
+        <v>0.33</v>
+      </c>
+      <c r="AO63">
+        <v>1.33</v>
+      </c>
+      <c r="AP63">
+        <v>0.71</v>
+      </c>
+      <c r="AQ63">
+        <v>1.14</v>
+      </c>
+      <c r="AR63">
+        <v>1.59</v>
+      </c>
+      <c r="AS63">
+        <v>1.68</v>
+      </c>
+      <c r="AT63">
+        <v>3.27</v>
+      </c>
+      <c r="AU63">
+        <v>8</v>
+      </c>
+      <c r="AV63">
+        <v>4</v>
+      </c>
+      <c r="AW63">
+        <v>5</v>
+      </c>
+      <c r="AX63">
+        <v>5</v>
+      </c>
+      <c r="AY63">
+        <v>14</v>
+      </c>
+      <c r="AZ63">
+        <v>15</v>
+      </c>
+      <c r="BA63">
+        <v>6</v>
+      </c>
+      <c r="BB63">
+        <v>8</v>
+      </c>
+      <c r="BC63">
+        <v>14</v>
+      </c>
+      <c r="BD63">
+        <v>1.97</v>
+      </c>
+      <c r="BE63">
+        <v>6.7</v>
+      </c>
+      <c r="BF63">
+        <v>2.17</v>
+      </c>
+      <c r="BG63">
+        <v>1.25</v>
+      </c>
+      <c r="BH63">
+        <v>3.14</v>
+      </c>
+      <c r="BI63">
+        <v>1.48</v>
+      </c>
+      <c r="BJ63">
+        <v>2.26</v>
+      </c>
+      <c r="BK63">
+        <v>1.88</v>
+      </c>
+      <c r="BL63">
+        <v>1.78</v>
+      </c>
+      <c r="BM63">
+        <v>2.39</v>
+      </c>
+      <c r="BN63">
+        <v>1.43</v>
+      </c>
+      <c r="BO63">
+        <v>3.28</v>
+      </c>
+      <c r="BP63">
+        <v>1.23</v>
+      </c>
+    </row>
+    <row r="64" spans="1:68">
+      <c r="A64" s="1">
+        <v>63</v>
+      </c>
+      <c r="B64">
+        <v>7487398</v>
+      </c>
+      <c r="C64" t="s">
+        <v>68</v>
+      </c>
+      <c r="D64" t="s">
+        <v>69</v>
+      </c>
+      <c r="E64" s="2">
+        <v>45597.64583333334</v>
+      </c>
+      <c r="F64">
+        <v>13</v>
+      </c>
+      <c r="G64" t="s">
+        <v>75</v>
+      </c>
+      <c r="H64" t="s">
+        <v>74</v>
+      </c>
+      <c r="I64">
+        <v>1</v>
+      </c>
+      <c r="J64">
+        <v>1</v>
+      </c>
+      <c r="K64">
+        <v>2</v>
+      </c>
+      <c r="L64">
+        <v>2</v>
+      </c>
+      <c r="M64">
+        <v>2</v>
+      </c>
+      <c r="N64">
+        <v>4</v>
+      </c>
+      <c r="O64" t="s">
+        <v>124</v>
+      </c>
+      <c r="P64" t="s">
+        <v>172</v>
+      </c>
+      <c r="Q64">
+        <v>2.4</v>
+      </c>
+      <c r="R64">
+        <v>2.4</v>
+      </c>
+      <c r="S64">
+        <v>3.6</v>
+      </c>
+      <c r="T64">
+        <v>1.25</v>
+      </c>
+      <c r="U64">
+        <v>3.7</v>
+      </c>
+      <c r="V64">
+        <v>2.17</v>
+      </c>
+      <c r="W64">
+        <v>1.64</v>
+      </c>
+      <c r="X64">
+        <v>4.8</v>
+      </c>
+      <c r="Y64">
+        <v>1.16</v>
+      </c>
+      <c r="Z64">
+        <v>2</v>
+      </c>
+      <c r="AA64">
+        <v>3.5</v>
+      </c>
+      <c r="AB64">
+        <v>3</v>
+      </c>
+      <c r="AC64">
+        <v>1.01</v>
+      </c>
+      <c r="AD64">
+        <v>13</v>
+      </c>
+      <c r="AE64">
+        <v>1.1</v>
+      </c>
+      <c r="AF64">
+        <v>4.8</v>
+      </c>
+      <c r="AG64">
+        <v>1.53</v>
+      </c>
+      <c r="AH64">
+        <v>2.43</v>
+      </c>
+      <c r="AI64">
+        <v>1.5</v>
+      </c>
+      <c r="AJ64">
+        <v>2.5</v>
+      </c>
+      <c r="AK64">
+        <v>1.32</v>
+      </c>
+      <c r="AL64">
+        <v>1.22</v>
+      </c>
+      <c r="AM64">
+        <v>1.7</v>
+      </c>
+      <c r="AN64">
+        <v>1.2</v>
+      </c>
+      <c r="AO64">
+        <v>0.5</v>
+      </c>
+      <c r="AP64">
+        <v>1.17</v>
+      </c>
+      <c r="AQ64">
+        <v>0.57</v>
+      </c>
+      <c r="AR64">
+        <v>1.41</v>
+      </c>
+      <c r="AS64">
+        <v>1.19</v>
+      </c>
+      <c r="AT64">
+        <v>2.6</v>
+      </c>
+      <c r="AU64">
+        <v>6</v>
+      </c>
+      <c r="AV64">
+        <v>5</v>
+      </c>
+      <c r="AW64">
+        <v>8</v>
+      </c>
+      <c r="AX64">
+        <v>6</v>
+      </c>
+      <c r="AY64">
+        <v>20</v>
+      </c>
+      <c r="AZ64">
+        <v>11</v>
+      </c>
+      <c r="BA64">
+        <v>10</v>
+      </c>
+      <c r="BB64">
+        <v>6</v>
+      </c>
+      <c r="BC64">
+        <v>16</v>
+      </c>
+      <c r="BD64">
+        <v>1.74</v>
+      </c>
+      <c r="BE64">
+        <v>6.75</v>
+      </c>
+      <c r="BF64">
+        <v>2.53</v>
+      </c>
+      <c r="BG64">
+        <v>1.3</v>
+      </c>
+      <c r="BH64">
+        <v>2.88</v>
+      </c>
+      <c r="BI64">
+        <v>1.56</v>
+      </c>
+      <c r="BJ64">
+        <v>2.1</v>
+      </c>
+      <c r="BK64">
+        <v>2.01</v>
+      </c>
+      <c r="BL64">
+        <v>1.68</v>
+      </c>
+      <c r="BM64">
+        <v>2.61</v>
+      </c>
+      <c r="BN64">
+        <v>1.36</v>
+      </c>
+      <c r="BO64">
+        <v>3.65</v>
+      </c>
+      <c r="BP64">
+        <v>1.18</v>
+      </c>
+    </row>
+    <row r="65" spans="1:68">
+      <c r="A65" s="1">
+        <v>64</v>
+      </c>
+      <c r="B65">
+        <v>7487395</v>
+      </c>
+      <c r="C65" t="s">
+        <v>68</v>
+      </c>
+      <c r="D65" t="s">
+        <v>69</v>
+      </c>
+      <c r="E65" s="2">
+        <v>45597.67708333334</v>
+      </c>
+      <c r="F65">
+        <v>13</v>
+      </c>
+      <c r="G65" t="s">
+        <v>77</v>
+      </c>
+      <c r="H65" t="s">
+        <v>72</v>
+      </c>
+      <c r="I65">
+        <v>2</v>
+      </c>
+      <c r="J65">
+        <v>0</v>
+      </c>
+      <c r="K65">
+        <v>2</v>
+      </c>
+      <c r="L65">
+        <v>2</v>
+      </c>
+      <c r="M65">
+        <v>1</v>
+      </c>
+      <c r="N65">
+        <v>3</v>
+      </c>
+      <c r="O65" t="s">
+        <v>125</v>
+      </c>
+      <c r="P65" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q65">
+        <v>2.63</v>
+      </c>
+      <c r="R65">
+        <v>2.3</v>
+      </c>
+      <c r="S65">
+        <v>3.4</v>
+      </c>
+      <c r="T65">
+        <v>1.36</v>
+      </c>
+      <c r="U65">
+        <v>2.99</v>
+      </c>
+      <c r="V65">
+        <v>2.66</v>
+      </c>
+      <c r="W65">
+        <v>1.44</v>
+      </c>
+      <c r="X65">
+        <v>6.6</v>
+      </c>
+      <c r="Y65">
+        <v>1.09</v>
+      </c>
+      <c r="Z65">
+        <v>2</v>
+      </c>
+      <c r="AA65">
+        <v>3.3</v>
+      </c>
+      <c r="AB65">
+        <v>3.2</v>
+      </c>
+      <c r="AC65">
+        <v>1</v>
+      </c>
+      <c r="AD65">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="AE65">
+        <v>1.22</v>
+      </c>
+      <c r="AF65">
+        <v>3.35</v>
+      </c>
+      <c r="AG65">
+        <v>1.75</v>
+      </c>
+      <c r="AH65">
+        <v>1.91</v>
+      </c>
+      <c r="AI65">
+        <v>1.57</v>
+      </c>
+      <c r="AJ65">
+        <v>2.25</v>
+      </c>
+      <c r="AK65">
+        <v>1.26</v>
+      </c>
+      <c r="AL65">
+        <v>1.25</v>
+      </c>
+      <c r="AM65">
+        <v>1.72</v>
+      </c>
+      <c r="AN65">
+        <v>2.17</v>
+      </c>
+      <c r="AO65">
+        <v>2.2</v>
+      </c>
+      <c r="AP65">
+        <v>2.29</v>
+      </c>
+      <c r="AQ65">
+        <v>1.83</v>
+      </c>
+      <c r="AR65">
+        <v>1.81</v>
+      </c>
+      <c r="AS65">
+        <v>1.81</v>
+      </c>
+      <c r="AT65">
+        <v>3.62</v>
+      </c>
+      <c r="AU65">
+        <v>4</v>
+      </c>
+      <c r="AV65">
+        <v>6</v>
+      </c>
+      <c r="AW65">
+        <v>1</v>
+      </c>
+      <c r="AX65">
+        <v>9</v>
+      </c>
+      <c r="AY65">
+        <v>7</v>
+      </c>
+      <c r="AZ65">
+        <v>22</v>
+      </c>
+      <c r="BA65">
+        <v>2</v>
+      </c>
+      <c r="BB65">
+        <v>7</v>
+      </c>
+      <c r="BC65">
+        <v>9</v>
+      </c>
+      <c r="BD65">
+        <v>1.59</v>
+      </c>
+      <c r="BE65">
+        <v>7.7</v>
+      </c>
+      <c r="BF65">
+        <v>2.78</v>
+      </c>
+      <c r="BG65">
+        <v>1.34</v>
+      </c>
+      <c r="BH65">
+        <v>2.69</v>
+      </c>
+      <c r="BI65">
+        <v>1.64</v>
+      </c>
+      <c r="BJ65">
+        <v>1.97</v>
+      </c>
+      <c r="BK65">
+        <v>2.14</v>
+      </c>
+      <c r="BL65">
+        <v>1.6</v>
+      </c>
+      <c r="BM65">
+        <v>2.78</v>
+      </c>
+      <c r="BN65">
+        <v>1.32</v>
+      </c>
+      <c r="BO65">
+        <v>3.9</v>
+      </c>
+      <c r="BP65">
+        <v>1.16</v>
+      </c>
+    </row>
+    <row r="66" spans="1:68">
+      <c r="A66" s="1">
+        <v>65</v>
+      </c>
+      <c r="B66">
+        <v>7487399</v>
+      </c>
+      <c r="C66" t="s">
+        <v>68</v>
+      </c>
+      <c r="D66" t="s">
+        <v>69</v>
+      </c>
+      <c r="E66" s="2">
+        <v>45597.67708333334</v>
+      </c>
+      <c r="F66">
+        <v>13</v>
+      </c>
+      <c r="G66" t="s">
+        <v>76</v>
+      </c>
+      <c r="H66" t="s">
+        <v>79</v>
+      </c>
+      <c r="I66">
+        <v>0</v>
+      </c>
+      <c r="J66">
+        <v>3</v>
+      </c>
+      <c r="K66">
+        <v>3</v>
+      </c>
+      <c r="L66">
+        <v>1</v>
+      </c>
+      <c r="M66">
+        <v>6</v>
+      </c>
+      <c r="N66">
+        <v>7</v>
+      </c>
+      <c r="O66" t="s">
+        <v>126</v>
+      </c>
+      <c r="P66" t="s">
+        <v>173</v>
+      </c>
+      <c r="Q66">
+        <v>4</v>
+      </c>
+      <c r="R66">
+        <v>2.38</v>
+      </c>
+      <c r="S66">
+        <v>2.25</v>
+      </c>
+      <c r="T66">
+        <v>1.3</v>
+      </c>
+      <c r="U66">
+        <v>3.32</v>
+      </c>
+      <c r="V66">
+        <v>2.4</v>
+      </c>
+      <c r="W66">
+        <v>1.53</v>
+      </c>
+      <c r="X66">
+        <v>5.6</v>
+      </c>
+      <c r="Y66">
+        <v>1.12</v>
+      </c>
+      <c r="Z66">
+        <v>3.7</v>
+      </c>
+      <c r="AA66">
+        <v>3.6</v>
+      </c>
+      <c r="AB66">
+        <v>1.75</v>
+      </c>
+      <c r="AC66">
+        <v>1.01</v>
+      </c>
+      <c r="AD66">
+        <v>11</v>
+      </c>
+      <c r="AE66">
+        <v>1.15</v>
+      </c>
+      <c r="AF66">
+        <v>4.05</v>
+      </c>
+      <c r="AG66">
+        <v>1.53</v>
+      </c>
+      <c r="AH66">
+        <v>2.2</v>
+      </c>
+      <c r="AI66">
+        <v>1.62</v>
+      </c>
+      <c r="AJ66">
+        <v>2.2</v>
+      </c>
+      <c r="AK66">
+        <v>1.92</v>
+      </c>
+      <c r="AL66">
+        <v>1.22</v>
+      </c>
+      <c r="AM66">
+        <v>1.21</v>
+      </c>
+      <c r="AN66">
+        <v>1</v>
+      </c>
+      <c r="AO66">
+        <v>1.5</v>
+      </c>
+      <c r="AP66">
+        <v>0.86</v>
+      </c>
+      <c r="AQ66">
+        <v>1.71</v>
+      </c>
+      <c r="AR66">
+        <v>1.6</v>
+      </c>
+      <c r="AS66">
+        <v>1.72</v>
+      </c>
+      <c r="AT66">
+        <v>3.32</v>
+      </c>
+      <c r="AU66">
+        <v>6</v>
+      </c>
+      <c r="AV66">
+        <v>12</v>
+      </c>
+      <c r="AW66">
+        <v>7</v>
+      </c>
+      <c r="AX66">
+        <v>3</v>
+      </c>
+      <c r="AY66">
+        <v>15</v>
+      </c>
+      <c r="AZ66">
+        <v>19</v>
+      </c>
+      <c r="BA66">
+        <v>3</v>
+      </c>
+      <c r="BB66">
+        <v>7</v>
+      </c>
+      <c r="BC66">
+        <v>10</v>
+      </c>
+      <c r="BD66">
+        <v>2.99</v>
+      </c>
+      <c r="BE66">
+        <v>8.6</v>
+      </c>
+      <c r="BF66">
+        <v>1.5</v>
+      </c>
+      <c r="BG66">
+        <v>0</v>
+      </c>
+      <c r="BH66">
+        <v>0</v>
+      </c>
+      <c r="BI66">
+        <v>1.28</v>
+      </c>
+      <c r="BJ66">
+        <v>2.94</v>
+      </c>
+      <c r="BK66">
+        <v>1.91</v>
+      </c>
+      <c r="BL66">
+        <v>2.18</v>
+      </c>
+      <c r="BM66">
+        <v>1.92</v>
+      </c>
+      <c r="BN66">
+        <v>1.75</v>
+      </c>
+      <c r="BO66">
+        <v>2.42</v>
+      </c>
+      <c r="BP66">
+        <v>1.42</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Switzerland Challenge League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Switzerland Challenge League_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="178">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -397,6 +397,12 @@
     <t>['89']</t>
   </si>
   <si>
+    <t>['13', '55', '69', '78', '90', '90+2']</t>
+  </si>
+  <si>
+    <t>['3', '75']</t>
+  </si>
+  <si>
     <t>['25', '90+2']</t>
   </si>
   <si>
@@ -536,6 +542,12 @@
   </si>
   <si>
     <t>['2', '35', '45', '50', '84', '90+1']</t>
+  </si>
+  <si>
+    <t>['24', '46']</t>
+  </si>
+  <si>
+    <t>['69']</t>
   </si>
 </sst>
 </file>
@@ -897,7 +909,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP66"/>
+  <dimension ref="A1:BP68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1156,7 +1168,7 @@
         <v>80</v>
       </c>
       <c r="P2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="Q2">
         <v>2.75</v>
@@ -1362,7 +1374,7 @@
         <v>81</v>
       </c>
       <c r="P3" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="Q3">
         <v>2.63</v>
@@ -1568,7 +1580,7 @@
         <v>82</v>
       </c>
       <c r="P4" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="Q4">
         <v>3.75</v>
@@ -1774,7 +1786,7 @@
         <v>83</v>
       </c>
       <c r="P5" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="Q5">
         <v>3.6</v>
@@ -2058,10 +2070,10 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AQ6">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2186,7 +2198,7 @@
         <v>84</v>
       </c>
       <c r="P7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="Q7">
         <v>2.63</v>
@@ -2264,7 +2276,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AQ7">
         <v>1.5</v>
@@ -2392,7 +2404,7 @@
         <v>85</v>
       </c>
       <c r="P8" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="Q8">
         <v>2.63</v>
@@ -2598,7 +2610,7 @@
         <v>86</v>
       </c>
       <c r="P9" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="Q9">
         <v>3</v>
@@ -2679,7 +2691,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ9">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -2804,7 +2816,7 @@
         <v>87</v>
       </c>
       <c r="P10" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="Q10">
         <v>2.3</v>
@@ -3216,7 +3228,7 @@
         <v>84</v>
       </c>
       <c r="P12" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="Q12">
         <v>2.88</v>
@@ -3422,7 +3434,7 @@
         <v>89</v>
       </c>
       <c r="P13" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="Q13">
         <v>2.2</v>
@@ -3628,7 +3640,7 @@
         <v>90</v>
       </c>
       <c r="P14" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="Q14">
         <v>3</v>
@@ -3709,7 +3721,7 @@
         <v>1</v>
       </c>
       <c r="AQ14">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AR14">
         <v>1.19</v>
@@ -3834,7 +3846,7 @@
         <v>91</v>
       </c>
       <c r="P15" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="Q15">
         <v>3</v>
@@ -4040,7 +4052,7 @@
         <v>92</v>
       </c>
       <c r="P16" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="Q16">
         <v>2.75</v>
@@ -4118,7 +4130,7 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AQ16">
         <v>1</v>
@@ -4246,7 +4258,7 @@
         <v>93</v>
       </c>
       <c r="P17" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="Q17">
         <v>2.38</v>
@@ -4324,7 +4336,7 @@
         <v>1</v>
       </c>
       <c r="AP17">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AQ17">
         <v>1.83</v>
@@ -4452,7 +4464,7 @@
         <v>84</v>
       </c>
       <c r="P18" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="Q18">
         <v>3.1</v>
@@ -4658,7 +4670,7 @@
         <v>94</v>
       </c>
       <c r="P19" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="Q19">
         <v>2.3</v>
@@ -4864,7 +4876,7 @@
         <v>84</v>
       </c>
       <c r="P20" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="Q20">
         <v>2.3</v>
@@ -4945,7 +4957,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ20">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AR20">
         <v>1.99</v>
@@ -5070,7 +5082,7 @@
         <v>95</v>
       </c>
       <c r="P21" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="Q21">
         <v>2.88</v>
@@ -5357,7 +5369,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ22">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AR22">
         <v>1.91</v>
@@ -5482,7 +5494,7 @@
         <v>97</v>
       </c>
       <c r="P23" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="Q23">
         <v>2.88</v>
@@ -5894,7 +5906,7 @@
         <v>98</v>
       </c>
       <c r="P25" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="Q25">
         <v>2.63</v>
@@ -5972,7 +5984,7 @@
         <v>0.5</v>
       </c>
       <c r="AP25">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AQ25">
         <v>0.86</v>
@@ -6100,7 +6112,7 @@
         <v>99</v>
       </c>
       <c r="P26" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="Q26">
         <v>2.2</v>
@@ -6181,7 +6193,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ26">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AR26">
         <v>1.45</v>
@@ -6306,7 +6318,7 @@
         <v>100</v>
       </c>
       <c r="P27" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="Q27">
         <v>2.5</v>
@@ -6512,7 +6524,7 @@
         <v>84</v>
       </c>
       <c r="P28" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="Q28">
         <v>3</v>
@@ -6924,7 +6936,7 @@
         <v>102</v>
       </c>
       <c r="P30" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="Q30">
         <v>3.75</v>
@@ -7130,7 +7142,7 @@
         <v>103</v>
       </c>
       <c r="P31" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Q31">
         <v>3</v>
@@ -7336,7 +7348,7 @@
         <v>104</v>
       </c>
       <c r="P32" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="Q32">
         <v>3.2</v>
@@ -7417,7 +7429,7 @@
         <v>0.71</v>
       </c>
       <c r="AQ32">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AR32">
         <v>1.52</v>
@@ -7620,7 +7632,7 @@
         <v>0</v>
       </c>
       <c r="AP33">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AQ33">
         <v>1</v>
@@ -7748,7 +7760,7 @@
         <v>105</v>
       </c>
       <c r="P34" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="Q34">
         <v>3.2</v>
@@ -7954,7 +7966,7 @@
         <v>106</v>
       </c>
       <c r="P35" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="Q35">
         <v>2.5</v>
@@ -8032,7 +8044,7 @@
         <v>1</v>
       </c>
       <c r="AP35">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AQ35">
         <v>1.83</v>
@@ -8160,7 +8172,7 @@
         <v>107</v>
       </c>
       <c r="P36" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="Q36">
         <v>2.2</v>
@@ -8366,7 +8378,7 @@
         <v>108</v>
       </c>
       <c r="P37" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Q37">
         <v>2.3</v>
@@ -8447,7 +8459,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ37">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AR37">
         <v>1.5</v>
@@ -8778,7 +8790,7 @@
         <v>109</v>
       </c>
       <c r="P39" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="Q39">
         <v>2.5</v>
@@ -8984,7 +8996,7 @@
         <v>110</v>
       </c>
       <c r="P40" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="Q40">
         <v>2.88</v>
@@ -9396,7 +9408,7 @@
         <v>84</v>
       </c>
       <c r="P42" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="Q42">
         <v>3</v>
@@ -9602,7 +9614,7 @@
         <v>112</v>
       </c>
       <c r="P43" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="Q43">
         <v>3</v>
@@ -9680,7 +9692,7 @@
         <v>1.75</v>
       </c>
       <c r="AP43">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AQ43">
         <v>1.67</v>
@@ -9808,7 +9820,7 @@
         <v>95</v>
       </c>
       <c r="P44" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="Q44">
         <v>3</v>
@@ -10095,7 +10107,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ45">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AR45">
         <v>1.73</v>
@@ -10220,7 +10232,7 @@
         <v>114</v>
       </c>
       <c r="P46" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="Q46">
         <v>2.75</v>
@@ -10298,7 +10310,7 @@
         <v>1.75</v>
       </c>
       <c r="AP46">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AQ46">
         <v>1.14</v>
@@ -10426,7 +10438,7 @@
         <v>115</v>
       </c>
       <c r="P47" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="Q47">
         <v>2.4</v>
@@ -10838,7 +10850,7 @@
         <v>116</v>
       </c>
       <c r="P49" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="Q49">
         <v>2.5</v>
@@ -10919,7 +10931,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ49">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AR49">
         <v>1.57</v>
@@ -11250,7 +11262,7 @@
         <v>117</v>
       </c>
       <c r="P51" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="Q51">
         <v>2.75</v>
@@ -11456,7 +11468,7 @@
         <v>84</v>
       </c>
       <c r="P52" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="Q52">
         <v>2.63</v>
@@ -11662,7 +11674,7 @@
         <v>118</v>
       </c>
       <c r="P53" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="Q53">
         <v>3.25</v>
@@ -11868,7 +11880,7 @@
         <v>84</v>
       </c>
       <c r="P54" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="Q54">
         <v>3.4</v>
@@ -12074,7 +12086,7 @@
         <v>104</v>
       </c>
       <c r="P55" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="Q55">
         <v>2.5</v>
@@ -12152,7 +12164,7 @@
         <v>1.4</v>
       </c>
       <c r="AP55">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AQ55">
         <v>1.14</v>
@@ -12358,7 +12370,7 @@
         <v>1.8</v>
       </c>
       <c r="AP56">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AQ56">
         <v>1.71</v>
@@ -12486,7 +12498,7 @@
         <v>120</v>
       </c>
       <c r="P57" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="Q57">
         <v>2.5</v>
@@ -12773,7 +12785,7 @@
         <v>1</v>
       </c>
       <c r="AQ58">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AR58">
         <v>1.33</v>
@@ -12898,7 +12910,7 @@
         <v>84</v>
       </c>
       <c r="P59" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="Q59">
         <v>2.63</v>
@@ -12979,7 +12991,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ59">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AR59">
         <v>1.44</v>
@@ -13310,7 +13322,7 @@
         <v>121</v>
       </c>
       <c r="P61" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="Q61">
         <v>2</v>
@@ -13516,7 +13528,7 @@
         <v>122</v>
       </c>
       <c r="P62" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="Q62">
         <v>2.5</v>
@@ -13722,7 +13734,7 @@
         <v>123</v>
       </c>
       <c r="P63" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="Q63">
         <v>3.2</v>
@@ -13928,7 +13940,7 @@
         <v>124</v>
       </c>
       <c r="P64" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="Q64">
         <v>2.4</v>
@@ -14006,7 +14018,7 @@
         <v>0.5</v>
       </c>
       <c r="AP64">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AQ64">
         <v>0.57</v>
@@ -14134,7 +14146,7 @@
         <v>125</v>
       </c>
       <c r="P65" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="Q65">
         <v>2.63</v>
@@ -14340,7 +14352,7 @@
         <v>126</v>
       </c>
       <c r="P66" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="Q66">
         <v>4</v>
@@ -14497,6 +14509,418 @@
       </c>
       <c r="BP66">
         <v>1.42</v>
+      </c>
+    </row>
+    <row r="67" spans="1:68">
+      <c r="A67" s="1">
+        <v>66</v>
+      </c>
+      <c r="B67">
+        <v>7487401</v>
+      </c>
+      <c r="C67" t="s">
+        <v>68</v>
+      </c>
+      <c r="D67" t="s">
+        <v>69</v>
+      </c>
+      <c r="E67" s="2">
+        <v>45604.64583333334</v>
+      </c>
+      <c r="F67">
+        <v>14</v>
+      </c>
+      <c r="G67" t="s">
+        <v>75</v>
+      </c>
+      <c r="H67" t="s">
+        <v>76</v>
+      </c>
+      <c r="I67">
+        <v>1</v>
+      </c>
+      <c r="J67">
+        <v>1</v>
+      </c>
+      <c r="K67">
+        <v>2</v>
+      </c>
+      <c r="L67">
+        <v>6</v>
+      </c>
+      <c r="M67">
+        <v>2</v>
+      </c>
+      <c r="N67">
+        <v>8</v>
+      </c>
+      <c r="O67" t="s">
+        <v>127</v>
+      </c>
+      <c r="P67" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q67">
+        <v>2.3</v>
+      </c>
+      <c r="R67">
+        <v>2.38</v>
+      </c>
+      <c r="S67">
+        <v>4</v>
+      </c>
+      <c r="T67">
+        <v>1.32</v>
+      </c>
+      <c r="U67">
+        <v>3.2</v>
+      </c>
+      <c r="V67">
+        <v>2.43</v>
+      </c>
+      <c r="W67">
+        <v>1.52</v>
+      </c>
+      <c r="X67">
+        <v>5.45</v>
+      </c>
+      <c r="Y67">
+        <v>1.13</v>
+      </c>
+      <c r="Z67">
+        <v>1.8</v>
+      </c>
+      <c r="AA67">
+        <v>3.6</v>
+      </c>
+      <c r="AB67">
+        <v>4.2</v>
+      </c>
+      <c r="AC67">
+        <v>1.01</v>
+      </c>
+      <c r="AD67">
+        <v>11</v>
+      </c>
+      <c r="AE67">
+        <v>1.18</v>
+      </c>
+      <c r="AF67">
+        <v>3.72</v>
+      </c>
+      <c r="AG67">
+        <v>1.57</v>
+      </c>
+      <c r="AH67">
+        <v>2.35</v>
+      </c>
+      <c r="AI67">
+        <v>1.57</v>
+      </c>
+      <c r="AJ67">
+        <v>2.25</v>
+      </c>
+      <c r="AK67">
+        <v>1.22</v>
+      </c>
+      <c r="AL67">
+        <v>1.22</v>
+      </c>
+      <c r="AM67">
+        <v>1.88</v>
+      </c>
+      <c r="AN67">
+        <v>1.17</v>
+      </c>
+      <c r="AO67">
+        <v>0.67</v>
+      </c>
+      <c r="AP67">
+        <v>1.43</v>
+      </c>
+      <c r="AQ67">
+        <v>0.57</v>
+      </c>
+      <c r="AR67">
+        <v>1.46</v>
+      </c>
+      <c r="AS67">
+        <v>1.55</v>
+      </c>
+      <c r="AT67">
+        <v>3.01</v>
+      </c>
+      <c r="AU67">
+        <v>14</v>
+      </c>
+      <c r="AV67">
+        <v>4</v>
+      </c>
+      <c r="AW67">
+        <v>8</v>
+      </c>
+      <c r="AX67">
+        <v>0</v>
+      </c>
+      <c r="AY67">
+        <v>22</v>
+      </c>
+      <c r="AZ67">
+        <v>4</v>
+      </c>
+      <c r="BA67">
+        <v>2</v>
+      </c>
+      <c r="BB67">
+        <v>0</v>
+      </c>
+      <c r="BC67">
+        <v>2</v>
+      </c>
+      <c r="BD67">
+        <v>0</v>
+      </c>
+      <c r="BE67">
+        <v>0</v>
+      </c>
+      <c r="BF67">
+        <v>0</v>
+      </c>
+      <c r="BG67">
+        <v>0</v>
+      </c>
+      <c r="BH67">
+        <v>0</v>
+      </c>
+      <c r="BI67">
+        <v>1.52</v>
+      </c>
+      <c r="BJ67">
+        <v>2.44</v>
+      </c>
+      <c r="BK67">
+        <v>1.89</v>
+      </c>
+      <c r="BL67">
+        <v>1.91</v>
+      </c>
+      <c r="BM67">
+        <v>2.38</v>
+      </c>
+      <c r="BN67">
+        <v>1.54</v>
+      </c>
+      <c r="BO67">
+        <v>0</v>
+      </c>
+      <c r="BP67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:68">
+      <c r="A68" s="1">
+        <v>67</v>
+      </c>
+      <c r="B68">
+        <v>7487403</v>
+      </c>
+      <c r="C68" t="s">
+        <v>68</v>
+      </c>
+      <c r="D68" t="s">
+        <v>69</v>
+      </c>
+      <c r="E68" s="2">
+        <v>45604.67708333334</v>
+      </c>
+      <c r="F68">
+        <v>14</v>
+      </c>
+      <c r="G68" t="s">
+        <v>74</v>
+      </c>
+      <c r="H68" t="s">
+        <v>70</v>
+      </c>
+      <c r="I68">
+        <v>1</v>
+      </c>
+      <c r="J68">
+        <v>0</v>
+      </c>
+      <c r="K68">
+        <v>1</v>
+      </c>
+      <c r="L68">
+        <v>2</v>
+      </c>
+      <c r="M68">
+        <v>1</v>
+      </c>
+      <c r="N68">
+        <v>3</v>
+      </c>
+      <c r="O68" t="s">
+        <v>128</v>
+      </c>
+      <c r="P68" t="s">
+        <v>177</v>
+      </c>
+      <c r="Q68">
+        <v>2.88</v>
+      </c>
+      <c r="R68">
+        <v>2.4</v>
+      </c>
+      <c r="S68">
+        <v>2.88</v>
+      </c>
+      <c r="T68">
+        <v>1.24</v>
+      </c>
+      <c r="U68">
+        <v>3.8</v>
+      </c>
+      <c r="V68">
+        <v>2.14</v>
+      </c>
+      <c r="W68">
+        <v>1.66</v>
+      </c>
+      <c r="X68">
+        <v>4.65</v>
+      </c>
+      <c r="Y68">
+        <v>1.17</v>
+      </c>
+      <c r="Z68">
+        <v>2.4</v>
+      </c>
+      <c r="AA68">
+        <v>3.8</v>
+      </c>
+      <c r="AB68">
+        <v>2.5</v>
+      </c>
+      <c r="AC68">
+        <v>1.01</v>
+      </c>
+      <c r="AD68">
+        <v>13</v>
+      </c>
+      <c r="AE68">
+        <v>1.09</v>
+      </c>
+      <c r="AF68">
+        <v>5</v>
+      </c>
+      <c r="AG68">
+        <v>1.5</v>
+      </c>
+      <c r="AH68">
+        <v>2.5</v>
+      </c>
+      <c r="AI68">
+        <v>1.44</v>
+      </c>
+      <c r="AJ68">
+        <v>2.63</v>
+      </c>
+      <c r="AK68">
+        <v>1.38</v>
+      </c>
+      <c r="AL68">
+        <v>1.22</v>
+      </c>
+      <c r="AM68">
+        <v>1.6</v>
+      </c>
+      <c r="AN68">
+        <v>2.17</v>
+      </c>
+      <c r="AO68">
+        <v>1.5</v>
+      </c>
+      <c r="AP68">
+        <v>2.29</v>
+      </c>
+      <c r="AQ68">
+        <v>1.29</v>
+      </c>
+      <c r="AR68">
+        <v>1.95</v>
+      </c>
+      <c r="AS68">
+        <v>1.74</v>
+      </c>
+      <c r="AT68">
+        <v>3.69</v>
+      </c>
+      <c r="AU68">
+        <v>5</v>
+      </c>
+      <c r="AV68">
+        <v>11</v>
+      </c>
+      <c r="AW68">
+        <v>5</v>
+      </c>
+      <c r="AX68">
+        <v>16</v>
+      </c>
+      <c r="AY68">
+        <v>10</v>
+      </c>
+      <c r="AZ68">
+        <v>27</v>
+      </c>
+      <c r="BA68">
+        <v>3</v>
+      </c>
+      <c r="BB68">
+        <v>14</v>
+      </c>
+      <c r="BC68">
+        <v>17</v>
+      </c>
+      <c r="BD68">
+        <v>0</v>
+      </c>
+      <c r="BE68">
+        <v>0</v>
+      </c>
+      <c r="BF68">
+        <v>0</v>
+      </c>
+      <c r="BG68">
+        <v>0</v>
+      </c>
+      <c r="BH68">
+        <v>0</v>
+      </c>
+      <c r="BI68">
+        <v>1.56</v>
+      </c>
+      <c r="BJ68">
+        <v>2.35</v>
+      </c>
+      <c r="BK68">
+        <v>2.2</v>
+      </c>
+      <c r="BL68">
+        <v>1.83</v>
+      </c>
+      <c r="BM68">
+        <v>2.44</v>
+      </c>
+      <c r="BN68">
+        <v>1.52</v>
+      </c>
+      <c r="BO68">
+        <v>0</v>
+      </c>
+      <c r="BP68">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Switzerland Challenge League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Switzerland Challenge League_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="482" uniqueCount="181">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -403,6 +403,12 @@
     <t>['3', '75']</t>
   </si>
   <si>
+    <t>['43', '73']</t>
+  </si>
+  <si>
+    <t>['52']</t>
+  </si>
+  <si>
     <t>['25', '90+2']</t>
   </si>
   <si>
@@ -548,6 +554,9 @@
   </si>
   <si>
     <t>['69']</t>
+  </si>
+  <si>
+    <t>['21', '36', '40', '63']</t>
   </si>
 </sst>
 </file>
@@ -909,7 +918,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP68"/>
+  <dimension ref="A1:BP70"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1168,7 +1177,7 @@
         <v>80</v>
       </c>
       <c r="P2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="Q2">
         <v>2.75</v>
@@ -1374,7 +1383,7 @@
         <v>81</v>
       </c>
       <c r="P3" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="Q3">
         <v>2.63</v>
@@ -1455,7 +1464,7 @@
         <v>0.71</v>
       </c>
       <c r="AQ3">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1580,7 +1589,7 @@
         <v>82</v>
       </c>
       <c r="P4" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="Q4">
         <v>3.75</v>
@@ -1786,7 +1795,7 @@
         <v>83</v>
       </c>
       <c r="P5" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="Q5">
         <v>3.6</v>
@@ -1864,7 +1873,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AQ5">
         <v>1</v>
@@ -2198,7 +2207,7 @@
         <v>84</v>
       </c>
       <c r="P7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="Q7">
         <v>2.63</v>
@@ -2404,7 +2413,7 @@
         <v>85</v>
       </c>
       <c r="P8" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="Q8">
         <v>2.63</v>
@@ -2610,7 +2619,7 @@
         <v>86</v>
       </c>
       <c r="P9" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="Q9">
         <v>3</v>
@@ -2816,7 +2825,7 @@
         <v>87</v>
       </c>
       <c r="P10" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="Q10">
         <v>2.3</v>
@@ -2897,7 +2906,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ10">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3100,7 +3109,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AQ11">
         <v>0.57</v>
@@ -3228,7 +3237,7 @@
         <v>84</v>
       </c>
       <c r="P12" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="Q12">
         <v>2.88</v>
@@ -3434,7 +3443,7 @@
         <v>89</v>
       </c>
       <c r="P13" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="Q13">
         <v>2.2</v>
@@ -3512,7 +3521,7 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AQ13">
         <v>0.86</v>
@@ -3640,7 +3649,7 @@
         <v>90</v>
       </c>
       <c r="P14" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="Q14">
         <v>3</v>
@@ -3846,7 +3855,7 @@
         <v>91</v>
       </c>
       <c r="P15" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="Q15">
         <v>3</v>
@@ -3924,10 +3933,10 @@
         <v>3</v>
       </c>
       <c r="AP15">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AQ15">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AR15">
         <v>1.72</v>
@@ -4052,7 +4061,7 @@
         <v>92</v>
       </c>
       <c r="P16" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="Q16">
         <v>2.75</v>
@@ -4258,7 +4267,7 @@
         <v>93</v>
       </c>
       <c r="P17" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="Q17">
         <v>2.38</v>
@@ -4339,7 +4348,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ17">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AR17">
         <v>1.81</v>
@@ -4464,7 +4473,7 @@
         <v>84</v>
       </c>
       <c r="P18" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="Q18">
         <v>3.1</v>
@@ -4670,7 +4679,7 @@
         <v>94</v>
       </c>
       <c r="P19" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="Q19">
         <v>2.3</v>
@@ -4876,7 +4885,7 @@
         <v>84</v>
       </c>
       <c r="P20" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="Q20">
         <v>2.3</v>
@@ -5082,7 +5091,7 @@
         <v>95</v>
       </c>
       <c r="P21" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="Q21">
         <v>2.88</v>
@@ -5494,7 +5503,7 @@
         <v>97</v>
       </c>
       <c r="P23" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="Q23">
         <v>2.88</v>
@@ -5572,7 +5581,7 @@
         <v>3</v>
       </c>
       <c r="AP23">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AQ23">
         <v>1.5</v>
@@ -5781,7 +5790,7 @@
         <v>1</v>
       </c>
       <c r="AQ24">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AR24">
         <v>1.47</v>
@@ -5906,7 +5915,7 @@
         <v>98</v>
       </c>
       <c r="P25" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="Q25">
         <v>2.63</v>
@@ -6112,7 +6121,7 @@
         <v>99</v>
       </c>
       <c r="P26" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="Q26">
         <v>2.2</v>
@@ -6190,7 +6199,7 @@
         <v>2</v>
       </c>
       <c r="AP26">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AQ26">
         <v>0.57</v>
@@ -6318,7 +6327,7 @@
         <v>100</v>
       </c>
       <c r="P27" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="Q27">
         <v>2.5</v>
@@ -6524,7 +6533,7 @@
         <v>84</v>
       </c>
       <c r="P28" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Q28">
         <v>3</v>
@@ -6936,7 +6945,7 @@
         <v>102</v>
       </c>
       <c r="P30" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="Q30">
         <v>3.75</v>
@@ -7142,7 +7151,7 @@
         <v>103</v>
       </c>
       <c r="P31" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="Q31">
         <v>3</v>
@@ -7348,7 +7357,7 @@
         <v>104</v>
       </c>
       <c r="P32" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="Q32">
         <v>3.2</v>
@@ -7760,7 +7769,7 @@
         <v>105</v>
       </c>
       <c r="P34" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="Q34">
         <v>3.2</v>
@@ -7841,7 +7850,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ34">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AR34">
         <v>1.62</v>
@@ -7966,7 +7975,7 @@
         <v>106</v>
       </c>
       <c r="P35" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="Q35">
         <v>2.5</v>
@@ -8047,7 +8056,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ35">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AR35">
         <v>2.16</v>
@@ -8172,7 +8181,7 @@
         <v>107</v>
       </c>
       <c r="P36" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="Q36">
         <v>2.2</v>
@@ -8250,7 +8259,7 @@
         <v>1.33</v>
       </c>
       <c r="AP36">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AQ36">
         <v>1.14</v>
@@ -8378,7 +8387,7 @@
         <v>108</v>
       </c>
       <c r="P37" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="Q37">
         <v>2.3</v>
@@ -8790,7 +8799,7 @@
         <v>109</v>
       </c>
       <c r="P39" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="Q39">
         <v>2.5</v>
@@ -8996,7 +9005,7 @@
         <v>110</v>
       </c>
       <c r="P40" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="Q40">
         <v>2.88</v>
@@ -9074,7 +9083,7 @@
         <v>1</v>
       </c>
       <c r="AP40">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AQ40">
         <v>0.86</v>
@@ -9408,7 +9417,7 @@
         <v>84</v>
       </c>
       <c r="P42" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="Q42">
         <v>3</v>
@@ -9614,7 +9623,7 @@
         <v>112</v>
       </c>
       <c r="P43" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="Q43">
         <v>3</v>
@@ -9695,7 +9704,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ43">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AR43">
         <v>1.36</v>
@@ -9820,7 +9829,7 @@
         <v>95</v>
       </c>
       <c r="P44" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="Q44">
         <v>3</v>
@@ -9901,7 +9910,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ44">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AR44">
         <v>1.41</v>
@@ -10104,7 +10113,7 @@
         <v>1.5</v>
       </c>
       <c r="AP45">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AQ45">
         <v>1.29</v>
@@ -10232,7 +10241,7 @@
         <v>114</v>
       </c>
       <c r="P46" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="Q46">
         <v>2.75</v>
@@ -10438,7 +10447,7 @@
         <v>115</v>
       </c>
       <c r="P47" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="Q47">
         <v>2.4</v>
@@ -10722,7 +10731,7 @@
         <v>2</v>
       </c>
       <c r="AP48">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AQ48">
         <v>1.71</v>
@@ -10850,7 +10859,7 @@
         <v>116</v>
       </c>
       <c r="P49" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="Q49">
         <v>2.5</v>
@@ -11262,7 +11271,7 @@
         <v>117</v>
       </c>
       <c r="P51" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="Q51">
         <v>2.75</v>
@@ -11468,7 +11477,7 @@
         <v>84</v>
       </c>
       <c r="P52" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="Q52">
         <v>2.63</v>
@@ -11549,7 +11558,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ52">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AR52">
         <v>1.69</v>
@@ -11674,7 +11683,7 @@
         <v>118</v>
       </c>
       <c r="P53" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="Q53">
         <v>3.25</v>
@@ -11880,7 +11889,7 @@
         <v>84</v>
       </c>
       <c r="P54" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="Q54">
         <v>3.4</v>
@@ -11961,7 +11970,7 @@
         <v>0.71</v>
       </c>
       <c r="AQ54">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AR54">
         <v>1.69</v>
@@ -12086,7 +12095,7 @@
         <v>104</v>
       </c>
       <c r="P55" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="Q55">
         <v>2.5</v>
@@ -12498,7 +12507,7 @@
         <v>120</v>
       </c>
       <c r="P57" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="Q57">
         <v>2.5</v>
@@ -12910,7 +12919,7 @@
         <v>84</v>
       </c>
       <c r="P59" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="Q59">
         <v>2.63</v>
@@ -12988,7 +12997,7 @@
         <v>1.2</v>
       </c>
       <c r="AP59">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AQ59">
         <v>1.29</v>
@@ -13322,7 +13331,7 @@
         <v>121</v>
       </c>
       <c r="P61" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="Q61">
         <v>2</v>
@@ -13400,7 +13409,7 @@
         <v>1.8</v>
       </c>
       <c r="AP61">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AQ61">
         <v>1.5</v>
@@ -13528,7 +13537,7 @@
         <v>122</v>
       </c>
       <c r="P62" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="Q62">
         <v>2.5</v>
@@ -13734,7 +13743,7 @@
         <v>123</v>
       </c>
       <c r="P63" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="Q63">
         <v>3.2</v>
@@ -13940,7 +13949,7 @@
         <v>124</v>
       </c>
       <c r="P64" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="Q64">
         <v>2.4</v>
@@ -14146,7 +14155,7 @@
         <v>125</v>
       </c>
       <c r="P65" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="Q65">
         <v>2.63</v>
@@ -14227,7 +14236,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ65">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AR65">
         <v>1.81</v>
@@ -14352,7 +14361,7 @@
         <v>126</v>
       </c>
       <c r="P66" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="Q66">
         <v>4</v>
@@ -14558,7 +14567,7 @@
         <v>127</v>
       </c>
       <c r="P67" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="Q67">
         <v>2.3</v>
@@ -14654,16 +14663,16 @@
         <v>14</v>
       </c>
       <c r="AV67">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AW67">
         <v>8</v>
       </c>
       <c r="AX67">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY67">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="AZ67">
         <v>4</v>
@@ -14764,7 +14773,7 @@
         <v>128</v>
       </c>
       <c r="P68" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="Q68">
         <v>2.88</v>
@@ -14857,22 +14866,22 @@
         <v>3.69</v>
       </c>
       <c r="AU68">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AV68">
+        <v>4</v>
+      </c>
+      <c r="AW68">
+        <v>2</v>
+      </c>
+      <c r="AX68">
+        <v>4</v>
+      </c>
+      <c r="AY68">
         <v>11</v>
       </c>
-      <c r="AW68">
-        <v>5</v>
-      </c>
-      <c r="AX68">
-        <v>16</v>
-      </c>
-      <c r="AY68">
-        <v>10</v>
-      </c>
       <c r="AZ68">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="BA68">
         <v>3</v>
@@ -14921,6 +14930,418 @@
       </c>
       <c r="BP68">
         <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:68">
+      <c r="A69" s="1">
+        <v>68</v>
+      </c>
+      <c r="B69">
+        <v>7487402</v>
+      </c>
+      <c r="C69" t="s">
+        <v>68</v>
+      </c>
+      <c r="D69" t="s">
+        <v>69</v>
+      </c>
+      <c r="E69" s="2">
+        <v>45605.58333333334</v>
+      </c>
+      <c r="F69">
+        <v>14</v>
+      </c>
+      <c r="G69" t="s">
+        <v>79</v>
+      </c>
+      <c r="H69" t="s">
+        <v>77</v>
+      </c>
+      <c r="I69">
+        <v>1</v>
+      </c>
+      <c r="J69">
+        <v>0</v>
+      </c>
+      <c r="K69">
+        <v>1</v>
+      </c>
+      <c r="L69">
+        <v>2</v>
+      </c>
+      <c r="M69">
+        <v>1</v>
+      </c>
+      <c r="N69">
+        <v>3</v>
+      </c>
+      <c r="O69" t="s">
+        <v>129</v>
+      </c>
+      <c r="P69" t="s">
+        <v>142</v>
+      </c>
+      <c r="Q69">
+        <v>2.25</v>
+      </c>
+      <c r="R69">
+        <v>2.3</v>
+      </c>
+      <c r="S69">
+        <v>4.33</v>
+      </c>
+      <c r="T69">
+        <v>1.3</v>
+      </c>
+      <c r="U69">
+        <v>3.32</v>
+      </c>
+      <c r="V69">
+        <v>2.48</v>
+      </c>
+      <c r="W69">
+        <v>1.5</v>
+      </c>
+      <c r="X69">
+        <v>6.15</v>
+      </c>
+      <c r="Y69">
+        <v>1.1</v>
+      </c>
+      <c r="Z69">
+        <v>1.7</v>
+      </c>
+      <c r="AA69">
+        <v>3.8</v>
+      </c>
+      <c r="AB69">
+        <v>4.5</v>
+      </c>
+      <c r="AC69">
+        <v>1.01</v>
+      </c>
+      <c r="AD69">
+        <v>11</v>
+      </c>
+      <c r="AE69">
+        <v>1.15</v>
+      </c>
+      <c r="AF69">
+        <v>4.1</v>
+      </c>
+      <c r="AG69">
+        <v>1.7</v>
+      </c>
+      <c r="AH69">
+        <v>2.1</v>
+      </c>
+      <c r="AI69">
+        <v>1.67</v>
+      </c>
+      <c r="AJ69">
+        <v>2.1</v>
+      </c>
+      <c r="AK69">
+        <v>1.18</v>
+      </c>
+      <c r="AL69">
+        <v>1.21</v>
+      </c>
+      <c r="AM69">
+        <v>2.02</v>
+      </c>
+      <c r="AN69">
+        <v>2.17</v>
+      </c>
+      <c r="AO69">
+        <v>1.67</v>
+      </c>
+      <c r="AP69">
+        <v>2.29</v>
+      </c>
+      <c r="AQ69">
+        <v>1.43</v>
+      </c>
+      <c r="AR69">
+        <v>1.92</v>
+      </c>
+      <c r="AS69">
+        <v>1.72</v>
+      </c>
+      <c r="AT69">
+        <v>3.64</v>
+      </c>
+      <c r="AU69">
+        <v>6</v>
+      </c>
+      <c r="AV69">
+        <v>7</v>
+      </c>
+      <c r="AW69">
+        <v>8</v>
+      </c>
+      <c r="AX69">
+        <v>8</v>
+      </c>
+      <c r="AY69">
+        <v>17</v>
+      </c>
+      <c r="AZ69">
+        <v>18</v>
+      </c>
+      <c r="BA69">
+        <v>10</v>
+      </c>
+      <c r="BB69">
+        <v>4</v>
+      </c>
+      <c r="BC69">
+        <v>14</v>
+      </c>
+      <c r="BD69">
+        <v>1.42</v>
+      </c>
+      <c r="BE69">
+        <v>6.9</v>
+      </c>
+      <c r="BF69">
+        <v>3.72</v>
+      </c>
+      <c r="BG69">
+        <v>1.3</v>
+      </c>
+      <c r="BH69">
+        <v>2.88</v>
+      </c>
+      <c r="BI69">
+        <v>1.64</v>
+      </c>
+      <c r="BJ69">
+        <v>2.21</v>
+      </c>
+      <c r="BK69">
+        <v>2.06</v>
+      </c>
+      <c r="BL69">
+        <v>1.74</v>
+      </c>
+      <c r="BM69">
+        <v>2.61</v>
+      </c>
+      <c r="BN69">
+        <v>1.36</v>
+      </c>
+      <c r="BO69">
+        <v>3.62</v>
+      </c>
+      <c r="BP69">
+        <v>1.19</v>
+      </c>
+    </row>
+    <row r="70" spans="1:68">
+      <c r="A70" s="1">
+        <v>69</v>
+      </c>
+      <c r="B70">
+        <v>7487400</v>
+      </c>
+      <c r="C70" t="s">
+        <v>68</v>
+      </c>
+      <c r="D70" t="s">
+        <v>69</v>
+      </c>
+      <c r="E70" s="2">
+        <v>45605.58333333334</v>
+      </c>
+      <c r="F70">
+        <v>14</v>
+      </c>
+      <c r="G70" t="s">
+        <v>73</v>
+      </c>
+      <c r="H70" t="s">
+        <v>72</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>3</v>
+      </c>
+      <c r="K70">
+        <v>3</v>
+      </c>
+      <c r="L70">
+        <v>1</v>
+      </c>
+      <c r="M70">
+        <v>4</v>
+      </c>
+      <c r="N70">
+        <v>5</v>
+      </c>
+      <c r="O70" t="s">
+        <v>130</v>
+      </c>
+      <c r="P70" t="s">
+        <v>180</v>
+      </c>
+      <c r="Q70">
+        <v>3.4</v>
+      </c>
+      <c r="R70">
+        <v>2.2</v>
+      </c>
+      <c r="S70">
+        <v>2.88</v>
+      </c>
+      <c r="T70">
+        <v>1.33</v>
+      </c>
+      <c r="U70">
+        <v>3.12</v>
+      </c>
+      <c r="V70">
+        <v>2.48</v>
+      </c>
+      <c r="W70">
+        <v>1.5</v>
+      </c>
+      <c r="X70">
+        <v>5.65</v>
+      </c>
+      <c r="Y70">
+        <v>1.12</v>
+      </c>
+      <c r="Z70">
+        <v>2.9</v>
+      </c>
+      <c r="AA70">
+        <v>3.5</v>
+      </c>
+      <c r="AB70">
+        <v>2.25</v>
+      </c>
+      <c r="AC70">
+        <v>1</v>
+      </c>
+      <c r="AD70">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="AE70">
+        <v>1.19</v>
+      </c>
+      <c r="AF70">
+        <v>3.6</v>
+      </c>
+      <c r="AG70">
+        <v>1.9</v>
+      </c>
+      <c r="AH70">
+        <v>1.9</v>
+      </c>
+      <c r="AI70">
+        <v>1.67</v>
+      </c>
+      <c r="AJ70">
+        <v>2.1</v>
+      </c>
+      <c r="AK70">
+        <v>1.52</v>
+      </c>
+      <c r="AL70">
+        <v>1.25</v>
+      </c>
+      <c r="AM70">
+        <v>1.4</v>
+      </c>
+      <c r="AN70">
+        <v>1.83</v>
+      </c>
+      <c r="AO70">
+        <v>1.83</v>
+      </c>
+      <c r="AP70">
+        <v>1.57</v>
+      </c>
+      <c r="AQ70">
+        <v>2</v>
+      </c>
+      <c r="AR70">
+        <v>1.4</v>
+      </c>
+      <c r="AS70">
+        <v>1.81</v>
+      </c>
+      <c r="AT70">
+        <v>3.21</v>
+      </c>
+      <c r="AU70">
+        <v>3</v>
+      </c>
+      <c r="AV70">
+        <v>9</v>
+      </c>
+      <c r="AW70">
+        <v>6</v>
+      </c>
+      <c r="AX70">
+        <v>3</v>
+      </c>
+      <c r="AY70">
+        <v>11</v>
+      </c>
+      <c r="AZ70">
+        <v>14</v>
+      </c>
+      <c r="BA70">
+        <v>6</v>
+      </c>
+      <c r="BB70">
+        <v>0</v>
+      </c>
+      <c r="BC70">
+        <v>6</v>
+      </c>
+      <c r="BD70">
+        <v>2.03</v>
+      </c>
+      <c r="BE70">
+        <v>6.15</v>
+      </c>
+      <c r="BF70">
+        <v>2.16</v>
+      </c>
+      <c r="BG70">
+        <v>1.28</v>
+      </c>
+      <c r="BH70">
+        <v>2.97</v>
+      </c>
+      <c r="BI70">
+        <v>1.54</v>
+      </c>
+      <c r="BJ70">
+        <v>2.39</v>
+      </c>
+      <c r="BK70">
+        <v>1.93</v>
+      </c>
+      <c r="BL70">
+        <v>1.86</v>
+      </c>
+      <c r="BM70">
+        <v>2.4</v>
+      </c>
+      <c r="BN70">
+        <v>1.53</v>
+      </c>
+      <c r="BO70">
+        <v>3.44</v>
+      </c>
+      <c r="BP70">
+        <v>1.21</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Switzerland Challenge League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Switzerland Challenge League_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="482" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="183">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -409,6 +409,9 @@
     <t>['52']</t>
   </si>
   <si>
+    <t>['21', '90+3']</t>
+  </si>
+  <si>
     <t>['25', '90+2']</t>
   </si>
   <si>
@@ -557,6 +560,9 @@
   </si>
   <si>
     <t>['21', '36', '40', '63']</t>
+  </si>
+  <si>
+    <t>['35', '84']</t>
   </si>
 </sst>
 </file>
@@ -918,7 +924,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP70"/>
+  <dimension ref="A1:BP71"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1177,7 +1183,7 @@
         <v>80</v>
       </c>
       <c r="P2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Q2">
         <v>2.75</v>
@@ -1383,7 +1389,7 @@
         <v>81</v>
       </c>
       <c r="P3" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Q3">
         <v>2.63</v>
@@ -1589,7 +1595,7 @@
         <v>82</v>
       </c>
       <c r="P4" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Q4">
         <v>3.75</v>
@@ -1795,7 +1801,7 @@
         <v>83</v>
       </c>
       <c r="P5" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="Q5">
         <v>3.6</v>
@@ -2207,7 +2213,7 @@
         <v>84</v>
       </c>
       <c r="P7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="Q7">
         <v>2.63</v>
@@ -2288,7 +2294,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ7">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2413,7 +2419,7 @@
         <v>85</v>
       </c>
       <c r="P8" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Q8">
         <v>2.63</v>
@@ -2619,7 +2625,7 @@
         <v>86</v>
       </c>
       <c r="P9" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="Q9">
         <v>3</v>
@@ -2825,7 +2831,7 @@
         <v>87</v>
       </c>
       <c r="P10" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Q10">
         <v>2.3</v>
@@ -2903,7 +2909,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AQ10">
         <v>2</v>
@@ -3237,7 +3243,7 @@
         <v>84</v>
       </c>
       <c r="P12" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="Q12">
         <v>2.88</v>
@@ -3318,7 +3324,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ12">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AR12">
         <v>1.34</v>
@@ -3443,7 +3449,7 @@
         <v>89</v>
       </c>
       <c r="P13" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q13">
         <v>2.2</v>
@@ -3649,7 +3655,7 @@
         <v>90</v>
       </c>
       <c r="P14" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="Q14">
         <v>3</v>
@@ -3855,7 +3861,7 @@
         <v>91</v>
       </c>
       <c r="P15" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="Q15">
         <v>3</v>
@@ -4061,7 +4067,7 @@
         <v>92</v>
       </c>
       <c r="P16" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="Q16">
         <v>2.75</v>
@@ -4267,7 +4273,7 @@
         <v>93</v>
       </c>
       <c r="P17" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="Q17">
         <v>2.38</v>
@@ -4473,7 +4479,7 @@
         <v>84</v>
       </c>
       <c r="P18" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Q18">
         <v>3.1</v>
@@ -4679,7 +4685,7 @@
         <v>94</v>
       </c>
       <c r="P19" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Q19">
         <v>2.3</v>
@@ -4885,7 +4891,7 @@
         <v>84</v>
       </c>
       <c r="P20" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q20">
         <v>2.3</v>
@@ -4963,7 +4969,7 @@
         <v>1</v>
       </c>
       <c r="AP20">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AQ20">
         <v>0.57</v>
@@ -5091,7 +5097,7 @@
         <v>95</v>
       </c>
       <c r="P21" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q21">
         <v>2.88</v>
@@ -5375,7 +5381,7 @@
         <v>1.5</v>
       </c>
       <c r="AP22">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AQ22">
         <v>1.29</v>
@@ -5503,7 +5509,7 @@
         <v>97</v>
       </c>
       <c r="P23" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Q23">
         <v>2.88</v>
@@ -5584,7 +5590,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ23">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AR23">
         <v>1.3</v>
@@ -5915,7 +5921,7 @@
         <v>98</v>
       </c>
       <c r="P25" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Q25">
         <v>2.63</v>
@@ -6121,7 +6127,7 @@
         <v>99</v>
       </c>
       <c r="P26" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Q26">
         <v>2.2</v>
@@ -6327,7 +6333,7 @@
         <v>100</v>
       </c>
       <c r="P27" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Q27">
         <v>2.5</v>
@@ -6533,7 +6539,7 @@
         <v>84</v>
       </c>
       <c r="P28" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q28">
         <v>3</v>
@@ -6945,7 +6951,7 @@
         <v>102</v>
       </c>
       <c r="P30" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Q30">
         <v>3.75</v>
@@ -7151,7 +7157,7 @@
         <v>103</v>
       </c>
       <c r="P31" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q31">
         <v>3</v>
@@ -7357,7 +7363,7 @@
         <v>104</v>
       </c>
       <c r="P32" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q32">
         <v>3.2</v>
@@ -7769,7 +7775,7 @@
         <v>105</v>
       </c>
       <c r="P34" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q34">
         <v>3.2</v>
@@ -7975,7 +7981,7 @@
         <v>106</v>
       </c>
       <c r="P35" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q35">
         <v>2.5</v>
@@ -8181,7 +8187,7 @@
         <v>107</v>
       </c>
       <c r="P36" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q36">
         <v>2.2</v>
@@ -8387,7 +8393,7 @@
         <v>108</v>
       </c>
       <c r="P37" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q37">
         <v>2.3</v>
@@ -8671,7 +8677,7 @@
         <v>2.33</v>
       </c>
       <c r="AP38">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AQ38">
         <v>1.71</v>
@@ -8799,7 +8805,7 @@
         <v>109</v>
       </c>
       <c r="P39" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q39">
         <v>2.5</v>
@@ -8880,7 +8886,7 @@
         <v>1</v>
       </c>
       <c r="AQ39">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AR39">
         <v>1.16</v>
@@ -9005,7 +9011,7 @@
         <v>110</v>
       </c>
       <c r="P40" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q40">
         <v>2.88</v>
@@ -9417,7 +9423,7 @@
         <v>84</v>
       </c>
       <c r="P42" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q42">
         <v>3</v>
@@ -9623,7 +9629,7 @@
         <v>112</v>
       </c>
       <c r="P43" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q43">
         <v>3</v>
@@ -9829,7 +9835,7 @@
         <v>95</v>
       </c>
       <c r="P44" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q44">
         <v>3</v>
@@ -10241,7 +10247,7 @@
         <v>114</v>
       </c>
       <c r="P46" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q46">
         <v>2.75</v>
@@ -10447,7 +10453,7 @@
         <v>115</v>
       </c>
       <c r="P47" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q47">
         <v>2.4</v>
@@ -10528,7 +10534,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ47">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AR47">
         <v>1.79</v>
@@ -10859,7 +10865,7 @@
         <v>116</v>
       </c>
       <c r="P49" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q49">
         <v>2.5</v>
@@ -11271,7 +11277,7 @@
         <v>117</v>
       </c>
       <c r="P51" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q51">
         <v>2.75</v>
@@ -11349,7 +11355,7 @@
         <v>0.8</v>
       </c>
       <c r="AP51">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AQ51">
         <v>0.86</v>
@@ -11477,7 +11483,7 @@
         <v>84</v>
       </c>
       <c r="P52" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q52">
         <v>2.63</v>
@@ -11683,7 +11689,7 @@
         <v>118</v>
       </c>
       <c r="P53" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Q53">
         <v>3.25</v>
@@ -11889,7 +11895,7 @@
         <v>84</v>
       </c>
       <c r="P54" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q54">
         <v>3.4</v>
@@ -12095,7 +12101,7 @@
         <v>104</v>
       </c>
       <c r="P55" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q55">
         <v>2.5</v>
@@ -12507,7 +12513,7 @@
         <v>120</v>
       </c>
       <c r="P57" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q57">
         <v>2.5</v>
@@ -12919,7 +12925,7 @@
         <v>84</v>
       </c>
       <c r="P59" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q59">
         <v>2.63</v>
@@ -13203,7 +13209,7 @@
         <v>0.4</v>
       </c>
       <c r="AP60">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AQ60">
         <v>0.57</v>
@@ -13331,7 +13337,7 @@
         <v>121</v>
       </c>
       <c r="P61" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q61">
         <v>2</v>
@@ -13412,7 +13418,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ61">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AR61">
         <v>1.87</v>
@@ -13537,7 +13543,7 @@
         <v>122</v>
       </c>
       <c r="P62" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q62">
         <v>2.5</v>
@@ -13743,7 +13749,7 @@
         <v>123</v>
       </c>
       <c r="P63" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="Q63">
         <v>3.2</v>
@@ -13949,7 +13955,7 @@
         <v>124</v>
       </c>
       <c r="P64" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q64">
         <v>2.4</v>
@@ -14155,7 +14161,7 @@
         <v>125</v>
       </c>
       <c r="P65" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="Q65">
         <v>2.63</v>
@@ -14361,7 +14367,7 @@
         <v>126</v>
       </c>
       <c r="P66" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q66">
         <v>4</v>
@@ -14567,7 +14573,7 @@
         <v>127</v>
       </c>
       <c r="P67" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q67">
         <v>2.3</v>
@@ -14773,7 +14779,7 @@
         <v>128</v>
       </c>
       <c r="P68" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q68">
         <v>2.88</v>
@@ -14979,7 +14985,7 @@
         <v>129</v>
       </c>
       <c r="P69" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="Q69">
         <v>2.25</v>
@@ -15185,7 +15191,7 @@
         <v>130</v>
       </c>
       <c r="P70" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q70">
         <v>3.4</v>
@@ -15342,6 +15348,212 @@
       </c>
       <c r="BP70">
         <v>1.21</v>
+      </c>
+    </row>
+    <row r="71" spans="1:68">
+      <c r="A71" s="1">
+        <v>70</v>
+      </c>
+      <c r="B71">
+        <v>7487404</v>
+      </c>
+      <c r="C71" t="s">
+        <v>68</v>
+      </c>
+      <c r="D71" t="s">
+        <v>69</v>
+      </c>
+      <c r="E71" s="2">
+        <v>45606.42708333334</v>
+      </c>
+      <c r="F71">
+        <v>14</v>
+      </c>
+      <c r="G71" t="s">
+        <v>78</v>
+      </c>
+      <c r="H71" t="s">
+        <v>71</v>
+      </c>
+      <c r="I71">
+        <v>1</v>
+      </c>
+      <c r="J71">
+        <v>1</v>
+      </c>
+      <c r="K71">
+        <v>2</v>
+      </c>
+      <c r="L71">
+        <v>2</v>
+      </c>
+      <c r="M71">
+        <v>2</v>
+      </c>
+      <c r="N71">
+        <v>4</v>
+      </c>
+      <c r="O71" t="s">
+        <v>131</v>
+      </c>
+      <c r="P71" t="s">
+        <v>182</v>
+      </c>
+      <c r="Q71">
+        <v>2.5</v>
+      </c>
+      <c r="R71">
+        <v>2.2</v>
+      </c>
+      <c r="S71">
+        <v>4</v>
+      </c>
+      <c r="T71">
+        <v>1.33</v>
+      </c>
+      <c r="U71">
+        <v>3.25</v>
+      </c>
+      <c r="V71">
+        <v>2.5</v>
+      </c>
+      <c r="W71">
+        <v>1.5</v>
+      </c>
+      <c r="X71">
+        <v>6</v>
+      </c>
+      <c r="Y71">
+        <v>1.11</v>
+      </c>
+      <c r="Z71">
+        <v>1.95</v>
+      </c>
+      <c r="AA71">
+        <v>3.5</v>
+      </c>
+      <c r="AB71">
+        <v>3.7</v>
+      </c>
+      <c r="AC71">
+        <v>1.02</v>
+      </c>
+      <c r="AD71">
+        <v>10</v>
+      </c>
+      <c r="AE71">
+        <v>1.19</v>
+      </c>
+      <c r="AF71">
+        <v>3.62</v>
+      </c>
+      <c r="AG71">
+        <v>1.85</v>
+      </c>
+      <c r="AH71">
+        <v>1.95</v>
+      </c>
+      <c r="AI71">
+        <v>1.73</v>
+      </c>
+      <c r="AJ71">
+        <v>2</v>
+      </c>
+      <c r="AK71">
+        <v>1.2</v>
+      </c>
+      <c r="AL71">
+        <v>1.29</v>
+      </c>
+      <c r="AM71">
+        <v>1.95</v>
+      </c>
+      <c r="AN71">
+        <v>1.17</v>
+      </c>
+      <c r="AO71">
+        <v>1.5</v>
+      </c>
+      <c r="AP71">
+        <v>1.14</v>
+      </c>
+      <c r="AQ71">
+        <v>1.43</v>
+      </c>
+      <c r="AR71">
+        <v>1.83</v>
+      </c>
+      <c r="AS71">
+        <v>1.37</v>
+      </c>
+      <c r="AT71">
+        <v>3.2</v>
+      </c>
+      <c r="AU71">
+        <v>2</v>
+      </c>
+      <c r="AV71">
+        <v>6</v>
+      </c>
+      <c r="AW71">
+        <v>6</v>
+      </c>
+      <c r="AX71">
+        <v>5</v>
+      </c>
+      <c r="AY71">
+        <v>9</v>
+      </c>
+      <c r="AZ71">
+        <v>15</v>
+      </c>
+      <c r="BA71">
+        <v>3</v>
+      </c>
+      <c r="BB71">
+        <v>5</v>
+      </c>
+      <c r="BC71">
+        <v>8</v>
+      </c>
+      <c r="BD71">
+        <v>1.49</v>
+      </c>
+      <c r="BE71">
+        <v>6.6</v>
+      </c>
+      <c r="BF71">
+        <v>3.38</v>
+      </c>
+      <c r="BG71">
+        <v>1.3</v>
+      </c>
+      <c r="BH71">
+        <v>2.88</v>
+      </c>
+      <c r="BI71">
+        <v>1.65</v>
+      </c>
+      <c r="BJ71">
+        <v>2.18</v>
+      </c>
+      <c r="BK71">
+        <v>2.06</v>
+      </c>
+      <c r="BL71">
+        <v>1.72</v>
+      </c>
+      <c r="BM71">
+        <v>2.61</v>
+      </c>
+      <c r="BN71">
+        <v>1.36</v>
+      </c>
+      <c r="BO71">
+        <v>3.65</v>
+      </c>
+      <c r="BP71">
+        <v>1.18</v>
       </c>
     </row>
   </sheetData>
